--- a/Excel/镇魂街/chapter.章节.xlsx
+++ b/Excel/镇魂街/chapter.章节.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7298CE5-0EA8-41DD-A283-72019521F33A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547D7AB-2A6D-48B6-93F7-DE7AFF0BF8B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="章节表" sheetId="26" r:id="rId2"/>
     <sheet name="章节宝箱表" sheetId="28" r:id="rId3"/>
     <sheet name="关卡表" sheetId="27" r:id="rId4"/>
+    <sheet name="挂机派遣章节" sheetId="31" r:id="rId5"/>
+    <sheet name="挂机派遣" sheetId="29" r:id="rId6"/>
+    <sheet name="挂机派遣常量" sheetId="30" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="938">
   <si>
     <t>sheet名</t>
   </si>
@@ -2000,6 +2003,954 @@
   </si>
   <si>
     <t>章节关卡表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedPlotLevel</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需关卡ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章巡逻</t>
+  </si>
+  <si>
+    <t>第二章巡逻</t>
+  </si>
+  <si>
+    <t>第三章巡逻</t>
+  </si>
+  <si>
+    <t>第四章巡逻</t>
+  </si>
+  <si>
+    <t>第五章巡逻</t>
+  </si>
+  <si>
+    <t>第六章巡逻</t>
+  </si>
+  <si>
+    <t>第七章巡逻</t>
+  </si>
+  <si>
+    <t>第八章巡逻</t>
+  </si>
+  <si>
+    <t>第九章巡逻</t>
+  </si>
+  <si>
+    <t>ChaID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>LimitMemberNum</t>
+  </si>
+  <si>
+    <t>LimitPower</t>
+  </si>
+  <si>
+    <t>PowerUp</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>DropRandom</t>
+  </si>
+  <si>
+    <t>DropUp</t>
+  </si>
+  <si>
+    <t>关卡ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻点外观类型：1-1级巡逻点，2-2级巡逻点，3-3级巡逻点</t>
+  </si>
+  <si>
+    <t>剧情关卡ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣最少成员要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力强盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力强盛掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>必得掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机掉落展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[2]</t>
+  </si>
+  <si>
+    <t>DropShow[3]</t>
+  </si>
+  <si>
+    <t>DropUpShow[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropUpShow[2]</t>
+  </si>
+  <si>
+    <t>DropUpShow[3]</t>
+  </si>
+  <si>
+    <t>战力强盛掉落展示1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力强盛掉落展示2</t>
+  </si>
+  <si>
+    <t>战力强盛掉落展示3</t>
+  </si>
+  <si>
+    <t>DropRandomShow[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:e&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关1-1</t>
+  </si>
+  <si>
+    <t>普通关1-2</t>
+  </si>
+  <si>
+    <t>普通关1-3</t>
+  </si>
+  <si>
+    <t>普通关1-4</t>
+  </si>
+  <si>
+    <t>普通关2-1</t>
+  </si>
+  <si>
+    <t>普通关2-2</t>
+  </si>
+  <si>
+    <t>普通关2-3</t>
+  </si>
+  <si>
+    <t>普通关2-4</t>
+  </si>
+  <si>
+    <t>普通关3-1</t>
+  </si>
+  <si>
+    <t>普通关3-2</t>
+  </si>
+  <si>
+    <t>普通关3-3</t>
+  </si>
+  <si>
+    <t>普通关3-4</t>
+  </si>
+  <si>
+    <t>普通关3-5</t>
+  </si>
+  <si>
+    <t>普通关3-6</t>
+  </si>
+  <si>
+    <t>普通关3-7</t>
+  </si>
+  <si>
+    <t>普通关3-8</t>
+  </si>
+  <si>
+    <t>普通关4-1</t>
+  </si>
+  <si>
+    <t>普通关4-2</t>
+  </si>
+  <si>
+    <t>普通关4-3</t>
+  </si>
+  <si>
+    <t>普通关4-4</t>
+  </si>
+  <si>
+    <t>普通关4-5</t>
+  </si>
+  <si>
+    <t>普通关4-6</t>
+  </si>
+  <si>
+    <t>普通关4-7</t>
+  </si>
+  <si>
+    <t>普通关4-8</t>
+  </si>
+  <si>
+    <t>普通关4-9</t>
+  </si>
+  <si>
+    <t>普通关4-10</t>
+  </si>
+  <si>
+    <t>普通关5-1</t>
+  </si>
+  <si>
+    <t>普通关5-2</t>
+  </si>
+  <si>
+    <t>普通关5-3</t>
+  </si>
+  <si>
+    <t>普通关5-4</t>
+  </si>
+  <si>
+    <t>普通关5-5</t>
+  </si>
+  <si>
+    <t>普通关5-6</t>
+  </si>
+  <si>
+    <t>普通关5-7</t>
+  </si>
+  <si>
+    <t>普通关5-8</t>
+  </si>
+  <si>
+    <t>普通关5-9</t>
+  </si>
+  <si>
+    <t>普通关5-10</t>
+  </si>
+  <si>
+    <t>普通关6-1</t>
+  </si>
+  <si>
+    <t>普通关6-2</t>
+  </si>
+  <si>
+    <t>普通关6-3</t>
+  </si>
+  <si>
+    <t>普通关6-4</t>
+  </si>
+  <si>
+    <t>普通关6-5</t>
+  </si>
+  <si>
+    <t>普通关6-6</t>
+  </si>
+  <si>
+    <t>普通关6-7</t>
+  </si>
+  <si>
+    <t>普通关6-8</t>
+  </si>
+  <si>
+    <t>普通关6-9</t>
+  </si>
+  <si>
+    <t>普通关6-10</t>
+  </si>
+  <si>
+    <t>普通关7-1</t>
+  </si>
+  <si>
+    <t>普通关7-2</t>
+  </si>
+  <si>
+    <t>普通关7-3</t>
+  </si>
+  <si>
+    <t>普通关7-4</t>
+  </si>
+  <si>
+    <t>普通关7-5</t>
+  </si>
+  <si>
+    <t>普通关7-6</t>
+  </si>
+  <si>
+    <t>普通关7-7</t>
+  </si>
+  <si>
+    <t>普通关7-8</t>
+  </si>
+  <si>
+    <t>普通关7-9</t>
+  </si>
+  <si>
+    <t>普通关7-10</t>
+  </si>
+  <si>
+    <t>普通关8-1</t>
+  </si>
+  <si>
+    <t>普通关8-2</t>
+  </si>
+  <si>
+    <t>普通关8-3</t>
+  </si>
+  <si>
+    <t>普通关8-4</t>
+  </si>
+  <si>
+    <t>普通关8-5</t>
+  </si>
+  <si>
+    <t>普通关8-6</t>
+  </si>
+  <si>
+    <t>普通关8-7</t>
+  </si>
+  <si>
+    <t>普通关8-8</t>
+  </si>
+  <si>
+    <t>普通关8-9</t>
+  </si>
+  <si>
+    <t>普通关8-10</t>
+  </si>
+  <si>
+    <t>普通关8-11</t>
+  </si>
+  <si>
+    <t>普通关8-12</t>
+  </si>
+  <si>
+    <t>普通关9-1</t>
+  </si>
+  <si>
+    <t>普通关9-2</t>
+  </si>
+  <si>
+    <t>普通关9-3</t>
+  </si>
+  <si>
+    <t>普通关9-4</t>
+  </si>
+  <si>
+    <t>普通关9-5</t>
+  </si>
+  <si>
+    <t>普通关9-6</t>
+  </si>
+  <si>
+    <t>普通关9-7</t>
+  </si>
+  <si>
+    <t>普通关9-8</t>
+  </si>
+  <si>
+    <t>普通关9-9</t>
+  </si>
+  <si>
+    <t>普通关9-10</t>
+  </si>
+  <si>
+    <t>普通关9-11</t>
+  </si>
+  <si>
+    <t>普通关9-12</t>
+  </si>
+  <si>
+    <t>Lvs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关1-1扫荡</t>
+  </si>
+  <si>
+    <t>普通关1-2扫荡</t>
+  </si>
+  <si>
+    <t>困难关1-1扫荡</t>
+  </si>
+  <si>
+    <t>困难关1-2扫荡</t>
+  </si>
+  <si>
+    <t>普通关2-1扫荡</t>
+  </si>
+  <si>
+    <t>普通关2-2扫荡</t>
+  </si>
+  <si>
+    <t>困难关2-1扫荡</t>
+  </si>
+  <si>
+    <t>困难关2-2扫荡</t>
+  </si>
+  <si>
+    <t>普通关3-1扫荡</t>
+  </si>
+  <si>
+    <t>普通关3-2扫荡</t>
+  </si>
+  <si>
+    <t>普通关3-3扫荡</t>
+  </si>
+  <si>
+    <t>普通关3-4扫荡</t>
+  </si>
+  <si>
+    <t>困难关3-1扫荡</t>
+  </si>
+  <si>
+    <t>困难关3-2扫荡</t>
+  </si>
+  <si>
+    <t>困难关3-3扫荡</t>
+  </si>
+  <si>
+    <t>困难关3-4扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-1扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-2扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-3扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-4扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-5扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-1扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-2扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-3扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-4扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-5扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-1扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-2扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-3扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-4扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-5扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-1扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-2扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-3扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-4扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-5扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-1扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-2扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-3扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-4扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-5扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-1扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-2扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-3扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-4扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-5扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-1扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-2扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-3扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-4扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-5扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-1扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-2扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-3扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-4扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-5扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-1扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-2扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-3扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-4扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-5扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-6扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-1扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-2扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-3扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-4扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-5扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-6扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-1扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-2扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-3扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-4扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-5扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-6扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-1扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-2扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-3扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-4扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-5扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-6扫荡</t>
+  </si>
+  <si>
+    <t>普通关1-1高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关1-2高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关1-1高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关1-2高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关2-1高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关2-2高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关2-1高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关2-2高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关3-1高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关3-2高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关3-3高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关3-4高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关3-1高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关3-2高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关3-3高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关3-4高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-1高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-2高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-3高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-4高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关4-5高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-1高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-2高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-3高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-4高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关4-5高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-1高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-2高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-3高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-4高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关5-5高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-1高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-2高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-3高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-4高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关5-5高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-1高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-2高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-3高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-4高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关6-5高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-1高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-2高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-3高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-4高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关6-5高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-1高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-2高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-3高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-4高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关7-5高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-1高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-2高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-3高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-4高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关7-5高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-1高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-2高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-3高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-4高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-5高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关8-6高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-1高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-2高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-3高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-4高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-5高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关8-6高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-1高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-2高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-3高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-4高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-5高战扫荡</t>
+  </si>
+  <si>
+    <t>普通关9-6高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-1高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-2高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-3高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-4高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-5高战扫荡</t>
+  </si>
+  <si>
+    <t>困难关9-6高战扫荡</t>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵材料初级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵材料高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人材料高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土高级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2201,7 +3152,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -2220,6 +3171,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2516,7 +3470,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2623,7 +3577,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>635</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -5025,7 +5981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBE8528-E09F-4C13-8EB4-F2C279395F6D}">
   <dimension ref="A1:T243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -19586,4 +20542,4293 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76521B05-4ED9-477E-BABA-A9F8CB510C86}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10901</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C022EBA-E492-4D98-804F-4D90BC94AFF6}">
+  <dimension ref="A1:T83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J37" workbookViewId="0">
+      <selection activeCell="T65" sqref="T65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="22.125" customWidth="1"/>
+    <col min="18" max="18" width="16.875" customWidth="1"/>
+    <col min="19" max="19" width="17.375" customWidth="1"/>
+    <col min="20" max="20" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>679</v>
+      </c>
+      <c r="L2" t="s">
+        <v>680</v>
+      </c>
+      <c r="M2" t="s">
+        <v>679</v>
+      </c>
+      <c r="N2" t="s">
+        <v>678</v>
+      </c>
+      <c r="O2" t="s">
+        <v>678</v>
+      </c>
+      <c r="P2" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>678</v>
+      </c>
+      <c r="R2" t="s">
+        <v>678</v>
+      </c>
+      <c r="S2" t="s">
+        <v>678</v>
+      </c>
+      <c r="T2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1010101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1010103</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4" t="s">
+        <v>762</v>
+      </c>
+      <c r="M4" t="s">
+        <v>842</v>
+      </c>
+      <c r="N4" t="s">
+        <v>922</v>
+      </c>
+      <c r="O4" t="s">
+        <v>923</v>
+      </c>
+      <c r="R4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1010102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>682</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1010106</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="K5" t="s">
+        <v>763</v>
+      </c>
+      <c r="M5" t="s">
+        <v>843</v>
+      </c>
+      <c r="N5" t="s">
+        <v>922</v>
+      </c>
+      <c r="O5" t="s">
+        <v>924</v>
+      </c>
+      <c r="R5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1010103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>683</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1020103</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+      <c r="K6" t="s">
+        <v>764</v>
+      </c>
+      <c r="M6" t="s">
+        <v>844</v>
+      </c>
+      <c r="N6" t="s">
+        <v>922</v>
+      </c>
+      <c r="O6" t="s">
+        <v>923</v>
+      </c>
+      <c r="R6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1010104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>684</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1020106</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>765</v>
+      </c>
+      <c r="M7" t="s">
+        <v>845</v>
+      </c>
+      <c r="N7" t="s">
+        <v>922</v>
+      </c>
+      <c r="O7" t="s">
+        <v>924</v>
+      </c>
+      <c r="R7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>761</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1010201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>685</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1010203</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>300</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="K8" t="s">
+        <v>766</v>
+      </c>
+      <c r="M8" t="s">
+        <v>846</v>
+      </c>
+      <c r="N8" t="s">
+        <v>922</v>
+      </c>
+      <c r="O8" t="s">
+        <v>923</v>
+      </c>
+      <c r="R8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1010202</v>
+      </c>
+      <c r="E9" t="s">
+        <v>686</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1010206</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="K9" t="s">
+        <v>767</v>
+      </c>
+      <c r="M9" t="s">
+        <v>847</v>
+      </c>
+      <c r="N9" t="s">
+        <v>922</v>
+      </c>
+      <c r="O9" t="s">
+        <v>924</v>
+      </c>
+      <c r="R9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1010203</v>
+      </c>
+      <c r="E10" t="s">
+        <v>687</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1020203</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+      <c r="J10">
+        <v>500</v>
+      </c>
+      <c r="K10" t="s">
+        <v>768</v>
+      </c>
+      <c r="M10" t="s">
+        <v>848</v>
+      </c>
+      <c r="N10" t="s">
+        <v>922</v>
+      </c>
+      <c r="O10" t="s">
+        <v>923</v>
+      </c>
+      <c r="R10" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1010204</v>
+      </c>
+      <c r="E11" t="s">
+        <v>688</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1020206</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>300</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11" t="s">
+        <v>769</v>
+      </c>
+      <c r="M11" t="s">
+        <v>849</v>
+      </c>
+      <c r="N11" t="s">
+        <v>922</v>
+      </c>
+      <c r="O11" t="s">
+        <v>924</v>
+      </c>
+      <c r="R11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1010301</v>
+      </c>
+      <c r="E12" t="s">
+        <v>689</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1020303</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>300</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12" t="s">
+        <v>770</v>
+      </c>
+      <c r="M12" t="s">
+        <v>850</v>
+      </c>
+      <c r="N12" t="s">
+        <v>922</v>
+      </c>
+      <c r="O12" t="s">
+        <v>923</v>
+      </c>
+      <c r="R12" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1010302</v>
+      </c>
+      <c r="E13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1020306</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="K13" t="s">
+        <v>771</v>
+      </c>
+      <c r="M13" t="s">
+        <v>851</v>
+      </c>
+      <c r="N13" t="s">
+        <v>922</v>
+      </c>
+      <c r="O13" t="s">
+        <v>924</v>
+      </c>
+      <c r="R13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1010303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>691</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1020309</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>300</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
+      </c>
+      <c r="K14" t="s">
+        <v>772</v>
+      </c>
+      <c r="M14" t="s">
+        <v>852</v>
+      </c>
+      <c r="N14" t="s">
+        <v>922</v>
+      </c>
+      <c r="O14" t="s">
+        <v>923</v>
+      </c>
+      <c r="R14" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1010304</v>
+      </c>
+      <c r="E15" t="s">
+        <v>692</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1020312</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>300</v>
+      </c>
+      <c r="J15">
+        <v>500</v>
+      </c>
+      <c r="K15" t="s">
+        <v>773</v>
+      </c>
+      <c r="M15" t="s">
+        <v>853</v>
+      </c>
+      <c r="N15" t="s">
+        <v>922</v>
+      </c>
+      <c r="O15" t="s">
+        <v>924</v>
+      </c>
+      <c r="R15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>761</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1010305</v>
+      </c>
+      <c r="E16" t="s">
+        <v>693</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1020303</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+      <c r="K16" t="s">
+        <v>774</v>
+      </c>
+      <c r="M16" t="s">
+        <v>854</v>
+      </c>
+      <c r="N16" t="s">
+        <v>922</v>
+      </c>
+      <c r="O16" t="s">
+        <v>923</v>
+      </c>
+      <c r="R16" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1010306</v>
+      </c>
+      <c r="E17" t="s">
+        <v>694</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1020306</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17">
+        <v>500</v>
+      </c>
+      <c r="K17" t="s">
+        <v>775</v>
+      </c>
+      <c r="M17" t="s">
+        <v>855</v>
+      </c>
+      <c r="N17" t="s">
+        <v>922</v>
+      </c>
+      <c r="O17" t="s">
+        <v>924</v>
+      </c>
+      <c r="R17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1010307</v>
+      </c>
+      <c r="E18" t="s">
+        <v>695</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1020309</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
+      </c>
+      <c r="J18">
+        <v>500</v>
+      </c>
+      <c r="K18" t="s">
+        <v>776</v>
+      </c>
+      <c r="M18" t="s">
+        <v>856</v>
+      </c>
+      <c r="N18" t="s">
+        <v>922</v>
+      </c>
+      <c r="O18" t="s">
+        <v>923</v>
+      </c>
+      <c r="R18" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>761</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>1010308</v>
+      </c>
+      <c r="E19" t="s">
+        <v>696</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1020312</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>300</v>
+      </c>
+      <c r="J19">
+        <v>500</v>
+      </c>
+      <c r="K19" t="s">
+        <v>777</v>
+      </c>
+      <c r="M19" t="s">
+        <v>857</v>
+      </c>
+      <c r="N19" t="s">
+        <v>922</v>
+      </c>
+      <c r="O19" t="s">
+        <v>924</v>
+      </c>
+      <c r="R19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>761</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1010401</v>
+      </c>
+      <c r="E20" t="s">
+        <v>697</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1010403</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>300</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="K20" t="s">
+        <v>778</v>
+      </c>
+      <c r="M20" t="s">
+        <v>858</v>
+      </c>
+      <c r="N20" t="s">
+        <v>922</v>
+      </c>
+      <c r="O20" t="s">
+        <v>923</v>
+      </c>
+      <c r="R20" t="s">
+        <v>116</v>
+      </c>
+      <c r="S20" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>761</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1010402</v>
+      </c>
+      <c r="E21" t="s">
+        <v>698</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1010406</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>300</v>
+      </c>
+      <c r="J21">
+        <v>500</v>
+      </c>
+      <c r="K21" t="s">
+        <v>779</v>
+      </c>
+      <c r="M21" t="s">
+        <v>859</v>
+      </c>
+      <c r="N21" t="s">
+        <v>922</v>
+      </c>
+      <c r="O21" t="s">
+        <v>924</v>
+      </c>
+      <c r="R21" t="s">
+        <v>117</v>
+      </c>
+      <c r="S21" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>761</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1010403</v>
+      </c>
+      <c r="E22" t="s">
+        <v>699</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1010409</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>300</v>
+      </c>
+      <c r="J22">
+        <v>500</v>
+      </c>
+      <c r="K22" t="s">
+        <v>780</v>
+      </c>
+      <c r="M22" t="s">
+        <v>860</v>
+      </c>
+      <c r="N22" t="s">
+        <v>922</v>
+      </c>
+      <c r="O22" t="s">
+        <v>923</v>
+      </c>
+      <c r="R22" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>761</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1010404</v>
+      </c>
+      <c r="E23" t="s">
+        <v>700</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1010412</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>300</v>
+      </c>
+      <c r="J23">
+        <v>500</v>
+      </c>
+      <c r="K23" t="s">
+        <v>781</v>
+      </c>
+      <c r="M23" t="s">
+        <v>861</v>
+      </c>
+      <c r="N23" t="s">
+        <v>922</v>
+      </c>
+      <c r="O23" t="s">
+        <v>924</v>
+      </c>
+      <c r="R23" t="s">
+        <v>117</v>
+      </c>
+      <c r="S23" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>761</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1010405</v>
+      </c>
+      <c r="E24" t="s">
+        <v>701</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1010415</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="K24" t="s">
+        <v>782</v>
+      </c>
+      <c r="M24" t="s">
+        <v>862</v>
+      </c>
+      <c r="N24" t="s">
+        <v>922</v>
+      </c>
+      <c r="O24" t="s">
+        <v>923</v>
+      </c>
+      <c r="R24" t="s">
+        <v>116</v>
+      </c>
+      <c r="S24" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>761</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1010406</v>
+      </c>
+      <c r="E25" t="s">
+        <v>702</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1020403</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>300</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="K25" t="s">
+        <v>783</v>
+      </c>
+      <c r="M25" t="s">
+        <v>863</v>
+      </c>
+      <c r="N25" t="s">
+        <v>922</v>
+      </c>
+      <c r="O25" t="s">
+        <v>924</v>
+      </c>
+      <c r="R25" t="s">
+        <v>117</v>
+      </c>
+      <c r="S25" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>761</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1010407</v>
+      </c>
+      <c r="E26" t="s">
+        <v>703</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1020406</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>300</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+      <c r="K26" t="s">
+        <v>784</v>
+      </c>
+      <c r="M26" t="s">
+        <v>864</v>
+      </c>
+      <c r="N26" t="s">
+        <v>922</v>
+      </c>
+      <c r="O26" t="s">
+        <v>923</v>
+      </c>
+      <c r="R26" t="s">
+        <v>116</v>
+      </c>
+      <c r="S26" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>761</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>1010408</v>
+      </c>
+      <c r="E27" t="s">
+        <v>704</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1020409</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>300</v>
+      </c>
+      <c r="J27">
+        <v>500</v>
+      </c>
+      <c r="K27" t="s">
+        <v>785</v>
+      </c>
+      <c r="M27" t="s">
+        <v>865</v>
+      </c>
+      <c r="N27" t="s">
+        <v>922</v>
+      </c>
+      <c r="O27" t="s">
+        <v>924</v>
+      </c>
+      <c r="R27" t="s">
+        <v>117</v>
+      </c>
+      <c r="S27" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>761</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>1010409</v>
+      </c>
+      <c r="E28" t="s">
+        <v>705</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1020412</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>300</v>
+      </c>
+      <c r="J28">
+        <v>500</v>
+      </c>
+      <c r="K28" t="s">
+        <v>786</v>
+      </c>
+      <c r="M28" t="s">
+        <v>866</v>
+      </c>
+      <c r="N28" t="s">
+        <v>922</v>
+      </c>
+      <c r="O28" t="s">
+        <v>923</v>
+      </c>
+      <c r="R28" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>761</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>1010410</v>
+      </c>
+      <c r="E29" t="s">
+        <v>706</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1020415</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>300</v>
+      </c>
+      <c r="J29">
+        <v>500</v>
+      </c>
+      <c r="K29" t="s">
+        <v>787</v>
+      </c>
+      <c r="M29" t="s">
+        <v>867</v>
+      </c>
+      <c r="N29" t="s">
+        <v>922</v>
+      </c>
+      <c r="O29" t="s">
+        <v>924</v>
+      </c>
+      <c r="R29" t="s">
+        <v>117</v>
+      </c>
+      <c r="S29" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>761</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1010501</v>
+      </c>
+      <c r="E30" t="s">
+        <v>707</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1010503</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>300</v>
+      </c>
+      <c r="J30">
+        <v>500</v>
+      </c>
+      <c r="K30" t="s">
+        <v>788</v>
+      </c>
+      <c r="M30" t="s">
+        <v>868</v>
+      </c>
+      <c r="N30" t="s">
+        <v>922</v>
+      </c>
+      <c r="O30" t="s">
+        <v>923</v>
+      </c>
+      <c r="R30" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>761</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1010502</v>
+      </c>
+      <c r="E31" t="s">
+        <v>708</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1010506</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>300</v>
+      </c>
+      <c r="J31">
+        <v>500</v>
+      </c>
+      <c r="K31" t="s">
+        <v>789</v>
+      </c>
+      <c r="M31" t="s">
+        <v>869</v>
+      </c>
+      <c r="N31" t="s">
+        <v>922</v>
+      </c>
+      <c r="O31" t="s">
+        <v>924</v>
+      </c>
+      <c r="R31" t="s">
+        <v>117</v>
+      </c>
+      <c r="S31" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>761</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1010503</v>
+      </c>
+      <c r="E32" t="s">
+        <v>709</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1010509</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>300</v>
+      </c>
+      <c r="J32">
+        <v>500</v>
+      </c>
+      <c r="K32" t="s">
+        <v>790</v>
+      </c>
+      <c r="M32" t="s">
+        <v>870</v>
+      </c>
+      <c r="N32" t="s">
+        <v>922</v>
+      </c>
+      <c r="O32" t="s">
+        <v>923</v>
+      </c>
+      <c r="R32" t="s">
+        <v>116</v>
+      </c>
+      <c r="S32" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>761</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1010504</v>
+      </c>
+      <c r="E33" t="s">
+        <v>710</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1010512</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>300</v>
+      </c>
+      <c r="J33">
+        <v>500</v>
+      </c>
+      <c r="K33" t="s">
+        <v>791</v>
+      </c>
+      <c r="M33" t="s">
+        <v>871</v>
+      </c>
+      <c r="N33" t="s">
+        <v>922</v>
+      </c>
+      <c r="O33" t="s">
+        <v>924</v>
+      </c>
+      <c r="R33" t="s">
+        <v>117</v>
+      </c>
+      <c r="S33" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>761</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1010505</v>
+      </c>
+      <c r="E34" t="s">
+        <v>711</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1010515</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>300</v>
+      </c>
+      <c r="J34">
+        <v>500</v>
+      </c>
+      <c r="K34" t="s">
+        <v>792</v>
+      </c>
+      <c r="M34" t="s">
+        <v>872</v>
+      </c>
+      <c r="N34" t="s">
+        <v>922</v>
+      </c>
+      <c r="O34" t="s">
+        <v>923</v>
+      </c>
+      <c r="R34" t="s">
+        <v>116</v>
+      </c>
+      <c r="S34" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>761</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>1010506</v>
+      </c>
+      <c r="E35" t="s">
+        <v>712</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1020503</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>300</v>
+      </c>
+      <c r="J35">
+        <v>500</v>
+      </c>
+      <c r="K35" t="s">
+        <v>793</v>
+      </c>
+      <c r="M35" t="s">
+        <v>873</v>
+      </c>
+      <c r="N35" t="s">
+        <v>922</v>
+      </c>
+      <c r="O35" t="s">
+        <v>924</v>
+      </c>
+      <c r="R35" t="s">
+        <v>117</v>
+      </c>
+      <c r="S35" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>1010507</v>
+      </c>
+      <c r="E36" t="s">
+        <v>713</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1020506</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>300</v>
+      </c>
+      <c r="J36">
+        <v>500</v>
+      </c>
+      <c r="K36" t="s">
+        <v>794</v>
+      </c>
+      <c r="M36" t="s">
+        <v>874</v>
+      </c>
+      <c r="N36" t="s">
+        <v>922</v>
+      </c>
+      <c r="O36" t="s">
+        <v>923</v>
+      </c>
+      <c r="R36" t="s">
+        <v>116</v>
+      </c>
+      <c r="S36" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>761</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1010508</v>
+      </c>
+      <c r="E37" t="s">
+        <v>714</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1020509</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>300</v>
+      </c>
+      <c r="J37">
+        <v>500</v>
+      </c>
+      <c r="K37" t="s">
+        <v>795</v>
+      </c>
+      <c r="M37" t="s">
+        <v>875</v>
+      </c>
+      <c r="N37" t="s">
+        <v>922</v>
+      </c>
+      <c r="O37" t="s">
+        <v>924</v>
+      </c>
+      <c r="R37" t="s">
+        <v>117</v>
+      </c>
+      <c r="S37" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>761</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>1010509</v>
+      </c>
+      <c r="E38" t="s">
+        <v>715</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1020512</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>300</v>
+      </c>
+      <c r="J38">
+        <v>500</v>
+      </c>
+      <c r="K38" t="s">
+        <v>796</v>
+      </c>
+      <c r="M38" t="s">
+        <v>876</v>
+      </c>
+      <c r="N38" t="s">
+        <v>922</v>
+      </c>
+      <c r="O38" t="s">
+        <v>923</v>
+      </c>
+      <c r="R38" t="s">
+        <v>116</v>
+      </c>
+      <c r="S38" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>761</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>1010510</v>
+      </c>
+      <c r="E39" t="s">
+        <v>716</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1020515</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>300</v>
+      </c>
+      <c r="J39">
+        <v>500</v>
+      </c>
+      <c r="K39" t="s">
+        <v>797</v>
+      </c>
+      <c r="M39" t="s">
+        <v>877</v>
+      </c>
+      <c r="N39" t="s">
+        <v>922</v>
+      </c>
+      <c r="O39" t="s">
+        <v>924</v>
+      </c>
+      <c r="R39" t="s">
+        <v>117</v>
+      </c>
+      <c r="S39" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>761</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1010601</v>
+      </c>
+      <c r="E40" t="s">
+        <v>717</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1010603</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>300</v>
+      </c>
+      <c r="J40">
+        <v>500</v>
+      </c>
+      <c r="K40" t="s">
+        <v>798</v>
+      </c>
+      <c r="M40" t="s">
+        <v>878</v>
+      </c>
+      <c r="N40" t="s">
+        <v>922</v>
+      </c>
+      <c r="O40" t="s">
+        <v>923</v>
+      </c>
+      <c r="R40" t="s">
+        <v>116</v>
+      </c>
+      <c r="S40" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>761</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1010602</v>
+      </c>
+      <c r="E41" t="s">
+        <v>718</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1010606</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>300</v>
+      </c>
+      <c r="J41">
+        <v>500</v>
+      </c>
+      <c r="K41" t="s">
+        <v>799</v>
+      </c>
+      <c r="M41" t="s">
+        <v>879</v>
+      </c>
+      <c r="N41" t="s">
+        <v>922</v>
+      </c>
+      <c r="O41" t="s">
+        <v>924</v>
+      </c>
+      <c r="R41" t="s">
+        <v>117</v>
+      </c>
+      <c r="S41" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>761</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1010603</v>
+      </c>
+      <c r="E42" t="s">
+        <v>719</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1010609</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>300</v>
+      </c>
+      <c r="J42">
+        <v>500</v>
+      </c>
+      <c r="K42" t="s">
+        <v>800</v>
+      </c>
+      <c r="M42" t="s">
+        <v>880</v>
+      </c>
+      <c r="N42" t="s">
+        <v>922</v>
+      </c>
+      <c r="O42" t="s">
+        <v>923</v>
+      </c>
+      <c r="R42" t="s">
+        <v>116</v>
+      </c>
+      <c r="S42" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>761</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>1010604</v>
+      </c>
+      <c r="E43" t="s">
+        <v>720</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1010612</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>300</v>
+      </c>
+      <c r="J43">
+        <v>500</v>
+      </c>
+      <c r="K43" t="s">
+        <v>801</v>
+      </c>
+      <c r="M43" t="s">
+        <v>881</v>
+      </c>
+      <c r="N43" t="s">
+        <v>922</v>
+      </c>
+      <c r="O43" t="s">
+        <v>924</v>
+      </c>
+      <c r="R43" t="s">
+        <v>117</v>
+      </c>
+      <c r="S43" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>761</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>1010605</v>
+      </c>
+      <c r="E44" t="s">
+        <v>721</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1010615</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>300</v>
+      </c>
+      <c r="J44">
+        <v>500</v>
+      </c>
+      <c r="K44" t="s">
+        <v>802</v>
+      </c>
+      <c r="M44" t="s">
+        <v>882</v>
+      </c>
+      <c r="N44" t="s">
+        <v>922</v>
+      </c>
+      <c r="O44" t="s">
+        <v>923</v>
+      </c>
+      <c r="R44" t="s">
+        <v>116</v>
+      </c>
+      <c r="S44" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>761</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>1010606</v>
+      </c>
+      <c r="E45" t="s">
+        <v>722</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1020603</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>300</v>
+      </c>
+      <c r="J45">
+        <v>500</v>
+      </c>
+      <c r="K45" t="s">
+        <v>803</v>
+      </c>
+      <c r="M45" t="s">
+        <v>883</v>
+      </c>
+      <c r="N45" t="s">
+        <v>922</v>
+      </c>
+      <c r="O45" t="s">
+        <v>924</v>
+      </c>
+      <c r="R45" t="s">
+        <v>117</v>
+      </c>
+      <c r="S45" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>761</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>1010607</v>
+      </c>
+      <c r="E46" t="s">
+        <v>723</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1020606</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>300</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+      <c r="K46" t="s">
+        <v>804</v>
+      </c>
+      <c r="M46" t="s">
+        <v>884</v>
+      </c>
+      <c r="N46" t="s">
+        <v>922</v>
+      </c>
+      <c r="O46" t="s">
+        <v>923</v>
+      </c>
+      <c r="R46" t="s">
+        <v>116</v>
+      </c>
+      <c r="S46" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>761</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>1010608</v>
+      </c>
+      <c r="E47" t="s">
+        <v>724</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1020609</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>300</v>
+      </c>
+      <c r="J47">
+        <v>500</v>
+      </c>
+      <c r="K47" t="s">
+        <v>805</v>
+      </c>
+      <c r="M47" t="s">
+        <v>885</v>
+      </c>
+      <c r="N47" t="s">
+        <v>922</v>
+      </c>
+      <c r="O47" t="s">
+        <v>924</v>
+      </c>
+      <c r="R47" t="s">
+        <v>117</v>
+      </c>
+      <c r="S47" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>761</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>1010609</v>
+      </c>
+      <c r="E48" t="s">
+        <v>725</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1020612</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>300</v>
+      </c>
+      <c r="J48">
+        <v>500</v>
+      </c>
+      <c r="K48" t="s">
+        <v>806</v>
+      </c>
+      <c r="M48" t="s">
+        <v>886</v>
+      </c>
+      <c r="N48" t="s">
+        <v>922</v>
+      </c>
+      <c r="O48" t="s">
+        <v>923</v>
+      </c>
+      <c r="R48" t="s">
+        <v>116</v>
+      </c>
+      <c r="S48" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>761</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>1010610</v>
+      </c>
+      <c r="E49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1020615</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>300</v>
+      </c>
+      <c r="J49">
+        <v>500</v>
+      </c>
+      <c r="K49" t="s">
+        <v>807</v>
+      </c>
+      <c r="M49" t="s">
+        <v>887</v>
+      </c>
+      <c r="N49" t="s">
+        <v>922</v>
+      </c>
+      <c r="O49" t="s">
+        <v>924</v>
+      </c>
+      <c r="R49" t="s">
+        <v>117</v>
+      </c>
+      <c r="S49" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>761</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1010701</v>
+      </c>
+      <c r="E50" t="s">
+        <v>727</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1010703</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>300</v>
+      </c>
+      <c r="J50">
+        <v>500</v>
+      </c>
+      <c r="K50" t="s">
+        <v>808</v>
+      </c>
+      <c r="M50" t="s">
+        <v>888</v>
+      </c>
+      <c r="N50" t="s">
+        <v>922</v>
+      </c>
+      <c r="O50" t="s">
+        <v>923</v>
+      </c>
+      <c r="R50" t="s">
+        <v>926</v>
+      </c>
+      <c r="S50" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>761</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1010702</v>
+      </c>
+      <c r="E51" t="s">
+        <v>728</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1010706</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>300</v>
+      </c>
+      <c r="J51">
+        <v>500</v>
+      </c>
+      <c r="K51" t="s">
+        <v>809</v>
+      </c>
+      <c r="M51" t="s">
+        <v>889</v>
+      </c>
+      <c r="N51" t="s">
+        <v>922</v>
+      </c>
+      <c r="O51" t="s">
+        <v>924</v>
+      </c>
+      <c r="R51" t="s">
+        <v>927</v>
+      </c>
+      <c r="S51" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>761</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1010703</v>
+      </c>
+      <c r="E52" t="s">
+        <v>729</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1010709</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>300</v>
+      </c>
+      <c r="J52">
+        <v>500</v>
+      </c>
+      <c r="K52" t="s">
+        <v>810</v>
+      </c>
+      <c r="M52" t="s">
+        <v>890</v>
+      </c>
+      <c r="N52" t="s">
+        <v>922</v>
+      </c>
+      <c r="O52" t="s">
+        <v>923</v>
+      </c>
+      <c r="R52" t="s">
+        <v>926</v>
+      </c>
+      <c r="S52" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>761</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>1010704</v>
+      </c>
+      <c r="E53" t="s">
+        <v>730</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1010712</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>300</v>
+      </c>
+      <c r="J53">
+        <v>500</v>
+      </c>
+      <c r="K53" t="s">
+        <v>811</v>
+      </c>
+      <c r="M53" t="s">
+        <v>891</v>
+      </c>
+      <c r="N53" t="s">
+        <v>922</v>
+      </c>
+      <c r="O53" t="s">
+        <v>924</v>
+      </c>
+      <c r="R53" t="s">
+        <v>927</v>
+      </c>
+      <c r="S53" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>761</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>1010705</v>
+      </c>
+      <c r="E54" t="s">
+        <v>731</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1010715</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>300</v>
+      </c>
+      <c r="J54">
+        <v>500</v>
+      </c>
+      <c r="K54" t="s">
+        <v>812</v>
+      </c>
+      <c r="M54" t="s">
+        <v>892</v>
+      </c>
+      <c r="N54" t="s">
+        <v>922</v>
+      </c>
+      <c r="O54" t="s">
+        <v>923</v>
+      </c>
+      <c r="R54" t="s">
+        <v>926</v>
+      </c>
+      <c r="S54" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>761</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>1010706</v>
+      </c>
+      <c r="E55" t="s">
+        <v>732</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1020703</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>300</v>
+      </c>
+      <c r="J55">
+        <v>500</v>
+      </c>
+      <c r="K55" t="s">
+        <v>813</v>
+      </c>
+      <c r="M55" t="s">
+        <v>893</v>
+      </c>
+      <c r="N55" t="s">
+        <v>922</v>
+      </c>
+      <c r="O55" t="s">
+        <v>924</v>
+      </c>
+      <c r="R55" t="s">
+        <v>927</v>
+      </c>
+      <c r="S55" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>761</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>1010707</v>
+      </c>
+      <c r="E56" t="s">
+        <v>733</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1020706</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>300</v>
+      </c>
+      <c r="J56">
+        <v>500</v>
+      </c>
+      <c r="K56" t="s">
+        <v>814</v>
+      </c>
+      <c r="M56" t="s">
+        <v>894</v>
+      </c>
+      <c r="N56" t="s">
+        <v>922</v>
+      </c>
+      <c r="O56" t="s">
+        <v>923</v>
+      </c>
+      <c r="R56" t="s">
+        <v>926</v>
+      </c>
+      <c r="S56" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>761</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>1010708</v>
+      </c>
+      <c r="E57" t="s">
+        <v>734</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1020709</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>300</v>
+      </c>
+      <c r="J57">
+        <v>500</v>
+      </c>
+      <c r="K57" t="s">
+        <v>815</v>
+      </c>
+      <c r="M57" t="s">
+        <v>895</v>
+      </c>
+      <c r="N57" t="s">
+        <v>922</v>
+      </c>
+      <c r="O57" t="s">
+        <v>924</v>
+      </c>
+      <c r="R57" t="s">
+        <v>927</v>
+      </c>
+      <c r="S57" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>761</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>1010709</v>
+      </c>
+      <c r="E58" t="s">
+        <v>735</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1020712</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>300</v>
+      </c>
+      <c r="J58">
+        <v>500</v>
+      </c>
+      <c r="K58" t="s">
+        <v>816</v>
+      </c>
+      <c r="M58" t="s">
+        <v>896</v>
+      </c>
+      <c r="N58" t="s">
+        <v>922</v>
+      </c>
+      <c r="O58" t="s">
+        <v>923</v>
+      </c>
+      <c r="R58" t="s">
+        <v>926</v>
+      </c>
+      <c r="S58" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>761</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>1010710</v>
+      </c>
+      <c r="E59" t="s">
+        <v>736</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1020715</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>300</v>
+      </c>
+      <c r="J59">
+        <v>500</v>
+      </c>
+      <c r="K59" t="s">
+        <v>817</v>
+      </c>
+      <c r="M59" t="s">
+        <v>897</v>
+      </c>
+      <c r="N59" t="s">
+        <v>922</v>
+      </c>
+      <c r="O59" t="s">
+        <v>924</v>
+      </c>
+      <c r="R59" t="s">
+        <v>927</v>
+      </c>
+      <c r="S59" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>761</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1010801</v>
+      </c>
+      <c r="E60" t="s">
+        <v>737</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1010801</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>300</v>
+      </c>
+      <c r="J60">
+        <v>500</v>
+      </c>
+      <c r="K60" t="s">
+        <v>818</v>
+      </c>
+      <c r="M60" t="s">
+        <v>898</v>
+      </c>
+      <c r="N60" t="s">
+        <v>922</v>
+      </c>
+      <c r="O60" t="s">
+        <v>923</v>
+      </c>
+      <c r="R60" t="s">
+        <v>926</v>
+      </c>
+      <c r="S60" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>761</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1010802</v>
+      </c>
+      <c r="E61" t="s">
+        <v>738</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1010803</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>300</v>
+      </c>
+      <c r="J61">
+        <v>500</v>
+      </c>
+      <c r="K61" t="s">
+        <v>819</v>
+      </c>
+      <c r="M61" t="s">
+        <v>899</v>
+      </c>
+      <c r="N61" t="s">
+        <v>922</v>
+      </c>
+      <c r="O61" t="s">
+        <v>924</v>
+      </c>
+      <c r="R61" t="s">
+        <v>927</v>
+      </c>
+      <c r="S61" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>761</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>1010803</v>
+      </c>
+      <c r="E62" t="s">
+        <v>739</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1010806</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>300</v>
+      </c>
+      <c r="J62">
+        <v>500</v>
+      </c>
+      <c r="K62" t="s">
+        <v>820</v>
+      </c>
+      <c r="M62" t="s">
+        <v>900</v>
+      </c>
+      <c r="N62" t="s">
+        <v>922</v>
+      </c>
+      <c r="O62" t="s">
+        <v>923</v>
+      </c>
+      <c r="R62" t="s">
+        <v>926</v>
+      </c>
+      <c r="S62" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>761</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>1010804</v>
+      </c>
+      <c r="E63" t="s">
+        <v>740</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1010809</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>300</v>
+      </c>
+      <c r="J63">
+        <v>500</v>
+      </c>
+      <c r="K63" t="s">
+        <v>821</v>
+      </c>
+      <c r="M63" t="s">
+        <v>901</v>
+      </c>
+      <c r="N63" t="s">
+        <v>922</v>
+      </c>
+      <c r="O63" t="s">
+        <v>924</v>
+      </c>
+      <c r="R63" t="s">
+        <v>927</v>
+      </c>
+      <c r="S63" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>761</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>1010805</v>
+      </c>
+      <c r="E64" t="s">
+        <v>741</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1010812</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>300</v>
+      </c>
+      <c r="J64">
+        <v>500</v>
+      </c>
+      <c r="K64" t="s">
+        <v>822</v>
+      </c>
+      <c r="M64" t="s">
+        <v>902</v>
+      </c>
+      <c r="N64" t="s">
+        <v>922</v>
+      </c>
+      <c r="O64" t="s">
+        <v>923</v>
+      </c>
+      <c r="R64" t="s">
+        <v>926</v>
+      </c>
+      <c r="S64" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>761</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>1010806</v>
+      </c>
+      <c r="E65" t="s">
+        <v>742</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1010815</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>300</v>
+      </c>
+      <c r="J65">
+        <v>500</v>
+      </c>
+      <c r="K65" t="s">
+        <v>823</v>
+      </c>
+      <c r="M65" t="s">
+        <v>903</v>
+      </c>
+      <c r="N65" t="s">
+        <v>922</v>
+      </c>
+      <c r="O65" t="s">
+        <v>924</v>
+      </c>
+      <c r="R65" t="s">
+        <v>927</v>
+      </c>
+      <c r="S65" t="s">
+        <v>933</v>
+      </c>
+      <c r="T65" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>108</v>
+      </c>
+      <c r="B66" t="s">
+        <v>761</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>1010807</v>
+      </c>
+      <c r="E66" t="s">
+        <v>743</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1020801</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>300</v>
+      </c>
+      <c r="J66">
+        <v>500</v>
+      </c>
+      <c r="K66" t="s">
+        <v>824</v>
+      </c>
+      <c r="M66" t="s">
+        <v>904</v>
+      </c>
+      <c r="N66" t="s">
+        <v>922</v>
+      </c>
+      <c r="O66" t="s">
+        <v>923</v>
+      </c>
+      <c r="R66" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
+        <v>761</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>1010808</v>
+      </c>
+      <c r="E67" t="s">
+        <v>744</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>1020803</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>300</v>
+      </c>
+      <c r="J67">
+        <v>500</v>
+      </c>
+      <c r="K67" t="s">
+        <v>825</v>
+      </c>
+      <c r="M67" t="s">
+        <v>905</v>
+      </c>
+      <c r="N67" t="s">
+        <v>922</v>
+      </c>
+      <c r="O67" t="s">
+        <v>924</v>
+      </c>
+      <c r="R67" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>108</v>
+      </c>
+      <c r="B68" t="s">
+        <v>761</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>1010809</v>
+      </c>
+      <c r="E68" t="s">
+        <v>745</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1020806</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>300</v>
+      </c>
+      <c r="J68">
+        <v>500</v>
+      </c>
+      <c r="K68" t="s">
+        <v>826</v>
+      </c>
+      <c r="M68" t="s">
+        <v>906</v>
+      </c>
+      <c r="N68" t="s">
+        <v>922</v>
+      </c>
+      <c r="O68" t="s">
+        <v>923</v>
+      </c>
+      <c r="R68" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>108</v>
+      </c>
+      <c r="B69" t="s">
+        <v>761</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>1010810</v>
+      </c>
+      <c r="E69" t="s">
+        <v>746</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>1020809</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>300</v>
+      </c>
+      <c r="J69">
+        <v>500</v>
+      </c>
+      <c r="K69" t="s">
+        <v>827</v>
+      </c>
+      <c r="M69" t="s">
+        <v>907</v>
+      </c>
+      <c r="N69" t="s">
+        <v>922</v>
+      </c>
+      <c r="O69" t="s">
+        <v>924</v>
+      </c>
+      <c r="R69" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>761</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>1010811</v>
+      </c>
+      <c r="E70" t="s">
+        <v>747</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>1020812</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>300</v>
+      </c>
+      <c r="J70">
+        <v>500</v>
+      </c>
+      <c r="K70" t="s">
+        <v>828</v>
+      </c>
+      <c r="M70" t="s">
+        <v>908</v>
+      </c>
+      <c r="N70" t="s">
+        <v>922</v>
+      </c>
+      <c r="O70" t="s">
+        <v>923</v>
+      </c>
+      <c r="R70" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>108</v>
+      </c>
+      <c r="B71" t="s">
+        <v>761</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>1010812</v>
+      </c>
+      <c r="E71" t="s">
+        <v>748</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>1020815</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>300</v>
+      </c>
+      <c r="J71">
+        <v>500</v>
+      </c>
+      <c r="K71" t="s">
+        <v>829</v>
+      </c>
+      <c r="M71" t="s">
+        <v>909</v>
+      </c>
+      <c r="N71" t="s">
+        <v>922</v>
+      </c>
+      <c r="O71" t="s">
+        <v>924</v>
+      </c>
+      <c r="R71" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>761</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1010901</v>
+      </c>
+      <c r="E72" t="s">
+        <v>749</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1010901</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>300</v>
+      </c>
+      <c r="J72">
+        <v>500</v>
+      </c>
+      <c r="K72" t="s">
+        <v>830</v>
+      </c>
+      <c r="M72" t="s">
+        <v>910</v>
+      </c>
+      <c r="N72" t="s">
+        <v>922</v>
+      </c>
+      <c r="O72" t="s">
+        <v>923</v>
+      </c>
+      <c r="R72" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>761</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1010902</v>
+      </c>
+      <c r="E73" t="s">
+        <v>750</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1010903</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>300</v>
+      </c>
+      <c r="J73">
+        <v>500</v>
+      </c>
+      <c r="K73" t="s">
+        <v>831</v>
+      </c>
+      <c r="M73" t="s">
+        <v>911</v>
+      </c>
+      <c r="N73" t="s">
+        <v>922</v>
+      </c>
+      <c r="O73" t="s">
+        <v>924</v>
+      </c>
+      <c r="R73" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>761</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>1010903</v>
+      </c>
+      <c r="E74" t="s">
+        <v>751</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1010906</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>300</v>
+      </c>
+      <c r="J74">
+        <v>500</v>
+      </c>
+      <c r="K74" t="s">
+        <v>832</v>
+      </c>
+      <c r="M74" t="s">
+        <v>912</v>
+      </c>
+      <c r="N74" t="s">
+        <v>922</v>
+      </c>
+      <c r="O74" t="s">
+        <v>923</v>
+      </c>
+      <c r="R74" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>109</v>
+      </c>
+      <c r="B75" t="s">
+        <v>761</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>1010904</v>
+      </c>
+      <c r="E75" t="s">
+        <v>752</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1010909</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>300</v>
+      </c>
+      <c r="J75">
+        <v>500</v>
+      </c>
+      <c r="K75" t="s">
+        <v>833</v>
+      </c>
+      <c r="M75" t="s">
+        <v>913</v>
+      </c>
+      <c r="N75" t="s">
+        <v>922</v>
+      </c>
+      <c r="O75" t="s">
+        <v>924</v>
+      </c>
+      <c r="R75" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>761</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>1010905</v>
+      </c>
+      <c r="E76" t="s">
+        <v>753</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1010912</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>300</v>
+      </c>
+      <c r="J76">
+        <v>500</v>
+      </c>
+      <c r="K76" t="s">
+        <v>834</v>
+      </c>
+      <c r="M76" t="s">
+        <v>914</v>
+      </c>
+      <c r="N76" t="s">
+        <v>922</v>
+      </c>
+      <c r="O76" t="s">
+        <v>923</v>
+      </c>
+      <c r="R76" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>761</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>1010906</v>
+      </c>
+      <c r="E77" t="s">
+        <v>754</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1010915</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>300</v>
+      </c>
+      <c r="J77">
+        <v>500</v>
+      </c>
+      <c r="K77" t="s">
+        <v>835</v>
+      </c>
+      <c r="M77" t="s">
+        <v>915</v>
+      </c>
+      <c r="N77" t="s">
+        <v>922</v>
+      </c>
+      <c r="O77" t="s">
+        <v>924</v>
+      </c>
+      <c r="R77" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>761</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>1010907</v>
+      </c>
+      <c r="E78" t="s">
+        <v>755</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1020901</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>300</v>
+      </c>
+      <c r="J78">
+        <v>500</v>
+      </c>
+      <c r="K78" t="s">
+        <v>836</v>
+      </c>
+      <c r="M78" t="s">
+        <v>916</v>
+      </c>
+      <c r="N78" t="s">
+        <v>922</v>
+      </c>
+      <c r="O78" t="s">
+        <v>923</v>
+      </c>
+      <c r="R78" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>761</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>1010908</v>
+      </c>
+      <c r="E79" t="s">
+        <v>756</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1020903</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>300</v>
+      </c>
+      <c r="J79">
+        <v>500</v>
+      </c>
+      <c r="K79" t="s">
+        <v>837</v>
+      </c>
+      <c r="M79" t="s">
+        <v>917</v>
+      </c>
+      <c r="N79" t="s">
+        <v>922</v>
+      </c>
+      <c r="O79" t="s">
+        <v>924</v>
+      </c>
+      <c r="R79" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>761</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>1010909</v>
+      </c>
+      <c r="E80" t="s">
+        <v>757</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1020906</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>300</v>
+      </c>
+      <c r="J80">
+        <v>500</v>
+      </c>
+      <c r="K80" t="s">
+        <v>838</v>
+      </c>
+      <c r="M80" t="s">
+        <v>918</v>
+      </c>
+      <c r="N80" t="s">
+        <v>922</v>
+      </c>
+      <c r="O80" t="s">
+        <v>923</v>
+      </c>
+      <c r="R80" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>761</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>1010910</v>
+      </c>
+      <c r="E81" t="s">
+        <v>758</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1020909</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>300</v>
+      </c>
+      <c r="J81">
+        <v>500</v>
+      </c>
+      <c r="K81" t="s">
+        <v>839</v>
+      </c>
+      <c r="M81" t="s">
+        <v>919</v>
+      </c>
+      <c r="N81" t="s">
+        <v>922</v>
+      </c>
+      <c r="O81" t="s">
+        <v>924</v>
+      </c>
+      <c r="R81" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>761</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>1010911</v>
+      </c>
+      <c r="E82" t="s">
+        <v>759</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1020912</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>300</v>
+      </c>
+      <c r="J82">
+        <v>500</v>
+      </c>
+      <c r="K82" t="s">
+        <v>840</v>
+      </c>
+      <c r="M82" t="s">
+        <v>920</v>
+      </c>
+      <c r="N82" t="s">
+        <v>922</v>
+      </c>
+      <c r="O82" t="s">
+        <v>923</v>
+      </c>
+      <c r="R82" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>761</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>1010912</v>
+      </c>
+      <c r="E83" t="s">
+        <v>760</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1020915</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>300</v>
+      </c>
+      <c r="J83">
+        <v>500</v>
+      </c>
+      <c r="K83" t="s">
+        <v>841</v>
+      </c>
+      <c r="M83" t="s">
+        <v>921</v>
+      </c>
+      <c r="N83" t="s">
+        <v>922</v>
+      </c>
+      <c r="O83" t="s">
+        <v>924</v>
+      </c>
+      <c r="R83" t="s">
+        <v>927</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ACEE27-904D-4646-B89B-7D8EF2E89656}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/chapter.章节.xlsx
+++ b/Excel/镇魂街/chapter.章节.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547D7AB-2A6D-48B6-93F7-DE7AFF0BF8B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="挂机派遣" sheetId="29" r:id="rId6"/>
     <sheet name="挂机派遣常量" sheetId="30" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="979">
   <si>
     <t>sheet名</t>
   </si>
@@ -2048,10 +2047,6 @@
     <t>第九章巡逻</t>
   </si>
   <si>
-    <t>ChaID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2951,13 +2946,156 @@
   </si>
   <si>
     <t>土高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropUpShow[4]</t>
+  </si>
+  <si>
+    <t>战力强盛掉落展示4</t>
+  </si>
+  <si>
+    <t>DropUpShow[5]</t>
+  </si>
+  <si>
+    <t>战力强盛掉落展示5</t>
+  </si>
+  <si>
+    <t>DropUpShow[6]</t>
+  </si>
+  <si>
+    <t>战力强盛掉落展示6</t>
+  </si>
+  <si>
+    <t>DropUpShow[7]</t>
+  </si>
+  <si>
+    <t>战力强盛掉落展示7</t>
+  </si>
+  <si>
+    <t>兽武灵材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武神躯材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人武灵材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神武灵材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙武灵材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通寄灵人材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangUp.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣章节关卡表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Time1</t>
+  </si>
+  <si>
+    <t>Time2</t>
+  </si>
+  <si>
+    <t>Time3</t>
+  </si>
+  <si>
+    <t>QuickPassNeedItem</t>
+  </si>
+  <si>
+    <t>QuickPassNeedItemNum</t>
+  </si>
+  <si>
+    <t>QuickPassReardTime</t>
+  </si>
+  <si>
+    <t>RewardTime</t>
+  </si>
+  <si>
+    <t>唯一键</t>
+  </si>
+  <si>
+    <t>第一巡逻时长（分钟）</t>
+  </si>
+  <si>
+    <t>第二巡逻时长（分钟）</t>
+  </si>
+  <si>
+    <t>第三巡逻时长（分钟）</t>
+  </si>
+  <si>
+    <t>快速巡逻所需的派遣令道具ID</t>
+  </si>
+  <si>
+    <t>快速巡逻所需的派遣令数量</t>
+  </si>
+  <si>
+    <t>快速巡逻相当于巡逻多长时间</t>
+  </si>
+  <si>
+    <t>每获得一次必得奖励所需的巡逻时长(分钟)</t>
+  </si>
+  <si>
+    <t>每获得一次必得奖励所需的体力</t>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣常量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangUpConstant.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣章节关卡常量表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaId,HelpCol,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3177,19 +3315,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3466,11 +3604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3580,12 +3718,47 @@
       <c r="A5" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -3598,7 +3771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CEBF2B-55EB-4BC7-961B-B9FC4D482A83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3903,7 +4076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D03DCA-EFEE-4F3D-AD94-CBBEF75CA06C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5978,7 +6151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBE8528-E09F-4C13-8EB4-F2C279395F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20545,11 +20718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76521B05-4ED9-477E-BABA-A9F8CB510C86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20561,7 +20734,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>648</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -20699,11 +20872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C022EBA-E492-4D98-804F-4D90BC94AFF6}">
-  <dimension ref="A1:T83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J37" workbookViewId="0">
-      <selection activeCell="T65" sqref="T65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20724,12 +20897,12 @@
     <col min="17" max="17" width="22.125" customWidth="1"/>
     <col min="18" max="18" width="16.875" customWidth="1"/>
     <col min="19" max="19" width="17.375" customWidth="1"/>
-    <col min="20" max="20" width="16.75" customWidth="1"/>
+    <col min="20" max="24" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>648</v>
+        <v>978</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -20738,58 +20911,70 @@
         <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>636</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>656</v>
-      </c>
       <c r="N1" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -20821,37 +21006,49 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
+        <v>678</v>
+      </c>
+      <c r="L2" t="s">
         <v>679</v>
       </c>
-      <c r="L2" t="s">
-        <v>680</v>
-      </c>
       <c r="M2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="S2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="T2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+      <c r="U2" t="s">
+        <v>677</v>
+      </c>
+      <c r="V2" t="s">
+        <v>677</v>
+      </c>
+      <c r="W2" t="s">
+        <v>677</v>
+      </c>
+      <c r="X2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -20862,34 +21059,34 @@
         <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>267</v>
@@ -20901,3917 +21098,4716 @@
         <v>269</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="U3" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1010101</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1010103</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>300</v>
+      </c>
+      <c r="J4" s="3">
+        <v>500</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1010101</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1010102</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1010106</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>300</v>
+      </c>
+      <c r="J5" s="3">
+        <v>500</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>101</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
         <v>1010103</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="E6" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1020103</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>300</v>
       </c>
-      <c r="J4">
+      <c r="J6" s="3">
         <v>500</v>
       </c>
-      <c r="K4" t="s">
-        <v>762</v>
-      </c>
-      <c r="M4" t="s">
-        <v>842</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="K6" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1010104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1020106</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>300</v>
+      </c>
+      <c r="J7" s="3">
+        <v>500</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="R4" t="s">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1010201</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1010203</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>500</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>761</v>
-      </c>
-      <c r="C5">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>102</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>1010102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>682</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1010106</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="D9" s="3">
+        <v>1010202</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1010206</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="J5">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="K5" t="s">
-        <v>763</v>
-      </c>
-      <c r="M5" t="s">
-        <v>843</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="K9" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>102</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1010203</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1020203</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>500</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1010204</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1020206</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>300</v>
+      </c>
+      <c r="J11" s="3">
+        <v>500</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>103</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1010301</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1020303</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>500</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>761</v>
-      </c>
-      <c r="C6">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>103</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1010302</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1020306</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>300</v>
+      </c>
+      <c r="J13" s="3">
+        <v>500</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>103</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>1010103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>683</v>
-      </c>
-      <c r="F6">
+      <c r="D14" s="3">
+        <v>1010303</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1020309</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>500</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>103</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1010304</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1020312</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>500</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>103</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1010305</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>1020103</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="G16" s="3">
+        <v>1020303</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
         <v>300</v>
       </c>
-      <c r="J6">
+      <c r="J16" s="3">
         <v>500</v>
       </c>
-      <c r="K6" t="s">
-        <v>764</v>
-      </c>
-      <c r="M6" t="s">
-        <v>844</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="K16" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1010306</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1020306</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="R6" t="s">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>103</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1010307</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1020309</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>500</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>761</v>
-      </c>
-      <c r="C7">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>103</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1010308</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1020312</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>300</v>
+      </c>
+      <c r="J19" s="3">
+        <v>500</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>104</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1010401</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1010403</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>104</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1010402</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1010406</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>104</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1010403</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1010409</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>104</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>1010104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>684</v>
-      </c>
-      <c r="F7">
+      <c r="D23" s="3">
+        <v>1010404</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1010412</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>500</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>104</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1010405</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1010415</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>104</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1010406</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>1020106</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="G25" s="3">
+        <v>1020403</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
         <v>300</v>
       </c>
-      <c r="J7">
+      <c r="J25" s="3">
         <v>500</v>
       </c>
-      <c r="K7" t="s">
-        <v>765</v>
-      </c>
-      <c r="M7" t="s">
-        <v>845</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="K25" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>104</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1010407</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1020406</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>500</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O7" t="s">
-        <v>924</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>104</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1010408</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1020409</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>500</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>104</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1010409</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1020412</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>300</v>
+      </c>
+      <c r="J28" s="3">
+        <v>500</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>761</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1010201</v>
-      </c>
-      <c r="E8" t="s">
-        <v>685</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1010203</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>104</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1010410</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1020415</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
         <v>300</v>
       </c>
-      <c r="J8">
+      <c r="J29" s="3">
         <v>500</v>
       </c>
-      <c r="K8" t="s">
-        <v>766</v>
-      </c>
-      <c r="M8" t="s">
-        <v>846</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="K29" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1010501</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1010503</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>300</v>
+      </c>
+      <c r="J30" s="3">
+        <v>500</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1010502</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1010506</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>300</v>
+      </c>
+      <c r="J31" s="3">
+        <v>500</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="R8" t="s">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>105</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1010503</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1010509</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>500</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1010504</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1010512</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>500</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>105</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1010505</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1010515</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>300</v>
+      </c>
+      <c r="J34" s="3">
+        <v>500</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>105</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1010506</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1020503</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>500</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>105</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1010507</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1020506</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>300</v>
+      </c>
+      <c r="J36" s="3">
+        <v>500</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>105</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1010508</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1020509</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>300</v>
+      </c>
+      <c r="J37" s="3">
+        <v>500</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>105</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C38" s="3">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1010509</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1020512</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>300</v>
+      </c>
+      <c r="J38" s="3">
+        <v>500</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>105</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1010510</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1020515</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>300</v>
+      </c>
+      <c r="J39" s="3">
+        <v>500</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>106</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1010601</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1010603</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>300</v>
+      </c>
+      <c r="J40" s="3">
+        <v>500</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>106</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1010602</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1010606</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>106</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1010603</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1010609</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>500</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>106</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1010604</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1010612</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>106</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1010605</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1010615</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>106</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1010606</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1020603</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>106</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C46" s="3">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1010607</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1020606</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>106</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C47" s="3">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1010608</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1020609</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>500</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>106</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C48" s="3">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1010609</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1020612</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>500</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>106</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C49" s="3">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1010610</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1020615</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3">
+        <v>300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>500</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>107</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1010701</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1010703</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3">
+        <v>300</v>
+      </c>
+      <c r="J50" s="3">
+        <v>500</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>107</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1010702</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1010706</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3">
+        <v>300</v>
+      </c>
+      <c r="J51" s="3">
+        <v>500</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>761</v>
-      </c>
-      <c r="C9">
+      <c r="S51" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>107</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1010703</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1010709</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1010704</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1010712</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3">
+        <v>300</v>
+      </c>
+      <c r="J53" s="3">
+        <v>500</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>107</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1010705</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1010715</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>500</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>107</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C55" s="3">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1010706</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F55" s="3">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>1010202</v>
-      </c>
-      <c r="E9" t="s">
-        <v>686</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1010206</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="G55" s="3">
+        <v>1020703</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3">
         <v>300</v>
       </c>
-      <c r="J9">
+      <c r="J55" s="3">
         <v>500</v>
       </c>
-      <c r="K9" t="s">
-        <v>767</v>
-      </c>
-      <c r="M9" t="s">
-        <v>847</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="K55" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>107</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C56" s="3">
+        <v>7</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1010707</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1020706</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
+        <v>300</v>
+      </c>
+      <c r="J56" s="3">
+        <v>500</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O9" t="s">
-        <v>924</v>
-      </c>
-      <c r="R9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>761</v>
-      </c>
-      <c r="C10">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>107</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C57" s="3">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1010708</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1020709</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>107</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C58" s="3">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1010709</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1020712</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>107</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C59" s="3">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1010710</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1020715</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>108</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1010801</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1010801</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>108</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1010802</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1010803</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>108</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C62" s="3">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>1010203</v>
-      </c>
-      <c r="E10" t="s">
-        <v>687</v>
-      </c>
-      <c r="F10">
+      <c r="D62" s="3">
+        <v>1010803</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1010806</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>108</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1010804</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1010809</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="3">
+        <v>300</v>
+      </c>
+      <c r="J63" s="3">
+        <v>500</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>108</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1010805</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1010812</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3">
+        <v>300</v>
+      </c>
+      <c r="J64" s="3">
+        <v>500</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>108</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C65" s="3">
+        <v>6</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1010806</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1010815</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3">
+        <v>300</v>
+      </c>
+      <c r="J65" s="3">
+        <v>500</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>108</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C66" s="3">
+        <v>7</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1010807</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F66" s="3">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>1020203</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="G66" s="3">
+        <v>1020801</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="J10">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="K10" t="s">
-        <v>768</v>
-      </c>
-      <c r="M10" t="s">
-        <v>848</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="K66" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O66" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>108</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C67" s="3">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1010808</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1020803</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" s="3">
+        <v>300</v>
+      </c>
+      <c r="J67" s="3">
+        <v>500</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O67" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="R10" t="s">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>761</v>
-      </c>
-      <c r="C11">
+      <c r="S67" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>108</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C68" s="3">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1010809</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1020806</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3">
+        <v>300</v>
+      </c>
+      <c r="J68" s="3">
+        <v>500</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>108</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C69" s="3">
+        <v>10</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1010810</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1020809</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3">
+        <v>300</v>
+      </c>
+      <c r="J69" s="3">
+        <v>500</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>108</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C70" s="3">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1010811</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1020812</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3">
+        <v>300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>500</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>108</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C71" s="3">
+        <v>12</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1010812</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1020815</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="3">
+        <v>300</v>
+      </c>
+      <c r="J71" s="3">
+        <v>500</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="X71" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>109</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1010901</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1010901</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="3">
+        <v>300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>500</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>109</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1010902</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1010903</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="3">
+        <v>300</v>
+      </c>
+      <c r="J73" s="3">
+        <v>500</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>109</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1010903</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1010906</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="3">
+        <v>300</v>
+      </c>
+      <c r="J74" s="3">
+        <v>500</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>109</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C75" s="3">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>1010204</v>
-      </c>
-      <c r="E11" t="s">
-        <v>688</v>
-      </c>
-      <c r="F11">
+      <c r="D75" s="3">
+        <v>1010904</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1010909</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="3">
+        <v>300</v>
+      </c>
+      <c r="J75" s="3">
+        <v>500</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>109</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1010905</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1010912</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3">
+        <v>300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>500</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>109</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C77" s="3">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1010906</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1010915</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="I77" s="3">
+        <v>300</v>
+      </c>
+      <c r="J77" s="3">
+        <v>500</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="X77" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>109</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C78" s="3">
+        <v>7</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1010907</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F78" s="3">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>1020206</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="G78" s="3">
+        <v>1020901</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="3">
         <v>300</v>
       </c>
-      <c r="J11">
+      <c r="J78" s="3">
         <v>500</v>
       </c>
-      <c r="K11" t="s">
-        <v>769</v>
-      </c>
-      <c r="M11" t="s">
-        <v>849</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="K78" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O11" t="s">
-        <v>924</v>
-      </c>
-      <c r="R11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>761</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1010301</v>
-      </c>
-      <c r="E12" t="s">
-        <v>689</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1020303</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>109</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C79" s="3">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1010908</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1020903</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
+      <c r="I79" s="3">
         <v>300</v>
       </c>
-      <c r="J12">
+      <c r="J79" s="3">
         <v>500</v>
       </c>
-      <c r="K12" t="s">
-        <v>770</v>
-      </c>
-      <c r="M12" t="s">
-        <v>850</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="K79" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>109</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C80" s="3">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1010909</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1020906</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" s="3">
+        <v>300</v>
+      </c>
+      <c r="J80" s="3">
+        <v>500</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O80" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>109</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C81" s="3">
+        <v>10</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1010910</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1020909</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>500</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O81" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="R12" t="s">
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>103</v>
-      </c>
-      <c r="B13" t="s">
-        <v>761</v>
-      </c>
-      <c r="C13">
+      <c r="S81" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>109</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C82" s="3">
+        <v>11</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1010911</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F82" s="3">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>1010302</v>
-      </c>
-      <c r="E13" t="s">
-        <v>690</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1020306</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
+      <c r="G82" s="3">
+        <v>1020912</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3">
         <v>300</v>
       </c>
-      <c r="J13">
+      <c r="J82" s="3">
         <v>500</v>
       </c>
-      <c r="K13" t="s">
-        <v>771</v>
-      </c>
-      <c r="M13" t="s">
-        <v>851</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="K82" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O82" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="O13" t="s">
-        <v>924</v>
-      </c>
-      <c r="R13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>103</v>
-      </c>
-      <c r="B14" t="s">
-        <v>761</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1010303</v>
-      </c>
-      <c r="E14" t="s">
-        <v>691</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1020309</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>109</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C83" s="3">
+        <v>12</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1010912</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1020915</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="J14">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="K14" t="s">
-        <v>772</v>
-      </c>
-      <c r="M14" t="s">
-        <v>852</v>
-      </c>
-      <c r="N14" t="s">
-        <v>922</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="K83" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="O83" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="R14" t="s">
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>761</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>1010304</v>
-      </c>
-      <c r="E15" t="s">
-        <v>692</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1020312</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>300</v>
-      </c>
-      <c r="J15">
-        <v>500</v>
-      </c>
-      <c r="K15" t="s">
-        <v>773</v>
-      </c>
-      <c r="M15" t="s">
-        <v>853</v>
-      </c>
-      <c r="N15" t="s">
-        <v>922</v>
-      </c>
-      <c r="O15" t="s">
-        <v>924</v>
-      </c>
-      <c r="R15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>761</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1010305</v>
-      </c>
-      <c r="E16" t="s">
-        <v>693</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>1020303</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>300</v>
-      </c>
-      <c r="J16">
-        <v>500</v>
-      </c>
-      <c r="K16" t="s">
-        <v>774</v>
-      </c>
-      <c r="M16" t="s">
-        <v>854</v>
-      </c>
-      <c r="N16" t="s">
-        <v>922</v>
-      </c>
-      <c r="O16" t="s">
-        <v>923</v>
-      </c>
-      <c r="R16" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>103</v>
-      </c>
-      <c r="B17" t="s">
-        <v>761</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>1010306</v>
-      </c>
-      <c r="E17" t="s">
-        <v>694</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>1020306</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>300</v>
-      </c>
-      <c r="J17">
-        <v>500</v>
-      </c>
-      <c r="K17" t="s">
-        <v>775</v>
-      </c>
-      <c r="M17" t="s">
-        <v>855</v>
-      </c>
-      <c r="N17" t="s">
-        <v>922</v>
-      </c>
-      <c r="O17" t="s">
-        <v>924</v>
-      </c>
-      <c r="R17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>103</v>
-      </c>
-      <c r="B18" t="s">
-        <v>761</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>1010307</v>
-      </c>
-      <c r="E18" t="s">
-        <v>695</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>1020309</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>300</v>
-      </c>
-      <c r="J18">
-        <v>500</v>
-      </c>
-      <c r="K18" t="s">
-        <v>776</v>
-      </c>
-      <c r="M18" t="s">
-        <v>856</v>
-      </c>
-      <c r="N18" t="s">
-        <v>922</v>
-      </c>
-      <c r="O18" t="s">
-        <v>923</v>
-      </c>
-      <c r="R18" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>103</v>
-      </c>
-      <c r="B19" t="s">
-        <v>761</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>1010308</v>
-      </c>
-      <c r="E19" t="s">
-        <v>696</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1020312</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>300</v>
-      </c>
-      <c r="J19">
-        <v>500</v>
-      </c>
-      <c r="K19" t="s">
-        <v>777</v>
-      </c>
-      <c r="M19" t="s">
-        <v>857</v>
-      </c>
-      <c r="N19" t="s">
-        <v>922</v>
-      </c>
-      <c r="O19" t="s">
-        <v>924</v>
-      </c>
-      <c r="R19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>761</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1010401</v>
-      </c>
-      <c r="E20" t="s">
-        <v>697</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1010403</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>300</v>
-      </c>
-      <c r="J20">
-        <v>500</v>
-      </c>
-      <c r="K20" t="s">
-        <v>778</v>
-      </c>
-      <c r="M20" t="s">
-        <v>858</v>
-      </c>
-      <c r="N20" t="s">
-        <v>922</v>
-      </c>
-      <c r="O20" t="s">
-        <v>923</v>
-      </c>
-      <c r="R20" t="s">
-        <v>116</v>
-      </c>
-      <c r="S20" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>104</v>
-      </c>
-      <c r="B21" t="s">
-        <v>761</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1010402</v>
-      </c>
-      <c r="E21" t="s">
-        <v>698</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1010406</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>300</v>
-      </c>
-      <c r="J21">
-        <v>500</v>
-      </c>
-      <c r="K21" t="s">
-        <v>779</v>
-      </c>
-      <c r="M21" t="s">
-        <v>859</v>
-      </c>
-      <c r="N21" t="s">
-        <v>922</v>
-      </c>
-      <c r="O21" t="s">
-        <v>924</v>
-      </c>
-      <c r="R21" t="s">
-        <v>117</v>
-      </c>
-      <c r="S21" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>761</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>1010403</v>
-      </c>
-      <c r="E22" t="s">
-        <v>699</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1010409</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>300</v>
-      </c>
-      <c r="J22">
-        <v>500</v>
-      </c>
-      <c r="K22" t="s">
-        <v>780</v>
-      </c>
-      <c r="M22" t="s">
-        <v>860</v>
-      </c>
-      <c r="N22" t="s">
-        <v>922</v>
-      </c>
-      <c r="O22" t="s">
-        <v>923</v>
-      </c>
-      <c r="R22" t="s">
-        <v>116</v>
-      </c>
-      <c r="S22" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>761</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>1010404</v>
-      </c>
-      <c r="E23" t="s">
-        <v>700</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1010412</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>300</v>
-      </c>
-      <c r="J23">
-        <v>500</v>
-      </c>
-      <c r="K23" t="s">
-        <v>781</v>
-      </c>
-      <c r="M23" t="s">
-        <v>861</v>
-      </c>
-      <c r="N23" t="s">
-        <v>922</v>
-      </c>
-      <c r="O23" t="s">
-        <v>924</v>
-      </c>
-      <c r="R23" t="s">
-        <v>117</v>
-      </c>
-      <c r="S23" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>761</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>1010405</v>
-      </c>
-      <c r="E24" t="s">
-        <v>701</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1010415</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>300</v>
-      </c>
-      <c r="J24">
-        <v>500</v>
-      </c>
-      <c r="K24" t="s">
-        <v>782</v>
-      </c>
-      <c r="M24" t="s">
-        <v>862</v>
-      </c>
-      <c r="N24" t="s">
-        <v>922</v>
-      </c>
-      <c r="O24" t="s">
-        <v>923</v>
-      </c>
-      <c r="R24" t="s">
-        <v>116</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="S83" s="3" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>761</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>1010406</v>
-      </c>
-      <c r="E25" t="s">
-        <v>702</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1020403</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>300</v>
-      </c>
-      <c r="J25">
-        <v>500</v>
-      </c>
-      <c r="K25" t="s">
-        <v>783</v>
-      </c>
-      <c r="M25" t="s">
-        <v>863</v>
-      </c>
-      <c r="N25" t="s">
-        <v>922</v>
-      </c>
-      <c r="O25" t="s">
-        <v>924</v>
-      </c>
-      <c r="R25" t="s">
-        <v>117</v>
-      </c>
-      <c r="S25" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>761</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>1010407</v>
-      </c>
-      <c r="E26" t="s">
-        <v>703</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>1020406</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>300</v>
-      </c>
-      <c r="J26">
-        <v>500</v>
-      </c>
-      <c r="K26" t="s">
-        <v>784</v>
-      </c>
-      <c r="M26" t="s">
-        <v>864</v>
-      </c>
-      <c r="N26" t="s">
-        <v>922</v>
-      </c>
-      <c r="O26" t="s">
-        <v>923</v>
-      </c>
-      <c r="R26" t="s">
-        <v>116</v>
-      </c>
-      <c r="S26" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>761</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>1010408</v>
-      </c>
-      <c r="E27" t="s">
-        <v>704</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>1020409</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>300</v>
-      </c>
-      <c r="J27">
-        <v>500</v>
-      </c>
-      <c r="K27" t="s">
-        <v>785</v>
-      </c>
-      <c r="M27" t="s">
-        <v>865</v>
-      </c>
-      <c r="N27" t="s">
-        <v>922</v>
-      </c>
-      <c r="O27" t="s">
-        <v>924</v>
-      </c>
-      <c r="R27" t="s">
-        <v>117</v>
-      </c>
-      <c r="S27" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>761</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>1010409</v>
-      </c>
-      <c r="E28" t="s">
-        <v>705</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>1020412</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>300</v>
-      </c>
-      <c r="J28">
-        <v>500</v>
-      </c>
-      <c r="K28" t="s">
-        <v>786</v>
-      </c>
-      <c r="M28" t="s">
-        <v>866</v>
-      </c>
-      <c r="N28" t="s">
-        <v>922</v>
-      </c>
-      <c r="O28" t="s">
-        <v>923</v>
-      </c>
-      <c r="R28" t="s">
-        <v>116</v>
-      </c>
-      <c r="S28" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>104</v>
-      </c>
-      <c r="B29" t="s">
-        <v>761</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>1010410</v>
-      </c>
-      <c r="E29" t="s">
-        <v>706</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>1020415</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>300</v>
-      </c>
-      <c r="J29">
-        <v>500</v>
-      </c>
-      <c r="K29" t="s">
-        <v>787</v>
-      </c>
-      <c r="M29" t="s">
-        <v>867</v>
-      </c>
-      <c r="N29" t="s">
-        <v>922</v>
-      </c>
-      <c r="O29" t="s">
-        <v>924</v>
-      </c>
-      <c r="R29" t="s">
-        <v>117</v>
-      </c>
-      <c r="S29" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>761</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1010501</v>
-      </c>
-      <c r="E30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1010503</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>300</v>
-      </c>
-      <c r="J30">
-        <v>500</v>
-      </c>
-      <c r="K30" t="s">
-        <v>788</v>
-      </c>
-      <c r="M30" t="s">
-        <v>868</v>
-      </c>
-      <c r="N30" t="s">
-        <v>922</v>
-      </c>
-      <c r="O30" t="s">
-        <v>923</v>
-      </c>
-      <c r="R30" t="s">
-        <v>116</v>
-      </c>
-      <c r="S30" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>761</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>1010502</v>
-      </c>
-      <c r="E31" t="s">
-        <v>708</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1010506</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>300</v>
-      </c>
-      <c r="J31">
-        <v>500</v>
-      </c>
-      <c r="K31" t="s">
-        <v>789</v>
-      </c>
-      <c r="M31" t="s">
-        <v>869</v>
-      </c>
-      <c r="N31" t="s">
-        <v>922</v>
-      </c>
-      <c r="O31" t="s">
-        <v>924</v>
-      </c>
-      <c r="R31" t="s">
-        <v>117</v>
-      </c>
-      <c r="S31" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>761</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>1010503</v>
-      </c>
-      <c r="E32" t="s">
-        <v>709</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1010509</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>300</v>
-      </c>
-      <c r="J32">
-        <v>500</v>
-      </c>
-      <c r="K32" t="s">
-        <v>790</v>
-      </c>
-      <c r="M32" t="s">
-        <v>870</v>
-      </c>
-      <c r="N32" t="s">
-        <v>922</v>
-      </c>
-      <c r="O32" t="s">
-        <v>923</v>
-      </c>
-      <c r="R32" t="s">
-        <v>116</v>
-      </c>
-      <c r="S32" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>761</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>1010504</v>
-      </c>
-      <c r="E33" t="s">
-        <v>710</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1010512</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>300</v>
-      </c>
-      <c r="J33">
-        <v>500</v>
-      </c>
-      <c r="K33" t="s">
-        <v>791</v>
-      </c>
-      <c r="M33" t="s">
-        <v>871</v>
-      </c>
-      <c r="N33" t="s">
-        <v>922</v>
-      </c>
-      <c r="O33" t="s">
-        <v>924</v>
-      </c>
-      <c r="R33" t="s">
-        <v>117</v>
-      </c>
-      <c r="S33" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>761</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>1010505</v>
-      </c>
-      <c r="E34" t="s">
-        <v>711</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1010515</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>300</v>
-      </c>
-      <c r="J34">
-        <v>500</v>
-      </c>
-      <c r="K34" t="s">
-        <v>792</v>
-      </c>
-      <c r="M34" t="s">
-        <v>872</v>
-      </c>
-      <c r="N34" t="s">
-        <v>922</v>
-      </c>
-      <c r="O34" t="s">
-        <v>923</v>
-      </c>
-      <c r="R34" t="s">
-        <v>116</v>
-      </c>
-      <c r="S34" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>761</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>1010506</v>
-      </c>
-      <c r="E35" t="s">
-        <v>712</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>1020503</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>300</v>
-      </c>
-      <c r="J35">
-        <v>500</v>
-      </c>
-      <c r="K35" t="s">
-        <v>793</v>
-      </c>
-      <c r="M35" t="s">
-        <v>873</v>
-      </c>
-      <c r="N35" t="s">
-        <v>922</v>
-      </c>
-      <c r="O35" t="s">
-        <v>924</v>
-      </c>
-      <c r="R35" t="s">
-        <v>117</v>
-      </c>
-      <c r="S35" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>761</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>1010507</v>
-      </c>
-      <c r="E36" t="s">
-        <v>713</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>1020506</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>300</v>
-      </c>
-      <c r="J36">
-        <v>500</v>
-      </c>
-      <c r="K36" t="s">
-        <v>794</v>
-      </c>
-      <c r="M36" t="s">
-        <v>874</v>
-      </c>
-      <c r="N36" t="s">
-        <v>922</v>
-      </c>
-      <c r="O36" t="s">
-        <v>923</v>
-      </c>
-      <c r="R36" t="s">
-        <v>116</v>
-      </c>
-      <c r="S36" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>105</v>
-      </c>
-      <c r="B37" t="s">
-        <v>761</v>
-      </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>1010508</v>
-      </c>
-      <c r="E37" t="s">
-        <v>714</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>1020509</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>300</v>
-      </c>
-      <c r="J37">
-        <v>500</v>
-      </c>
-      <c r="K37" t="s">
-        <v>795</v>
-      </c>
-      <c r="M37" t="s">
-        <v>875</v>
-      </c>
-      <c r="N37" t="s">
-        <v>922</v>
-      </c>
-      <c r="O37" t="s">
-        <v>924</v>
-      </c>
-      <c r="R37" t="s">
-        <v>117</v>
-      </c>
-      <c r="S37" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>761</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>1010509</v>
-      </c>
-      <c r="E38" t="s">
-        <v>715</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>1020512</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>300</v>
-      </c>
-      <c r="J38">
-        <v>500</v>
-      </c>
-      <c r="K38" t="s">
-        <v>796</v>
-      </c>
-      <c r="M38" t="s">
-        <v>876</v>
-      </c>
-      <c r="N38" t="s">
-        <v>922</v>
-      </c>
-      <c r="O38" t="s">
-        <v>923</v>
-      </c>
-      <c r="R38" t="s">
-        <v>116</v>
-      </c>
-      <c r="S38" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>105</v>
-      </c>
-      <c r="B39" t="s">
-        <v>761</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>1010510</v>
-      </c>
-      <c r="E39" t="s">
-        <v>716</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>1020515</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>300</v>
-      </c>
-      <c r="J39">
-        <v>500</v>
-      </c>
-      <c r="K39" t="s">
-        <v>797</v>
-      </c>
-      <c r="M39" t="s">
-        <v>877</v>
-      </c>
-      <c r="N39" t="s">
-        <v>922</v>
-      </c>
-      <c r="O39" t="s">
-        <v>924</v>
-      </c>
-      <c r="R39" t="s">
-        <v>117</v>
-      </c>
-      <c r="S39" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>106</v>
-      </c>
-      <c r="B40" t="s">
-        <v>761</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1010601</v>
-      </c>
-      <c r="E40" t="s">
-        <v>717</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1010603</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>300</v>
-      </c>
-      <c r="J40">
-        <v>500</v>
-      </c>
-      <c r="K40" t="s">
-        <v>798</v>
-      </c>
-      <c r="M40" t="s">
-        <v>878</v>
-      </c>
-      <c r="N40" t="s">
-        <v>922</v>
-      </c>
-      <c r="O40" t="s">
-        <v>923</v>
-      </c>
-      <c r="R40" t="s">
-        <v>116</v>
-      </c>
-      <c r="S40" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>761</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>1010602</v>
-      </c>
-      <c r="E41" t="s">
-        <v>718</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1010606</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>300</v>
-      </c>
-      <c r="J41">
-        <v>500</v>
-      </c>
-      <c r="K41" t="s">
-        <v>799</v>
-      </c>
-      <c r="M41" t="s">
-        <v>879</v>
-      </c>
-      <c r="N41" t="s">
-        <v>922</v>
-      </c>
-      <c r="O41" t="s">
-        <v>924</v>
-      </c>
-      <c r="R41" t="s">
-        <v>117</v>
-      </c>
-      <c r="S41" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>761</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>1010603</v>
-      </c>
-      <c r="E42" t="s">
-        <v>719</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1010609</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>300</v>
-      </c>
-      <c r="J42">
-        <v>500</v>
-      </c>
-      <c r="K42" t="s">
-        <v>800</v>
-      </c>
-      <c r="M42" t="s">
-        <v>880</v>
-      </c>
-      <c r="N42" t="s">
-        <v>922</v>
-      </c>
-      <c r="O42" t="s">
-        <v>923</v>
-      </c>
-      <c r="R42" t="s">
-        <v>116</v>
-      </c>
-      <c r="S42" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>761</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>1010604</v>
-      </c>
-      <c r="E43" t="s">
-        <v>720</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1010612</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>300</v>
-      </c>
-      <c r="J43">
-        <v>500</v>
-      </c>
-      <c r="K43" t="s">
-        <v>801</v>
-      </c>
-      <c r="M43" t="s">
-        <v>881</v>
-      </c>
-      <c r="N43" t="s">
-        <v>922</v>
-      </c>
-      <c r="O43" t="s">
-        <v>924</v>
-      </c>
-      <c r="R43" t="s">
-        <v>117</v>
-      </c>
-      <c r="S43" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>761</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>1010605</v>
-      </c>
-      <c r="E44" t="s">
-        <v>721</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1010615</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>300</v>
-      </c>
-      <c r="J44">
-        <v>500</v>
-      </c>
-      <c r="K44" t="s">
-        <v>802</v>
-      </c>
-      <c r="M44" t="s">
-        <v>882</v>
-      </c>
-      <c r="N44" t="s">
-        <v>922</v>
-      </c>
-      <c r="O44" t="s">
-        <v>923</v>
-      </c>
-      <c r="R44" t="s">
-        <v>116</v>
-      </c>
-      <c r="S44" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>106</v>
-      </c>
-      <c r="B45" t="s">
-        <v>761</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>1010606</v>
-      </c>
-      <c r="E45" t="s">
-        <v>722</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>1020603</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>300</v>
-      </c>
-      <c r="J45">
-        <v>500</v>
-      </c>
-      <c r="K45" t="s">
-        <v>803</v>
-      </c>
-      <c r="M45" t="s">
-        <v>883</v>
-      </c>
-      <c r="N45" t="s">
-        <v>922</v>
-      </c>
-      <c r="O45" t="s">
-        <v>924</v>
-      </c>
-      <c r="R45" t="s">
-        <v>117</v>
-      </c>
-      <c r="S45" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>106</v>
-      </c>
-      <c r="B46" t="s">
-        <v>761</v>
-      </c>
-      <c r="C46">
-        <v>7</v>
-      </c>
-      <c r="D46">
-        <v>1010607</v>
-      </c>
-      <c r="E46" t="s">
-        <v>723</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>1020606</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>300</v>
-      </c>
-      <c r="J46">
-        <v>500</v>
-      </c>
-      <c r="K46" t="s">
-        <v>804</v>
-      </c>
-      <c r="M46" t="s">
-        <v>884</v>
-      </c>
-      <c r="N46" t="s">
-        <v>922</v>
-      </c>
-      <c r="O46" t="s">
-        <v>923</v>
-      </c>
-      <c r="R46" t="s">
-        <v>116</v>
-      </c>
-      <c r="S46" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>106</v>
-      </c>
-      <c r="B47" t="s">
-        <v>761</v>
-      </c>
-      <c r="C47">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>1010608</v>
-      </c>
-      <c r="E47" t="s">
-        <v>724</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>1020609</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>300</v>
-      </c>
-      <c r="J47">
-        <v>500</v>
-      </c>
-      <c r="K47" t="s">
-        <v>805</v>
-      </c>
-      <c r="M47" t="s">
-        <v>885</v>
-      </c>
-      <c r="N47" t="s">
-        <v>922</v>
-      </c>
-      <c r="O47" t="s">
-        <v>924</v>
-      </c>
-      <c r="R47" t="s">
-        <v>117</v>
-      </c>
-      <c r="S47" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>106</v>
-      </c>
-      <c r="B48" t="s">
-        <v>761</v>
-      </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-      <c r="D48">
-        <v>1010609</v>
-      </c>
-      <c r="E48" t="s">
-        <v>725</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <v>1020612</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>300</v>
-      </c>
-      <c r="J48">
-        <v>500</v>
-      </c>
-      <c r="K48" t="s">
-        <v>806</v>
-      </c>
-      <c r="M48" t="s">
-        <v>886</v>
-      </c>
-      <c r="N48" t="s">
-        <v>922</v>
-      </c>
-      <c r="O48" t="s">
-        <v>923</v>
-      </c>
-      <c r="R48" t="s">
-        <v>116</v>
-      </c>
-      <c r="S48" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>106</v>
-      </c>
-      <c r="B49" t="s">
-        <v>761</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>1010610</v>
-      </c>
-      <c r="E49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>1020615</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>300</v>
-      </c>
-      <c r="J49">
-        <v>500</v>
-      </c>
-      <c r="K49" t="s">
-        <v>807</v>
-      </c>
-      <c r="M49" t="s">
-        <v>887</v>
-      </c>
-      <c r="N49" t="s">
-        <v>922</v>
-      </c>
-      <c r="O49" t="s">
-        <v>924</v>
-      </c>
-      <c r="R49" t="s">
-        <v>117</v>
-      </c>
-      <c r="S49" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>107</v>
-      </c>
-      <c r="B50" t="s">
-        <v>761</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1010701</v>
-      </c>
-      <c r="E50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1010703</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>300</v>
-      </c>
-      <c r="J50">
-        <v>500</v>
-      </c>
-      <c r="K50" t="s">
-        <v>808</v>
-      </c>
-      <c r="M50" t="s">
-        <v>888</v>
-      </c>
-      <c r="N50" t="s">
-        <v>922</v>
-      </c>
-      <c r="O50" t="s">
-        <v>923</v>
-      </c>
-      <c r="R50" t="s">
-        <v>926</v>
-      </c>
-      <c r="S50" t="s">
+      <c r="T83" s="3" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s">
-        <v>761</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>1010702</v>
-      </c>
-      <c r="E51" t="s">
-        <v>728</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1010706</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>300</v>
-      </c>
-      <c r="J51">
-        <v>500</v>
-      </c>
-      <c r="K51" t="s">
-        <v>809</v>
-      </c>
-      <c r="M51" t="s">
-        <v>889</v>
-      </c>
-      <c r="N51" t="s">
-        <v>922</v>
-      </c>
-      <c r="O51" t="s">
-        <v>924</v>
-      </c>
-      <c r="R51" t="s">
-        <v>927</v>
-      </c>
-      <c r="S51" t="s">
+      <c r="U83" s="3" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>107</v>
-      </c>
-      <c r="B52" t="s">
-        <v>761</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>1010703</v>
-      </c>
-      <c r="E52" t="s">
-        <v>729</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1010709</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>300</v>
-      </c>
-      <c r="J52">
-        <v>500</v>
-      </c>
-      <c r="K52" t="s">
-        <v>810</v>
-      </c>
-      <c r="M52" t="s">
-        <v>890</v>
-      </c>
-      <c r="N52" t="s">
-        <v>922</v>
-      </c>
-      <c r="O52" t="s">
-        <v>923</v>
-      </c>
-      <c r="R52" t="s">
-        <v>926</v>
-      </c>
-      <c r="S52" t="s">
+      <c r="V83" s="3" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>761</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <v>1010704</v>
-      </c>
-      <c r="E53" t="s">
-        <v>730</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1010712</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>300</v>
-      </c>
-      <c r="J53">
-        <v>500</v>
-      </c>
-      <c r="K53" t="s">
-        <v>811</v>
-      </c>
-      <c r="M53" t="s">
-        <v>891</v>
-      </c>
-      <c r="N53" t="s">
-        <v>922</v>
-      </c>
-      <c r="O53" t="s">
-        <v>924</v>
-      </c>
-      <c r="R53" t="s">
-        <v>927</v>
-      </c>
-      <c r="S53" t="s">
+      <c r="W83" s="3" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>107</v>
-      </c>
-      <c r="B54" t="s">
-        <v>761</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54">
-        <v>1010705</v>
-      </c>
-      <c r="E54" t="s">
-        <v>731</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1010715</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>300</v>
-      </c>
-      <c r="J54">
-        <v>500</v>
-      </c>
-      <c r="K54" t="s">
-        <v>812</v>
-      </c>
-      <c r="M54" t="s">
-        <v>892</v>
-      </c>
-      <c r="N54" t="s">
-        <v>922</v>
-      </c>
-      <c r="O54" t="s">
-        <v>923</v>
-      </c>
-      <c r="R54" t="s">
-        <v>926</v>
-      </c>
-      <c r="S54" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>761</v>
-      </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
-      <c r="D55">
-        <v>1010706</v>
-      </c>
-      <c r="E55" t="s">
-        <v>732</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55">
-        <v>1020703</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>300</v>
-      </c>
-      <c r="J55">
-        <v>500</v>
-      </c>
-      <c r="K55" t="s">
-        <v>813</v>
-      </c>
-      <c r="M55" t="s">
-        <v>893</v>
-      </c>
-      <c r="N55" t="s">
-        <v>922</v>
-      </c>
-      <c r="O55" t="s">
-        <v>924</v>
-      </c>
-      <c r="R55" t="s">
-        <v>927</v>
-      </c>
-      <c r="S55" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>107</v>
-      </c>
-      <c r="B56" t="s">
-        <v>761</v>
-      </c>
-      <c r="C56">
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>1010707</v>
-      </c>
-      <c r="E56" t="s">
-        <v>733</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56">
-        <v>1020706</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>300</v>
-      </c>
-      <c r="J56">
-        <v>500</v>
-      </c>
-      <c r="K56" t="s">
-        <v>814</v>
-      </c>
-      <c r="M56" t="s">
-        <v>894</v>
-      </c>
-      <c r="N56" t="s">
-        <v>922</v>
-      </c>
-      <c r="O56" t="s">
-        <v>923</v>
-      </c>
-      <c r="R56" t="s">
-        <v>926</v>
-      </c>
-      <c r="S56" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>107</v>
-      </c>
-      <c r="B57" t="s">
-        <v>761</v>
-      </c>
-      <c r="C57">
-        <v>8</v>
-      </c>
-      <c r="D57">
-        <v>1010708</v>
-      </c>
-      <c r="E57" t="s">
-        <v>734</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>1020709</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>300</v>
-      </c>
-      <c r="J57">
-        <v>500</v>
-      </c>
-      <c r="K57" t="s">
-        <v>815</v>
-      </c>
-      <c r="M57" t="s">
-        <v>895</v>
-      </c>
-      <c r="N57" t="s">
-        <v>922</v>
-      </c>
-      <c r="O57" t="s">
-        <v>924</v>
-      </c>
-      <c r="R57" t="s">
-        <v>927</v>
-      </c>
-      <c r="S57" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>107</v>
-      </c>
-      <c r="B58" t="s">
-        <v>761</v>
-      </c>
-      <c r="C58">
-        <v>9</v>
-      </c>
-      <c r="D58">
-        <v>1010709</v>
-      </c>
-      <c r="E58" t="s">
-        <v>735</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58">
-        <v>1020712</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>300</v>
-      </c>
-      <c r="J58">
-        <v>500</v>
-      </c>
-      <c r="K58" t="s">
-        <v>816</v>
-      </c>
-      <c r="M58" t="s">
-        <v>896</v>
-      </c>
-      <c r="N58" t="s">
-        <v>922</v>
-      </c>
-      <c r="O58" t="s">
-        <v>923</v>
-      </c>
-      <c r="R58" t="s">
-        <v>926</v>
-      </c>
-      <c r="S58" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>107</v>
-      </c>
-      <c r="B59" t="s">
-        <v>761</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>1010710</v>
-      </c>
-      <c r="E59" t="s">
-        <v>736</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>1020715</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>300</v>
-      </c>
-      <c r="J59">
-        <v>500</v>
-      </c>
-      <c r="K59" t="s">
-        <v>817</v>
-      </c>
-      <c r="M59" t="s">
-        <v>897</v>
-      </c>
-      <c r="N59" t="s">
-        <v>922</v>
-      </c>
-      <c r="O59" t="s">
-        <v>924</v>
-      </c>
-      <c r="R59" t="s">
-        <v>927</v>
-      </c>
-      <c r="S59" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>108</v>
-      </c>
-      <c r="B60" t="s">
-        <v>761</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1010801</v>
-      </c>
-      <c r="E60" t="s">
-        <v>737</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1010801</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>300</v>
-      </c>
-      <c r="J60">
-        <v>500</v>
-      </c>
-      <c r="K60" t="s">
-        <v>818</v>
-      </c>
-      <c r="M60" t="s">
-        <v>898</v>
-      </c>
-      <c r="N60" t="s">
-        <v>922</v>
-      </c>
-      <c r="O60" t="s">
-        <v>923</v>
-      </c>
-      <c r="R60" t="s">
-        <v>926</v>
-      </c>
-      <c r="S60" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>108</v>
-      </c>
-      <c r="B61" t="s">
-        <v>761</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>1010802</v>
-      </c>
-      <c r="E61" t="s">
-        <v>738</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1010803</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>300</v>
-      </c>
-      <c r="J61">
-        <v>500</v>
-      </c>
-      <c r="K61" t="s">
-        <v>819</v>
-      </c>
-      <c r="M61" t="s">
-        <v>899</v>
-      </c>
-      <c r="N61" t="s">
-        <v>922</v>
-      </c>
-      <c r="O61" t="s">
-        <v>924</v>
-      </c>
-      <c r="R61" t="s">
-        <v>927</v>
-      </c>
-      <c r="S61" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>108</v>
-      </c>
-      <c r="B62" t="s">
-        <v>761</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62">
-        <v>1010803</v>
-      </c>
-      <c r="E62" t="s">
-        <v>739</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1010806</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>300</v>
-      </c>
-      <c r="J62">
-        <v>500</v>
-      </c>
-      <c r="K62" t="s">
-        <v>820</v>
-      </c>
-      <c r="M62" t="s">
-        <v>900</v>
-      </c>
-      <c r="N62" t="s">
-        <v>922</v>
-      </c>
-      <c r="O62" t="s">
-        <v>923</v>
-      </c>
-      <c r="R62" t="s">
-        <v>926</v>
-      </c>
-      <c r="S62" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>108</v>
-      </c>
-      <c r="B63" t="s">
-        <v>761</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <v>1010804</v>
-      </c>
-      <c r="E63" t="s">
-        <v>740</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1010809</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>300</v>
-      </c>
-      <c r="J63">
-        <v>500</v>
-      </c>
-      <c r="K63" t="s">
-        <v>821</v>
-      </c>
-      <c r="M63" t="s">
-        <v>901</v>
-      </c>
-      <c r="N63" t="s">
-        <v>922</v>
-      </c>
-      <c r="O63" t="s">
-        <v>924</v>
-      </c>
-      <c r="R63" t="s">
-        <v>927</v>
-      </c>
-      <c r="S63" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>108</v>
-      </c>
-      <c r="B64" t="s">
-        <v>761</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64">
-        <v>1010805</v>
-      </c>
-      <c r="E64" t="s">
-        <v>741</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>1010812</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>300</v>
-      </c>
-      <c r="J64">
-        <v>500</v>
-      </c>
-      <c r="K64" t="s">
-        <v>822</v>
-      </c>
-      <c r="M64" t="s">
-        <v>902</v>
-      </c>
-      <c r="N64" t="s">
-        <v>922</v>
-      </c>
-      <c r="O64" t="s">
-        <v>923</v>
-      </c>
-      <c r="R64" t="s">
-        <v>926</v>
-      </c>
-      <c r="S64" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>108</v>
-      </c>
-      <c r="B65" t="s">
-        <v>761</v>
-      </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>1010806</v>
-      </c>
-      <c r="E65" t="s">
-        <v>742</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1010815</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>300</v>
-      </c>
-      <c r="J65">
-        <v>500</v>
-      </c>
-      <c r="K65" t="s">
-        <v>823</v>
-      </c>
-      <c r="M65" t="s">
-        <v>903</v>
-      </c>
-      <c r="N65" t="s">
-        <v>922</v>
-      </c>
-      <c r="O65" t="s">
-        <v>924</v>
-      </c>
-      <c r="R65" t="s">
-        <v>927</v>
-      </c>
-      <c r="S65" t="s">
-        <v>933</v>
-      </c>
-      <c r="T65" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>108</v>
-      </c>
-      <c r="B66" t="s">
-        <v>761</v>
-      </c>
-      <c r="C66">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>1010807</v>
-      </c>
-      <c r="E66" t="s">
-        <v>743</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66">
-        <v>1020801</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>300</v>
-      </c>
-      <c r="J66">
-        <v>500</v>
-      </c>
-      <c r="K66" t="s">
-        <v>824</v>
-      </c>
-      <c r="M66" t="s">
-        <v>904</v>
-      </c>
-      <c r="N66" t="s">
-        <v>922</v>
-      </c>
-      <c r="O66" t="s">
-        <v>923</v>
-      </c>
-      <c r="R66" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>108</v>
-      </c>
-      <c r="B67" t="s">
-        <v>761</v>
-      </c>
-      <c r="C67">
-        <v>8</v>
-      </c>
-      <c r="D67">
-        <v>1010808</v>
-      </c>
-      <c r="E67" t="s">
-        <v>744</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67">
-        <v>1020803</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>300</v>
-      </c>
-      <c r="J67">
-        <v>500</v>
-      </c>
-      <c r="K67" t="s">
-        <v>825</v>
-      </c>
-      <c r="M67" t="s">
-        <v>905</v>
-      </c>
-      <c r="N67" t="s">
-        <v>922</v>
-      </c>
-      <c r="O67" t="s">
-        <v>924</v>
-      </c>
-      <c r="R67" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>108</v>
-      </c>
-      <c r="B68" t="s">
-        <v>761</v>
-      </c>
-      <c r="C68">
-        <v>9</v>
-      </c>
-      <c r="D68">
-        <v>1010809</v>
-      </c>
-      <c r="E68" t="s">
-        <v>745</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-      <c r="G68">
-        <v>1020806</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>300</v>
-      </c>
-      <c r="J68">
-        <v>500</v>
-      </c>
-      <c r="K68" t="s">
-        <v>826</v>
-      </c>
-      <c r="M68" t="s">
-        <v>906</v>
-      </c>
-      <c r="N68" t="s">
-        <v>922</v>
-      </c>
-      <c r="O68" t="s">
-        <v>923</v>
-      </c>
-      <c r="R68" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>108</v>
-      </c>
-      <c r="B69" t="s">
-        <v>761</v>
-      </c>
-      <c r="C69">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>1010810</v>
-      </c>
-      <c r="E69" t="s">
-        <v>746</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>1020809</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>300</v>
-      </c>
-      <c r="J69">
-        <v>500</v>
-      </c>
-      <c r="K69" t="s">
-        <v>827</v>
-      </c>
-      <c r="M69" t="s">
-        <v>907</v>
-      </c>
-      <c r="N69" t="s">
-        <v>922</v>
-      </c>
-      <c r="O69" t="s">
-        <v>924</v>
-      </c>
-      <c r="R69" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>108</v>
-      </c>
-      <c r="B70" t="s">
-        <v>761</v>
-      </c>
-      <c r="C70">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>1010811</v>
-      </c>
-      <c r="E70" t="s">
-        <v>747</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70">
-        <v>1020812</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>300</v>
-      </c>
-      <c r="J70">
-        <v>500</v>
-      </c>
-      <c r="K70" t="s">
-        <v>828</v>
-      </c>
-      <c r="M70" t="s">
-        <v>908</v>
-      </c>
-      <c r="N70" t="s">
-        <v>922</v>
-      </c>
-      <c r="O70" t="s">
-        <v>923</v>
-      </c>
-      <c r="R70" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>108</v>
-      </c>
-      <c r="B71" t="s">
-        <v>761</v>
-      </c>
-      <c r="C71">
-        <v>12</v>
-      </c>
-      <c r="D71">
-        <v>1010812</v>
-      </c>
-      <c r="E71" t="s">
-        <v>748</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="G71">
-        <v>1020815</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>300</v>
-      </c>
-      <c r="J71">
-        <v>500</v>
-      </c>
-      <c r="K71" t="s">
-        <v>829</v>
-      </c>
-      <c r="M71" t="s">
-        <v>909</v>
-      </c>
-      <c r="N71" t="s">
-        <v>922</v>
-      </c>
-      <c r="O71" t="s">
-        <v>924</v>
-      </c>
-      <c r="R71" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>109</v>
-      </c>
-      <c r="B72" t="s">
-        <v>761</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1010901</v>
-      </c>
-      <c r="E72" t="s">
-        <v>749</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1010901</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>300</v>
-      </c>
-      <c r="J72">
-        <v>500</v>
-      </c>
-      <c r="K72" t="s">
-        <v>830</v>
-      </c>
-      <c r="M72" t="s">
-        <v>910</v>
-      </c>
-      <c r="N72" t="s">
-        <v>922</v>
-      </c>
-      <c r="O72" t="s">
-        <v>923</v>
-      </c>
-      <c r="R72" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>109</v>
-      </c>
-      <c r="B73" t="s">
-        <v>761</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>1010902</v>
-      </c>
-      <c r="E73" t="s">
-        <v>750</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>1010903</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>300</v>
-      </c>
-      <c r="J73">
-        <v>500</v>
-      </c>
-      <c r="K73" t="s">
-        <v>831</v>
-      </c>
-      <c r="M73" t="s">
-        <v>911</v>
-      </c>
-      <c r="N73" t="s">
-        <v>922</v>
-      </c>
-      <c r="O73" t="s">
-        <v>924</v>
-      </c>
-      <c r="R73" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>109</v>
-      </c>
-      <c r="B74" t="s">
-        <v>761</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>1010903</v>
-      </c>
-      <c r="E74" t="s">
-        <v>751</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1010906</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>300</v>
-      </c>
-      <c r="J74">
-        <v>500</v>
-      </c>
-      <c r="K74" t="s">
-        <v>832</v>
-      </c>
-      <c r="M74" t="s">
-        <v>912</v>
-      </c>
-      <c r="N74" t="s">
-        <v>922</v>
-      </c>
-      <c r="O74" t="s">
-        <v>923</v>
-      </c>
-      <c r="R74" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>109</v>
-      </c>
-      <c r="B75" t="s">
-        <v>761</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75">
-        <v>1010904</v>
-      </c>
-      <c r="E75" t="s">
-        <v>752</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1010909</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>300</v>
-      </c>
-      <c r="J75">
-        <v>500</v>
-      </c>
-      <c r="K75" t="s">
-        <v>833</v>
-      </c>
-      <c r="M75" t="s">
-        <v>913</v>
-      </c>
-      <c r="N75" t="s">
-        <v>922</v>
-      </c>
-      <c r="O75" t="s">
-        <v>924</v>
-      </c>
-      <c r="R75" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>109</v>
-      </c>
-      <c r="B76" t="s">
-        <v>761</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-      <c r="D76">
-        <v>1010905</v>
-      </c>
-      <c r="E76" t="s">
-        <v>753</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>1010912</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>300</v>
-      </c>
-      <c r="J76">
-        <v>500</v>
-      </c>
-      <c r="K76" t="s">
-        <v>834</v>
-      </c>
-      <c r="M76" t="s">
-        <v>914</v>
-      </c>
-      <c r="N76" t="s">
-        <v>922</v>
-      </c>
-      <c r="O76" t="s">
-        <v>923</v>
-      </c>
-      <c r="R76" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>109</v>
-      </c>
-      <c r="B77" t="s">
-        <v>761</v>
-      </c>
-      <c r="C77">
-        <v>6</v>
-      </c>
-      <c r="D77">
-        <v>1010906</v>
-      </c>
-      <c r="E77" t="s">
-        <v>754</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>1010915</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>300</v>
-      </c>
-      <c r="J77">
-        <v>500</v>
-      </c>
-      <c r="K77" t="s">
-        <v>835</v>
-      </c>
-      <c r="M77" t="s">
-        <v>915</v>
-      </c>
-      <c r="N77" t="s">
-        <v>922</v>
-      </c>
-      <c r="O77" t="s">
-        <v>924</v>
-      </c>
-      <c r="R77" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>109</v>
-      </c>
-      <c r="B78" t="s">
-        <v>761</v>
-      </c>
-      <c r="C78">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>1010907</v>
-      </c>
-      <c r="E78" t="s">
-        <v>755</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-      <c r="G78">
-        <v>1020901</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>300</v>
-      </c>
-      <c r="J78">
-        <v>500</v>
-      </c>
-      <c r="K78" t="s">
-        <v>836</v>
-      </c>
-      <c r="M78" t="s">
-        <v>916</v>
-      </c>
-      <c r="N78" t="s">
-        <v>922</v>
-      </c>
-      <c r="O78" t="s">
-        <v>923</v>
-      </c>
-      <c r="R78" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>109</v>
-      </c>
-      <c r="B79" t="s">
-        <v>761</v>
-      </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>1010908</v>
-      </c>
-      <c r="E79" t="s">
-        <v>756</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79">
-        <v>1020903</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>300</v>
-      </c>
-      <c r="J79">
-        <v>500</v>
-      </c>
-      <c r="K79" t="s">
-        <v>837</v>
-      </c>
-      <c r="M79" t="s">
-        <v>917</v>
-      </c>
-      <c r="N79" t="s">
-        <v>922</v>
-      </c>
-      <c r="O79" t="s">
-        <v>924</v>
-      </c>
-      <c r="R79" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>109</v>
-      </c>
-      <c r="B80" t="s">
-        <v>761</v>
-      </c>
-      <c r="C80">
-        <v>9</v>
-      </c>
-      <c r="D80">
-        <v>1010909</v>
-      </c>
-      <c r="E80" t="s">
-        <v>757</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-      <c r="G80">
-        <v>1020906</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>300</v>
-      </c>
-      <c r="J80">
-        <v>500</v>
-      </c>
-      <c r="K80" t="s">
-        <v>838</v>
-      </c>
-      <c r="M80" t="s">
-        <v>918</v>
-      </c>
-      <c r="N80" t="s">
-        <v>922</v>
-      </c>
-      <c r="O80" t="s">
-        <v>923</v>
-      </c>
-      <c r="R80" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>109</v>
-      </c>
-      <c r="B81" t="s">
-        <v>761</v>
-      </c>
-      <c r="C81">
-        <v>10</v>
-      </c>
-      <c r="D81">
-        <v>1010910</v>
-      </c>
-      <c r="E81" t="s">
-        <v>758</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>1020909</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>300</v>
-      </c>
-      <c r="J81">
-        <v>500</v>
-      </c>
-      <c r="K81" t="s">
-        <v>839</v>
-      </c>
-      <c r="M81" t="s">
-        <v>919</v>
-      </c>
-      <c r="N81" t="s">
-        <v>922</v>
-      </c>
-      <c r="O81" t="s">
-        <v>924</v>
-      </c>
-      <c r="R81" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>109</v>
-      </c>
-      <c r="B82" t="s">
-        <v>761</v>
-      </c>
-      <c r="C82">
-        <v>11</v>
-      </c>
-      <c r="D82">
-        <v>1010911</v>
-      </c>
-      <c r="E82" t="s">
-        <v>759</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="G82">
-        <v>1020912</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>300</v>
-      </c>
-      <c r="J82">
-        <v>500</v>
-      </c>
-      <c r="K82" t="s">
-        <v>840</v>
-      </c>
-      <c r="M82" t="s">
-        <v>920</v>
-      </c>
-      <c r="N82" t="s">
-        <v>922</v>
-      </c>
-      <c r="O82" t="s">
-        <v>923</v>
-      </c>
-      <c r="R82" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>109</v>
-      </c>
-      <c r="B83" t="s">
-        <v>761</v>
-      </c>
-      <c r="C83">
-        <v>12</v>
-      </c>
-      <c r="D83">
-        <v>1010912</v>
-      </c>
-      <c r="E83" t="s">
-        <v>760</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>1020915</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>300</v>
-      </c>
-      <c r="J83">
-        <v>500</v>
-      </c>
-      <c r="K83" t="s">
-        <v>841</v>
-      </c>
-      <c r="M83" t="s">
-        <v>921</v>
-      </c>
-      <c r="N83" t="s">
-        <v>922</v>
-      </c>
-      <c r="O83" t="s">
-        <v>924</v>
-      </c>
-      <c r="R83" t="s">
-        <v>927</v>
+      <c r="X83" s="3" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -24821,13 +25817,140 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ACEE27-904D-4646-B89B-7D8EF2E89656}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D2" t="s">
+        <v>970</v>
+      </c>
+      <c r="E2" t="s">
+        <v>971</v>
+      </c>
+      <c r="F2" t="s">
+        <v>970</v>
+      </c>
+      <c r="G2" t="s">
+        <v>970</v>
+      </c>
+      <c r="H2" t="s">
+        <v>970</v>
+      </c>
+      <c r="I2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3">
+        <v>240</v>
+      </c>
+      <c r="D4" s="3">
+        <v>480</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1604001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>120</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/镇魂街/chapter.章节.xlsx
+++ b/Excel/镇魂街/chapter.章节.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="980">
   <si>
     <t>sheet名</t>
   </si>
@@ -2069,9 +2069,6 @@
     <t>DropRandom</t>
   </si>
   <si>
-    <t>DropUp</t>
-  </si>
-  <si>
     <t>关卡ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2645,9 +2642,6 @@
     <t>困难关9-6扫荡</t>
   </si>
   <si>
-    <t>普通关1-1高战扫荡</t>
-  </si>
-  <si>
     <t>普通关1-2高战扫荡</t>
   </si>
   <si>
@@ -3089,6 +3083,30 @@
   </si>
   <si>
     <t>ChaId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropUp[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropUp[1].inteval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>普通关1-1高战扫荡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3719,19 +3737,19 @@
         <v>635</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -3739,22 +3757,22 @@
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>974</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>976</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -20721,7 +20739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -20873,10 +20891,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20890,19 +20908,19 @@
     <col min="10" max="10" width="11.875" customWidth="1"/>
     <col min="11" max="11" width="18.25" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
-    <col min="17" max="17" width="22.125" customWidth="1"/>
-    <col min="18" max="18" width="16.875" customWidth="1"/>
-    <col min="19" max="19" width="17.375" customWidth="1"/>
-    <col min="20" max="24" width="16.75" customWidth="1"/>
+    <col min="13" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="13.125" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="18" max="18" width="22.125" customWidth="1"/>
+    <col min="19" max="19" width="16.875" customWidth="1"/>
+    <col min="20" max="20" width="17.375" customWidth="1"/>
+    <col min="21" max="25" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -20938,43 +20956,46 @@
         <v>654</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>655</v>
+        <v>977</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -21006,49 +21027,49 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
+        <v>677</v>
+      </c>
+      <c r="L2" t="s">
         <v>678</v>
       </c>
-      <c r="L2" t="s">
-        <v>679</v>
-      </c>
       <c r="M2" t="s">
-        <v>678</v>
-      </c>
-      <c r="N2" t="s">
         <v>677</v>
       </c>
       <c r="O2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="R2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="T2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="W2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="X2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -21059,75 +21080,76 @@
         <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -21136,7 +21158,7 @@
         <v>1010101</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -21154,36 +21176,39 @@
         <v>500</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>921</v>
+      <c r="M4" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="N4" s="3">
+        <v>12</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P4" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="S4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>919</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -21192,7 +21217,7 @@
         <v>1010102</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -21210,36 +21235,39 @@
         <v>500</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="N5" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="N5" s="3">
+        <v>12</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="S5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>919</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -21248,7 +21276,7 @@
         <v>1010103</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -21266,36 +21294,39 @@
         <v>500</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>921</v>
+        <v>841</v>
+      </c>
+      <c r="N6" s="3">
+        <v>12</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P6" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="S6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>919</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -21304,7 +21335,7 @@
         <v>1010104</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
@@ -21322,36 +21353,39 @@
         <v>500</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="N7" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="N7" s="3">
+        <v>12</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="S7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>919</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -21360,7 +21394,7 @@
         <v>1010201</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -21378,36 +21412,39 @@
         <v>500</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>921</v>
+        <v>843</v>
+      </c>
+      <c r="N8" s="3">
+        <v>12</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P8" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -21416,7 +21453,7 @@
         <v>1010202</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -21434,36 +21471,39 @@
         <v>500</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="N9" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="N9" s="3">
+        <v>12</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="S9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -21472,7 +21512,7 @@
         <v>1010203</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -21490,36 +21530,39 @@
         <v>500</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>921</v>
+        <v>845</v>
+      </c>
+      <c r="N10" s="3">
+        <v>12</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P10" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
@@ -21528,7 +21571,7 @@
         <v>1010204</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -21546,36 +21589,39 @@
         <v>500</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="N11" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="N11" s="3">
+        <v>12</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="S11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -21584,7 +21630,7 @@
         <v>1010301</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -21602,36 +21648,39 @@
         <v>500</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>921</v>
+        <v>847</v>
+      </c>
+      <c r="N12" s="3">
+        <v>12</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P12" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -21640,7 +21689,7 @@
         <v>1010302</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -21658,36 +21707,39 @@
         <v>500</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="N13" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="N13" s="3">
+        <v>12</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="S13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -21696,7 +21748,7 @@
         <v>1010303</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -21714,36 +21766,39 @@
         <v>500</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>921</v>
+        <v>849</v>
+      </c>
+      <c r="N14" s="3">
+        <v>12</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P14" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -21752,7 +21807,7 @@
         <v>1010304</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -21770,36 +21825,39 @@
         <v>500</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="N15" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="N15" s="3">
+        <v>12</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="S15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
@@ -21808,7 +21866,7 @@
         <v>1010305</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -21826,36 +21884,39 @@
         <v>500</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>921</v>
+        <v>851</v>
+      </c>
+      <c r="N16" s="3">
+        <v>12</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P16" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>103</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
@@ -21864,7 +21925,7 @@
         <v>1010306</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -21882,36 +21943,39 @@
         <v>500</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="N17" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="N17" s="3">
+        <v>12</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="S17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C18" s="3">
         <v>7</v>
@@ -21920,7 +21984,7 @@
         <v>1010307</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -21938,36 +22002,39 @@
         <v>500</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>921</v>
+        <v>853</v>
+      </c>
+      <c r="N18" s="3">
+        <v>12</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P18" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C19" s="3">
         <v>8</v>
@@ -21976,7 +22043,7 @@
         <v>1010308</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -21994,36 +22061,39 @@
         <v>500</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="N19" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="N19" s="3">
+        <v>12</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="S19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -22032,7 +22102,7 @@
         <v>1010401</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -22050,38 +22120,41 @@
         <v>500</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>921</v>
+        <v>855</v>
+      </c>
+      <c r="N20" s="3">
+        <v>12</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P20" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="T20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -22090,7 +22163,7 @@
         <v>1010402</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -22108,38 +22181,41 @@
         <v>500</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="N21" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="N21" s="3">
+        <v>12</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="T21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>104</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -22148,7 +22224,7 @@
         <v>1010403</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -22166,38 +22242,41 @@
         <v>500</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>921</v>
+        <v>857</v>
+      </c>
+      <c r="N22" s="3">
+        <v>12</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P22" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="T22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
@@ -22206,7 +22285,7 @@
         <v>1010404</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -22224,38 +22303,41 @@
         <v>500</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="N23" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="N23" s="3">
+        <v>12</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="T23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>104</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
@@ -22264,7 +22346,7 @@
         <v>1010405</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -22282,38 +22364,41 @@
         <v>500</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>921</v>
+        <v>859</v>
+      </c>
+      <c r="N24" s="3">
+        <v>12</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P24" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="T24" s="3"/>
+      <c r="T24" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C25" s="3">
         <v>6</v>
@@ -22322,7 +22407,7 @@
         <v>1010406</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -22340,38 +22425,41 @@
         <v>500</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="N25" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="N25" s="3">
+        <v>12</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="3"/>
+      <c r="S25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="T25" s="3"/>
+      <c r="T25" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C26" s="3">
         <v>7</v>
@@ -22380,7 +22468,7 @@
         <v>1010407</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
@@ -22398,38 +22486,41 @@
         <v>500</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>921</v>
+        <v>861</v>
+      </c>
+      <c r="N26" s="3">
+        <v>12</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P26" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="3"/>
+      <c r="S26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="T26" s="3"/>
+      <c r="T26" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C27" s="3">
         <v>8</v>
@@ -22438,7 +22529,7 @@
         <v>1010408</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -22456,38 +22547,41 @@
         <v>500</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="N27" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="N27" s="3">
+        <v>12</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="3"/>
+      <c r="S27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="T27" s="3"/>
+      <c r="T27" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>104</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C28" s="3">
         <v>9</v>
@@ -22496,7 +22590,7 @@
         <v>1010409</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -22514,38 +22608,41 @@
         <v>500</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>921</v>
+        <v>863</v>
+      </c>
+      <c r="N28" s="3">
+        <v>12</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P28" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="3"/>
+      <c r="S28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="T28" s="3"/>
+      <c r="T28" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C29" s="3">
         <v>10</v>
@@ -22554,7 +22651,7 @@
         <v>1010410</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F29" s="3">
         <v>2</v>
@@ -22572,38 +22669,41 @@
         <v>500</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="N29" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="N29" s="3">
+        <v>12</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3"/>
+      <c r="S29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="T29" s="3"/>
+      <c r="T29" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>105</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -22612,7 +22712,7 @@
         <v>1010501</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -22630,38 +22730,41 @@
         <v>500</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>921</v>
+        <v>865</v>
+      </c>
+      <c r="N30" s="3">
+        <v>12</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P30" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3" t="s">
+      <c r="R30" s="3"/>
+      <c r="S30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="T30" s="3"/>
+      <c r="T30" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>105</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
@@ -22670,7 +22773,7 @@
         <v>1010502</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -22688,38 +22791,41 @@
         <v>500</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="N31" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="N31" s="3">
+        <v>12</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="3"/>
+      <c r="S31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="T31" s="3"/>
+      <c r="T31" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>105</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
@@ -22728,7 +22834,7 @@
         <v>1010503</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -22746,38 +22852,41 @@
         <v>500</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>921</v>
+        <v>867</v>
+      </c>
+      <c r="N32" s="3">
+        <v>12</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P32" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="3"/>
+      <c r="S32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="T32" s="3"/>
+      <c r="T32" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>105</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C33" s="3">
         <v>4</v>
@@ -22786,7 +22895,7 @@
         <v>1010504</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -22804,38 +22913,41 @@
         <v>500</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="N33" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="N33" s="3">
+        <v>12</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3" t="s">
+      <c r="R33" s="3"/>
+      <c r="S33" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="T33" s="3"/>
+      <c r="T33" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>105</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C34" s="3">
         <v>5</v>
@@ -22844,7 +22956,7 @@
         <v>1010505</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -22862,38 +22974,41 @@
         <v>500</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>921</v>
+        <v>869</v>
+      </c>
+      <c r="N34" s="3">
+        <v>12</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P34" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="3"/>
+      <c r="S34" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S34" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="T34" s="3"/>
+      <c r="T34" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>105</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C35" s="3">
         <v>6</v>
@@ -22902,7 +23017,7 @@
         <v>1010506</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F35" s="3">
         <v>2</v>
@@ -22920,38 +23035,41 @@
         <v>500</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="N35" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="N35" s="3">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3" t="s">
+      <c r="R35" s="3"/>
+      <c r="S35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="T35" s="3"/>
+      <c r="T35" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>105</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C36" s="3">
         <v>7</v>
@@ -22960,7 +23078,7 @@
         <v>1010507</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F36" s="3">
         <v>2</v>
@@ -22978,38 +23096,41 @@
         <v>500</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>921</v>
+        <v>871</v>
+      </c>
+      <c r="N36" s="3">
+        <v>12</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P36" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3" t="s">
+      <c r="R36" s="3"/>
+      <c r="S36" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S36" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="T36" s="3"/>
+      <c r="T36" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>105</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C37" s="3">
         <v>8</v>
@@ -23018,7 +23139,7 @@
         <v>1010508</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
@@ -23036,38 +23157,41 @@
         <v>500</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="N37" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="N37" s="3">
+        <v>12</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O37" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3" t="s">
+      <c r="R37" s="3"/>
+      <c r="S37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S37" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="T37" s="3"/>
+      <c r="T37" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>105</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C38" s="3">
         <v>9</v>
@@ -23076,7 +23200,7 @@
         <v>1010509</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
@@ -23094,38 +23218,41 @@
         <v>500</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>921</v>
+        <v>873</v>
+      </c>
+      <c r="N38" s="3">
+        <v>12</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P38" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3" t="s">
+      <c r="R38" s="3"/>
+      <c r="S38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="T38" s="3"/>
+      <c r="T38" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>105</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C39" s="3">
         <v>10</v>
@@ -23134,7 +23261,7 @@
         <v>1010510</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F39" s="3">
         <v>2</v>
@@ -23152,38 +23279,41 @@
         <v>500</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="N39" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="N39" s="3">
+        <v>12</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S39" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="T39" s="3"/>
+      <c r="T39" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -23192,7 +23322,7 @@
         <v>1010601</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -23210,38 +23340,41 @@
         <v>500</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>921</v>
+        <v>875</v>
+      </c>
+      <c r="N40" s="3">
+        <v>12</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P40" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S40" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="T40" s="3"/>
+      <c r="T40" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>106</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
@@ -23250,7 +23383,7 @@
         <v>1010602</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -23268,38 +23401,41 @@
         <v>500</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="N41" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="N41" s="3">
+        <v>12</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3" t="s">
+      <c r="R41" s="3"/>
+      <c r="S41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="T41" s="3"/>
+      <c r="T41" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>106</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
@@ -23308,7 +23444,7 @@
         <v>1010603</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -23326,38 +23462,41 @@
         <v>500</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>921</v>
+        <v>877</v>
+      </c>
+      <c r="N42" s="3">
+        <v>12</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P42" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3" t="s">
+      <c r="R42" s="3"/>
+      <c r="S42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="T42" s="3"/>
+      <c r="T42" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>106</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C43" s="3">
         <v>4</v>
@@ -23366,7 +23505,7 @@
         <v>1010604</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
@@ -23384,38 +23523,41 @@
         <v>500</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="N43" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="N43" s="3">
+        <v>12</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="3"/>
+      <c r="S43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="T43" s="3"/>
+      <c r="T43" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>106</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C44" s="3">
         <v>5</v>
@@ -23424,7 +23566,7 @@
         <v>1010605</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -23442,38 +23584,41 @@
         <v>500</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>921</v>
+        <v>879</v>
+      </c>
+      <c r="N44" s="3">
+        <v>12</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P44" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="3"/>
+      <c r="S44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="T44" s="3"/>
+      <c r="T44" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>106</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C45" s="3">
         <v>6</v>
@@ -23482,7 +23627,7 @@
         <v>1010606</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
@@ -23500,38 +23645,41 @@
         <v>500</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="N45" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="N45" s="3">
+        <v>12</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="3"/>
+      <c r="S45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="T45" s="3"/>
+      <c r="T45" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C46" s="3">
         <v>7</v>
@@ -23540,7 +23688,7 @@
         <v>1010607</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F46" s="3">
         <v>2</v>
@@ -23558,38 +23706,41 @@
         <v>500</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>921</v>
+        <v>881</v>
+      </c>
+      <c r="N46" s="3">
+        <v>12</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P46" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3" t="s">
+      <c r="R46" s="3"/>
+      <c r="S46" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="T46" s="3"/>
+      <c r="T46" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C47" s="3">
         <v>8</v>
@@ -23598,7 +23749,7 @@
         <v>1010608</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F47" s="3">
         <v>2</v>
@@ -23616,38 +23767,41 @@
         <v>500</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="N47" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="N47" s="3">
+        <v>12</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="3"/>
+      <c r="S47" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="T47" s="3"/>
+      <c r="T47" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>106</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C48" s="3">
         <v>9</v>
@@ -23656,7 +23810,7 @@
         <v>1010609</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
@@ -23674,38 +23828,41 @@
         <v>500</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>921</v>
+        <v>883</v>
+      </c>
+      <c r="N48" s="3">
+        <v>12</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P48" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q48" s="3"/>
-      <c r="R48" s="3" t="s">
+      <c r="R48" s="3"/>
+      <c r="S48" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="T48" s="3"/>
+      <c r="T48" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>106</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C49" s="3">
         <v>10</v>
@@ -23714,7 +23871,7 @@
         <v>1010610</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F49" s="3">
         <v>2</v>
@@ -23732,38 +23889,41 @@
         <v>500</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="N49" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="N49" s="3">
+        <v>12</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="3"/>
+      <c r="S49" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="T49" s="3"/>
+      <c r="T49" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>107</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -23772,7 +23932,7 @@
         <v>1010701</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
@@ -23790,38 +23950,41 @@
         <v>500</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>921</v>
+        <v>885</v>
+      </c>
+      <c r="N50" s="3">
+        <v>12</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P50" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q50" s="3"/>
-      <c r="R50" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R50" s="3"/>
       <c r="S50" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="T50" s="3"/>
+        <v>924</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>930</v>
+      </c>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -23830,7 +23993,7 @@
         <v>1010702</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -23848,38 +24011,41 @@
         <v>500</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="N51" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="N51" s="3">
+        <v>12</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P51" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="T51" s="3"/>
+      <c r="T51" s="3" t="s">
+        <v>931</v>
+      </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>107</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
@@ -23888,7 +24054,7 @@
         <v>1010703</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -23906,38 +24072,41 @@
         <v>500</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>921</v>
+        <v>887</v>
+      </c>
+      <c r="N52" s="3">
+        <v>12</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P52" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="T52" s="3"/>
+        <v>924</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>932</v>
+      </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>107</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C53" s="3">
         <v>4</v>
@@ -23946,7 +24115,7 @@
         <v>1010704</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -23964,38 +24133,41 @@
         <v>500</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="N53" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="N53" s="3">
+        <v>12</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P53" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="T53" s="3"/>
+      <c r="T53" s="3" t="s">
+        <v>933</v>
+      </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>107</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C54" s="3">
         <v>5</v>
@@ -24004,7 +24176,7 @@
         <v>1010705</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
@@ -24022,38 +24194,41 @@
         <v>500</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>921</v>
+        <v>889</v>
+      </c>
+      <c r="N54" s="3">
+        <v>12</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P54" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R54" s="3"/>
       <c r="S54" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="T54" s="3"/>
+        <v>924</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>934</v>
+      </c>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>107</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -24062,7 +24237,7 @@
         <v>1010706</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
@@ -24080,38 +24255,41 @@
         <v>500</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="N55" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="N55" s="3">
+        <v>12</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P55" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="T55" s="3"/>
+      <c r="T55" s="3" t="s">
+        <v>930</v>
+      </c>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>107</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C56" s="3">
         <v>7</v>
@@ -24120,7 +24298,7 @@
         <v>1010707</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F56" s="3">
         <v>2</v>
@@ -24138,38 +24316,41 @@
         <v>500</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>921</v>
+        <v>891</v>
+      </c>
+      <c r="N56" s="3">
+        <v>12</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P56" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R56" s="3"/>
       <c r="S56" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="T56" s="3"/>
+        <v>924</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>931</v>
+      </c>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>107</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C57" s="3">
         <v>8</v>
@@ -24178,7 +24359,7 @@
         <v>1010708</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F57" s="3">
         <v>2</v>
@@ -24196,38 +24377,41 @@
         <v>500</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="N57" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="N57" s="3">
+        <v>12</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P57" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="T57" s="3"/>
+      <c r="T57" s="3" t="s">
+        <v>932</v>
+      </c>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>107</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C58" s="3">
         <v>9</v>
@@ -24236,7 +24420,7 @@
         <v>1010709</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F58" s="3">
         <v>2</v>
@@ -24254,38 +24438,41 @@
         <v>500</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>921</v>
+        <v>893</v>
+      </c>
+      <c r="N58" s="3">
+        <v>12</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P58" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q58" s="3"/>
-      <c r="R58" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R58" s="3"/>
       <c r="S58" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="T58" s="3"/>
+        <v>924</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>933</v>
+      </c>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-    </row>
-    <row r="59" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>107</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C59" s="3">
         <v>10</v>
@@ -24294,7 +24481,7 @@
         <v>1010710</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F59" s="3">
         <v>2</v>
@@ -24312,38 +24499,41 @@
         <v>500</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="N59" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="N59" s="3">
+        <v>12</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P59" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="T59" s="3"/>
+      <c r="T59" s="3" t="s">
+        <v>934</v>
+      </c>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
-    </row>
-    <row r="60" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>108</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -24352,7 +24542,7 @@
         <v>1010801</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -24370,40 +24560,43 @@
         <v>500</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>921</v>
+        <v>895</v>
+      </c>
+      <c r="N60" s="3">
+        <v>12</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P60" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R60" s="3"/>
       <c r="S60" s="3" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="U60" s="3"/>
+        <v>930</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
-    </row>
-    <row r="61" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>108</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
@@ -24412,7 +24605,7 @@
         <v>1010802</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -24430,40 +24623,43 @@
         <v>500</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="N61" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="N61" s="3">
+        <v>12</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P61" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>933</v>
-      </c>
       <c r="T61" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="U61" s="3"/>
+        <v>931</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>948</v>
+      </c>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>108</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C62" s="3">
         <v>3</v>
@@ -24472,7 +24668,7 @@
         <v>1010803</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -24490,40 +24686,43 @@
         <v>500</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>921</v>
+        <v>897</v>
+      </c>
+      <c r="N62" s="3">
+        <v>12</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P62" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q62" s="3"/>
-      <c r="R62" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R62" s="3"/>
       <c r="S62" s="3" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="U62" s="3"/>
+        <v>932</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>108</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C63" s="3">
         <v>4</v>
@@ -24532,7 +24731,7 @@
         <v>1010804</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F63" s="3">
         <v>1</v>
@@ -24550,40 +24749,43 @@
         <v>500</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="N63" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="N63" s="3">
+        <v>12</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P63" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O63" s="3" t="s">
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>935</v>
-      </c>
       <c r="T63" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="U63" s="3"/>
+        <v>933</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>108</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -24592,7 +24794,7 @@
         <v>1010805</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -24610,40 +24812,43 @@
         <v>500</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>921</v>
+        <v>899</v>
+      </c>
+      <c r="N64" s="3">
+        <v>12</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P64" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R64" s="3"/>
       <c r="S64" s="3" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="U64" s="3"/>
+        <v>934</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3"/>
+    </row>
+    <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>108</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C65" s="3">
         <v>6</v>
@@ -24652,7 +24857,7 @@
         <v>1010806</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F65" s="3">
         <v>1</v>
@@ -24670,48 +24875,51 @@
         <v>500</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="N65" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="N65" s="3">
+        <v>12</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P65" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S65" s="3" t="s">
+      <c r="T65" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="V65" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="T65" s="3" t="s">
+      <c r="W65" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="U65" s="3" t="s">
+      <c r="X65" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="V65" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="W65" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="X65" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>108</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C66" s="3">
         <v>7</v>
@@ -24720,7 +24928,7 @@
         <v>1010807</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F66" s="3">
         <v>2</v>
@@ -24738,40 +24946,43 @@
         <v>500</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>921</v>
+        <v>901</v>
+      </c>
+      <c r="N66" s="3">
+        <v>12</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P66" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q66" s="3"/>
-      <c r="R66" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R66" s="3"/>
       <c r="S66" s="3" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="U66" s="3"/>
+        <v>930</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3"/>
+    </row>
+    <row r="67" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>108</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C67" s="3">
         <v>8</v>
@@ -24780,7 +24991,7 @@
         <v>1010808</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
@@ -24798,40 +25009,43 @@
         <v>500</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="N67" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="N67" s="3">
+        <v>12</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P67" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O67" s="3" t="s">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S67" s="3" t="s">
-        <v>933</v>
-      </c>
       <c r="T67" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="U67" s="3"/>
+        <v>931</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>948</v>
+      </c>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>108</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C68" s="3">
         <v>9</v>
@@ -24840,7 +25054,7 @@
         <v>1010809</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F68" s="3">
         <v>2</v>
@@ -24858,40 +25072,43 @@
         <v>500</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>921</v>
+        <v>903</v>
+      </c>
+      <c r="N68" s="3">
+        <v>12</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P68" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q68" s="3"/>
-      <c r="R68" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R68" s="3"/>
       <c r="S68" s="3" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="U68" s="3"/>
+        <v>932</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>108</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C69" s="3">
         <v>10</v>
@@ -24900,7 +25117,7 @@
         <v>1010810</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F69" s="3">
         <v>2</v>
@@ -24918,40 +25135,43 @@
         <v>500</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="N69" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="N69" s="3">
+        <v>12</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P69" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S69" s="3" t="s">
-        <v>935</v>
-      </c>
       <c r="T69" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="U69" s="3"/>
+        <v>933</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>108</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C70" s="3">
         <v>11</v>
@@ -24960,7 +25180,7 @@
         <v>1010811</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F70" s="3">
         <v>2</v>
@@ -24978,40 +25198,43 @@
         <v>500</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>921</v>
+        <v>905</v>
+      </c>
+      <c r="N70" s="3">
+        <v>12</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P70" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q70" s="3"/>
-      <c r="R70" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R70" s="3"/>
       <c r="S70" s="3" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="U70" s="3"/>
+        <v>934</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-    </row>
-    <row r="71" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>108</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C71" s="3">
         <v>12</v>
@@ -25020,7 +25243,7 @@
         <v>1010812</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F71" s="3">
         <v>2</v>
@@ -25038,48 +25261,51 @@
         <v>500</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="N71" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="N71" s="3">
+        <v>12</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P71" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O71" s="3" t="s">
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S71" s="3" t="s">
+      <c r="T71" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="V71" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="T71" s="3" t="s">
+      <c r="W71" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="U71" s="3" t="s">
+      <c r="X71" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="V71" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="W71" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="X71" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>109</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -25088,7 +25314,7 @@
         <v>1010901</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F72" s="3">
         <v>1</v>
@@ -25106,40 +25332,43 @@
         <v>500</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>921</v>
+        <v>907</v>
+      </c>
+      <c r="N72" s="3">
+        <v>12</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P72" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q72" s="3"/>
-      <c r="R72" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R72" s="3"/>
       <c r="S72" s="3" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="U72" s="3"/>
+        <v>930</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-    </row>
-    <row r="73" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>109</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C73" s="3">
         <v>2</v>
@@ -25148,7 +25377,7 @@
         <v>1010902</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F73" s="3">
         <v>1</v>
@@ -25166,40 +25395,43 @@
         <v>500</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="N73" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="N73" s="3">
+        <v>12</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P73" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O73" s="3" t="s">
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S73" s="3" t="s">
-        <v>933</v>
-      </c>
       <c r="T73" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="U73" s="3"/>
+        <v>931</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>948</v>
+      </c>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
-    </row>
-    <row r="74" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>109</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C74" s="3">
         <v>3</v>
@@ -25208,7 +25440,7 @@
         <v>1010903</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F74" s="3">
         <v>1</v>
@@ -25226,40 +25458,43 @@
         <v>500</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>921</v>
+        <v>909</v>
+      </c>
+      <c r="N74" s="3">
+        <v>12</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P74" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q74" s="3"/>
-      <c r="R74" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R74" s="3"/>
       <c r="S74" s="3" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="U74" s="3"/>
+        <v>932</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-    </row>
-    <row r="75" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>109</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C75" s="3">
         <v>4</v>
@@ -25268,7 +25503,7 @@
         <v>1010904</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F75" s="3">
         <v>1</v>
@@ -25286,40 +25521,43 @@
         <v>500</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="N75" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="N75" s="3">
+        <v>12</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P75" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O75" s="3" t="s">
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>935</v>
-      </c>
       <c r="T75" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="U75" s="3"/>
+        <v>933</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
-    </row>
-    <row r="76" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>109</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C76" s="3">
         <v>5</v>
@@ -25328,7 +25566,7 @@
         <v>1010905</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -25346,40 +25584,43 @@
         <v>500</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>921</v>
+        <v>911</v>
+      </c>
+      <c r="N76" s="3">
+        <v>12</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P76" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q76" s="3"/>
-      <c r="R76" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R76" s="3"/>
       <c r="S76" s="3" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="U76" s="3"/>
+        <v>934</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
-    </row>
-    <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3"/>
+    </row>
+    <row r="77" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>109</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C77" s="3">
         <v>6</v>
@@ -25388,7 +25629,7 @@
         <v>1010906</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F77" s="3">
         <v>1</v>
@@ -25406,48 +25647,51 @@
         <v>500</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="N77" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="N77" s="3">
+        <v>12</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P77" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O77" s="3" t="s">
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S77" s="3" t="s">
+      <c r="T77" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="V77" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="T77" s="3" t="s">
+      <c r="W77" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="U77" s="3" t="s">
+      <c r="X77" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="V77" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="W77" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="X77" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>109</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C78" s="3">
         <v>7</v>
@@ -25456,7 +25700,7 @@
         <v>1010907</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F78" s="3">
         <v>2</v>
@@ -25474,40 +25718,43 @@
         <v>500</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>921</v>
+        <v>913</v>
+      </c>
+      <c r="N78" s="3">
+        <v>12</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P78" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q78" s="3"/>
-      <c r="R78" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R78" s="3"/>
       <c r="S78" s="3" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="U78" s="3"/>
+        <v>930</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
-    </row>
-    <row r="79" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y78" s="3"/>
+    </row>
+    <row r="79" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>109</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C79" s="3">
         <v>8</v>
@@ -25516,7 +25763,7 @@
         <v>1010908</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F79" s="3">
         <v>2</v>
@@ -25534,40 +25781,43 @@
         <v>500</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="N79" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="N79" s="3">
+        <v>12</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P79" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O79" s="3" t="s">
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S79" s="3" t="s">
-        <v>933</v>
-      </c>
       <c r="T79" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="U79" s="3"/>
+        <v>931</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>948</v>
+      </c>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
-    </row>
-    <row r="80" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>109</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C80" s="3">
         <v>9</v>
@@ -25576,7 +25826,7 @@
         <v>1010909</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F80" s="3">
         <v>2</v>
@@ -25594,40 +25844,43 @@
         <v>500</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>921</v>
+        <v>915</v>
+      </c>
+      <c r="N80" s="3">
+        <v>12</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P80" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q80" s="3"/>
-      <c r="R80" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R80" s="3"/>
       <c r="S80" s="3" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="U80" s="3"/>
+        <v>932</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
-    </row>
-    <row r="81" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>109</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C81" s="3">
         <v>10</v>
@@ -25636,7 +25889,7 @@
         <v>1010910</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
@@ -25654,40 +25907,43 @@
         <v>500</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="N81" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="N81" s="3">
+        <v>12</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P81" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O81" s="3" t="s">
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>935</v>
-      </c>
       <c r="T81" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="U81" s="3"/>
+        <v>933</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
-    </row>
-    <row r="82" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>109</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C82" s="3">
         <v>11</v>
@@ -25696,7 +25952,7 @@
         <v>1010911</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F82" s="3">
         <v>2</v>
@@ -25714,40 +25970,43 @@
         <v>500</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="N82" s="3">
+        <v>12</v>
+      </c>
+      <c r="O82" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="N82" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="P82" s="3"/>
+      <c r="P82" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="Q82" s="3"/>
-      <c r="R82" s="3" t="s">
-        <v>926</v>
-      </c>
+      <c r="R82" s="3"/>
       <c r="S82" s="3" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="U82" s="3"/>
+        <v>934</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>109</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C83" s="3">
         <v>12</v>
@@ -25756,7 +26015,7 @@
         <v>1010912</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F83" s="3">
         <v>2</v>
@@ -25774,40 +26033,43 @@
         <v>500</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="N83" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="N83" s="3">
+        <v>12</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S83" s="3" t="s">
+      <c r="T83" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="T83" s="3" t="s">
+      <c r="W83" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="X83" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>946</v>
+      <c r="Y83" s="3" t="s">
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -25821,7 +26083,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25836,28 +26098,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>960</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>91</v>
@@ -25865,60 +26127,60 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/镇魂街/chapter.章节.xlsx
+++ b/Excel/镇魂街/chapter.章节.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1BDAE6-4990-4A1E-9236-8270ECDB0B58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,7 +17,7 @@
     <sheet name="挂机派遣" sheetId="29" r:id="rId7"/>
     <sheet name="挂机派遣常量" sheetId="30" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4047,7 +4048,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4242,7 +4243,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4259,24 +4260,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4553,7 +4551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,7 +4911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5486,7 +5484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -7959,14 +7957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AT243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8469,7 +8467,7 @@
         <v>35</v>
       </c>
       <c r="R4" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>44</v>
@@ -8513,24 +8511,16 @@
       <c r="AL4" s="2">
         <v>1</v>
       </c>
-      <c r="AM4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>18</v>
-      </c>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
       <c r="AO4" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AP4" s="2">
-        <v>19</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
       <c r="AS4" s="3" t="s">
         <v>664</v>
       </c>
@@ -8587,7 +8577,7 @@
         <v>35</v>
       </c>
       <c r="R5" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>44</v>
@@ -8632,22 +8622,22 @@
         <v>1</v>
       </c>
       <c r="AM5" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AN5" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>16</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>17</v>
+      </c>
+      <c r="AR5" s="2">
         <v>18</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>19</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>3</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>20</v>
       </c>
       <c r="AS5" s="3" t="s">
         <v>664</v>
@@ -8703,7 +8693,7 @@
         <v>35</v>
       </c>
       <c r="R6" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>44</v>
@@ -8748,22 +8738,22 @@
         <v>1</v>
       </c>
       <c r="AM6" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AN6" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>16</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>17</v>
+      </c>
+      <c r="AR6" s="2">
         <v>18</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>19</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>20</v>
       </c>
       <c r="AS6" s="3" t="s">
         <v>664</v>
@@ -8819,7 +8809,7 @@
         <v>35</v>
       </c>
       <c r="R7" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>44</v>
@@ -8864,22 +8854,22 @@
         <v>1</v>
       </c>
       <c r="AM7" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AN7" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO7" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AP7" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ7" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AR7" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AS7" s="3" t="s">
         <v>664</v>
@@ -8935,7 +8925,7 @@
         <v>35</v>
       </c>
       <c r="R8" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>44</v>
@@ -8980,22 +8970,22 @@
         <v>1</v>
       </c>
       <c r="AM8" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AN8" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AO8" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AP8" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AQ8" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AR8" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>664</v>
@@ -9051,7 +9041,7 @@
         <v>35</v>
       </c>
       <c r="R9" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>44</v>
@@ -9096,22 +9086,22 @@
         <v>1</v>
       </c>
       <c r="AM9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AN9" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AO9" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AP9" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ9" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="AR9" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AS9" s="3" t="s">
         <v>664</v>
@@ -9169,7 +9159,7 @@
         <v>45</v>
       </c>
       <c r="R10" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>44</v>
@@ -9220,22 +9210,22 @@
         <v>1</v>
       </c>
       <c r="AM10" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AN10" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AO10" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="AP10" s="2">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AQ10" s="2">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="AR10" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AS10" s="3" t="s">
         <v>664</v>
@@ -9293,7 +9283,7 @@
         <v>45</v>
       </c>
       <c r="R11" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>44</v>
@@ -9344,22 +9334,22 @@
         <v>1</v>
       </c>
       <c r="AM11" s="2">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AN11" s="2">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AO11" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="AP11" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AQ11" s="2">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="AR11" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AS11" s="3" t="s">
         <v>664</v>
@@ -9417,7 +9407,7 @@
         <v>45</v>
       </c>
       <c r="R12" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>44</v>
@@ -9468,22 +9458,22 @@
         <v>1</v>
       </c>
       <c r="AM12" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="AN12" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AO12" s="2">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="AP12" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="AQ12" s="2">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="AR12" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AS12" s="3" t="s">
         <v>664</v>
@@ -9541,7 +9531,7 @@
         <v>45</v>
       </c>
       <c r="R13" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>44</v>
@@ -9592,22 +9582,22 @@
         <v>1</v>
       </c>
       <c r="AM13" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="AN13" s="2">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AO13" s="2">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="AP13" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="AQ13" s="2">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="AR13" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AS13" s="3" t="s">
         <v>664</v>
@@ -9665,7 +9655,7 @@
         <v>45</v>
       </c>
       <c r="R14" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>44</v>
@@ -9716,22 +9706,22 @@
         <v>1</v>
       </c>
       <c r="AM14" s="2">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="AN14" s="2">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AO14" s="2">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="AP14" s="2">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="AQ14" s="2">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AR14" s="2">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="AS14" s="3" t="s">
         <v>664</v>
@@ -9789,7 +9779,7 @@
         <v>45</v>
       </c>
       <c r="R15" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>44</v>
@@ -9840,22 +9830,22 @@
         <v>1</v>
       </c>
       <c r="AM15" s="2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="AN15" s="2">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="AO15" s="2">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="AP15" s="2">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="AQ15" s="2">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="AR15" s="2">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="AS15" s="3" t="s">
         <v>664</v>
@@ -9913,7 +9903,7 @@
         <v>45</v>
       </c>
       <c r="R16" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>44</v>
@@ -9964,22 +9954,22 @@
         <v>1</v>
       </c>
       <c r="AM16" s="2">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="AN16" s="2">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="AO16" s="2">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="AP16" s="2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="AQ16" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="AR16" s="2">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="AS16" s="3" t="s">
         <v>664</v>
@@ -10037,7 +10027,7 @@
         <v>45</v>
       </c>
       <c r="R17" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>44</v>
@@ -10088,22 +10078,22 @@
         <v>1</v>
       </c>
       <c r="AM17" s="2">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="AN17" s="2">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="AO17" s="2">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="AP17" s="2">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="AQ17" s="2">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="AR17" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="AS17" s="3" t="s">
         <v>664</v>
@@ -10161,7 +10151,7 @@
         <v>45</v>
       </c>
       <c r="R18" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>44</v>
@@ -10212,22 +10202,22 @@
         <v>1</v>
       </c>
       <c r="AM18" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="AN18" s="2">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="AO18" s="2">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="AP18" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="AQ18" s="2">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="AR18" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AS18" s="3" t="s">
         <v>664</v>
@@ -10285,7 +10275,7 @@
         <v>40</v>
       </c>
       <c r="R19" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>44</v>
@@ -10336,22 +10326,22 @@
         <v>1</v>
       </c>
       <c r="AM19" s="2">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="AN19" s="2">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="AO19" s="2">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="AP19" s="2">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="AQ19" s="2">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="AR19" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AS19" s="3" t="s">
         <v>664</v>
@@ -10409,7 +10399,7 @@
         <v>40</v>
       </c>
       <c r="R20" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>44</v>
@@ -10460,22 +10450,22 @@
         <v>1</v>
       </c>
       <c r="AM20" s="2">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="AN20" s="2">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="AO20" s="2">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="AP20" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AQ20" s="2">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="AR20" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AS20" s="3" t="s">
         <v>664</v>
@@ -10533,7 +10523,7 @@
         <v>40</v>
       </c>
       <c r="R21" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>44</v>
@@ -10584,22 +10574,22 @@
         <v>1</v>
       </c>
       <c r="AM21" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="AN21" s="2">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="AO21" s="2">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AP21" s="2">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="AQ21" s="2">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="AR21" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="AS21" s="3" t="s">
         <v>664</v>
@@ -10657,7 +10647,7 @@
         <v>40</v>
       </c>
       <c r="R22" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>44</v>
@@ -10708,22 +10698,22 @@
         <v>1</v>
       </c>
       <c r="AM22" s="2">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="AN22" s="2">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="AO22" s="2">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="AP22" s="2">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="AQ22" s="2">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="AR22" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AS22" s="3" t="s">
         <v>664</v>
@@ -10781,7 +10771,7 @@
         <v>40</v>
       </c>
       <c r="R23" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>44</v>
@@ -10832,22 +10822,22 @@
         <v>1</v>
       </c>
       <c r="AM23" s="2">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="AN23" s="2">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="AO23" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="AP23" s="2">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="AQ23" s="2">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="AR23" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="AS23" s="3" t="s">
         <v>664</v>
@@ -10905,7 +10895,7 @@
         <v>40</v>
       </c>
       <c r="R24" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>44</v>
@@ -10956,22 +10946,22 @@
         <v>1</v>
       </c>
       <c r="AM24" s="2">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="AN24" s="2">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="AO24" s="2">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="AP24" s="2">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="AQ24" s="2">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="AR24" s="2">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="AS24" s="3" t="s">
         <v>664</v>
@@ -11029,7 +11019,7 @@
         <v>40</v>
       </c>
       <c r="R25" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>44</v>
@@ -11080,22 +11070,22 @@
         <v>1</v>
       </c>
       <c r="AM25" s="2">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="AN25" s="2">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="AO25" s="2">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="AP25" s="2">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="AQ25" s="2">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="AR25" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AS25" s="3" t="s">
         <v>664</v>
@@ -11153,7 +11143,7 @@
         <v>40</v>
       </c>
       <c r="R26" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>44</v>
@@ -11204,22 +11194,22 @@
         <v>1</v>
       </c>
       <c r="AM26" s="2">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="AN26" s="2">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="AO26" s="2">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="AP26" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AQ26" s="2">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="AR26" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AS26" s="3" t="s">
         <v>664</v>
@@ -11277,7 +11267,7 @@
         <v>40</v>
       </c>
       <c r="R27" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>44</v>
@@ -11328,22 +11318,22 @@
         <v>1</v>
       </c>
       <c r="AM27" s="2">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="AN27" s="2">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="AO27" s="2">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="AP27" s="2">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="AQ27" s="2">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="AR27" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AS27" s="3" t="s">
         <v>664</v>
@@ -11401,7 +11391,7 @@
         <v>40</v>
       </c>
       <c r="R28" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>44</v>
@@ -11452,22 +11442,22 @@
         <v>1</v>
       </c>
       <c r="AM28" s="2">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="AN28" s="2">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="AO28" s="2">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="AP28" s="2">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="AQ28" s="2">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="AR28" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AS28" s="3" t="s">
         <v>664</v>
@@ -11525,7 +11515,7 @@
         <v>40</v>
       </c>
       <c r="R29" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>44</v>
@@ -11576,22 +11566,22 @@
         <v>1</v>
       </c>
       <c r="AM29" s="2">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="AN29" s="2">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="AO29" s="2">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="AP29" s="2">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="AQ29" s="2">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="AR29" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AS29" s="3" t="s">
         <v>664</v>
@@ -11649,7 +11639,7 @@
         <v>40</v>
       </c>
       <c r="R30" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>44</v>
@@ -11700,22 +11690,22 @@
         <v>1</v>
       </c>
       <c r="AM30" s="2">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="AN30" s="2">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="AO30" s="2">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="AP30" s="2">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="AQ30" s="2">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="AR30" s="2">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="AS30" s="3" t="s">
         <v>664</v>
@@ -11773,7 +11763,7 @@
         <v>40</v>
       </c>
       <c r="R31" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>44</v>
@@ -11824,22 +11814,22 @@
         <v>1</v>
       </c>
       <c r="AM31" s="2">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="AN31" s="2">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="AO31" s="2">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="AP31" s="2">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="AQ31" s="2">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="AR31" s="2">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="AS31" s="3" t="s">
         <v>664</v>
@@ -11897,7 +11887,7 @@
         <v>40</v>
       </c>
       <c r="R32" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>44</v>
@@ -11948,22 +11938,22 @@
         <v>1</v>
       </c>
       <c r="AM32" s="2">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="AN32" s="2">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="AO32" s="2">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="AP32" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="AQ32" s="2">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="AR32" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AS32" s="3" t="s">
         <v>664</v>
@@ -12021,7 +12011,7 @@
         <v>40</v>
       </c>
       <c r="R33" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>44</v>
@@ -12072,22 +12062,22 @@
         <v>1</v>
       </c>
       <c r="AM33" s="2">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="AN33" s="2">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="AO33" s="2">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="AP33" s="2">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="AQ33" s="2">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="AR33" s="2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AS33" s="3" t="s">
         <v>664</v>
@@ -12147,7 +12137,7 @@
         <v>65</v>
       </c>
       <c r="R34" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>44</v>
@@ -12204,22 +12194,22 @@
         <v>1</v>
       </c>
       <c r="AM34" s="2">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="AN34" s="2">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="AO34" s="2">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="AP34" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="AQ34" s="2">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="AR34" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AS34" s="3" t="s">
         <v>664</v>
@@ -12279,7 +12269,7 @@
         <v>65</v>
       </c>
       <c r="R35" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>44</v>
@@ -12336,22 +12326,22 @@
         <v>1</v>
       </c>
       <c r="AM35" s="2">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="AN35" s="2">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="AO35" s="2">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="AP35" s="2">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="AQ35" s="2">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="AR35" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="AS35" s="3" t="s">
         <v>664</v>
@@ -12411,7 +12401,7 @@
         <v>65</v>
       </c>
       <c r="R36" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>44</v>
@@ -12468,22 +12458,22 @@
         <v>1</v>
       </c>
       <c r="AM36" s="2">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="AN36" s="2">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="AO36" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="AP36" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="AQ36" s="2">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="AR36" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AS36" s="3" t="s">
         <v>664</v>
@@ -12543,7 +12533,7 @@
         <v>65</v>
       </c>
       <c r="R37" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>44</v>
@@ -12600,22 +12590,22 @@
         <v>1</v>
       </c>
       <c r="AM37" s="2">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="AN37" s="2">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="AO37" s="2">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="AP37" s="2">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="AQ37" s="2">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="AR37" s="2">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="AS37" s="3" t="s">
         <v>664</v>
@@ -12675,7 +12665,7 @@
         <v>65</v>
       </c>
       <c r="R38" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>44</v>
@@ -12732,22 +12722,22 @@
         <v>1</v>
       </c>
       <c r="AM38" s="2">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="AN38" s="2">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="AO38" s="2">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="AP38" s="2">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="AQ38" s="2">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="AR38" s="2">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AS38" s="3" t="s">
         <v>664</v>
@@ -12807,7 +12797,7 @@
         <v>65</v>
       </c>
       <c r="R39" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>44</v>
@@ -12864,22 +12854,22 @@
         <v>1</v>
       </c>
       <c r="AM39" s="2">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="AN39" s="2">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="AO39" s="2">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="AP39" s="2">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="AQ39" s="2">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="AR39" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="AS39" s="3" t="s">
         <v>664</v>
@@ -12939,7 +12929,7 @@
         <v>65</v>
       </c>
       <c r="R40" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>44</v>
@@ -12996,22 +12986,22 @@
         <v>1</v>
       </c>
       <c r="AM40" s="2">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="AN40" s="2">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="AO40" s="2">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="AP40" s="2">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="AQ40" s="2">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="AR40" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AS40" s="3" t="s">
         <v>664</v>
@@ -13071,7 +13061,7 @@
         <v>65</v>
       </c>
       <c r="R41" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>44</v>
@@ -13128,22 +13118,22 @@
         <v>1</v>
       </c>
       <c r="AM41" s="2">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="AN41" s="2">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="AO41" s="2">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="AP41" s="2">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="AQ41" s="2">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="AR41" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AS41" s="3" t="s">
         <v>664</v>
@@ -13203,7 +13193,7 @@
         <v>65</v>
       </c>
       <c r="R42" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>44</v>
@@ -13260,22 +13250,22 @@
         <v>1</v>
       </c>
       <c r="AM42" s="2">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="AN42" s="2">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="AO42" s="2">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="AP42" s="2">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="AQ42" s="2">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="AR42" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="AS42" s="3" t="s">
         <v>664</v>
@@ -13335,7 +13325,7 @@
         <v>65</v>
       </c>
       <c r="R43" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>44</v>
@@ -13392,22 +13382,22 @@
         <v>1</v>
       </c>
       <c r="AM43" s="2">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="AN43" s="2">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="AO43" s="2">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="AP43" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="AQ43" s="2">
-        <v>3</v>
+        <v>239</v>
       </c>
       <c r="AR43" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AS43" s="3" t="s">
         <v>664</v>
@@ -13467,7 +13457,7 @@
         <v>65</v>
       </c>
       <c r="R44" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>44</v>
@@ -13524,22 +13514,22 @@
         <v>1</v>
       </c>
       <c r="AM44" s="2">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="AN44" s="2">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="AO44" s="2">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="AP44" s="2">
-        <v>19</v>
+        <v>244</v>
       </c>
       <c r="AQ44" s="2">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="AR44" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="AS44" s="3" t="s">
         <v>664</v>
@@ -13599,7 +13589,7 @@
         <v>65</v>
       </c>
       <c r="R45" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>44</v>
@@ -13656,22 +13646,22 @@
         <v>1</v>
       </c>
       <c r="AM45" s="2">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="AN45" s="2">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="AO45" s="2">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="AP45" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="AQ45" s="2">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="AR45" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="AS45" s="3" t="s">
         <v>664</v>
@@ -13731,7 +13721,7 @@
         <v>65</v>
       </c>
       <c r="R46" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>44</v>
@@ -13788,22 +13778,22 @@
         <v>1</v>
       </c>
       <c r="AM46" s="2">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="AN46" s="2">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="AO46" s="2">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="AP46" s="2">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="AQ46" s="2">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="AR46" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="AS46" s="3" t="s">
         <v>664</v>
@@ -13863,7 +13853,7 @@
         <v>65</v>
       </c>
       <c r="R47" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>44</v>
@@ -13920,22 +13910,22 @@
         <v>1</v>
       </c>
       <c r="AM47" s="2">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="AN47" s="2">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="AO47" s="2">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="AP47" s="2">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="AQ47" s="2">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="AR47" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="AS47" s="3" t="s">
         <v>664</v>
@@ -13995,7 +13985,7 @@
         <v>65</v>
       </c>
       <c r="R48" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="S48" s="2" t="s">
         <v>44</v>
@@ -14052,22 +14042,22 @@
         <v>1</v>
       </c>
       <c r="AM48" s="2">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="AN48" s="2">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="AO48" s="2">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="AP48" s="2">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="AQ48" s="2">
-        <v>3</v>
+        <v>269</v>
       </c>
       <c r="AR48" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="AS48" s="3" t="s">
         <v>664</v>
@@ -14127,7 +14117,7 @@
         <v>80</v>
       </c>
       <c r="R49" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>44</v>
@@ -14184,22 +14174,22 @@
         <v>1</v>
       </c>
       <c r="AM49" s="2">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="AN49" s="2">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="AO49" s="2">
-        <v>2</v>
+        <v>273</v>
       </c>
       <c r="AP49" s="2">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="AQ49" s="2">
-        <v>3</v>
+        <v>275</v>
       </c>
       <c r="AR49" s="2">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="AS49" s="3" t="s">
         <v>664</v>
@@ -14259,7 +14249,7 @@
         <v>80</v>
       </c>
       <c r="R50" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>44</v>
@@ -14316,22 +14306,22 @@
         <v>1</v>
       </c>
       <c r="AM50" s="2">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="AN50" s="2">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="AO50" s="2">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="AP50" s="2">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="AQ50" s="2">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="AR50" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AS50" s="3" t="s">
         <v>664</v>
@@ -14391,7 +14381,7 @@
         <v>80</v>
       </c>
       <c r="R51" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>44</v>
@@ -14448,22 +14438,22 @@
         <v>1</v>
       </c>
       <c r="AM51" s="2">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="AN51" s="2">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="AO51" s="2">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="AP51" s="2">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="AQ51" s="2">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="AR51" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="AS51" s="3" t="s">
         <v>664</v>
@@ -14523,7 +14513,7 @@
         <v>80</v>
       </c>
       <c r="R52" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>44</v>
@@ -14580,22 +14570,22 @@
         <v>1</v>
       </c>
       <c r="AM52" s="2">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="AN52" s="2">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="AO52" s="2">
-        <v>2</v>
+        <v>291</v>
       </c>
       <c r="AP52" s="2">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="AQ52" s="2">
-        <v>3</v>
+        <v>293</v>
       </c>
       <c r="AR52" s="2">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="AS52" s="3" t="s">
         <v>664</v>
@@ -14655,7 +14645,7 @@
         <v>80</v>
       </c>
       <c r="R53" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>44</v>
@@ -14712,22 +14702,22 @@
         <v>1</v>
       </c>
       <c r="AM53" s="2">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="AN53" s="2">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="AO53" s="2">
-        <v>2</v>
+        <v>297</v>
       </c>
       <c r="AP53" s="2">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="AQ53" s="2">
-        <v>3</v>
+        <v>299</v>
       </c>
       <c r="AR53" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AS53" s="3" t="s">
         <v>664</v>
@@ -14787,7 +14777,7 @@
         <v>80</v>
       </c>
       <c r="R54" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>44</v>
@@ -14844,22 +14834,22 @@
         <v>1</v>
       </c>
       <c r="AM54" s="2">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="AN54" s="2">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="AO54" s="2">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="AP54" s="2">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="AQ54" s="2">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="AR54" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AS54" s="3" t="s">
         <v>664</v>
@@ -14919,7 +14909,7 @@
         <v>80</v>
       </c>
       <c r="R55" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>44</v>
@@ -14976,22 +14966,22 @@
         <v>1</v>
       </c>
       <c r="AM55" s="2">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="AN55" s="2">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="AO55" s="2">
-        <v>2</v>
+        <v>309</v>
       </c>
       <c r="AP55" s="2">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="AQ55" s="2">
-        <v>3</v>
+        <v>311</v>
       </c>
       <c r="AR55" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="AS55" s="3" t="s">
         <v>664</v>
@@ -15051,7 +15041,7 @@
         <v>80</v>
       </c>
       <c r="R56" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>44</v>
@@ -15108,22 +15098,22 @@
         <v>1</v>
       </c>
       <c r="AM56" s="2">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="AN56" s="2">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="AO56" s="2">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="AP56" s="2">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="AQ56" s="2">
-        <v>3</v>
+        <v>317</v>
       </c>
       <c r="AR56" s="2">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="AS56" s="3" t="s">
         <v>664</v>
@@ -15183,7 +15173,7 @@
         <v>80</v>
       </c>
       <c r="R57" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>44</v>
@@ -15240,22 +15230,22 @@
         <v>1</v>
       </c>
       <c r="AM57" s="2">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="AN57" s="2">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="AO57" s="2">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="AP57" s="2">
-        <v>19</v>
+        <v>322</v>
       </c>
       <c r="AQ57" s="2">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="AR57" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AS57" s="3" t="s">
         <v>664</v>
@@ -15315,7 +15305,7 @@
         <v>80</v>
       </c>
       <c r="R58" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>44</v>
@@ -15372,22 +15362,22 @@
         <v>1</v>
       </c>
       <c r="AM58" s="2">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="AN58" s="2">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="AO58" s="2">
-        <v>2</v>
+        <v>327</v>
       </c>
       <c r="AP58" s="2">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="AQ58" s="2">
-        <v>3</v>
+        <v>329</v>
       </c>
       <c r="AR58" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AS58" s="3" t="s">
         <v>664</v>
@@ -15447,7 +15437,7 @@
         <v>80</v>
       </c>
       <c r="R59" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>44</v>
@@ -15504,22 +15494,22 @@
         <v>1</v>
       </c>
       <c r="AM59" s="2">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="AN59" s="2">
-        <v>18</v>
+        <v>332</v>
       </c>
       <c r="AO59" s="2">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="AP59" s="2">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="AQ59" s="2">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="AR59" s="2">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="AS59" s="3" t="s">
         <v>664</v>
@@ -15579,7 +15569,7 @@
         <v>80</v>
       </c>
       <c r="R60" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>44</v>
@@ -15636,22 +15626,22 @@
         <v>1</v>
       </c>
       <c r="AM60" s="2">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="AN60" s="2">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="AO60" s="2">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="AP60" s="2">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="AQ60" s="2">
-        <v>3</v>
+        <v>341</v>
       </c>
       <c r="AR60" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AS60" s="3" t="s">
         <v>664</v>
@@ -15711,7 +15701,7 @@
         <v>80</v>
       </c>
       <c r="R61" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>44</v>
@@ -15768,22 +15758,22 @@
         <v>1</v>
       </c>
       <c r="AM61" s="2">
-        <v>1</v>
+        <v>343</v>
       </c>
       <c r="AN61" s="2">
-        <v>18</v>
+        <v>344</v>
       </c>
       <c r="AO61" s="2">
-        <v>2</v>
+        <v>345</v>
       </c>
       <c r="AP61" s="2">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AQ61" s="2">
-        <v>3</v>
+        <v>347</v>
       </c>
       <c r="AR61" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AS61" s="3" t="s">
         <v>664</v>
@@ -15843,7 +15833,7 @@
         <v>80</v>
       </c>
       <c r="R62" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>44</v>
@@ -15900,22 +15890,22 @@
         <v>1</v>
       </c>
       <c r="AM62" s="2">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="AN62" s="2">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="AO62" s="2">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="AP62" s="2">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="AQ62" s="2">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="AR62" s="2">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="AS62" s="3" t="s">
         <v>664</v>
@@ -15975,7 +15965,7 @@
         <v>80</v>
       </c>
       <c r="R63" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>44</v>
@@ -16032,22 +16022,22 @@
         <v>1</v>
       </c>
       <c r="AM63" s="2">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="AN63" s="2">
-        <v>18</v>
+        <v>356</v>
       </c>
       <c r="AO63" s="2">
-        <v>2</v>
+        <v>357</v>
       </c>
       <c r="AP63" s="2">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="AQ63" s="2">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="AR63" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="AS63" s="3" t="s">
         <v>664</v>
@@ -16107,7 +16097,7 @@
         <v>125</v>
       </c>
       <c r="R64" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>44</v>
@@ -16164,22 +16154,22 @@
         <v>1</v>
       </c>
       <c r="AM64" s="2">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="AN64" s="2">
-        <v>18</v>
+        <v>362</v>
       </c>
       <c r="AO64" s="2">
-        <v>2</v>
+        <v>363</v>
       </c>
       <c r="AP64" s="2">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="AQ64" s="2">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="AR64" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AS64" s="3" t="s">
         <v>664</v>
@@ -16239,7 +16229,7 @@
         <v>125</v>
       </c>
       <c r="R65" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>44</v>
@@ -16296,22 +16286,22 @@
         <v>1</v>
       </c>
       <c r="AM65" s="2">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="AN65" s="2">
-        <v>18</v>
+        <v>368</v>
       </c>
       <c r="AO65" s="2">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="AP65" s="2">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="AQ65" s="2">
-        <v>3</v>
+        <v>371</v>
       </c>
       <c r="AR65" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="AS65" s="3" t="s">
         <v>664</v>
@@ -16371,7 +16361,7 @@
         <v>125</v>
       </c>
       <c r="R66" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>44</v>
@@ -16428,22 +16418,22 @@
         <v>1</v>
       </c>
       <c r="AM66" s="2">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="AN66" s="2">
-        <v>18</v>
+        <v>374</v>
       </c>
       <c r="AO66" s="2">
-        <v>2</v>
+        <v>375</v>
       </c>
       <c r="AP66" s="2">
-        <v>19</v>
+        <v>376</v>
       </c>
       <c r="AQ66" s="2">
-        <v>3</v>
+        <v>377</v>
       </c>
       <c r="AR66" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="AS66" s="3" t="s">
         <v>664</v>
@@ -16503,7 +16493,7 @@
         <v>125</v>
       </c>
       <c r="R67" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>44</v>
@@ -16560,22 +16550,22 @@
         <v>1</v>
       </c>
       <c r="AM67" s="2">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="AN67" s="2">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="AO67" s="2">
-        <v>2</v>
+        <v>381</v>
       </c>
       <c r="AP67" s="2">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="AQ67" s="2">
-        <v>3</v>
+        <v>383</v>
       </c>
       <c r="AR67" s="2">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="AS67" s="3" t="s">
         <v>664</v>
@@ -16635,7 +16625,7 @@
         <v>125</v>
       </c>
       <c r="R68" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>44</v>
@@ -16692,22 +16682,22 @@
         <v>1</v>
       </c>
       <c r="AM68" s="2">
-        <v>1</v>
+        <v>385</v>
       </c>
       <c r="AN68" s="2">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="AO68" s="2">
-        <v>2</v>
+        <v>387</v>
       </c>
       <c r="AP68" s="2">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="AQ68" s="2">
-        <v>3</v>
+        <v>389</v>
       </c>
       <c r="AR68" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AS68" s="3" t="s">
         <v>664</v>
@@ -16767,7 +16757,7 @@
         <v>125</v>
       </c>
       <c r="R69" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>44</v>
@@ -16824,22 +16814,22 @@
         <v>1</v>
       </c>
       <c r="AM69" s="2">
-        <v>1</v>
+        <v>391</v>
       </c>
       <c r="AN69" s="2">
-        <v>18</v>
+        <v>392</v>
       </c>
       <c r="AO69" s="2">
-        <v>2</v>
+        <v>393</v>
       </c>
       <c r="AP69" s="2">
-        <v>19</v>
+        <v>394</v>
       </c>
       <c r="AQ69" s="2">
-        <v>3</v>
+        <v>395</v>
       </c>
       <c r="AR69" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="AS69" s="3" t="s">
         <v>664</v>
@@ -16899,7 +16889,7 @@
         <v>125</v>
       </c>
       <c r="R70" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>44</v>
@@ -16956,22 +16946,22 @@
         <v>1</v>
       </c>
       <c r="AM70" s="2">
-        <v>1</v>
+        <v>397</v>
       </c>
       <c r="AN70" s="2">
-        <v>18</v>
+        <v>398</v>
       </c>
       <c r="AO70" s="2">
-        <v>2</v>
+        <v>399</v>
       </c>
       <c r="AP70" s="2">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="AQ70" s="2">
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="AR70" s="2">
-        <v>20</v>
+        <v>402</v>
       </c>
       <c r="AS70" s="3" t="s">
         <v>664</v>
@@ -17031,7 +17021,7 @@
         <v>125</v>
       </c>
       <c r="R71" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>44</v>
@@ -17088,22 +17078,22 @@
         <v>1</v>
       </c>
       <c r="AM71" s="2">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="AN71" s="2">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="AO71" s="2">
-        <v>2</v>
+        <v>405</v>
       </c>
       <c r="AP71" s="2">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="AQ71" s="2">
-        <v>3</v>
+        <v>407</v>
       </c>
       <c r="AR71" s="2">
-        <v>20</v>
+        <v>408</v>
       </c>
       <c r="AS71" s="3" t="s">
         <v>664</v>
@@ -17163,7 +17153,7 @@
         <v>125</v>
       </c>
       <c r="R72" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>44</v>
@@ -17220,22 +17210,22 @@
         <v>1</v>
       </c>
       <c r="AM72" s="2">
-        <v>1</v>
+        <v>409</v>
       </c>
       <c r="AN72" s="2">
-        <v>18</v>
+        <v>410</v>
       </c>
       <c r="AO72" s="2">
-        <v>2</v>
+        <v>411</v>
       </c>
       <c r="AP72" s="2">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="AQ72" s="2">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="AR72" s="2">
-        <v>20</v>
+        <v>414</v>
       </c>
       <c r="AS72" s="3" t="s">
         <v>664</v>
@@ -17295,7 +17285,7 @@
         <v>125</v>
       </c>
       <c r="R73" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>44</v>
@@ -17352,22 +17342,22 @@
         <v>1</v>
       </c>
       <c r="AM73" s="2">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="AN73" s="2">
-        <v>18</v>
+        <v>416</v>
       </c>
       <c r="AO73" s="2">
-        <v>2</v>
+        <v>417</v>
       </c>
       <c r="AP73" s="2">
-        <v>19</v>
+        <v>418</v>
       </c>
       <c r="AQ73" s="2">
-        <v>3</v>
+        <v>419</v>
       </c>
       <c r="AR73" s="2">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="AS73" s="3" t="s">
         <v>664</v>
@@ -17427,7 +17417,7 @@
         <v>125</v>
       </c>
       <c r="R74" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>44</v>
@@ -17484,22 +17474,22 @@
         <v>1</v>
       </c>
       <c r="AM74" s="2">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="AN74" s="2">
-        <v>18</v>
+        <v>422</v>
       </c>
       <c r="AO74" s="2">
-        <v>2</v>
+        <v>423</v>
       </c>
       <c r="AP74" s="2">
-        <v>19</v>
+        <v>424</v>
       </c>
       <c r="AQ74" s="2">
-        <v>3</v>
+        <v>425</v>
       </c>
       <c r="AR74" s="2">
-        <v>20</v>
+        <v>426</v>
       </c>
       <c r="AS74" s="3" t="s">
         <v>664</v>
@@ -17559,7 +17549,7 @@
         <v>125</v>
       </c>
       <c r="R75" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>44</v>
@@ -17616,22 +17606,22 @@
         <v>1</v>
       </c>
       <c r="AM75" s="2">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="AN75" s="2">
-        <v>18</v>
+        <v>428</v>
       </c>
       <c r="AO75" s="2">
-        <v>2</v>
+        <v>429</v>
       </c>
       <c r="AP75" s="2">
-        <v>19</v>
+        <v>430</v>
       </c>
       <c r="AQ75" s="2">
-        <v>3</v>
+        <v>431</v>
       </c>
       <c r="AR75" s="2">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="AS75" s="3" t="s">
         <v>664</v>
@@ -17691,7 +17681,7 @@
         <v>125</v>
       </c>
       <c r="R76" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>44</v>
@@ -17748,22 +17738,22 @@
         <v>1</v>
       </c>
       <c r="AM76" s="2">
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="AN76" s="2">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="AO76" s="2">
-        <v>2</v>
+        <v>435</v>
       </c>
       <c r="AP76" s="2">
-        <v>19</v>
+        <v>436</v>
       </c>
       <c r="AQ76" s="2">
-        <v>3</v>
+        <v>437</v>
       </c>
       <c r="AR76" s="2">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="AS76" s="3" t="s">
         <v>664</v>
@@ -17823,7 +17813,7 @@
         <v>125</v>
       </c>
       <c r="R77" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>44</v>
@@ -17880,22 +17870,22 @@
         <v>1</v>
       </c>
       <c r="AM77" s="2">
-        <v>1</v>
+        <v>439</v>
       </c>
       <c r="AN77" s="2">
-        <v>18</v>
+        <v>440</v>
       </c>
       <c r="AO77" s="2">
-        <v>2</v>
+        <v>441</v>
       </c>
       <c r="AP77" s="2">
-        <v>19</v>
+        <v>442</v>
       </c>
       <c r="AQ77" s="2">
-        <v>3</v>
+        <v>443</v>
       </c>
       <c r="AR77" s="2">
-        <v>20</v>
+        <v>444</v>
       </c>
       <c r="AS77" s="3" t="s">
         <v>664</v>
@@ -17955,7 +17945,7 @@
         <v>125</v>
       </c>
       <c r="R78" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>44</v>
@@ -18012,22 +18002,22 @@
         <v>1</v>
       </c>
       <c r="AM78" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN78" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO78" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP78" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ78" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR78" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS78" s="3" t="s">
         <v>664</v>
@@ -18087,7 +18077,7 @@
         <v>150</v>
       </c>
       <c r="R79" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>44</v>
@@ -18144,22 +18134,22 @@
         <v>1</v>
       </c>
       <c r="AM79" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN79" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO79" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP79" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ79" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR79" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS79" s="3" t="s">
         <v>664</v>
@@ -18219,7 +18209,7 @@
         <v>150</v>
       </c>
       <c r="R80" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>44</v>
@@ -18276,22 +18266,22 @@
         <v>1</v>
       </c>
       <c r="AM80" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN80" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO80" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP80" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ80" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR80" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS80" s="3" t="s">
         <v>664</v>
@@ -18351,7 +18341,7 @@
         <v>150</v>
       </c>
       <c r="R81" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>44</v>
@@ -18408,22 +18398,22 @@
         <v>1</v>
       </c>
       <c r="AM81" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN81" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO81" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP81" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ81" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR81" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS81" s="3" t="s">
         <v>664</v>
@@ -18483,7 +18473,7 @@
         <v>150</v>
       </c>
       <c r="R82" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>44</v>
@@ -18540,22 +18530,22 @@
         <v>1</v>
       </c>
       <c r="AM82" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN82" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO82" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP82" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ82" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR82" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS82" s="3" t="s">
         <v>664</v>
@@ -18615,7 +18605,7 @@
         <v>150</v>
       </c>
       <c r="R83" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>44</v>
@@ -18672,22 +18662,22 @@
         <v>1</v>
       </c>
       <c r="AM83" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN83" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO83" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP83" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ83" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR83" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS83" s="3" t="s">
         <v>664</v>
@@ -18747,7 +18737,7 @@
         <v>150</v>
       </c>
       <c r="R84" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>44</v>
@@ -18804,22 +18794,22 @@
         <v>1</v>
       </c>
       <c r="AM84" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN84" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO84" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP84" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ84" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR84" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS84" s="3" t="s">
         <v>664</v>
@@ -18879,7 +18869,7 @@
         <v>150</v>
       </c>
       <c r="R85" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>44</v>
@@ -18936,22 +18926,22 @@
         <v>1</v>
       </c>
       <c r="AM85" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN85" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO85" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP85" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ85" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR85" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS85" s="3" t="s">
         <v>664</v>
@@ -19011,7 +19001,7 @@
         <v>150</v>
       </c>
       <c r="R86" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>44</v>
@@ -19068,22 +19058,22 @@
         <v>1</v>
       </c>
       <c r="AM86" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN86" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO86" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP86" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ86" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR86" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS86" s="3" t="s">
         <v>664</v>
@@ -19143,7 +19133,7 @@
         <v>150</v>
       </c>
       <c r="R87" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>44</v>
@@ -19200,22 +19190,22 @@
         <v>1</v>
       </c>
       <c r="AM87" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN87" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO87" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP87" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ87" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR87" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS87" s="3" t="s">
         <v>664</v>
@@ -19275,7 +19265,7 @@
         <v>150</v>
       </c>
       <c r="R88" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>44</v>
@@ -19332,22 +19322,22 @@
         <v>1</v>
       </c>
       <c r="AM88" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN88" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO88" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP88" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ88" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR88" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS88" s="3" t="s">
         <v>664</v>
@@ -19407,7 +19397,7 @@
         <v>150</v>
       </c>
       <c r="R89" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>44</v>
@@ -19464,22 +19454,22 @@
         <v>1</v>
       </c>
       <c r="AM89" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN89" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO89" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP89" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ89" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR89" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS89" s="3" t="s">
         <v>664</v>
@@ -19539,7 +19529,7 @@
         <v>150</v>
       </c>
       <c r="R90" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>44</v>
@@ -19596,22 +19586,22 @@
         <v>1</v>
       </c>
       <c r="AM90" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN90" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO90" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP90" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ90" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR90" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS90" s="3" t="s">
         <v>664</v>
@@ -19671,7 +19661,7 @@
         <v>150</v>
       </c>
       <c r="R91" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>44</v>
@@ -19728,22 +19718,22 @@
         <v>1</v>
       </c>
       <c r="AM91" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN91" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO91" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP91" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ91" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR91" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS91" s="3" t="s">
         <v>664</v>
@@ -19803,7 +19793,7 @@
         <v>150</v>
       </c>
       <c r="R92" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>44</v>
@@ -19860,22 +19850,22 @@
         <v>1</v>
       </c>
       <c r="AM92" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN92" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO92" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP92" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ92" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR92" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS92" s="3" t="s">
         <v>664</v>
@@ -19935,7 +19925,7 @@
         <v>150</v>
       </c>
       <c r="R93" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>44</v>
@@ -19992,22 +19982,22 @@
         <v>1</v>
       </c>
       <c r="AM93" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN93" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO93" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP93" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ93" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR93" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS93" s="3" t="s">
         <v>664</v>
@@ -20069,7 +20059,7 @@
         <v>185</v>
       </c>
       <c r="R94" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>44</v>
@@ -20128,22 +20118,22 @@
         <v>1</v>
       </c>
       <c r="AM94" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN94" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO94" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP94" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ94" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR94" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS94" s="3" t="s">
         <v>664</v>
@@ -20205,7 +20195,7 @@
         <v>185</v>
       </c>
       <c r="R95" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>44</v>
@@ -20264,22 +20254,22 @@
         <v>1</v>
       </c>
       <c r="AM95" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN95" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO95" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP95" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ95" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR95" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS95" s="3" t="s">
         <v>664</v>
@@ -20341,7 +20331,7 @@
         <v>185</v>
       </c>
       <c r="R96" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>44</v>
@@ -20400,22 +20390,22 @@
         <v>1</v>
       </c>
       <c r="AM96" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN96" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO96" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP96" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ96" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR96" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS96" s="3" t="s">
         <v>664</v>
@@ -20477,7 +20467,7 @@
         <v>185</v>
       </c>
       <c r="R97" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>44</v>
@@ -20536,22 +20526,22 @@
         <v>1</v>
       </c>
       <c r="AM97" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN97" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO97" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP97" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ97" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR97" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS97" s="3" t="s">
         <v>664</v>
@@ -20613,7 +20603,7 @@
         <v>185</v>
       </c>
       <c r="R98" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>44</v>
@@ -20672,22 +20662,22 @@
         <v>1</v>
       </c>
       <c r="AM98" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN98" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO98" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP98" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ98" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR98" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS98" s="3" t="s">
         <v>664</v>
@@ -20749,7 +20739,7 @@
         <v>185</v>
       </c>
       <c r="R99" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>44</v>
@@ -20808,22 +20798,22 @@
         <v>1</v>
       </c>
       <c r="AM99" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN99" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO99" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP99" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ99" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR99" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS99" s="3" t="s">
         <v>664</v>
@@ -20885,7 +20875,7 @@
         <v>185</v>
       </c>
       <c r="R100" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>44</v>
@@ -20944,22 +20934,22 @@
         <v>1</v>
       </c>
       <c r="AM100" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN100" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO100" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP100" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ100" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR100" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS100" s="3" t="s">
         <v>664</v>
@@ -21021,7 +21011,7 @@
         <v>185</v>
       </c>
       <c r="R101" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>44</v>
@@ -21080,22 +21070,22 @@
         <v>1</v>
       </c>
       <c r="AM101" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN101" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO101" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP101" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ101" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR101" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS101" s="3" t="s">
         <v>664</v>
@@ -21157,7 +21147,7 @@
         <v>185</v>
       </c>
       <c r="R102" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>44</v>
@@ -21216,22 +21206,22 @@
         <v>1</v>
       </c>
       <c r="AM102" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN102" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO102" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP102" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ102" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR102" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS102" s="3" t="s">
         <v>664</v>
@@ -21293,7 +21283,7 @@
         <v>185</v>
       </c>
       <c r="R103" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>44</v>
@@ -21352,22 +21342,22 @@
         <v>1</v>
       </c>
       <c r="AM103" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN103" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO103" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP103" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ103" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR103" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS103" s="3" t="s">
         <v>664</v>
@@ -21429,7 +21419,7 @@
         <v>185</v>
       </c>
       <c r="R104" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>44</v>
@@ -21488,22 +21478,22 @@
         <v>1</v>
       </c>
       <c r="AM104" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN104" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO104" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP104" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ104" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR104" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS104" s="3" t="s">
         <v>664</v>
@@ -21565,7 +21555,7 @@
         <v>185</v>
       </c>
       <c r="R105" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>44</v>
@@ -21624,22 +21614,22 @@
         <v>1</v>
       </c>
       <c r="AM105" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN105" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO105" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP105" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ105" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR105" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS105" s="3" t="s">
         <v>664</v>
@@ -21701,7 +21691,7 @@
         <v>185</v>
       </c>
       <c r="R106" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>44</v>
@@ -21760,22 +21750,22 @@
         <v>1</v>
       </c>
       <c r="AM106" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN106" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO106" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP106" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ106" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR106" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS106" s="3" t="s">
         <v>664</v>
@@ -21837,7 +21827,7 @@
         <v>185</v>
       </c>
       <c r="R107" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>44</v>
@@ -21896,22 +21886,22 @@
         <v>1</v>
       </c>
       <c r="AM107" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN107" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO107" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP107" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ107" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR107" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS107" s="3" t="s">
         <v>664</v>
@@ -21973,7 +21963,7 @@
         <v>185</v>
       </c>
       <c r="R108" s="2">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>44</v>
@@ -22032,22 +22022,22 @@
         <v>1</v>
       </c>
       <c r="AM108" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN108" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO108" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP108" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ108" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR108" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS108" s="3" t="s">
         <v>664</v>
@@ -22109,7 +22099,7 @@
         <v>300</v>
       </c>
       <c r="R109" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>44</v>
@@ -22168,22 +22158,22 @@
         <v>1</v>
       </c>
       <c r="AM109" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN109" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO109" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP109" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ109" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR109" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS109" s="3" t="s">
         <v>664</v>
@@ -22245,7 +22235,7 @@
         <v>300</v>
       </c>
       <c r="R110" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>44</v>
@@ -22304,22 +22294,22 @@
         <v>1</v>
       </c>
       <c r="AM110" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN110" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO110" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP110" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ110" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR110" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS110" s="3" t="s">
         <v>664</v>
@@ -22381,7 +22371,7 @@
         <v>300</v>
       </c>
       <c r="R111" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>44</v>
@@ -22440,22 +22430,22 @@
         <v>1</v>
       </c>
       <c r="AM111" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN111" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO111" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP111" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ111" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR111" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS111" s="3" t="s">
         <v>664</v>
@@ -22517,7 +22507,7 @@
         <v>300</v>
       </c>
       <c r="R112" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>44</v>
@@ -22576,22 +22566,22 @@
         <v>1</v>
       </c>
       <c r="AM112" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN112" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO112" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP112" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ112" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR112" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS112" s="3" t="s">
         <v>664</v>
@@ -22653,7 +22643,7 @@
         <v>300</v>
       </c>
       <c r="R113" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>44</v>
@@ -22712,22 +22702,22 @@
         <v>1</v>
       </c>
       <c r="AM113" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN113" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO113" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP113" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ113" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR113" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS113" s="3" t="s">
         <v>664</v>
@@ -22789,7 +22779,7 @@
         <v>300</v>
       </c>
       <c r="R114" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>44</v>
@@ -22848,22 +22838,22 @@
         <v>1</v>
       </c>
       <c r="AM114" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN114" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO114" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP114" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ114" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR114" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS114" s="3" t="s">
         <v>664</v>
@@ -22925,7 +22915,7 @@
         <v>300</v>
       </c>
       <c r="R115" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>44</v>
@@ -22984,22 +22974,22 @@
         <v>1</v>
       </c>
       <c r="AM115" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN115" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO115" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP115" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ115" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR115" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS115" s="3" t="s">
         <v>664</v>
@@ -23061,7 +23051,7 @@
         <v>300</v>
       </c>
       <c r="R116" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>44</v>
@@ -23120,22 +23110,22 @@
         <v>1</v>
       </c>
       <c r="AM116" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN116" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO116" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP116" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ116" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR116" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS116" s="3" t="s">
         <v>664</v>
@@ -23197,7 +23187,7 @@
         <v>300</v>
       </c>
       <c r="R117" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>44</v>
@@ -23256,22 +23246,22 @@
         <v>1</v>
       </c>
       <c r="AM117" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN117" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO117" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP117" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ117" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR117" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS117" s="3" t="s">
         <v>664</v>
@@ -23333,7 +23323,7 @@
         <v>300</v>
       </c>
       <c r="R118" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>44</v>
@@ -23392,22 +23382,22 @@
         <v>1</v>
       </c>
       <c r="AM118" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN118" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO118" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP118" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ118" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR118" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS118" s="3" t="s">
         <v>664</v>
@@ -23469,7 +23459,7 @@
         <v>300</v>
       </c>
       <c r="R119" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S119" s="2" t="s">
         <v>44</v>
@@ -23528,22 +23518,22 @@
         <v>1</v>
       </c>
       <c r="AM119" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN119" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO119" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP119" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ119" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR119" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS119" s="3" t="s">
         <v>664</v>
@@ -23605,7 +23595,7 @@
         <v>300</v>
       </c>
       <c r="R120" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>44</v>
@@ -23664,22 +23654,22 @@
         <v>1</v>
       </c>
       <c r="AM120" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN120" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO120" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP120" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ120" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR120" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS120" s="3" t="s">
         <v>664</v>
@@ -23741,7 +23731,7 @@
         <v>300</v>
       </c>
       <c r="R121" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S121" s="2" t="s">
         <v>44</v>
@@ -23800,22 +23790,22 @@
         <v>1</v>
       </c>
       <c r="AM121" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN121" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO121" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP121" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ121" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR121" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS121" s="3" t="s">
         <v>664</v>
@@ -23877,7 +23867,7 @@
         <v>300</v>
       </c>
       <c r="R122" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>44</v>
@@ -23936,22 +23926,22 @@
         <v>1</v>
       </c>
       <c r="AM122" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN122" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO122" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP122" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ122" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR122" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS122" s="3" t="s">
         <v>664</v>
@@ -24013,7 +24003,7 @@
         <v>300</v>
       </c>
       <c r="R123" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S123" s="2" t="s">
         <v>44</v>
@@ -24072,22 +24062,22 @@
         <v>1</v>
       </c>
       <c r="AM123" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN123" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO123" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP123" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ123" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR123" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS123" s="3" t="s">
         <v>664</v>
@@ -24143,7 +24133,7 @@
         <v>50</v>
       </c>
       <c r="R124" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S124" s="2" t="s">
         <v>44</v>
@@ -24188,22 +24178,22 @@
         <v>1</v>
       </c>
       <c r="AM124" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN124" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO124" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP124" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ124" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR124" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS124" s="3" t="s">
         <v>665</v>
@@ -24259,7 +24249,7 @@
         <v>50</v>
       </c>
       <c r="R125" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>44</v>
@@ -24304,22 +24294,22 @@
         <v>1</v>
       </c>
       <c r="AM125" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN125" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO125" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP125" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ125" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR125" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS125" s="3" t="s">
         <v>665</v>
@@ -24375,7 +24365,7 @@
         <v>50</v>
       </c>
       <c r="R126" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S126" s="2" t="s">
         <v>44</v>
@@ -24420,22 +24410,22 @@
         <v>1</v>
       </c>
       <c r="AM126" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN126" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO126" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP126" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ126" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR126" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS126" s="3" t="s">
         <v>665</v>
@@ -24491,7 +24481,7 @@
         <v>50</v>
       </c>
       <c r="R127" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S127" s="2" t="s">
         <v>44</v>
@@ -24536,22 +24526,22 @@
         <v>1</v>
       </c>
       <c r="AM127" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN127" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO127" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP127" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ127" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR127" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS127" s="3" t="s">
         <v>665</v>
@@ -24607,7 +24597,7 @@
         <v>50</v>
       </c>
       <c r="R128" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S128" s="2" t="s">
         <v>44</v>
@@ -24652,22 +24642,22 @@
         <v>1</v>
       </c>
       <c r="AM128" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN128" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO128" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP128" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ128" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR128" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS128" s="3" t="s">
         <v>665</v>
@@ -24723,7 +24713,7 @@
         <v>50</v>
       </c>
       <c r="R129" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S129" s="2" t="s">
         <v>44</v>
@@ -24768,22 +24758,22 @@
         <v>1</v>
       </c>
       <c r="AM129" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN129" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO129" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP129" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ129" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR129" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS129" s="3" t="s">
         <v>665</v>
@@ -24841,7 +24831,7 @@
         <v>50</v>
       </c>
       <c r="R130" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S130" s="2" t="s">
         <v>44</v>
@@ -24892,22 +24882,22 @@
         <v>1</v>
       </c>
       <c r="AM130" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN130" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO130" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP130" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ130" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR130" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS130" s="3" t="s">
         <v>665</v>
@@ -24965,7 +24955,7 @@
         <v>50</v>
       </c>
       <c r="R131" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>44</v>
@@ -25016,22 +25006,22 @@
         <v>1</v>
       </c>
       <c r="AM131" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN131" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO131" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP131" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ131" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR131" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS131" s="3" t="s">
         <v>665</v>
@@ -25089,7 +25079,7 @@
         <v>50</v>
       </c>
       <c r="R132" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>44</v>
@@ -25140,22 +25130,22 @@
         <v>1</v>
       </c>
       <c r="AM132" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN132" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO132" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP132" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ132" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR132" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS132" s="3" t="s">
         <v>665</v>
@@ -25213,7 +25203,7 @@
         <v>50</v>
       </c>
       <c r="R133" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>44</v>
@@ -25264,22 +25254,22 @@
         <v>1</v>
       </c>
       <c r="AM133" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN133" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO133" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP133" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ133" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR133" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS133" s="3" t="s">
         <v>665</v>
@@ -25337,7 +25327,7 @@
         <v>50</v>
       </c>
       <c r="R134" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>44</v>
@@ -25388,22 +25378,22 @@
         <v>1</v>
       </c>
       <c r="AM134" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN134" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO134" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP134" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ134" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR134" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS134" s="3" t="s">
         <v>665</v>
@@ -25461,7 +25451,7 @@
         <v>50</v>
       </c>
       <c r="R135" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>44</v>
@@ -25512,22 +25502,22 @@
         <v>1</v>
       </c>
       <c r="AM135" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN135" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO135" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP135" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ135" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR135" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS135" s="3" t="s">
         <v>665</v>
@@ -25585,7 +25575,7 @@
         <v>50</v>
       </c>
       <c r="R136" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>44</v>
@@ -25636,22 +25626,22 @@
         <v>1</v>
       </c>
       <c r="AM136" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN136" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO136" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP136" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ136" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR136" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS136" s="3" t="s">
         <v>665</v>
@@ -25709,7 +25699,7 @@
         <v>50</v>
       </c>
       <c r="R137" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>44</v>
@@ -25760,22 +25750,22 @@
         <v>1</v>
       </c>
       <c r="AM137" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN137" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO137" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP137" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ137" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR137" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS137" s="3" t="s">
         <v>665</v>
@@ -25833,7 +25823,7 @@
         <v>50</v>
       </c>
       <c r="R138" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>44</v>
@@ -25884,22 +25874,22 @@
         <v>1</v>
       </c>
       <c r="AM138" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN138" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO138" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP138" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ138" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR138" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS138" s="3" t="s">
         <v>665</v>
@@ -25957,7 +25947,7 @@
         <v>50</v>
       </c>
       <c r="R139" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>44</v>
@@ -26008,22 +25998,22 @@
         <v>1</v>
       </c>
       <c r="AM139" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN139" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO139" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP139" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ139" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR139" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS139" s="3" t="s">
         <v>665</v>
@@ -26081,7 +26071,7 @@
         <v>50</v>
       </c>
       <c r="R140" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>44</v>
@@ -26132,22 +26122,22 @@
         <v>1</v>
       </c>
       <c r="AM140" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN140" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO140" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP140" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ140" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR140" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS140" s="3" t="s">
         <v>665</v>
@@ -26205,7 +26195,7 @@
         <v>50</v>
       </c>
       <c r="R141" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>44</v>
@@ -26256,22 +26246,22 @@
         <v>1</v>
       </c>
       <c r="AM141" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN141" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO141" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP141" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ141" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR141" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS141" s="3" t="s">
         <v>665</v>
@@ -26329,7 +26319,7 @@
         <v>50</v>
       </c>
       <c r="R142" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>44</v>
@@ -26380,22 +26370,22 @@
         <v>1</v>
       </c>
       <c r="AM142" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN142" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO142" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP142" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ142" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR142" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS142" s="3" t="s">
         <v>665</v>
@@ -26453,7 +26443,7 @@
         <v>50</v>
       </c>
       <c r="R143" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>44</v>
@@ -26504,22 +26494,22 @@
         <v>1</v>
       </c>
       <c r="AM143" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN143" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO143" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP143" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ143" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR143" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS143" s="3" t="s">
         <v>665</v>
@@ -26577,7 +26567,7 @@
         <v>50</v>
       </c>
       <c r="R144" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>44</v>
@@ -26628,22 +26618,22 @@
         <v>1</v>
       </c>
       <c r="AM144" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN144" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO144" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP144" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ144" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR144" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS144" s="3" t="s">
         <v>665</v>
@@ -26701,7 +26691,7 @@
         <v>50</v>
       </c>
       <c r="R145" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>44</v>
@@ -26752,22 +26742,22 @@
         <v>1</v>
       </c>
       <c r="AM145" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN145" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO145" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP145" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ145" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR145" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS145" s="3" t="s">
         <v>665</v>
@@ -26825,7 +26815,7 @@
         <v>50</v>
       </c>
       <c r="R146" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>44</v>
@@ -26876,22 +26866,22 @@
         <v>1</v>
       </c>
       <c r="AM146" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN146" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO146" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP146" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ146" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR146" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS146" s="3" t="s">
         <v>665</v>
@@ -26949,7 +26939,7 @@
         <v>50</v>
       </c>
       <c r="R147" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>44</v>
@@ -27000,22 +26990,22 @@
         <v>1</v>
       </c>
       <c r="AM147" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN147" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO147" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP147" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ147" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR147" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS147" s="3" t="s">
         <v>665</v>
@@ -27073,7 +27063,7 @@
         <v>50</v>
       </c>
       <c r="R148" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>44</v>
@@ -27124,22 +27114,22 @@
         <v>1</v>
       </c>
       <c r="AM148" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN148" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO148" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP148" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ148" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR148" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS148" s="3" t="s">
         <v>665</v>
@@ -27197,7 +27187,7 @@
         <v>50</v>
       </c>
       <c r="R149" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>44</v>
@@ -27248,22 +27238,22 @@
         <v>1</v>
       </c>
       <c r="AM149" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN149" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO149" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP149" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ149" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR149" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS149" s="3" t="s">
         <v>665</v>
@@ -27321,7 +27311,7 @@
         <v>50</v>
       </c>
       <c r="R150" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>44</v>
@@ -27372,22 +27362,22 @@
         <v>1</v>
       </c>
       <c r="AM150" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN150" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO150" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP150" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ150" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR150" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS150" s="3" t="s">
         <v>665</v>
@@ -27445,7 +27435,7 @@
         <v>50</v>
       </c>
       <c r="R151" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>44</v>
@@ -27496,22 +27486,22 @@
         <v>1</v>
       </c>
       <c r="AM151" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN151" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO151" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP151" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ151" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR151" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS151" s="3" t="s">
         <v>665</v>
@@ -27569,7 +27559,7 @@
         <v>50</v>
       </c>
       <c r="R152" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>44</v>
@@ -27620,22 +27610,22 @@
         <v>1</v>
       </c>
       <c r="AM152" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN152" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO152" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP152" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ152" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR152" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS152" s="3" t="s">
         <v>665</v>
@@ -27693,7 +27683,7 @@
         <v>50</v>
       </c>
       <c r="R153" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>44</v>
@@ -27744,22 +27734,22 @@
         <v>1</v>
       </c>
       <c r="AM153" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN153" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO153" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP153" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ153" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR153" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS153" s="3" t="s">
         <v>665</v>
@@ -27819,7 +27809,7 @@
         <v>100</v>
       </c>
       <c r="R154" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>44</v>
@@ -27876,22 +27866,22 @@
         <v>1</v>
       </c>
       <c r="AM154" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN154" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO154" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP154" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ154" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR154" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS154" s="3" t="s">
         <v>665</v>
@@ -27951,7 +27941,7 @@
         <v>100</v>
       </c>
       <c r="R155" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S155" s="2" t="s">
         <v>44</v>
@@ -28008,22 +27998,22 @@
         <v>1</v>
       </c>
       <c r="AM155" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN155" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO155" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP155" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ155" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR155" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS155" s="3" t="s">
         <v>665</v>
@@ -28083,7 +28073,7 @@
         <v>100</v>
       </c>
       <c r="R156" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S156" s="2" t="s">
         <v>44</v>
@@ -28140,22 +28130,22 @@
         <v>1</v>
       </c>
       <c r="AM156" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN156" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO156" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP156" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ156" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR156" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS156" s="3" t="s">
         <v>665</v>
@@ -28215,7 +28205,7 @@
         <v>100</v>
       </c>
       <c r="R157" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S157" s="2" t="s">
         <v>44</v>
@@ -28272,22 +28262,22 @@
         <v>1</v>
       </c>
       <c r="AM157" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN157" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO157" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP157" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ157" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR157" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS157" s="3" t="s">
         <v>665</v>
@@ -28347,7 +28337,7 @@
         <v>100</v>
       </c>
       <c r="R158" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S158" s="2" t="s">
         <v>44</v>
@@ -28404,22 +28394,22 @@
         <v>1</v>
       </c>
       <c r="AM158" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN158" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO158" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP158" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ158" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR158" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS158" s="3" t="s">
         <v>665</v>
@@ -28479,7 +28469,7 @@
         <v>100</v>
       </c>
       <c r="R159" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S159" s="2" t="s">
         <v>44</v>
@@ -28536,22 +28526,22 @@
         <v>1</v>
       </c>
       <c r="AM159" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN159" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO159" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP159" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ159" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR159" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS159" s="3" t="s">
         <v>665</v>
@@ -28611,7 +28601,7 @@
         <v>100</v>
       </c>
       <c r="R160" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S160" s="2" t="s">
         <v>44</v>
@@ -28668,22 +28658,22 @@
         <v>1</v>
       </c>
       <c r="AM160" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN160" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO160" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP160" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ160" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR160" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS160" s="3" t="s">
         <v>665</v>
@@ -28743,7 +28733,7 @@
         <v>100</v>
       </c>
       <c r="R161" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S161" s="2" t="s">
         <v>44</v>
@@ -28800,22 +28790,22 @@
         <v>1</v>
       </c>
       <c r="AM161" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN161" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO161" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP161" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ161" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR161" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS161" s="3" t="s">
         <v>665</v>
@@ -28875,7 +28865,7 @@
         <v>100</v>
       </c>
       <c r="R162" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S162" s="2" t="s">
         <v>44</v>
@@ -28932,22 +28922,22 @@
         <v>1</v>
       </c>
       <c r="AM162" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN162" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO162" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP162" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ162" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR162" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS162" s="3" t="s">
         <v>665</v>
@@ -29007,7 +28997,7 @@
         <v>100</v>
       </c>
       <c r="R163" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S163" s="2" t="s">
         <v>44</v>
@@ -29064,22 +29054,22 @@
         <v>1</v>
       </c>
       <c r="AM163" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN163" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO163" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP163" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ163" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR163" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS163" s="3" t="s">
         <v>665</v>
@@ -29139,7 +29129,7 @@
         <v>100</v>
       </c>
       <c r="R164" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S164" s="2" t="s">
         <v>44</v>
@@ -29196,22 +29186,22 @@
         <v>1</v>
       </c>
       <c r="AM164" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN164" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO164" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP164" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ164" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR164" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS164" s="3" t="s">
         <v>665</v>
@@ -29271,7 +29261,7 @@
         <v>100</v>
       </c>
       <c r="R165" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S165" s="2" t="s">
         <v>44</v>
@@ -29328,22 +29318,22 @@
         <v>1</v>
       </c>
       <c r="AM165" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN165" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO165" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP165" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ165" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR165" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS165" s="3" t="s">
         <v>665</v>
@@ -29403,7 +29393,7 @@
         <v>100</v>
       </c>
       <c r="R166" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S166" s="2" t="s">
         <v>44</v>
@@ -29460,22 +29450,22 @@
         <v>1</v>
       </c>
       <c r="AM166" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN166" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO166" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP166" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ166" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR166" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS166" s="3" t="s">
         <v>665</v>
@@ -29535,7 +29525,7 @@
         <v>100</v>
       </c>
       <c r="R167" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S167" s="2" t="s">
         <v>44</v>
@@ -29592,22 +29582,22 @@
         <v>1</v>
       </c>
       <c r="AM167" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN167" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO167" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP167" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ167" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR167" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS167" s="3" t="s">
         <v>665</v>
@@ -29667,7 +29657,7 @@
         <v>100</v>
       </c>
       <c r="R168" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S168" s="2" t="s">
         <v>44</v>
@@ -29724,22 +29714,22 @@
         <v>1</v>
       </c>
       <c r="AM168" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN168" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO168" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP168" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ168" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR168" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS168" s="3" t="s">
         <v>665</v>
@@ -29799,7 +29789,7 @@
         <v>100</v>
       </c>
       <c r="R169" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S169" s="2" t="s">
         <v>44</v>
@@ -29856,22 +29846,22 @@
         <v>1</v>
       </c>
       <c r="AM169" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN169" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO169" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP169" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ169" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR169" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS169" s="3" t="s">
         <v>665</v>
@@ -29931,7 +29921,7 @@
         <v>100</v>
       </c>
       <c r="R170" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S170" s="2" t="s">
         <v>44</v>
@@ -29988,22 +29978,22 @@
         <v>1</v>
       </c>
       <c r="AM170" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN170" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO170" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP170" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ170" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR170" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS170" s="3" t="s">
         <v>665</v>
@@ -30063,7 +30053,7 @@
         <v>100</v>
       </c>
       <c r="R171" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S171" s="2" t="s">
         <v>44</v>
@@ -30120,22 +30110,22 @@
         <v>1</v>
       </c>
       <c r="AM171" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN171" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO171" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP171" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ171" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR171" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS171" s="3" t="s">
         <v>665</v>
@@ -30195,7 +30185,7 @@
         <v>100</v>
       </c>
       <c r="R172" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S172" s="2" t="s">
         <v>44</v>
@@ -30252,22 +30242,22 @@
         <v>1</v>
       </c>
       <c r="AM172" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN172" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO172" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP172" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ172" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR172" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS172" s="3" t="s">
         <v>665</v>
@@ -30327,7 +30317,7 @@
         <v>100</v>
       </c>
       <c r="R173" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S173" s="2" t="s">
         <v>44</v>
@@ -30384,22 +30374,22 @@
         <v>1</v>
       </c>
       <c r="AM173" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN173" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO173" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP173" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ173" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR173" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS173" s="3" t="s">
         <v>665</v>
@@ -30459,7 +30449,7 @@
         <v>100</v>
       </c>
       <c r="R174" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S174" s="2" t="s">
         <v>44</v>
@@ -30516,22 +30506,22 @@
         <v>1</v>
       </c>
       <c r="AM174" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN174" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO174" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP174" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ174" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR174" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS174" s="3" t="s">
         <v>665</v>
@@ -30591,7 +30581,7 @@
         <v>100</v>
       </c>
       <c r="R175" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S175" s="2" t="s">
         <v>44</v>
@@ -30648,22 +30638,22 @@
         <v>1</v>
       </c>
       <c r="AM175" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN175" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO175" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP175" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ175" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR175" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS175" s="3" t="s">
         <v>665</v>
@@ -30723,7 +30713,7 @@
         <v>100</v>
       </c>
       <c r="R176" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S176" s="2" t="s">
         <v>44</v>
@@ -30780,22 +30770,22 @@
         <v>1</v>
       </c>
       <c r="AM176" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN176" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO176" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP176" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ176" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR176" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS176" s="3" t="s">
         <v>665</v>
@@ -30855,7 +30845,7 @@
         <v>100</v>
       </c>
       <c r="R177" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S177" s="2" t="s">
         <v>44</v>
@@ -30912,22 +30902,22 @@
         <v>1</v>
       </c>
       <c r="AM177" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN177" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO177" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP177" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ177" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR177" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS177" s="3" t="s">
         <v>665</v>
@@ -30987,7 +30977,7 @@
         <v>100</v>
       </c>
       <c r="R178" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S178" s="2" t="s">
         <v>44</v>
@@ -31044,22 +31034,22 @@
         <v>1</v>
       </c>
       <c r="AM178" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN178" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO178" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP178" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ178" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR178" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS178" s="3" t="s">
         <v>665</v>
@@ -31119,7 +31109,7 @@
         <v>100</v>
       </c>
       <c r="R179" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S179" s="2" t="s">
         <v>44</v>
@@ -31176,22 +31166,22 @@
         <v>1</v>
       </c>
       <c r="AM179" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN179" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO179" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP179" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ179" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR179" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS179" s="3" t="s">
         <v>665</v>
@@ -31251,7 +31241,7 @@
         <v>100</v>
       </c>
       <c r="R180" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S180" s="2" t="s">
         <v>44</v>
@@ -31308,22 +31298,22 @@
         <v>1</v>
       </c>
       <c r="AM180" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN180" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO180" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP180" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ180" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR180" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS180" s="3" t="s">
         <v>665</v>
@@ -31383,7 +31373,7 @@
         <v>100</v>
       </c>
       <c r="R181" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S181" s="2" t="s">
         <v>44</v>
@@ -31440,22 +31430,22 @@
         <v>1</v>
       </c>
       <c r="AM181" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN181" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO181" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP181" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ181" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR181" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS181" s="3" t="s">
         <v>665</v>
@@ -31515,7 +31505,7 @@
         <v>100</v>
       </c>
       <c r="R182" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S182" s="2" t="s">
         <v>44</v>
@@ -31572,22 +31562,22 @@
         <v>1</v>
       </c>
       <c r="AM182" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN182" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO182" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP182" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ182" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR182" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS182" s="3" t="s">
         <v>665</v>
@@ -31647,7 +31637,7 @@
         <v>100</v>
       </c>
       <c r="R183" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S183" s="2" t="s">
         <v>44</v>
@@ -31704,22 +31694,22 @@
         <v>1</v>
       </c>
       <c r="AM183" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN183" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO183" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP183" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ183" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR183" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS183" s="3" t="s">
         <v>665</v>
@@ -31779,7 +31769,7 @@
         <v>200</v>
       </c>
       <c r="R184" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S184" s="2" t="s">
         <v>44</v>
@@ -31836,22 +31826,22 @@
         <v>1</v>
       </c>
       <c r="AM184" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN184" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO184" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP184" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ184" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR184" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS184" s="3" t="s">
         <v>665</v>
@@ -31911,7 +31901,7 @@
         <v>200</v>
       </c>
       <c r="R185" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S185" s="2" t="s">
         <v>44</v>
@@ -31968,22 +31958,22 @@
         <v>1</v>
       </c>
       <c r="AM185" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN185" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO185" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP185" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ185" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR185" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS185" s="3" t="s">
         <v>665</v>
@@ -32043,7 +32033,7 @@
         <v>200</v>
       </c>
       <c r="R186" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S186" s="2" t="s">
         <v>44</v>
@@ -32100,22 +32090,22 @@
         <v>1</v>
       </c>
       <c r="AM186" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN186" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO186" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP186" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ186" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR186" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS186" s="3" t="s">
         <v>665</v>
@@ -32175,7 +32165,7 @@
         <v>200</v>
       </c>
       <c r="R187" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S187" s="2" t="s">
         <v>44</v>
@@ -32232,22 +32222,22 @@
         <v>1</v>
       </c>
       <c r="AM187" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN187" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO187" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP187" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ187" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR187" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS187" s="3" t="s">
         <v>665</v>
@@ -32307,7 +32297,7 @@
         <v>200</v>
       </c>
       <c r="R188" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S188" s="2" t="s">
         <v>44</v>
@@ -32364,22 +32354,22 @@
         <v>1</v>
       </c>
       <c r="AM188" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN188" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO188" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP188" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ188" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR188" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS188" s="3" t="s">
         <v>665</v>
@@ -32439,7 +32429,7 @@
         <v>200</v>
       </c>
       <c r="R189" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S189" s="2" t="s">
         <v>44</v>
@@ -32496,22 +32486,22 @@
         <v>1</v>
       </c>
       <c r="AM189" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN189" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO189" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP189" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ189" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR189" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS189" s="3" t="s">
         <v>665</v>
@@ -32571,7 +32561,7 @@
         <v>200</v>
       </c>
       <c r="R190" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S190" s="2" t="s">
         <v>44</v>
@@ -32628,22 +32618,22 @@
         <v>1</v>
       </c>
       <c r="AM190" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN190" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO190" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP190" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ190" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR190" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS190" s="3" t="s">
         <v>665</v>
@@ -32703,7 +32693,7 @@
         <v>200</v>
       </c>
       <c r="R191" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S191" s="2" t="s">
         <v>44</v>
@@ -32760,22 +32750,22 @@
         <v>1</v>
       </c>
       <c r="AM191" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN191" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO191" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP191" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ191" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR191" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS191" s="3" t="s">
         <v>665</v>
@@ -32835,7 +32825,7 @@
         <v>200</v>
       </c>
       <c r="R192" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S192" s="2" t="s">
         <v>44</v>
@@ -32892,22 +32882,22 @@
         <v>1</v>
       </c>
       <c r="AM192" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN192" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO192" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP192" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ192" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR192" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS192" s="3" t="s">
         <v>665</v>
@@ -32967,7 +32957,7 @@
         <v>200</v>
       </c>
       <c r="R193" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S193" s="2" t="s">
         <v>44</v>
@@ -33024,22 +33014,22 @@
         <v>1</v>
       </c>
       <c r="AM193" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN193" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO193" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP193" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ193" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR193" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS193" s="3" t="s">
         <v>665</v>
@@ -33099,7 +33089,7 @@
         <v>200</v>
       </c>
       <c r="R194" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S194" s="2" t="s">
         <v>44</v>
@@ -33156,22 +33146,22 @@
         <v>1</v>
       </c>
       <c r="AM194" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN194" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO194" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP194" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ194" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR194" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS194" s="3" t="s">
         <v>665</v>
@@ -33231,7 +33221,7 @@
         <v>200</v>
       </c>
       <c r="R195" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S195" s="2" t="s">
         <v>44</v>
@@ -33288,22 +33278,22 @@
         <v>1</v>
       </c>
       <c r="AM195" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN195" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO195" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP195" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ195" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR195" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS195" s="3" t="s">
         <v>665</v>
@@ -33363,7 +33353,7 @@
         <v>200</v>
       </c>
       <c r="R196" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S196" s="2" t="s">
         <v>44</v>
@@ -33420,22 +33410,22 @@
         <v>1</v>
       </c>
       <c r="AM196" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN196" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO196" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP196" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ196" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR196" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS196" s="3" t="s">
         <v>665</v>
@@ -33495,7 +33485,7 @@
         <v>200</v>
       </c>
       <c r="R197" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S197" s="2" t="s">
         <v>44</v>
@@ -33552,22 +33542,22 @@
         <v>1</v>
       </c>
       <c r="AM197" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN197" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO197" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP197" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ197" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR197" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS197" s="3" t="s">
         <v>665</v>
@@ -33627,7 +33617,7 @@
         <v>200</v>
       </c>
       <c r="R198" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S198" s="2" t="s">
         <v>44</v>
@@ -33684,22 +33674,22 @@
         <v>1</v>
       </c>
       <c r="AM198" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN198" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO198" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP198" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ198" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR198" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS198" s="3" t="s">
         <v>665</v>
@@ -33759,7 +33749,7 @@
         <v>250</v>
       </c>
       <c r="R199" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S199" s="2" t="s">
         <v>44</v>
@@ -33816,22 +33806,22 @@
         <v>1</v>
       </c>
       <c r="AM199" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN199" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO199" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP199" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ199" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR199" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS199" s="3" t="s">
         <v>665</v>
@@ -33891,7 +33881,7 @@
         <v>250</v>
       </c>
       <c r="R200" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S200" s="2" t="s">
         <v>44</v>
@@ -33948,22 +33938,22 @@
         <v>1</v>
       </c>
       <c r="AM200" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN200" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO200" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP200" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ200" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR200" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS200" s="3" t="s">
         <v>665</v>
@@ -34023,7 +34013,7 @@
         <v>250</v>
       </c>
       <c r="R201" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S201" s="2" t="s">
         <v>44</v>
@@ -34080,22 +34070,22 @@
         <v>1</v>
       </c>
       <c r="AM201" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN201" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO201" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP201" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ201" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR201" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS201" s="3" t="s">
         <v>665</v>
@@ -34155,7 +34145,7 @@
         <v>250</v>
       </c>
       <c r="R202" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S202" s="2" t="s">
         <v>44</v>
@@ -34212,22 +34202,22 @@
         <v>1</v>
       </c>
       <c r="AM202" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN202" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO202" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP202" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ202" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR202" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS202" s="3" t="s">
         <v>665</v>
@@ -34287,7 +34277,7 @@
         <v>250</v>
       </c>
       <c r="R203" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S203" s="2" t="s">
         <v>44</v>
@@ -34344,22 +34334,22 @@
         <v>1</v>
       </c>
       <c r="AM203" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN203" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO203" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP203" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ203" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR203" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS203" s="3" t="s">
         <v>665</v>
@@ -34419,7 +34409,7 @@
         <v>250</v>
       </c>
       <c r="R204" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S204" s="2" t="s">
         <v>44</v>
@@ -34476,22 +34466,22 @@
         <v>1</v>
       </c>
       <c r="AM204" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN204" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO204" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP204" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ204" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR204" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS204" s="3" t="s">
         <v>665</v>
@@ -34551,7 +34541,7 @@
         <v>250</v>
       </c>
       <c r="R205" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S205" s="2" t="s">
         <v>44</v>
@@ -34608,22 +34598,22 @@
         <v>1</v>
       </c>
       <c r="AM205" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN205" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO205" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP205" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ205" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR205" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS205" s="3" t="s">
         <v>665</v>
@@ -34683,7 +34673,7 @@
         <v>250</v>
       </c>
       <c r="R206" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S206" s="2" t="s">
         <v>44</v>
@@ -34740,22 +34730,22 @@
         <v>1</v>
       </c>
       <c r="AM206" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN206" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO206" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP206" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ206" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR206" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS206" s="3" t="s">
         <v>665</v>
@@ -34815,7 +34805,7 @@
         <v>250</v>
       </c>
       <c r="R207" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S207" s="2" t="s">
         <v>44</v>
@@ -34872,22 +34862,22 @@
         <v>1</v>
       </c>
       <c r="AM207" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN207" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO207" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP207" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ207" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR207" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS207" s="3" t="s">
         <v>665</v>
@@ -34947,7 +34937,7 @@
         <v>250</v>
       </c>
       <c r="R208" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S208" s="2" t="s">
         <v>44</v>
@@ -35004,22 +34994,22 @@
         <v>1</v>
       </c>
       <c r="AM208" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN208" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO208" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP208" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ208" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR208" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS208" s="3" t="s">
         <v>665</v>
@@ -35079,7 +35069,7 @@
         <v>250</v>
       </c>
       <c r="R209" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S209" s="2" t="s">
         <v>44</v>
@@ -35136,22 +35126,22 @@
         <v>1</v>
       </c>
       <c r="AM209" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN209" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO209" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP209" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ209" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR209" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS209" s="3" t="s">
         <v>665</v>
@@ -35211,7 +35201,7 @@
         <v>250</v>
       </c>
       <c r="R210" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S210" s="2" t="s">
         <v>44</v>
@@ -35268,22 +35258,22 @@
         <v>1</v>
       </c>
       <c r="AM210" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN210" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO210" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP210" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ210" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR210" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS210" s="3" t="s">
         <v>665</v>
@@ -35343,7 +35333,7 @@
         <v>250</v>
       </c>
       <c r="R211" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S211" s="2" t="s">
         <v>44</v>
@@ -35400,22 +35390,22 @@
         <v>1</v>
       </c>
       <c r="AM211" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN211" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO211" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP211" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ211" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR211" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS211" s="3" t="s">
         <v>665</v>
@@ -35475,7 +35465,7 @@
         <v>250</v>
       </c>
       <c r="R212" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S212" s="2" t="s">
         <v>44</v>
@@ -35532,22 +35522,22 @@
         <v>1</v>
       </c>
       <c r="AM212" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN212" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO212" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP212" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ212" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR212" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS212" s="3" t="s">
         <v>665</v>
@@ -35607,7 +35597,7 @@
         <v>250</v>
       </c>
       <c r="R213" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S213" s="2" t="s">
         <v>44</v>
@@ -35664,22 +35654,22 @@
         <v>1</v>
       </c>
       <c r="AM213" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN213" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO213" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP213" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ213" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR213" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS213" s="3" t="s">
         <v>665</v>
@@ -35741,7 +35731,7 @@
         <v>300</v>
       </c>
       <c r="R214" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S214" s="2" t="s">
         <v>44</v>
@@ -35804,22 +35794,22 @@
         <v>1</v>
       </c>
       <c r="AM214" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN214" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO214" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP214" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ214" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR214" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS214" s="3" t="s">
         <v>665</v>
@@ -35881,7 +35871,7 @@
         <v>300</v>
       </c>
       <c r="R215" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S215" s="2" t="s">
         <v>44</v>
@@ -35944,22 +35934,22 @@
         <v>1</v>
       </c>
       <c r="AM215" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN215" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO215" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP215" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ215" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR215" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS215" s="3" t="s">
         <v>665</v>
@@ -36021,7 +36011,7 @@
         <v>300</v>
       </c>
       <c r="R216" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S216" s="2" t="s">
         <v>44</v>
@@ -36084,22 +36074,22 @@
         <v>1</v>
       </c>
       <c r="AM216" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN216" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO216" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP216" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ216" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR216" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS216" s="3" t="s">
         <v>665</v>
@@ -36161,7 +36151,7 @@
         <v>300</v>
       </c>
       <c r="R217" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S217" s="2" t="s">
         <v>44</v>
@@ -36224,22 +36214,22 @@
         <v>1</v>
       </c>
       <c r="AM217" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN217" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO217" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP217" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ217" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR217" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS217" s="3" t="s">
         <v>665</v>
@@ -36301,7 +36291,7 @@
         <v>300</v>
       </c>
       <c r="R218" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S218" s="2" t="s">
         <v>44</v>
@@ -36364,22 +36354,22 @@
         <v>1</v>
       </c>
       <c r="AM218" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN218" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO218" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP218" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ218" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR218" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS218" s="3" t="s">
         <v>665</v>
@@ -36441,7 +36431,7 @@
         <v>300</v>
       </c>
       <c r="R219" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S219" s="2" t="s">
         <v>44</v>
@@ -36504,22 +36494,22 @@
         <v>1</v>
       </c>
       <c r="AM219" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN219" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO219" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP219" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ219" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR219" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS219" s="3" t="s">
         <v>665</v>
@@ -36581,7 +36571,7 @@
         <v>300</v>
       </c>
       <c r="R220" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S220" s="2" t="s">
         <v>44</v>
@@ -36644,22 +36634,22 @@
         <v>1</v>
       </c>
       <c r="AM220" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN220" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO220" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP220" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ220" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR220" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS220" s="3" t="s">
         <v>665</v>
@@ -36721,7 +36711,7 @@
         <v>300</v>
       </c>
       <c r="R221" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S221" s="2" t="s">
         <v>44</v>
@@ -36784,22 +36774,22 @@
         <v>1</v>
       </c>
       <c r="AM221" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN221" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO221" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP221" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ221" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR221" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS221" s="3" t="s">
         <v>665</v>
@@ -36861,7 +36851,7 @@
         <v>300</v>
       </c>
       <c r="R222" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S222" s="2" t="s">
         <v>44</v>
@@ -36924,22 +36914,22 @@
         <v>1</v>
       </c>
       <c r="AM222" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN222" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO222" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP222" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ222" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR222" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS222" s="3" t="s">
         <v>665</v>
@@ -37001,7 +36991,7 @@
         <v>300</v>
       </c>
       <c r="R223" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S223" s="2" t="s">
         <v>44</v>
@@ -37064,22 +37054,22 @@
         <v>1</v>
       </c>
       <c r="AM223" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN223" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO223" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP223" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ223" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR223" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS223" s="3" t="s">
         <v>665</v>
@@ -37141,7 +37131,7 @@
         <v>300</v>
       </c>
       <c r="R224" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S224" s="2" t="s">
         <v>44</v>
@@ -37204,22 +37194,22 @@
         <v>1</v>
       </c>
       <c r="AM224" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN224" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO224" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP224" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ224" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR224" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS224" s="3" t="s">
         <v>665</v>
@@ -37281,7 +37271,7 @@
         <v>300</v>
       </c>
       <c r="R225" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S225" s="2" t="s">
         <v>44</v>
@@ -37344,22 +37334,22 @@
         <v>1</v>
       </c>
       <c r="AM225" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN225" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO225" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP225" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ225" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR225" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS225" s="3" t="s">
         <v>665</v>
@@ -37421,7 +37411,7 @@
         <v>300</v>
       </c>
       <c r="R226" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S226" s="2" t="s">
         <v>44</v>
@@ -37484,22 +37474,22 @@
         <v>1</v>
       </c>
       <c r="AM226" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN226" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO226" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP226" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ226" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR226" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS226" s="3" t="s">
         <v>665</v>
@@ -37561,7 +37551,7 @@
         <v>300</v>
       </c>
       <c r="R227" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S227" s="2" t="s">
         <v>44</v>
@@ -37624,22 +37614,22 @@
         <v>1</v>
       </c>
       <c r="AM227" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN227" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO227" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP227" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ227" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR227" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS227" s="3" t="s">
         <v>665</v>
@@ -37701,7 +37691,7 @@
         <v>300</v>
       </c>
       <c r="R228" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S228" s="2" t="s">
         <v>44</v>
@@ -37764,22 +37754,22 @@
         <v>1</v>
       </c>
       <c r="AM228" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN228" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO228" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP228" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ228" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR228" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS228" s="3" t="s">
         <v>665</v>
@@ -37841,7 +37831,7 @@
         <v>450</v>
       </c>
       <c r="R229" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S229" s="2" t="s">
         <v>44</v>
@@ -37904,22 +37894,22 @@
         <v>1</v>
       </c>
       <c r="AM229" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN229" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO229" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP229" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ229" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR229" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS229" s="3" t="s">
         <v>665</v>
@@ -37981,7 +37971,7 @@
         <v>450</v>
       </c>
       <c r="R230" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S230" s="2" t="s">
         <v>44</v>
@@ -38044,22 +38034,22 @@
         <v>1</v>
       </c>
       <c r="AM230" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN230" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO230" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP230" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ230" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR230" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS230" s="3" t="s">
         <v>665</v>
@@ -38121,7 +38111,7 @@
         <v>450</v>
       </c>
       <c r="R231" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S231" s="2" t="s">
         <v>44</v>
@@ -38184,22 +38174,22 @@
         <v>1</v>
       </c>
       <c r="AM231" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN231" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO231" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP231" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ231" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR231" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS231" s="3" t="s">
         <v>665</v>
@@ -38261,7 +38251,7 @@
         <v>450</v>
       </c>
       <c r="R232" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S232" s="2" t="s">
         <v>44</v>
@@ -38324,22 +38314,22 @@
         <v>1</v>
       </c>
       <c r="AM232" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN232" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO232" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP232" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ232" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR232" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS232" s="3" t="s">
         <v>665</v>
@@ -38401,7 +38391,7 @@
         <v>450</v>
       </c>
       <c r="R233" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S233" s="2" t="s">
         <v>44</v>
@@ -38464,22 +38454,22 @@
         <v>1</v>
       </c>
       <c r="AM233" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN233" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO233" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP233" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ233" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR233" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS233" s="3" t="s">
         <v>665</v>
@@ -38541,7 +38531,7 @@
         <v>450</v>
       </c>
       <c r="R234" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S234" s="2" t="s">
         <v>44</v>
@@ -38604,22 +38594,22 @@
         <v>1</v>
       </c>
       <c r="AM234" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN234" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO234" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP234" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ234" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR234" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS234" s="3" t="s">
         <v>665</v>
@@ -38681,7 +38671,7 @@
         <v>450</v>
       </c>
       <c r="R235" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S235" s="2" t="s">
         <v>44</v>
@@ -38744,22 +38734,22 @@
         <v>1</v>
       </c>
       <c r="AM235" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN235" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO235" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP235" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ235" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR235" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS235" s="3" t="s">
         <v>665</v>
@@ -38821,7 +38811,7 @@
         <v>450</v>
       </c>
       <c r="R236" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S236" s="2" t="s">
         <v>44</v>
@@ -38884,22 +38874,22 @@
         <v>1</v>
       </c>
       <c r="AM236" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN236" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO236" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP236" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ236" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR236" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS236" s="3" t="s">
         <v>665</v>
@@ -38961,7 +38951,7 @@
         <v>450</v>
       </c>
       <c r="R237" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S237" s="2" t="s">
         <v>44</v>
@@ -39024,22 +39014,22 @@
         <v>1</v>
       </c>
       <c r="AM237" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN237" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO237" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP237" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ237" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR237" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS237" s="3" t="s">
         <v>665</v>
@@ -39101,7 +39091,7 @@
         <v>450</v>
       </c>
       <c r="R238" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S238" s="2" t="s">
         <v>44</v>
@@ -39164,22 +39154,22 @@
         <v>1</v>
       </c>
       <c r="AM238" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN238" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO238" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP238" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ238" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR238" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS238" s="3" t="s">
         <v>665</v>
@@ -39241,7 +39231,7 @@
         <v>450</v>
       </c>
       <c r="R239" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S239" s="2" t="s">
         <v>44</v>
@@ -39304,22 +39294,22 @@
         <v>1</v>
       </c>
       <c r="AM239" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN239" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO239" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP239" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ239" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR239" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS239" s="3" t="s">
         <v>665</v>
@@ -39381,7 +39371,7 @@
         <v>450</v>
       </c>
       <c r="R240" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S240" s="2" t="s">
         <v>44</v>
@@ -39444,22 +39434,22 @@
         <v>1</v>
       </c>
       <c r="AM240" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN240" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO240" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP240" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ240" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR240" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS240" s="3" t="s">
         <v>665</v>
@@ -39521,7 +39511,7 @@
         <v>450</v>
       </c>
       <c r="R241" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S241" s="2" t="s">
         <v>44</v>
@@ -39584,22 +39574,22 @@
         <v>1</v>
       </c>
       <c r="AM241" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN241" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO241" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP241" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ241" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR241" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS241" s="3" t="s">
         <v>665</v>
@@ -39661,7 +39651,7 @@
         <v>450</v>
       </c>
       <c r="R242" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S242" s="2" t="s">
         <v>44</v>
@@ -39724,22 +39714,22 @@
         <v>1</v>
       </c>
       <c r="AM242" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN242" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO242" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP242" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ242" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR242" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS242" s="3" t="s">
         <v>665</v>
@@ -39801,7 +39791,7 @@
         <v>450</v>
       </c>
       <c r="R243" s="2">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="S243" s="2" t="s">
         <v>44</v>
@@ -39864,22 +39854,22 @@
         <v>1</v>
       </c>
       <c r="AM243" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="AN243" s="2">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="AO243" s="2">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="AP243" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="AQ243" s="2">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="AR243" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AS243" s="3" t="s">
         <v>665</v>
@@ -39895,7 +39885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40203,7 +40193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40393,7 +40383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -47652,7 +47642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47697,7 +47687,7 @@
       <c r="I1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>892</v>
       </c>
     </row>

--- a/Excel/镇魂街/chapter.章节.xlsx
+++ b/Excel/镇魂街/chapter.章节.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5318" uniqueCount="1378">
   <si>
     <t>sheet名</t>
   </si>
@@ -4783,22 +4783,6 @@
   </si>
   <si>
     <t>1章第1关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -6306,7 +6290,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:G57"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6464,7 +6448,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4</f>
-        <v>金币600钻石50绿色基础材料20</v>
+        <v>金币600钻石50绿色基础材料10</v>
       </c>
       <c r="G4" s="2">
         <v>9</v>
@@ -6485,7 +6469,7 @@
         <v>648</v>
       </c>
       <c r="M4" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -8778,11 +8762,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G174" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I189" sqref="I189"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9300,12 +9284,8 @@
       <c r="W4" s="2">
         <v>300</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>6</v>
-      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -9333,7 +9313,7 @@
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="3" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2" t="s">
@@ -9412,17 +9392,13 @@
         <v>300</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
       <c r="Y5" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -9448,7 +9424,7 @@
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="3" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2" t="s">
@@ -9527,17 +9503,13 @@
         <v>300</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
       <c r="Y6" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="3"/>
@@ -9562,10 +9534,10 @@
         <v>1</v>
       </c>
       <c r="AO6" s="2"/>
-      <c r="AP6" s="3" t="s">
-        <v>1381</v>
-      </c>
-      <c r="AQ6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3" t="s">
+        <v>1377</v>
+      </c>
       <c r="AR6" s="2" t="s">
         <v>922</v>
       </c>
@@ -9642,17 +9614,13 @@
         <v>300</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
       <c r="Y7" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -9750,17 +9718,13 @@
         <v>300</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
       <c r="Y8" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -9870,7 +9834,7 @@
         <v>648</v>
       </c>
       <c r="Y9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -9985,7 +9949,7 @@
         <v>648</v>
       </c>
       <c r="Y10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -10089,7 +10053,7 @@
         <v>648</v>
       </c>
       <c r="Y11" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -10204,7 +10168,7 @@
         <v>648</v>
       </c>
       <c r="Y12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -10233,7 +10197,7 @@
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="3" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2" t="s">
@@ -38293,7 +38257,7 @@
         <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -38419,7 +38383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/chapter.章节.xlsx
+++ b/Excel/镇魂街/chapter.章节.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70CCCF3-4F31-4E89-A914-EF5FDE650860}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="AM3" authorId="0" shapeId="0">
+    <comment ref="AM3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4833,7 +4834,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5066,19 +5067,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5355,7 +5356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5715,7 +5716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6288,7 +6289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8761,14 +8762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AM221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AO203" sqref="AO203:AQ246"/>
+      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9308,10 +9309,10 @@
         <v>191</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AN4" s="2">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2" t="s">
@@ -9421,10 +9422,10 @@
         <v>191</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AN5" s="2">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2" t="s">
@@ -9534,10 +9535,10 @@
         <v>192</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AN6" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2" t="s">
@@ -9756,10 +9757,10 @@
         <v>194</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AN8" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AO8" s="2" t="s">
         <v>919</v>
@@ -9873,10 +9874,10 @@
         <v>195</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AN9" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AO9" s="3" t="s">
         <v>921</v>
@@ -10096,10 +10097,10 @@
         <v>195</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AN11" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="AO11" s="3" t="s">
         <v>924</v>
@@ -10915,10 +10916,10 @@
         <v>195</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AN18" s="2">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="AO18" s="3" t="s">
         <v>942</v>
@@ -11032,10 +11033,10 @@
         <v>191</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AN19" s="2">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="AO19" s="3" t="s">
         <v>945</v>
@@ -11149,10 +11150,10 @@
         <v>191</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AN20" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="AO20" s="3" t="s">
         <v>948</v>
@@ -11266,10 +11267,10 @@
         <v>192</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AN21" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AO21" s="3" t="s">
         <v>951</v>
@@ -11383,10 +11384,10 @@
         <v>193</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AN22" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AO22" s="3" t="s">
         <v>954</v>
@@ -11500,10 +11501,10 @@
         <v>194</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AN23" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="AO23" s="3" t="s">
         <v>957</v>
@@ -12319,10 +12320,10 @@
         <v>195</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AN30" s="2">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="AO30" s="3" t="s">
         <v>978</v>
@@ -12436,10 +12437,10 @@
         <v>191</v>
       </c>
       <c r="AM31" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AN31" s="2">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="AO31" s="3" t="s">
         <v>981</v>
@@ -12553,10 +12554,10 @@
         <v>191</v>
       </c>
       <c r="AM32" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AN32" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="AO32" s="3" t="s">
         <v>984</v>
@@ -12670,10 +12671,10 @@
         <v>192</v>
       </c>
       <c r="AM33" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AN33" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AO33" s="3" t="s">
         <v>987</v>
@@ -12787,10 +12788,10 @@
         <v>193</v>
       </c>
       <c r="AM34" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AN34" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AO34" s="3" t="s">
         <v>990</v>
@@ -12904,10 +12905,10 @@
         <v>194</v>
       </c>
       <c r="AM35" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AN35" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="AO35" s="3" t="s">
         <v>993</v>
@@ -38728,7 +38729,7 @@
       <c r="AB251" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AS246"/>
+  <autoFilter ref="A3:AS246" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -38737,7 +38738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39046,7 +39047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39236,7 +39237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49145,7 +49146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/chapter.章节.xlsx
+++ b/Excel/镇魂街/chapter.章节.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9905" uniqueCount="3426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9898" uniqueCount="3419">
   <si>
     <t>sheet名</t>
   </si>
@@ -7172,27 +7172,9 @@
     <t>pt-1-1-jlr-loc1</t>
   </si>
   <si>
-    <t>pt-1-1-jlr-loc2</t>
-  </si>
-  <si>
-    <t>pt-1-1-jlr-loc3</t>
-  </si>
-  <si>
     <t>pt-1-2-jlr-loc1</t>
   </si>
   <si>
-    <t>pt-1-2-jlr-loc2</t>
-  </si>
-  <si>
-    <t>pt-1-2-jlr-loc3</t>
-  </si>
-  <si>
-    <t>pt-1-3-jlr-loc1</t>
-  </si>
-  <si>
-    <t>pt-1-3-jlr-loc2</t>
-  </si>
-  <si>
     <t>pt-1-3-jlr-loc3</t>
   </si>
   <si>
@@ -7200,9 +7182,6 @@
   </si>
   <si>
     <t>pt-1-4-jlr-loc2</t>
-  </si>
-  <si>
-    <t>pt-1-4-jlr-loc3</t>
   </si>
   <si>
     <t>pt-1-5-jlr-loc1</t>
@@ -16720,10 +16699,10 @@
   <dimension ref="A1:AS434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AN214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4:F63"/>
+      <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17266,15 +17245,11 @@
       <c r="AN4" s="2">
         <v>48</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3" t="s">
         <v>2202</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>2203</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>2204</v>
-      </c>
+      <c r="AQ4" s="3"/>
       <c r="AR4" s="2" t="s">
         <v>524</v>
       </c>
@@ -17383,15 +17358,11 @@
       <c r="AN5" s="2">
         <v>49</v>
       </c>
-      <c r="AO5" s="3" t="s">
-        <v>2205</v>
-      </c>
+      <c r="AO5" s="3"/>
       <c r="AP5" s="3" t="s">
-        <v>2206</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>2207</v>
-      </c>
+        <v>2203</v>
+      </c>
+      <c r="AQ5" s="3"/>
       <c r="AR5" s="2" t="s">
         <v>525</v>
       </c>
@@ -17500,15 +17471,11 @@
       <c r="AN6" s="2">
         <v>48</v>
       </c>
-      <c r="AO6" s="3" t="s">
-        <v>2208</v>
-      </c>
+      <c r="AO6" s="3"/>
       <c r="AP6" s="3" t="s">
-        <v>2209</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>2210</v>
-      </c>
+        <v>2204</v>
+      </c>
+      <c r="AQ6" s="3"/>
       <c r="AR6" s="2" t="s">
         <v>526</v>
       </c>
@@ -17618,14 +17585,12 @@
         <v>4</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>2212</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>2213</v>
-      </c>
+        <v>2206</v>
+      </c>
+      <c r="AQ7" s="3"/>
       <c r="AR7" s="2"/>
       <c r="AS7" s="3" t="s">
         <v>541</v>
@@ -17733,13 +17698,13 @@
         <v>50</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="AR8" s="2" t="s">
         <v>525</v>
@@ -17846,13 +17811,13 @@
         <v>51</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
       <c r="AR9" s="2" t="s">
         <v>527</v>
@@ -17959,13 +17924,13 @@
         <v>1</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="AR10" s="2"/>
       <c r="AS10" s="3" t="s">
@@ -18070,13 +18035,13 @@
         <v>50</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>2224</v>
+        <v>2217</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
       <c r="AR11" s="2" t="s">
         <v>527</v>
@@ -18183,13 +18148,13 @@
         <v>14</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>2226</v>
+        <v>2219</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
       <c r="AQ12" s="3" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
       <c r="AR12" s="2" t="s">
         <v>524</v>
@@ -18216,7 +18181,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>3402</v>
+        <v>3395</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ref="G13:G18" si="6">"普通"&amp;MOD(C13,100)&amp;"章"&amp;"第"&amp;E13&amp;"关"</f>
@@ -18300,13 +18265,13 @@
         <v>4</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>2211</v>
+        <v>2219</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>2212</v>
+        <v>2220</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>2213</v>
+        <v>2221</v>
       </c>
       <c r="AR13" s="2"/>
       <c r="AS13" s="3" t="s">
@@ -18331,7 +18296,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>3403</v>
+        <v>3396</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="6"/>
@@ -18415,13 +18380,13 @@
         <v>50</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>2214</v>
+        <v>2219</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>2215</v>
+        <v>2220</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>2216</v>
+        <v>2221</v>
       </c>
       <c r="AR14" s="2" t="s">
         <v>524</v>
@@ -18448,7 +18413,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3404</v>
+        <v>3397</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="6"/>
@@ -18528,13 +18493,13 @@
         <v>51</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="AR15" s="2" t="s">
         <v>524</v>
@@ -18561,7 +18526,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>3405</v>
+        <v>3398</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="6"/>
@@ -18641,13 +18606,13 @@
         <v>1</v>
       </c>
       <c r="AO16" s="2" t="s">
+        <v>2219</v>
+      </c>
+      <c r="AP16" s="2" t="s">
         <v>2220</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>2221</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>2222</v>
       </c>
       <c r="AR16" s="2"/>
       <c r="AS16" s="3" t="s">
@@ -18672,7 +18637,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>3406</v>
+        <v>3399</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="6"/>
@@ -18752,13 +18717,13 @@
         <v>50</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="AQ17" s="3" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="AR17" s="2" t="s">
         <v>524</v>
@@ -18785,7 +18750,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>3407</v>
+        <v>3400</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="6"/>
@@ -18865,13 +18830,13 @@
         <v>14</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>2226</v>
+        <v>2219</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
       <c r="AR18" s="2" t="s">
         <v>524</v>
@@ -19204,13 +19169,13 @@
         <v>17</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>2231</v>
+        <v>2224</v>
       </c>
       <c r="AR21" s="3" t="s">
         <v>267</v>
@@ -19317,13 +19282,13 @@
         <v>18</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>2232</v>
+        <v>2225</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
       <c r="AQ22" s="3" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
       <c r="AR22" s="3" t="s">
         <v>267</v>
@@ -19430,13 +19395,13 @@
         <v>19</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>2235</v>
+        <v>2228</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
       <c r="AQ23" s="3" t="s">
-        <v>2237</v>
+        <v>2230</v>
       </c>
       <c r="AR23" s="3" t="s">
         <v>267</v>
@@ -19543,13 +19508,13 @@
         <v>55</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>2238</v>
+        <v>2231</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>2239</v>
+        <v>2232</v>
       </c>
       <c r="AQ24" s="3" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
       <c r="AR24" s="3" t="s">
         <v>267</v>
@@ -19656,13 +19621,13 @@
         <v>56</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>2241</v>
+        <v>2234</v>
       </c>
       <c r="AP25" s="3" t="s">
-        <v>2242</v>
+        <v>2235</v>
       </c>
       <c r="AQ25" s="3" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="AR25" s="3" t="s">
         <v>267</v>
@@ -19769,13 +19734,13 @@
         <v>57</v>
       </c>
       <c r="AO26" s="3" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="AP26" s="3" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="AQ26" s="3" t="s">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="AR26" s="3" t="s">
         <v>267</v>
@@ -19882,13 +19847,13 @@
         <v>52</v>
       </c>
       <c r="AO27" s="3" t="s">
-        <v>2247</v>
+        <v>2240</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>2248</v>
+        <v>2241</v>
       </c>
       <c r="AQ27" s="3" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="AR27" s="3" t="s">
         <v>267</v>
@@ -19915,7 +19880,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>3408</v>
+        <v>3401</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" ref="G28:G33" si="11">"普通"&amp;MOD(C28,100)&amp;"章"&amp;"第"&amp;E28&amp;"关"</f>
@@ -19995,13 +19960,13 @@
         <v>18</v>
       </c>
       <c r="AO28" s="3" t="s">
-        <v>2232</v>
+        <v>2240</v>
       </c>
       <c r="AP28" s="3" t="s">
-        <v>2233</v>
+        <v>2241</v>
       </c>
       <c r="AQ28" s="3" t="s">
-        <v>2234</v>
+        <v>2242</v>
       </c>
       <c r="AR28" s="3" t="s">
         <v>267</v>
@@ -20028,7 +19993,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>3409</v>
+        <v>3402</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="11"/>
@@ -20108,13 +20073,13 @@
         <v>19</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>2235</v>
+        <v>2240</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>2236</v>
+        <v>2241</v>
       </c>
       <c r="AQ29" s="3" t="s">
-        <v>2237</v>
+        <v>2242</v>
       </c>
       <c r="AR29" s="3" t="s">
         <v>267</v>
@@ -20141,7 +20106,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>3410</v>
+        <v>3403</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="11"/>
@@ -20221,13 +20186,13 @@
         <v>55</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="AQ30" s="3" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="AR30" s="3" t="s">
         <v>267</v>
@@ -20254,7 +20219,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>3411</v>
+        <v>3404</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="11"/>
@@ -20334,13 +20299,13 @@
         <v>56</v>
       </c>
       <c r="AO31" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="AP31" s="3" t="s">
         <v>2241</v>
       </c>
-      <c r="AP31" s="3" t="s">
+      <c r="AQ31" s="3" t="s">
         <v>2242</v>
-      </c>
-      <c r="AQ31" s="3" t="s">
-        <v>2243</v>
       </c>
       <c r="AR31" s="3" t="s">
         <v>267</v>
@@ -20367,7 +20332,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>3412</v>
+        <v>3405</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="11"/>
@@ -20447,13 +20412,13 @@
         <v>57</v>
       </c>
       <c r="AO32" s="3" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="AP32" s="3" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="AQ32" s="3" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="AR32" s="3" t="s">
         <v>267</v>
@@ -20480,7 +20445,7 @@
         <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>3413</v>
+        <v>3406</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="11"/>
@@ -20560,13 +20525,13 @@
         <v>52</v>
       </c>
       <c r="AO33" s="3" t="s">
-        <v>2247</v>
+        <v>2219</v>
       </c>
       <c r="AP33" s="3" t="s">
-        <v>2248</v>
+        <v>2220</v>
       </c>
       <c r="AQ33" s="3" t="s">
-        <v>2249</v>
+        <v>2221</v>
       </c>
       <c r="AR33" s="3" t="s">
         <v>267</v>
@@ -20673,13 +20638,13 @@
         <v>53</v>
       </c>
       <c r="AO34" s="3" t="s">
-        <v>2250</v>
+        <v>2243</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>2251</v>
+        <v>2244</v>
       </c>
       <c r="AQ34" s="3" t="s">
-        <v>2252</v>
+        <v>2245</v>
       </c>
       <c r="AR34" s="3" t="s">
         <v>267</v>
@@ -20786,13 +20751,13 @@
         <v>54</v>
       </c>
       <c r="AO35" s="3" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="AP35" s="3" t="s">
-        <v>2254</v>
+        <v>2247</v>
       </c>
       <c r="AQ35" s="3" t="s">
-        <v>2255</v>
+        <v>2248</v>
       </c>
       <c r="AR35" s="3" t="s">
         <v>267</v>
@@ -20899,13 +20864,13 @@
         <v>48</v>
       </c>
       <c r="AO36" s="3" t="s">
-        <v>2256</v>
+        <v>2249</v>
       </c>
       <c r="AP36" s="3" t="s">
-        <v>2257</v>
+        <v>2250</v>
       </c>
       <c r="AQ36" s="3" t="s">
-        <v>2258</v>
+        <v>2251</v>
       </c>
       <c r="AR36" s="3" t="s">
         <v>267</v>
@@ -21012,13 +20977,13 @@
         <v>49</v>
       </c>
       <c r="AO37" s="3" t="s">
-        <v>2259</v>
+        <v>2252</v>
       </c>
       <c r="AP37" s="3" t="s">
-        <v>2260</v>
+        <v>2253</v>
       </c>
       <c r="AQ37" s="3" t="s">
-        <v>2261</v>
+        <v>2254</v>
       </c>
       <c r="AR37" s="3" t="s">
         <v>267</v>
@@ -21125,13 +21090,13 @@
         <v>48</v>
       </c>
       <c r="AO38" s="3" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
       <c r="AP38" s="3" t="s">
-        <v>2263</v>
+        <v>2256</v>
       </c>
       <c r="AQ38" s="3" t="s">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="AR38" s="3" t="s">
         <v>267</v>
@@ -21238,13 +21203,13 @@
         <v>50</v>
       </c>
       <c r="AO39" s="3" t="s">
-        <v>2265</v>
+        <v>2258</v>
       </c>
       <c r="AP39" s="3" t="s">
-        <v>2266</v>
+        <v>2259</v>
       </c>
       <c r="AQ39" s="3" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
       <c r="AR39" s="3" t="s">
         <v>267</v>
@@ -21351,13 +21316,13 @@
         <v>51</v>
       </c>
       <c r="AO40" s="3" t="s">
-        <v>2268</v>
+        <v>2261</v>
       </c>
       <c r="AP40" s="3" t="s">
-        <v>2269</v>
+        <v>2262</v>
       </c>
       <c r="AQ40" s="3" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="AR40" s="3" t="s">
         <v>267</v>
@@ -21464,13 +21429,13 @@
         <v>50</v>
       </c>
       <c r="AO41" s="3" t="s">
-        <v>2271</v>
+        <v>2264</v>
       </c>
       <c r="AP41" s="3" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="AQ41" s="3" t="s">
-        <v>2273</v>
+        <v>2266</v>
       </c>
       <c r="AR41" s="3" t="s">
         <v>267</v>
@@ -21577,13 +21542,13 @@
         <v>48</v>
       </c>
       <c r="AO42" s="3" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="AP42" s="3" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
       <c r="AQ42" s="3" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="AR42" s="3" t="s">
         <v>267</v>
@@ -21610,7 +21575,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>3414</v>
+        <v>3407</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" ref="G43:G48" si="15">"普通"&amp;MOD(C43,100)&amp;"章"&amp;"第"&amp;E43&amp;"关"</f>
@@ -21690,13 +21655,13 @@
         <v>49</v>
       </c>
       <c r="AO43" s="3" t="s">
-        <v>2259</v>
+        <v>2267</v>
       </c>
       <c r="AP43" s="3" t="s">
-        <v>2260</v>
+        <v>2268</v>
       </c>
       <c r="AQ43" s="3" t="s">
-        <v>2261</v>
+        <v>2269</v>
       </c>
       <c r="AR43" s="3" t="s">
         <v>267</v>
@@ -21723,7 +21688,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>3415</v>
+        <v>3408</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="15"/>
@@ -21803,13 +21768,13 @@
         <v>48</v>
       </c>
       <c r="AO44" s="3" t="s">
-        <v>2262</v>
+        <v>2267</v>
       </c>
       <c r="AP44" s="3" t="s">
-        <v>2263</v>
+        <v>2268</v>
       </c>
       <c r="AQ44" s="3" t="s">
-        <v>2264</v>
+        <v>2269</v>
       </c>
       <c r="AR44" s="3" t="s">
         <v>267</v>
@@ -21836,7 +21801,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>3416</v>
+        <v>3409</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="15"/>
@@ -21916,13 +21881,13 @@
         <v>50</v>
       </c>
       <c r="AO45" s="3" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="AP45" s="3" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="AQ45" s="3" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="AR45" s="3" t="s">
         <v>267</v>
@@ -21949,7 +21914,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>3417</v>
+        <v>3410</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="15"/>
@@ -22029,13 +21994,13 @@
         <v>51</v>
       </c>
       <c r="AO46" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AP46" s="3" t="s">
         <v>2268</v>
       </c>
-      <c r="AP46" s="3" t="s">
+      <c r="AQ46" s="3" t="s">
         <v>2269</v>
-      </c>
-      <c r="AQ46" s="3" t="s">
-        <v>2270</v>
       </c>
       <c r="AR46" s="3" t="s">
         <v>267</v>
@@ -22062,7 +22027,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>3418</v>
+        <v>3411</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="15"/>
@@ -22142,13 +22107,13 @@
         <v>50</v>
       </c>
       <c r="AO47" s="3" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="AP47" s="3" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="AQ47" s="3" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="AR47" s="3" t="s">
         <v>267</v>
@@ -22175,7 +22140,7 @@
         <v>15</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>3419</v>
+        <v>3412</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="15"/>
@@ -22255,13 +22220,13 @@
         <v>48</v>
       </c>
       <c r="AO48" s="3" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="AP48" s="3" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
       <c r="AQ48" s="3" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="AR48" s="3" t="s">
         <v>267</v>
@@ -22370,13 +22335,13 @@
         <v>49</v>
       </c>
       <c r="AO49" s="3" t="s">
-        <v>2277</v>
+        <v>2270</v>
       </c>
       <c r="AP49" s="3" t="s">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="AQ49" s="3" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="AR49" s="3" t="s">
         <v>267</v>
@@ -22485,13 +22450,13 @@
         <v>48</v>
       </c>
       <c r="AO50" s="3" t="s">
-        <v>2280</v>
+        <v>2273</v>
       </c>
       <c r="AP50" s="3" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="AQ50" s="3" t="s">
-        <v>2282</v>
+        <v>2275</v>
       </c>
       <c r="AR50" s="3" t="s">
         <v>267</v>
@@ -22600,13 +22565,13 @@
         <v>50</v>
       </c>
       <c r="AO51" s="3" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="AP51" s="3" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="AQ51" s="3" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="AR51" s="3" t="s">
         <v>267</v>
@@ -22715,13 +22680,13 @@
         <v>51</v>
       </c>
       <c r="AO52" s="3" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
       <c r="AP52" s="3" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="AQ52" s="3" t="s">
-        <v>2288</v>
+        <v>2281</v>
       </c>
       <c r="AR52" s="3" t="s">
         <v>267</v>
@@ -22830,13 +22795,13 @@
         <v>50</v>
       </c>
       <c r="AO53" s="3" t="s">
-        <v>2289</v>
+        <v>2282</v>
       </c>
       <c r="AP53" s="3" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
       <c r="AQ53" s="3" t="s">
-        <v>2291</v>
+        <v>2284</v>
       </c>
       <c r="AR53" s="3" t="s">
         <v>267</v>
@@ -22945,13 +22910,13 @@
         <v>6</v>
       </c>
       <c r="AO54" s="3" t="s">
-        <v>2292</v>
+        <v>2285</v>
       </c>
       <c r="AP54" s="3" t="s">
-        <v>2293</v>
+        <v>2286</v>
       </c>
       <c r="AQ54" s="3" t="s">
-        <v>2294</v>
+        <v>2287</v>
       </c>
       <c r="AR54" s="3" t="s">
         <v>267</v>
@@ -23060,13 +23025,13 @@
         <v>7</v>
       </c>
       <c r="AO55" s="3" t="s">
-        <v>2295</v>
+        <v>2288</v>
       </c>
       <c r="AP55" s="3" t="s">
-        <v>2296</v>
+        <v>2289</v>
       </c>
       <c r="AQ55" s="3" t="s">
-        <v>2297</v>
+        <v>2290</v>
       </c>
       <c r="AR55" s="3" t="s">
         <v>267</v>
@@ -23175,13 +23140,13 @@
         <v>8</v>
       </c>
       <c r="AO56" s="3" t="s">
-        <v>2298</v>
+        <v>2291</v>
       </c>
       <c r="AP56" s="3" t="s">
-        <v>2299</v>
+        <v>2292</v>
       </c>
       <c r="AQ56" s="3" t="s">
-        <v>2300</v>
+        <v>2293</v>
       </c>
       <c r="AR56" s="3" t="s">
         <v>267</v>
@@ -23290,13 +23255,13 @@
         <v>14</v>
       </c>
       <c r="AO57" s="3" t="s">
-        <v>2301</v>
+        <v>2294</v>
       </c>
       <c r="AP57" s="3" t="s">
-        <v>2302</v>
+        <v>2295</v>
       </c>
       <c r="AQ57" s="3" t="s">
-        <v>2303</v>
+        <v>2296</v>
       </c>
       <c r="AR57" s="3" t="s">
         <v>267</v>
@@ -23323,7 +23288,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>3420</v>
+        <v>3413</v>
       </c>
       <c r="G58" s="2" t="str">
         <f t="shared" ref="G58:G63" si="19">"普通"&amp;MOD(C58,100)&amp;"章"&amp;"第"&amp;E58&amp;"关"</f>
@@ -23405,13 +23370,13 @@
         <v>51</v>
       </c>
       <c r="AO58" s="3" t="s">
-        <v>2286</v>
+        <v>2294</v>
       </c>
       <c r="AP58" s="3" t="s">
-        <v>2287</v>
+        <v>2295</v>
       </c>
       <c r="AQ58" s="3" t="s">
-        <v>2288</v>
+        <v>2296</v>
       </c>
       <c r="AR58" s="3" t="s">
         <v>267</v>
@@ -23438,7 +23403,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>3421</v>
+        <v>3414</v>
       </c>
       <c r="G59" s="2" t="str">
         <f t="shared" si="19"/>
@@ -23520,13 +23485,13 @@
         <v>50</v>
       </c>
       <c r="AO59" s="3" t="s">
-        <v>2289</v>
+        <v>2294</v>
       </c>
       <c r="AP59" s="3" t="s">
-        <v>2290</v>
+        <v>2295</v>
       </c>
       <c r="AQ59" s="3" t="s">
-        <v>2291</v>
+        <v>2296</v>
       </c>
       <c r="AR59" s="3" t="s">
         <v>267</v>
@@ -23553,7 +23518,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>3422</v>
+        <v>3415</v>
       </c>
       <c r="G60" s="2" t="str">
         <f t="shared" si="19"/>
@@ -23635,13 +23600,13 @@
         <v>6</v>
       </c>
       <c r="AO60" s="3" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="AP60" s="3" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="AQ60" s="3" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="AR60" s="3" t="s">
         <v>267</v>
@@ -23668,7 +23633,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>3423</v>
+        <v>3416</v>
       </c>
       <c r="G61" s="2" t="str">
         <f t="shared" si="19"/>
@@ -23750,13 +23715,13 @@
         <v>7</v>
       </c>
       <c r="AO61" s="3" t="s">
+        <v>2294</v>
+      </c>
+      <c r="AP61" s="3" t="s">
         <v>2295</v>
       </c>
-      <c r="AP61" s="3" t="s">
+      <c r="AQ61" s="3" t="s">
         <v>2296</v>
-      </c>
-      <c r="AQ61" s="3" t="s">
-        <v>2297</v>
       </c>
       <c r="AR61" s="3" t="s">
         <v>267</v>
@@ -23783,7 +23748,7 @@
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>3424</v>
+        <v>3417</v>
       </c>
       <c r="G62" s="2" t="str">
         <f t="shared" si="19"/>
@@ -23865,13 +23830,13 @@
         <v>8</v>
       </c>
       <c r="AO62" s="3" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="AP62" s="3" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="AR62" s="3" t="s">
         <v>267</v>
@@ -23898,7 +23863,7 @@
         <v>15</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>3425</v>
+        <v>3418</v>
       </c>
       <c r="G63" s="2" t="str">
         <f t="shared" si="19"/>
@@ -23980,13 +23945,13 @@
         <v>14</v>
       </c>
       <c r="AO63" s="3" t="s">
-        <v>2301</v>
+        <v>2294</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>2302</v>
+        <v>2295</v>
       </c>
       <c r="AQ63" s="3" t="s">
-        <v>2303</v>
+        <v>2296</v>
       </c>
       <c r="AR63" s="3" t="s">
         <v>267</v>
@@ -24095,13 +24060,13 @@
         <v>51</v>
       </c>
       <c r="AO64" s="3" t="s">
-        <v>2304</v>
+        <v>2297</v>
       </c>
       <c r="AP64" s="3" t="s">
-        <v>2305</v>
+        <v>2298</v>
       </c>
       <c r="AQ64" s="3" t="s">
-        <v>2306</v>
+        <v>2299</v>
       </c>
       <c r="AR64" s="3" t="s">
         <v>267</v>
@@ -24210,13 +24175,13 @@
         <v>50</v>
       </c>
       <c r="AO65" s="3" t="s">
-        <v>2307</v>
+        <v>2300</v>
       </c>
       <c r="AP65" s="3" t="s">
-        <v>2308</v>
+        <v>2301</v>
       </c>
       <c r="AQ65" s="3" t="s">
-        <v>2309</v>
+        <v>2302</v>
       </c>
       <c r="AR65" s="3" t="s">
         <v>267</v>
@@ -24325,13 +24290,13 @@
         <v>37</v>
       </c>
       <c r="AO66" s="3" t="s">
-        <v>2310</v>
+        <v>2303</v>
       </c>
       <c r="AP66" s="3" t="s">
-        <v>2311</v>
+        <v>2304</v>
       </c>
       <c r="AQ66" s="3" t="s">
-        <v>2312</v>
+        <v>2305</v>
       </c>
       <c r="AR66" s="3" t="s">
         <v>267</v>
@@ -24440,13 +24405,13 @@
         <v>38</v>
       </c>
       <c r="AO67" s="3" t="s">
-        <v>2313</v>
+        <v>2306</v>
       </c>
       <c r="AP67" s="3" t="s">
-        <v>2314</v>
+        <v>2307</v>
       </c>
       <c r="AQ67" s="3" t="s">
-        <v>2315</v>
+        <v>2308</v>
       </c>
       <c r="AR67" s="3" t="s">
         <v>267</v>
@@ -24555,13 +24520,13 @@
         <v>39</v>
       </c>
       <c r="AO68" s="3" t="s">
-        <v>2316</v>
+        <v>2309</v>
       </c>
       <c r="AP68" s="3" t="s">
-        <v>2317</v>
+        <v>2310</v>
       </c>
       <c r="AQ68" s="3" t="s">
-        <v>2318</v>
+        <v>2311</v>
       </c>
       <c r="AR68" s="3" t="s">
         <v>267</v>
@@ -24670,13 +24635,13 @@
         <v>40</v>
       </c>
       <c r="AO69" s="3" t="s">
-        <v>2319</v>
+        <v>2312</v>
       </c>
       <c r="AP69" s="3" t="s">
-        <v>2320</v>
+        <v>2313</v>
       </c>
       <c r="AQ69" s="3" t="s">
-        <v>2321</v>
+        <v>2314</v>
       </c>
       <c r="AR69" s="3" t="s">
         <v>267</v>
@@ -24785,13 +24750,13 @@
         <v>41</v>
       </c>
       <c r="AO70" s="3" t="s">
-        <v>2322</v>
+        <v>2315</v>
       </c>
       <c r="AP70" s="3" t="s">
-        <v>2323</v>
+        <v>2316</v>
       </c>
       <c r="AQ70" s="3" t="s">
-        <v>2324</v>
+        <v>2317</v>
       </c>
       <c r="AR70" s="3" t="s">
         <v>267</v>
@@ -24900,13 +24865,13 @@
         <v>42</v>
       </c>
       <c r="AO71" s="3" t="s">
-        <v>2325</v>
+        <v>2318</v>
       </c>
       <c r="AP71" s="3" t="s">
-        <v>2326</v>
+        <v>2319</v>
       </c>
       <c r="AQ71" s="3" t="s">
-        <v>2327</v>
+        <v>2320</v>
       </c>
       <c r="AR71" s="3" t="s">
         <v>267</v>
@@ -25015,13 +24980,13 @@
         <v>43</v>
       </c>
       <c r="AO72" s="3" t="s">
-        <v>2328</v>
+        <v>2321</v>
       </c>
       <c r="AP72" s="3" t="s">
-        <v>2329</v>
+        <v>2322</v>
       </c>
       <c r="AQ72" s="3" t="s">
-        <v>2330</v>
+        <v>2323</v>
       </c>
       <c r="AR72" s="3" t="s">
         <v>267</v>
@@ -25130,13 +25095,13 @@
         <v>44</v>
       </c>
       <c r="AO73" s="3" t="s">
-        <v>2331</v>
+        <v>2324</v>
       </c>
       <c r="AP73" s="3" t="s">
-        <v>2332</v>
+        <v>2325</v>
       </c>
       <c r="AQ73" s="3" t="s">
-        <v>2333</v>
+        <v>2326</v>
       </c>
       <c r="AR73" s="3" t="s">
         <v>267</v>
@@ -25245,13 +25210,13 @@
         <v>45</v>
       </c>
       <c r="AO74" s="3" t="s">
-        <v>2334</v>
+        <v>2327</v>
       </c>
       <c r="AP74" s="3" t="s">
-        <v>2335</v>
+        <v>2328</v>
       </c>
       <c r="AQ74" s="3" t="s">
-        <v>2336</v>
+        <v>2329</v>
       </c>
       <c r="AR74" s="3" t="s">
         <v>267</v>
@@ -25360,13 +25325,13 @@
         <v>46</v>
       </c>
       <c r="AO75" s="3" t="s">
-        <v>2337</v>
+        <v>2330</v>
       </c>
       <c r="AP75" s="3" t="s">
-        <v>2338</v>
+        <v>2331</v>
       </c>
       <c r="AQ75" s="3" t="s">
-        <v>2339</v>
+        <v>2332</v>
       </c>
       <c r="AR75" s="3" t="s">
         <v>267</v>
@@ -25475,13 +25440,13 @@
         <v>1</v>
       </c>
       <c r="AO76" s="3" t="s">
-        <v>2340</v>
+        <v>2333</v>
       </c>
       <c r="AP76" s="3" t="s">
-        <v>2341</v>
+        <v>2334</v>
       </c>
       <c r="AQ76" s="3" t="s">
-        <v>2342</v>
+        <v>2335</v>
       </c>
       <c r="AR76" s="3" t="s">
         <v>267</v>
@@ -25590,13 +25555,13 @@
         <v>1</v>
       </c>
       <c r="AO77" s="3" t="s">
-        <v>2343</v>
+        <v>2336</v>
       </c>
       <c r="AP77" s="3" t="s">
-        <v>2344</v>
+        <v>2337</v>
       </c>
       <c r="AQ77" s="3" t="s">
-        <v>2345</v>
+        <v>2338</v>
       </c>
       <c r="AR77" s="3" t="s">
         <v>267</v>
@@ -25705,13 +25670,13 @@
         <v>1</v>
       </c>
       <c r="AO78" s="3" t="s">
-        <v>2346</v>
+        <v>2339</v>
       </c>
       <c r="AP78" s="3" t="s">
-        <v>2347</v>
+        <v>2340</v>
       </c>
       <c r="AQ78" s="3" t="s">
-        <v>2348</v>
+        <v>2341</v>
       </c>
       <c r="AR78" s="3" t="s">
         <v>267</v>
@@ -25820,13 +25785,13 @@
         <v>1</v>
       </c>
       <c r="AO79" s="3" t="s">
-        <v>2349</v>
+        <v>2342</v>
       </c>
       <c r="AP79" s="3" t="s">
-        <v>2350</v>
+        <v>2343</v>
       </c>
       <c r="AQ79" s="3" t="s">
-        <v>2351</v>
+        <v>2344</v>
       </c>
       <c r="AR79" s="3" t="s">
         <v>267</v>
@@ -25935,13 +25900,13 @@
         <v>1</v>
       </c>
       <c r="AO80" s="3" t="s">
-        <v>2352</v>
+        <v>2345</v>
       </c>
       <c r="AP80" s="3" t="s">
-        <v>2353</v>
+        <v>2346</v>
       </c>
       <c r="AQ80" s="3" t="s">
-        <v>2354</v>
+        <v>2347</v>
       </c>
       <c r="AR80" s="3" t="s">
         <v>267</v>
@@ -26050,13 +26015,13 @@
         <v>1</v>
       </c>
       <c r="AO81" s="3" t="s">
-        <v>2355</v>
+        <v>2348</v>
       </c>
       <c r="AP81" s="3" t="s">
-        <v>2356</v>
+        <v>2349</v>
       </c>
       <c r="AQ81" s="3" t="s">
-        <v>2357</v>
+        <v>2350</v>
       </c>
       <c r="AR81" s="3" t="s">
         <v>267</v>
@@ -26165,13 +26130,13 @@
         <v>1</v>
       </c>
       <c r="AO82" s="3" t="s">
-        <v>2358</v>
+        <v>2351</v>
       </c>
       <c r="AP82" s="3" t="s">
-        <v>2359</v>
+        <v>2352</v>
       </c>
       <c r="AQ82" s="3" t="s">
-        <v>2360</v>
+        <v>2353</v>
       </c>
       <c r="AR82" s="3" t="s">
         <v>267</v>
@@ -26280,13 +26245,13 @@
         <v>1</v>
       </c>
       <c r="AO83" s="3" t="s">
-        <v>2361</v>
+        <v>2354</v>
       </c>
       <c r="AP83" s="3" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="AQ83" s="3" t="s">
-        <v>2363</v>
+        <v>2356</v>
       </c>
       <c r="AR83" s="3" t="s">
         <v>267</v>
@@ -26395,13 +26360,13 @@
         <v>1</v>
       </c>
       <c r="AO84" s="3" t="s">
-        <v>2364</v>
+        <v>2357</v>
       </c>
       <c r="AP84" s="3" t="s">
-        <v>2365</v>
+        <v>2358</v>
       </c>
       <c r="AQ84" s="3" t="s">
-        <v>2366</v>
+        <v>2359</v>
       </c>
       <c r="AR84" s="3" t="s">
         <v>267</v>
@@ -26510,13 +26475,13 @@
         <v>1</v>
       </c>
       <c r="AO85" s="3" t="s">
-        <v>2367</v>
+        <v>2360</v>
       </c>
       <c r="AP85" s="3" t="s">
-        <v>2368</v>
+        <v>2361</v>
       </c>
       <c r="AQ85" s="3" t="s">
-        <v>2369</v>
+        <v>2362</v>
       </c>
       <c r="AR85" s="3" t="s">
         <v>267</v>
@@ -26625,13 +26590,13 @@
         <v>1</v>
       </c>
       <c r="AO86" s="3" t="s">
-        <v>2370</v>
+        <v>2363</v>
       </c>
       <c r="AP86" s="3" t="s">
-        <v>2371</v>
+        <v>2364</v>
       </c>
       <c r="AQ86" s="3" t="s">
-        <v>2372</v>
+        <v>2365</v>
       </c>
       <c r="AR86" s="3" t="s">
         <v>267</v>
@@ -26740,13 +26705,13 @@
         <v>1</v>
       </c>
       <c r="AO87" s="3" t="s">
-        <v>2373</v>
+        <v>2366</v>
       </c>
       <c r="AP87" s="3" t="s">
-        <v>2374</v>
+        <v>2367</v>
       </c>
       <c r="AQ87" s="3" t="s">
-        <v>2375</v>
+        <v>2368</v>
       </c>
       <c r="AR87" s="3" t="s">
         <v>267</v>
@@ -26855,13 +26820,13 @@
         <v>1</v>
       </c>
       <c r="AO88" s="3" t="s">
-        <v>2376</v>
+        <v>2369</v>
       </c>
       <c r="AP88" s="3" t="s">
-        <v>2377</v>
+        <v>2370</v>
       </c>
       <c r="AQ88" s="3" t="s">
-        <v>2378</v>
+        <v>2371</v>
       </c>
       <c r="AR88" s="3" t="s">
         <v>267</v>
@@ -26970,13 +26935,13 @@
         <v>1</v>
       </c>
       <c r="AO89" s="3" t="s">
-        <v>2379</v>
+        <v>2372</v>
       </c>
       <c r="AP89" s="3" t="s">
-        <v>2380</v>
+        <v>2373</v>
       </c>
       <c r="AQ89" s="3" t="s">
-        <v>2381</v>
+        <v>2374</v>
       </c>
       <c r="AR89" s="3" t="s">
         <v>267</v>
@@ -27085,13 +27050,13 @@
         <v>1</v>
       </c>
       <c r="AO90" s="3" t="s">
-        <v>2382</v>
+        <v>2375</v>
       </c>
       <c r="AP90" s="3" t="s">
-        <v>2383</v>
+        <v>2376</v>
       </c>
       <c r="AQ90" s="3" t="s">
-        <v>2384</v>
+        <v>2377</v>
       </c>
       <c r="AR90" s="3" t="s">
         <v>267</v>
@@ -27200,13 +27165,13 @@
         <v>1</v>
       </c>
       <c r="AO91" s="3" t="s">
-        <v>2385</v>
+        <v>2378</v>
       </c>
       <c r="AP91" s="3" t="s">
-        <v>2386</v>
+        <v>2379</v>
       </c>
       <c r="AQ91" s="3" t="s">
-        <v>2387</v>
+        <v>2380</v>
       </c>
       <c r="AR91" s="3" t="s">
         <v>267</v>
@@ -27315,13 +27280,13 @@
         <v>1</v>
       </c>
       <c r="AO92" s="3" t="s">
-        <v>2388</v>
+        <v>2381</v>
       </c>
       <c r="AP92" s="3" t="s">
-        <v>2389</v>
+        <v>2382</v>
       </c>
       <c r="AQ92" s="3" t="s">
-        <v>2390</v>
+        <v>2383</v>
       </c>
       <c r="AR92" s="3" t="s">
         <v>267</v>
@@ -27430,13 +27395,13 @@
         <v>1</v>
       </c>
       <c r="AO93" s="3" t="s">
-        <v>2391</v>
+        <v>2384</v>
       </c>
       <c r="AP93" s="3" t="s">
-        <v>2392</v>
+        <v>2385</v>
       </c>
       <c r="AQ93" s="3" t="s">
-        <v>2393</v>
+        <v>2386</v>
       </c>
       <c r="AR93" s="3" t="s">
         <v>267</v>
@@ -27545,13 +27510,13 @@
         <v>1</v>
       </c>
       <c r="AO94" s="3" t="s">
-        <v>2394</v>
+        <v>2387</v>
       </c>
       <c r="AP94" s="3" t="s">
-        <v>2395</v>
+        <v>2388</v>
       </c>
       <c r="AQ94" s="3" t="s">
-        <v>2396</v>
+        <v>2389</v>
       </c>
       <c r="AR94" s="3" t="s">
         <v>267</v>
@@ -27660,13 +27625,13 @@
         <v>1</v>
       </c>
       <c r="AO95" s="3" t="s">
-        <v>2397</v>
+        <v>2390</v>
       </c>
       <c r="AP95" s="3" t="s">
-        <v>2398</v>
+        <v>2391</v>
       </c>
       <c r="AQ95" s="3" t="s">
-        <v>2399</v>
+        <v>2392</v>
       </c>
       <c r="AR95" s="3" t="s">
         <v>267</v>
@@ -27775,13 +27740,13 @@
         <v>1</v>
       </c>
       <c r="AO96" s="3" t="s">
-        <v>2400</v>
+        <v>2393</v>
       </c>
       <c r="AP96" s="3" t="s">
-        <v>2401</v>
+        <v>2394</v>
       </c>
       <c r="AQ96" s="3" t="s">
-        <v>2402</v>
+        <v>2395</v>
       </c>
       <c r="AR96" s="3" t="s">
         <v>267</v>
@@ -27890,13 +27855,13 @@
         <v>1</v>
       </c>
       <c r="AO97" s="3" t="s">
-        <v>2403</v>
+        <v>2396</v>
       </c>
       <c r="AP97" s="3" t="s">
-        <v>2404</v>
+        <v>2397</v>
       </c>
       <c r="AQ97" s="3" t="s">
-        <v>2405</v>
+        <v>2398</v>
       </c>
       <c r="AR97" s="3" t="s">
         <v>267</v>
@@ -28005,13 +27970,13 @@
         <v>1</v>
       </c>
       <c r="AO98" s="3" t="s">
-        <v>2406</v>
+        <v>2399</v>
       </c>
       <c r="AP98" s="3" t="s">
-        <v>2407</v>
+        <v>2400</v>
       </c>
       <c r="AQ98" s="3" t="s">
-        <v>2408</v>
+        <v>2401</v>
       </c>
       <c r="AR98" s="3" t="s">
         <v>267</v>
@@ -28120,13 +28085,13 @@
         <v>1</v>
       </c>
       <c r="AO99" s="3" t="s">
-        <v>2409</v>
+        <v>2402</v>
       </c>
       <c r="AP99" s="3" t="s">
-        <v>2410</v>
+        <v>2403</v>
       </c>
       <c r="AQ99" s="3" t="s">
-        <v>2411</v>
+        <v>2404</v>
       </c>
       <c r="AR99" s="3" t="s">
         <v>267</v>
@@ -28235,13 +28200,13 @@
         <v>1</v>
       </c>
       <c r="AO100" s="3" t="s">
-        <v>2412</v>
+        <v>2405</v>
       </c>
       <c r="AP100" s="3" t="s">
-        <v>2413</v>
+        <v>2406</v>
       </c>
       <c r="AQ100" s="3" t="s">
-        <v>2414</v>
+        <v>2407</v>
       </c>
       <c r="AR100" s="3" t="s">
         <v>267</v>
@@ -28350,13 +28315,13 @@
         <v>1</v>
       </c>
       <c r="AO101" s="3" t="s">
-        <v>2415</v>
+        <v>2408</v>
       </c>
       <c r="AP101" s="3" t="s">
-        <v>2416</v>
+        <v>2409</v>
       </c>
       <c r="AQ101" s="3" t="s">
-        <v>2417</v>
+        <v>2410</v>
       </c>
       <c r="AR101" s="3" t="s">
         <v>267</v>
@@ -28465,13 +28430,13 @@
         <v>1</v>
       </c>
       <c r="AO102" s="3" t="s">
-        <v>2418</v>
+        <v>2411</v>
       </c>
       <c r="AP102" s="3" t="s">
-        <v>2419</v>
+        <v>2412</v>
       </c>
       <c r="AQ102" s="3" t="s">
-        <v>2420</v>
+        <v>2413</v>
       </c>
       <c r="AR102" s="3" t="s">
         <v>267</v>
@@ -28580,13 +28545,13 @@
         <v>1</v>
       </c>
       <c r="AO103" s="3" t="s">
-        <v>2421</v>
+        <v>2414</v>
       </c>
       <c r="AP103" s="3" t="s">
-        <v>2422</v>
+        <v>2415</v>
       </c>
       <c r="AQ103" s="3" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="AR103" s="3" t="s">
         <v>267</v>
@@ -28695,13 +28660,13 @@
         <v>1</v>
       </c>
       <c r="AO104" s="3" t="s">
-        <v>2424</v>
+        <v>2417</v>
       </c>
       <c r="AP104" s="3" t="s">
-        <v>2425</v>
+        <v>2418</v>
       </c>
       <c r="AQ104" s="3" t="s">
-        <v>2426</v>
+        <v>2419</v>
       </c>
       <c r="AR104" s="3" t="s">
         <v>267</v>
@@ -28810,13 +28775,13 @@
         <v>1</v>
       </c>
       <c r="AO105" s="3" t="s">
-        <v>2427</v>
+        <v>2420</v>
       </c>
       <c r="AP105" s="3" t="s">
-        <v>2428</v>
+        <v>2421</v>
       </c>
       <c r="AQ105" s="3" t="s">
-        <v>2429</v>
+        <v>2422</v>
       </c>
       <c r="AR105" s="3" t="s">
         <v>267</v>
@@ -28925,13 +28890,13 @@
         <v>1</v>
       </c>
       <c r="AO106" s="3" t="s">
-        <v>2430</v>
+        <v>2423</v>
       </c>
       <c r="AP106" s="3" t="s">
-        <v>2431</v>
+        <v>2424</v>
       </c>
       <c r="AQ106" s="3" t="s">
-        <v>2432</v>
+        <v>2425</v>
       </c>
       <c r="AR106" s="3" t="s">
         <v>267</v>
@@ -29040,13 +29005,13 @@
         <v>1</v>
       </c>
       <c r="AO107" s="3" t="s">
-        <v>2433</v>
+        <v>2426</v>
       </c>
       <c r="AP107" s="3" t="s">
-        <v>2434</v>
+        <v>2427</v>
       </c>
       <c r="AQ107" s="3" t="s">
-        <v>2435</v>
+        <v>2428</v>
       </c>
       <c r="AR107" s="3" t="s">
         <v>267</v>
@@ -29155,13 +29120,13 @@
         <v>1</v>
       </c>
       <c r="AO108" s="3" t="s">
-        <v>2436</v>
+        <v>2429</v>
       </c>
       <c r="AP108" s="3" t="s">
-        <v>2437</v>
+        <v>2430</v>
       </c>
       <c r="AQ108" s="3" t="s">
-        <v>2438</v>
+        <v>2431</v>
       </c>
       <c r="AR108" s="3" t="s">
         <v>267</v>
@@ -29270,13 +29235,13 @@
         <v>1</v>
       </c>
       <c r="AO109" s="3" t="s">
-        <v>2439</v>
+        <v>2432</v>
       </c>
       <c r="AP109" s="3" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="AQ109" s="3" t="s">
-        <v>2441</v>
+        <v>2434</v>
       </c>
       <c r="AR109" s="3" t="s">
         <v>267</v>
@@ -29385,13 +29350,13 @@
         <v>1</v>
       </c>
       <c r="AO110" s="3" t="s">
-        <v>2442</v>
+        <v>2435</v>
       </c>
       <c r="AP110" s="3" t="s">
-        <v>2443</v>
+        <v>2436</v>
       </c>
       <c r="AQ110" s="3" t="s">
-        <v>2444</v>
+        <v>2437</v>
       </c>
       <c r="AR110" s="3" t="s">
         <v>267</v>
@@ -29500,13 +29465,13 @@
         <v>1</v>
       </c>
       <c r="AO111" s="3" t="s">
-        <v>2445</v>
+        <v>2438</v>
       </c>
       <c r="AP111" s="3" t="s">
-        <v>2446</v>
+        <v>2439</v>
       </c>
       <c r="AQ111" s="3" t="s">
-        <v>2447</v>
+        <v>2440</v>
       </c>
       <c r="AR111" s="3" t="s">
         <v>267</v>
@@ -29615,13 +29580,13 @@
         <v>1</v>
       </c>
       <c r="AO112" s="3" t="s">
-        <v>2448</v>
+        <v>2441</v>
       </c>
       <c r="AP112" s="3" t="s">
-        <v>2449</v>
+        <v>2442</v>
       </c>
       <c r="AQ112" s="3" t="s">
-        <v>2450</v>
+        <v>2443</v>
       </c>
       <c r="AR112" s="3" t="s">
         <v>267</v>
@@ -29730,13 +29695,13 @@
         <v>1</v>
       </c>
       <c r="AO113" s="3" t="s">
-        <v>2451</v>
+        <v>2444</v>
       </c>
       <c r="AP113" s="3" t="s">
-        <v>2452</v>
+        <v>2445</v>
       </c>
       <c r="AQ113" s="3" t="s">
-        <v>2453</v>
+        <v>2446</v>
       </c>
       <c r="AR113" s="3" t="s">
         <v>267</v>
@@ -29845,13 +29810,13 @@
         <v>1</v>
       </c>
       <c r="AO114" s="3" t="s">
-        <v>2454</v>
+        <v>2447</v>
       </c>
       <c r="AP114" s="3" t="s">
-        <v>2455</v>
+        <v>2448</v>
       </c>
       <c r="AQ114" s="3" t="s">
-        <v>2456</v>
+        <v>2449</v>
       </c>
       <c r="AR114" s="3" t="s">
         <v>267</v>
@@ -29960,13 +29925,13 @@
         <v>1</v>
       </c>
       <c r="AO115" s="3" t="s">
-        <v>2457</v>
+        <v>2450</v>
       </c>
       <c r="AP115" s="3" t="s">
-        <v>2458</v>
+        <v>2451</v>
       </c>
       <c r="AQ115" s="3" t="s">
-        <v>2459</v>
+        <v>2452</v>
       </c>
       <c r="AR115" s="3" t="s">
         <v>267</v>
@@ -30075,13 +30040,13 @@
         <v>1</v>
       </c>
       <c r="AO116" s="3" t="s">
-        <v>2460</v>
+        <v>2453</v>
       </c>
       <c r="AP116" s="3" t="s">
-        <v>2461</v>
+        <v>2454</v>
       </c>
       <c r="AQ116" s="3" t="s">
-        <v>2462</v>
+        <v>2455</v>
       </c>
       <c r="AR116" s="3" t="s">
         <v>267</v>
@@ -30190,13 +30155,13 @@
         <v>1</v>
       </c>
       <c r="AO117" s="3" t="s">
-        <v>2463</v>
+        <v>2456</v>
       </c>
       <c r="AP117" s="3" t="s">
-        <v>2464</v>
+        <v>2457</v>
       </c>
       <c r="AQ117" s="3" t="s">
-        <v>2465</v>
+        <v>2458</v>
       </c>
       <c r="AR117" s="3" t="s">
         <v>267</v>
@@ -30305,13 +30270,13 @@
         <v>1</v>
       </c>
       <c r="AO118" s="3" t="s">
-        <v>2466</v>
+        <v>2459</v>
       </c>
       <c r="AP118" s="3" t="s">
-        <v>2467</v>
+        <v>2460</v>
       </c>
       <c r="AQ118" s="3" t="s">
-        <v>2468</v>
+        <v>2461</v>
       </c>
       <c r="AR118" s="3" t="s">
         <v>267</v>
@@ -30420,13 +30385,13 @@
         <v>1</v>
       </c>
       <c r="AO119" s="3" t="s">
-        <v>2469</v>
+        <v>2462</v>
       </c>
       <c r="AP119" s="3" t="s">
-        <v>2470</v>
+        <v>2463</v>
       </c>
       <c r="AQ119" s="3" t="s">
-        <v>2471</v>
+        <v>2464</v>
       </c>
       <c r="AR119" s="3" t="s">
         <v>267</v>
@@ -30535,13 +30500,13 @@
         <v>1</v>
       </c>
       <c r="AO120" s="3" t="s">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="AP120" s="3" t="s">
-        <v>2473</v>
+        <v>2466</v>
       </c>
       <c r="AQ120" s="3" t="s">
-        <v>2474</v>
+        <v>2467</v>
       </c>
       <c r="AR120" s="3" t="s">
         <v>267</v>
@@ -30650,13 +30615,13 @@
         <v>1</v>
       </c>
       <c r="AO121" s="3" t="s">
-        <v>2475</v>
+        <v>2468</v>
       </c>
       <c r="AP121" s="3" t="s">
-        <v>2476</v>
+        <v>2469</v>
       </c>
       <c r="AQ121" s="3" t="s">
-        <v>2477</v>
+        <v>2470</v>
       </c>
       <c r="AR121" s="3" t="s">
         <v>267</v>
@@ -30765,13 +30730,13 @@
         <v>1</v>
       </c>
       <c r="AO122" s="3" t="s">
-        <v>2478</v>
+        <v>2471</v>
       </c>
       <c r="AP122" s="3" t="s">
-        <v>2479</v>
+        <v>2472</v>
       </c>
       <c r="AQ122" s="3" t="s">
-        <v>2480</v>
+        <v>2473</v>
       </c>
       <c r="AR122" s="3" t="s">
         <v>267</v>
@@ -30880,13 +30845,13 @@
         <v>1</v>
       </c>
       <c r="AO123" s="3" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="AP123" s="3" t="s">
-        <v>2482</v>
+        <v>2475</v>
       </c>
       <c r="AQ123" s="3" t="s">
-        <v>2483</v>
+        <v>2476</v>
       </c>
       <c r="AR123" s="3" t="s">
         <v>267</v>
@@ -30995,13 +30960,13 @@
         <v>1</v>
       </c>
       <c r="AO124" s="3" t="s">
-        <v>2484</v>
+        <v>2477</v>
       </c>
       <c r="AP124" s="3" t="s">
-        <v>2485</v>
+        <v>2478</v>
       </c>
       <c r="AQ124" s="3" t="s">
-        <v>2486</v>
+        <v>2479</v>
       </c>
       <c r="AR124" s="3" t="s">
         <v>267</v>
@@ -31110,13 +31075,13 @@
         <v>1</v>
       </c>
       <c r="AO125" s="3" t="s">
-        <v>2487</v>
+        <v>2480</v>
       </c>
       <c r="AP125" s="3" t="s">
-        <v>2488</v>
+        <v>2481</v>
       </c>
       <c r="AQ125" s="3" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="AR125" s="3" t="s">
         <v>267</v>
@@ -31225,13 +31190,13 @@
         <v>1</v>
       </c>
       <c r="AO126" s="3" t="s">
-        <v>2490</v>
+        <v>2483</v>
       </c>
       <c r="AP126" s="3" t="s">
-        <v>2491</v>
+        <v>2484</v>
       </c>
       <c r="AQ126" s="3" t="s">
-        <v>2492</v>
+        <v>2485</v>
       </c>
       <c r="AR126" s="3" t="s">
         <v>267</v>
@@ -31340,13 +31305,13 @@
         <v>1</v>
       </c>
       <c r="AO127" s="3" t="s">
-        <v>2493</v>
+        <v>2486</v>
       </c>
       <c r="AP127" s="3" t="s">
-        <v>2494</v>
+        <v>2487</v>
       </c>
       <c r="AQ127" s="3" t="s">
-        <v>2495</v>
+        <v>2488</v>
       </c>
       <c r="AR127" s="3" t="s">
         <v>267</v>
@@ -31455,13 +31420,13 @@
         <v>1</v>
       </c>
       <c r="AO128" s="3" t="s">
-        <v>2496</v>
+        <v>2489</v>
       </c>
       <c r="AP128" s="3" t="s">
-        <v>2497</v>
+        <v>2490</v>
       </c>
       <c r="AQ128" s="3" t="s">
-        <v>2498</v>
+        <v>2491</v>
       </c>
       <c r="AR128" s="3" t="s">
         <v>267</v>
@@ -31570,13 +31535,13 @@
         <v>1</v>
       </c>
       <c r="AO129" s="3" t="s">
-        <v>2499</v>
+        <v>2492</v>
       </c>
       <c r="AP129" s="3" t="s">
-        <v>2500</v>
+        <v>2493</v>
       </c>
       <c r="AQ129" s="3" t="s">
-        <v>2501</v>
+        <v>2494</v>
       </c>
       <c r="AR129" s="3" t="s">
         <v>267</v>
@@ -31685,13 +31650,13 @@
         <v>1</v>
       </c>
       <c r="AO130" s="3" t="s">
-        <v>2502</v>
+        <v>2495</v>
       </c>
       <c r="AP130" s="3" t="s">
-        <v>2503</v>
+        <v>2496</v>
       </c>
       <c r="AQ130" s="3" t="s">
-        <v>2504</v>
+        <v>2497</v>
       </c>
       <c r="AR130" s="3" t="s">
         <v>267</v>
@@ -31800,13 +31765,13 @@
         <v>1</v>
       </c>
       <c r="AO131" s="3" t="s">
-        <v>2505</v>
+        <v>2498</v>
       </c>
       <c r="AP131" s="3" t="s">
-        <v>2506</v>
+        <v>2499</v>
       </c>
       <c r="AQ131" s="3" t="s">
-        <v>2507</v>
+        <v>2500</v>
       </c>
       <c r="AR131" s="3" t="s">
         <v>267</v>
@@ -31915,13 +31880,13 @@
         <v>1</v>
       </c>
       <c r="AO132" s="3" t="s">
-        <v>2508</v>
+        <v>2501</v>
       </c>
       <c r="AP132" s="3" t="s">
-        <v>2509</v>
+        <v>2502</v>
       </c>
       <c r="AQ132" s="3" t="s">
-        <v>2510</v>
+        <v>2503</v>
       </c>
       <c r="AR132" s="3" t="s">
         <v>267</v>
@@ -32030,13 +31995,13 @@
         <v>1</v>
       </c>
       <c r="AO133" s="3" t="s">
-        <v>2511</v>
+        <v>2504</v>
       </c>
       <c r="AP133" s="3" t="s">
-        <v>2512</v>
+        <v>2505</v>
       </c>
       <c r="AQ133" s="3" t="s">
-        <v>2513</v>
+        <v>2506</v>
       </c>
       <c r="AR133" s="3" t="s">
         <v>267</v>
@@ -32145,13 +32110,13 @@
         <v>1</v>
       </c>
       <c r="AO134" s="3" t="s">
-        <v>2514</v>
+        <v>2507</v>
       </c>
       <c r="AP134" s="3" t="s">
-        <v>2515</v>
+        <v>2508</v>
       </c>
       <c r="AQ134" s="3" t="s">
-        <v>2516</v>
+        <v>2509</v>
       </c>
       <c r="AR134" s="3" t="s">
         <v>267</v>
@@ -32260,13 +32225,13 @@
         <v>1</v>
       </c>
       <c r="AO135" s="3" t="s">
-        <v>2517</v>
+        <v>2510</v>
       </c>
       <c r="AP135" s="3" t="s">
-        <v>2518</v>
+        <v>2511</v>
       </c>
       <c r="AQ135" s="3" t="s">
-        <v>2519</v>
+        <v>2512</v>
       </c>
       <c r="AR135" s="3" t="s">
         <v>267</v>
@@ -32375,13 +32340,13 @@
         <v>1</v>
       </c>
       <c r="AO136" s="3" t="s">
-        <v>2520</v>
+        <v>2513</v>
       </c>
       <c r="AP136" s="3" t="s">
-        <v>2521</v>
+        <v>2514</v>
       </c>
       <c r="AQ136" s="3" t="s">
-        <v>2522</v>
+        <v>2515</v>
       </c>
       <c r="AR136" s="3" t="s">
         <v>267</v>
@@ -32490,13 +32455,13 @@
         <v>1</v>
       </c>
       <c r="AO137" s="3" t="s">
-        <v>2523</v>
+        <v>2516</v>
       </c>
       <c r="AP137" s="3" t="s">
-        <v>2524</v>
+        <v>2517</v>
       </c>
       <c r="AQ137" s="3" t="s">
-        <v>2525</v>
+        <v>2518</v>
       </c>
       <c r="AR137" s="3" t="s">
         <v>267</v>
@@ -32605,13 +32570,13 @@
         <v>1</v>
       </c>
       <c r="AO138" s="3" t="s">
-        <v>2526</v>
+        <v>2519</v>
       </c>
       <c r="AP138" s="3" t="s">
-        <v>2527</v>
+        <v>2520</v>
       </c>
       <c r="AQ138" s="3" t="s">
-        <v>2528</v>
+        <v>2521</v>
       </c>
       <c r="AR138" s="3" t="s">
         <v>267</v>
@@ -32720,13 +32685,13 @@
         <v>1</v>
       </c>
       <c r="AO139" s="3" t="s">
-        <v>2529</v>
+        <v>2522</v>
       </c>
       <c r="AP139" s="3" t="s">
-        <v>2530</v>
+        <v>2523</v>
       </c>
       <c r="AQ139" s="3" t="s">
-        <v>2531</v>
+        <v>2524</v>
       </c>
       <c r="AR139" s="3" t="s">
         <v>267</v>
@@ -32835,13 +32800,13 @@
         <v>1</v>
       </c>
       <c r="AO140" s="3" t="s">
-        <v>2532</v>
+        <v>2525</v>
       </c>
       <c r="AP140" s="3" t="s">
-        <v>2533</v>
+        <v>2526</v>
       </c>
       <c r="AQ140" s="3" t="s">
-        <v>2534</v>
+        <v>2527</v>
       </c>
       <c r="AR140" s="3" t="s">
         <v>267</v>
@@ -32950,13 +32915,13 @@
         <v>1</v>
       </c>
       <c r="AO141" s="3" t="s">
-        <v>2535</v>
+        <v>2528</v>
       </c>
       <c r="AP141" s="3" t="s">
-        <v>2536</v>
+        <v>2529</v>
       </c>
       <c r="AQ141" s="3" t="s">
-        <v>2537</v>
+        <v>2530</v>
       </c>
       <c r="AR141" s="3" t="s">
         <v>267</v>
@@ -33065,13 +33030,13 @@
         <v>1</v>
       </c>
       <c r="AO142" s="3" t="s">
-        <v>2538</v>
+        <v>2531</v>
       </c>
       <c r="AP142" s="3" t="s">
-        <v>2539</v>
+        <v>2532</v>
       </c>
       <c r="AQ142" s="3" t="s">
-        <v>2540</v>
+        <v>2533</v>
       </c>
       <c r="AR142" s="3" t="s">
         <v>267</v>
@@ -33180,13 +33145,13 @@
         <v>1</v>
       </c>
       <c r="AO143" s="3" t="s">
-        <v>2541</v>
+        <v>2534</v>
       </c>
       <c r="AP143" s="3" t="s">
-        <v>2542</v>
+        <v>2535</v>
       </c>
       <c r="AQ143" s="3" t="s">
-        <v>2543</v>
+        <v>2536</v>
       </c>
       <c r="AR143" s="3" t="s">
         <v>267</v>
@@ -33295,13 +33260,13 @@
         <v>1</v>
       </c>
       <c r="AO144" s="3" t="s">
-        <v>2544</v>
+        <v>2537</v>
       </c>
       <c r="AP144" s="3" t="s">
-        <v>2545</v>
+        <v>2538</v>
       </c>
       <c r="AQ144" s="3" t="s">
-        <v>2546</v>
+        <v>2539</v>
       </c>
       <c r="AR144" s="3" t="s">
         <v>267</v>
@@ -33410,13 +33375,13 @@
         <v>1</v>
       </c>
       <c r="AO145" s="3" t="s">
-        <v>2547</v>
+        <v>2540</v>
       </c>
       <c r="AP145" s="3" t="s">
-        <v>2548</v>
+        <v>2541</v>
       </c>
       <c r="AQ145" s="3" t="s">
-        <v>2549</v>
+        <v>2542</v>
       </c>
       <c r="AR145" s="3" t="s">
         <v>267</v>
@@ -33525,13 +33490,13 @@
         <v>1</v>
       </c>
       <c r="AO146" s="3" t="s">
-        <v>2550</v>
+        <v>2543</v>
       </c>
       <c r="AP146" s="3" t="s">
-        <v>2551</v>
+        <v>2544</v>
       </c>
       <c r="AQ146" s="3" t="s">
-        <v>2552</v>
+        <v>2545</v>
       </c>
       <c r="AR146" s="3" t="s">
         <v>267</v>
@@ -33640,13 +33605,13 @@
         <v>1</v>
       </c>
       <c r="AO147" s="3" t="s">
-        <v>2553</v>
+        <v>2546</v>
       </c>
       <c r="AP147" s="3" t="s">
-        <v>2554</v>
+        <v>2547</v>
       </c>
       <c r="AQ147" s="3" t="s">
-        <v>2555</v>
+        <v>2548</v>
       </c>
       <c r="AR147" s="3" t="s">
         <v>267</v>
@@ -33755,13 +33720,13 @@
         <v>1</v>
       </c>
       <c r="AO148" s="3" t="s">
-        <v>2556</v>
+        <v>2549</v>
       </c>
       <c r="AP148" s="3" t="s">
-        <v>2557</v>
+        <v>2550</v>
       </c>
       <c r="AQ148" s="3" t="s">
-        <v>2558</v>
+        <v>2551</v>
       </c>
       <c r="AR148" s="3" t="s">
         <v>267</v>
@@ -33870,13 +33835,13 @@
         <v>1</v>
       </c>
       <c r="AO149" s="3" t="s">
-        <v>2559</v>
+        <v>2552</v>
       </c>
       <c r="AP149" s="3" t="s">
-        <v>2560</v>
+        <v>2553</v>
       </c>
       <c r="AQ149" s="3" t="s">
-        <v>2561</v>
+        <v>2554</v>
       </c>
       <c r="AR149" s="3" t="s">
         <v>267</v>
@@ -33985,13 +33950,13 @@
         <v>1</v>
       </c>
       <c r="AO150" s="3" t="s">
-        <v>2562</v>
+        <v>2555</v>
       </c>
       <c r="AP150" s="3" t="s">
-        <v>2563</v>
+        <v>2556</v>
       </c>
       <c r="AQ150" s="3" t="s">
-        <v>2564</v>
+        <v>2557</v>
       </c>
       <c r="AR150" s="3" t="s">
         <v>267</v>
@@ -34100,13 +34065,13 @@
         <v>1</v>
       </c>
       <c r="AO151" s="3" t="s">
-        <v>2565</v>
+        <v>2558</v>
       </c>
       <c r="AP151" s="3" t="s">
-        <v>2566</v>
+        <v>2559</v>
       </c>
       <c r="AQ151" s="3" t="s">
-        <v>2567</v>
+        <v>2560</v>
       </c>
       <c r="AR151" s="3" t="s">
         <v>267</v>
@@ -34215,13 +34180,13 @@
         <v>1</v>
       </c>
       <c r="AO152" s="3" t="s">
-        <v>2568</v>
+        <v>2561</v>
       </c>
       <c r="AP152" s="3" t="s">
-        <v>2569</v>
+        <v>2562</v>
       </c>
       <c r="AQ152" s="3" t="s">
-        <v>2570</v>
+        <v>2563</v>
       </c>
       <c r="AR152" s="3" t="s">
         <v>267</v>
@@ -34330,13 +34295,13 @@
         <v>1</v>
       </c>
       <c r="AO153" s="3" t="s">
-        <v>2571</v>
+        <v>2564</v>
       </c>
       <c r="AP153" s="3" t="s">
-        <v>2572</v>
+        <v>2565</v>
       </c>
       <c r="AQ153" s="3" t="s">
-        <v>2573</v>
+        <v>2566</v>
       </c>
       <c r="AR153" s="3" t="s">
         <v>267</v>
@@ -34445,13 +34410,13 @@
         <v>1</v>
       </c>
       <c r="AO154" s="3" t="s">
-        <v>2574</v>
+        <v>2567</v>
       </c>
       <c r="AP154" s="3" t="s">
-        <v>2575</v>
+        <v>2568</v>
       </c>
       <c r="AQ154" s="3" t="s">
-        <v>2576</v>
+        <v>2569</v>
       </c>
       <c r="AR154" s="3" t="s">
         <v>267</v>
@@ -34560,13 +34525,13 @@
         <v>1</v>
       </c>
       <c r="AO155" s="3" t="s">
-        <v>2577</v>
+        <v>2570</v>
       </c>
       <c r="AP155" s="3" t="s">
-        <v>2578</v>
+        <v>2571</v>
       </c>
       <c r="AQ155" s="3" t="s">
-        <v>2579</v>
+        <v>2572</v>
       </c>
       <c r="AR155" s="3" t="s">
         <v>267</v>
@@ -34675,13 +34640,13 @@
         <v>1</v>
       </c>
       <c r="AO156" s="3" t="s">
-        <v>2580</v>
+        <v>2573</v>
       </c>
       <c r="AP156" s="3" t="s">
-        <v>2581</v>
+        <v>2574</v>
       </c>
       <c r="AQ156" s="3" t="s">
-        <v>2582</v>
+        <v>2575</v>
       </c>
       <c r="AR156" s="3" t="s">
         <v>267</v>
@@ -34790,13 +34755,13 @@
         <v>1</v>
       </c>
       <c r="AO157" s="3" t="s">
-        <v>2583</v>
+        <v>2576</v>
       </c>
       <c r="AP157" s="3" t="s">
-        <v>2584</v>
+        <v>2577</v>
       </c>
       <c r="AQ157" s="3" t="s">
-        <v>2585</v>
+        <v>2578</v>
       </c>
       <c r="AR157" s="3" t="s">
         <v>267</v>
@@ -34905,13 +34870,13 @@
         <v>1</v>
       </c>
       <c r="AO158" s="3" t="s">
-        <v>2586</v>
+        <v>2579</v>
       </c>
       <c r="AP158" s="3" t="s">
-        <v>2587</v>
+        <v>2580</v>
       </c>
       <c r="AQ158" s="3" t="s">
-        <v>2588</v>
+        <v>2581</v>
       </c>
       <c r="AR158" s="3" t="s">
         <v>267</v>
@@ -35020,13 +34985,13 @@
         <v>1</v>
       </c>
       <c r="AO159" s="3" t="s">
-        <v>2589</v>
+        <v>2582</v>
       </c>
       <c r="AP159" s="3" t="s">
-        <v>2590</v>
+        <v>2583</v>
       </c>
       <c r="AQ159" s="3" t="s">
-        <v>2591</v>
+        <v>2584</v>
       </c>
       <c r="AR159" s="3" t="s">
         <v>267</v>
@@ -35135,13 +35100,13 @@
         <v>1</v>
       </c>
       <c r="AO160" s="3" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="AP160" s="3" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="AQ160" s="3" t="s">
-        <v>2594</v>
+        <v>2587</v>
       </c>
       <c r="AR160" s="3" t="s">
         <v>267</v>
@@ -35250,13 +35215,13 @@
         <v>1</v>
       </c>
       <c r="AO161" s="3" t="s">
-        <v>2595</v>
+        <v>2588</v>
       </c>
       <c r="AP161" s="3" t="s">
-        <v>2596</v>
+        <v>2589</v>
       </c>
       <c r="AQ161" s="3" t="s">
-        <v>2597</v>
+        <v>2590</v>
       </c>
       <c r="AR161" s="3" t="s">
         <v>267</v>
@@ -35365,13 +35330,13 @@
         <v>1</v>
       </c>
       <c r="AO162" s="3" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
       <c r="AP162" s="3" t="s">
-        <v>2599</v>
+        <v>2592</v>
       </c>
       <c r="AQ162" s="3" t="s">
-        <v>2600</v>
+        <v>2593</v>
       </c>
       <c r="AR162" s="3" t="s">
         <v>267</v>
@@ -35480,13 +35445,13 @@
         <v>1</v>
       </c>
       <c r="AO163" s="3" t="s">
-        <v>2601</v>
+        <v>2594</v>
       </c>
       <c r="AP163" s="3" t="s">
-        <v>2602</v>
+        <v>2595</v>
       </c>
       <c r="AQ163" s="3" t="s">
-        <v>2603</v>
+        <v>2596</v>
       </c>
       <c r="AR163" s="3" t="s">
         <v>267</v>
@@ -35595,13 +35560,13 @@
         <v>1</v>
       </c>
       <c r="AO164" s="3" t="s">
-        <v>2604</v>
+        <v>2597</v>
       </c>
       <c r="AP164" s="3" t="s">
-        <v>2605</v>
+        <v>2598</v>
       </c>
       <c r="AQ164" s="3" t="s">
-        <v>2606</v>
+        <v>2599</v>
       </c>
       <c r="AR164" s="3" t="s">
         <v>267</v>
@@ -35710,13 +35675,13 @@
         <v>1</v>
       </c>
       <c r="AO165" s="3" t="s">
-        <v>2607</v>
+        <v>2600</v>
       </c>
       <c r="AP165" s="3" t="s">
-        <v>2608</v>
+        <v>2601</v>
       </c>
       <c r="AQ165" s="3" t="s">
-        <v>2609</v>
+        <v>2602</v>
       </c>
       <c r="AR165" s="3" t="s">
         <v>267</v>
@@ -35825,13 +35790,13 @@
         <v>1</v>
       </c>
       <c r="AO166" s="3" t="s">
-        <v>2610</v>
+        <v>2603</v>
       </c>
       <c r="AP166" s="3" t="s">
-        <v>2611</v>
+        <v>2604</v>
       </c>
       <c r="AQ166" s="3" t="s">
-        <v>2612</v>
+        <v>2605</v>
       </c>
       <c r="AR166" s="3" t="s">
         <v>267</v>
@@ -35940,13 +35905,13 @@
         <v>1</v>
       </c>
       <c r="AO167" s="3" t="s">
-        <v>2613</v>
+        <v>2606</v>
       </c>
       <c r="AP167" s="3" t="s">
-        <v>2614</v>
+        <v>2607</v>
       </c>
       <c r="AQ167" s="3" t="s">
-        <v>2615</v>
+        <v>2608</v>
       </c>
       <c r="AR167" s="3" t="s">
         <v>267</v>
@@ -36055,13 +36020,13 @@
         <v>1</v>
       </c>
       <c r="AO168" s="3" t="s">
-        <v>2616</v>
+        <v>2609</v>
       </c>
       <c r="AP168" s="3" t="s">
-        <v>2617</v>
+        <v>2610</v>
       </c>
       <c r="AQ168" s="3" t="s">
-        <v>2618</v>
+        <v>2611</v>
       </c>
       <c r="AR168" s="3" t="s">
         <v>267</v>
@@ -36170,13 +36135,13 @@
         <v>1</v>
       </c>
       <c r="AO169" s="3" t="s">
-        <v>2619</v>
+        <v>2612</v>
       </c>
       <c r="AP169" s="3" t="s">
-        <v>2620</v>
+        <v>2613</v>
       </c>
       <c r="AQ169" s="3" t="s">
-        <v>2621</v>
+        <v>2614</v>
       </c>
       <c r="AR169" s="3" t="s">
         <v>267</v>
@@ -36285,13 +36250,13 @@
         <v>1</v>
       </c>
       <c r="AO170" s="3" t="s">
-        <v>2622</v>
+        <v>2615</v>
       </c>
       <c r="AP170" s="3" t="s">
-        <v>2623</v>
+        <v>2616</v>
       </c>
       <c r="AQ170" s="3" t="s">
-        <v>2624</v>
+        <v>2617</v>
       </c>
       <c r="AR170" s="3" t="s">
         <v>267</v>
@@ -36400,13 +36365,13 @@
         <v>1</v>
       </c>
       <c r="AO171" s="3" t="s">
-        <v>2625</v>
+        <v>2618</v>
       </c>
       <c r="AP171" s="3" t="s">
-        <v>2626</v>
+        <v>2619</v>
       </c>
       <c r="AQ171" s="3" t="s">
-        <v>2627</v>
+        <v>2620</v>
       </c>
       <c r="AR171" s="3" t="s">
         <v>267</v>
@@ -36515,13 +36480,13 @@
         <v>1</v>
       </c>
       <c r="AO172" s="3" t="s">
-        <v>2628</v>
+        <v>2621</v>
       </c>
       <c r="AP172" s="3" t="s">
-        <v>2629</v>
+        <v>2622</v>
       </c>
       <c r="AQ172" s="3" t="s">
-        <v>2630</v>
+        <v>2623</v>
       </c>
       <c r="AR172" s="3" t="s">
         <v>267</v>
@@ -36630,13 +36595,13 @@
         <v>1</v>
       </c>
       <c r="AO173" s="3" t="s">
-        <v>2631</v>
+        <v>2624</v>
       </c>
       <c r="AP173" s="3" t="s">
-        <v>2632</v>
+        <v>2625</v>
       </c>
       <c r="AQ173" s="3" t="s">
-        <v>2633</v>
+        <v>2626</v>
       </c>
       <c r="AR173" s="3" t="s">
         <v>267</v>
@@ -36745,13 +36710,13 @@
         <v>1</v>
       </c>
       <c r="AO174" s="3" t="s">
-        <v>2634</v>
+        <v>2627</v>
       </c>
       <c r="AP174" s="3" t="s">
-        <v>2635</v>
+        <v>2628</v>
       </c>
       <c r="AQ174" s="3" t="s">
-        <v>2636</v>
+        <v>2629</v>
       </c>
       <c r="AR174" s="3" t="s">
         <v>267</v>
@@ -36860,13 +36825,13 @@
         <v>1</v>
       </c>
       <c r="AO175" s="3" t="s">
-        <v>2637</v>
+        <v>2630</v>
       </c>
       <c r="AP175" s="3" t="s">
-        <v>2638</v>
+        <v>2631</v>
       </c>
       <c r="AQ175" s="3" t="s">
-        <v>2639</v>
+        <v>2632</v>
       </c>
       <c r="AR175" s="3" t="s">
         <v>267</v>
@@ -36975,13 +36940,13 @@
         <v>1</v>
       </c>
       <c r="AO176" s="3" t="s">
-        <v>2640</v>
+        <v>2633</v>
       </c>
       <c r="AP176" s="3" t="s">
-        <v>2641</v>
+        <v>2634</v>
       </c>
       <c r="AQ176" s="3" t="s">
-        <v>2642</v>
+        <v>2635</v>
       </c>
       <c r="AR176" s="3" t="s">
         <v>267</v>
@@ -37090,13 +37055,13 @@
         <v>1</v>
       </c>
       <c r="AO177" s="3" t="s">
-        <v>2643</v>
+        <v>2636</v>
       </c>
       <c r="AP177" s="3" t="s">
-        <v>2644</v>
+        <v>2637</v>
       </c>
       <c r="AQ177" s="3" t="s">
-        <v>2645</v>
+        <v>2638</v>
       </c>
       <c r="AR177" s="3" t="s">
         <v>267</v>
@@ -37205,13 +37170,13 @@
         <v>1</v>
       </c>
       <c r="AO178" s="3" t="s">
-        <v>2646</v>
+        <v>2639</v>
       </c>
       <c r="AP178" s="3" t="s">
-        <v>2647</v>
+        <v>2640</v>
       </c>
       <c r="AQ178" s="3" t="s">
-        <v>2648</v>
+        <v>2641</v>
       </c>
       <c r="AR178" s="3" t="s">
         <v>267</v>
@@ -37320,13 +37285,13 @@
         <v>1</v>
       </c>
       <c r="AO179" s="3" t="s">
-        <v>2649</v>
+        <v>2642</v>
       </c>
       <c r="AP179" s="3" t="s">
-        <v>2650</v>
+        <v>2643</v>
       </c>
       <c r="AQ179" s="3" t="s">
-        <v>2651</v>
+        <v>2644</v>
       </c>
       <c r="AR179" s="3" t="s">
         <v>267</v>
@@ -37435,13 +37400,13 @@
         <v>1</v>
       </c>
       <c r="AO180" s="3" t="s">
-        <v>2652</v>
+        <v>2645</v>
       </c>
       <c r="AP180" s="3" t="s">
-        <v>2653</v>
+        <v>2646</v>
       </c>
       <c r="AQ180" s="3" t="s">
-        <v>2654</v>
+        <v>2647</v>
       </c>
       <c r="AR180" s="3" t="s">
         <v>267</v>
@@ -37550,13 +37515,13 @@
         <v>1</v>
       </c>
       <c r="AO181" s="3" t="s">
-        <v>2655</v>
+        <v>2648</v>
       </c>
       <c r="AP181" s="3" t="s">
-        <v>2656</v>
+        <v>2649</v>
       </c>
       <c r="AQ181" s="3" t="s">
-        <v>2657</v>
+        <v>2650</v>
       </c>
       <c r="AR181" s="3" t="s">
         <v>267</v>
@@ -37665,13 +37630,13 @@
         <v>1</v>
       </c>
       <c r="AO182" s="3" t="s">
-        <v>2658</v>
+        <v>2651</v>
       </c>
       <c r="AP182" s="3" t="s">
-        <v>2659</v>
+        <v>2652</v>
       </c>
       <c r="AQ182" s="3" t="s">
-        <v>2660</v>
+        <v>2653</v>
       </c>
       <c r="AR182" s="3" t="s">
         <v>267</v>
@@ -37780,13 +37745,13 @@
         <v>1</v>
       </c>
       <c r="AO183" s="3" t="s">
-        <v>2661</v>
+        <v>2654</v>
       </c>
       <c r="AP183" s="3" t="s">
-        <v>2662</v>
+        <v>2655</v>
       </c>
       <c r="AQ183" s="3" t="s">
-        <v>2663</v>
+        <v>2656</v>
       </c>
       <c r="AR183" s="3" t="s">
         <v>267</v>
@@ -37895,13 +37860,13 @@
         <v>1</v>
       </c>
       <c r="AO184" s="3" t="s">
-        <v>2664</v>
+        <v>2657</v>
       </c>
       <c r="AP184" s="3" t="s">
-        <v>2665</v>
+        <v>2658</v>
       </c>
       <c r="AQ184" s="3" t="s">
-        <v>2666</v>
+        <v>2659</v>
       </c>
       <c r="AR184" s="3" t="s">
         <v>267</v>
@@ -38010,13 +37975,13 @@
         <v>1</v>
       </c>
       <c r="AO185" s="3" t="s">
-        <v>2667</v>
+        <v>2660</v>
       </c>
       <c r="AP185" s="3" t="s">
-        <v>2668</v>
+        <v>2661</v>
       </c>
       <c r="AQ185" s="3" t="s">
-        <v>2669</v>
+        <v>2662</v>
       </c>
       <c r="AR185" s="3" t="s">
         <v>267</v>
@@ -38125,13 +38090,13 @@
         <v>1</v>
       </c>
       <c r="AO186" s="3" t="s">
-        <v>2670</v>
+        <v>2663</v>
       </c>
       <c r="AP186" s="3" t="s">
-        <v>2671</v>
+        <v>2664</v>
       </c>
       <c r="AQ186" s="3" t="s">
-        <v>2672</v>
+        <v>2665</v>
       </c>
       <c r="AR186" s="3" t="s">
         <v>267</v>
@@ -38240,13 +38205,13 @@
         <v>1</v>
       </c>
       <c r="AO187" s="3" t="s">
-        <v>2673</v>
+        <v>2666</v>
       </c>
       <c r="AP187" s="3" t="s">
-        <v>2674</v>
+        <v>2667</v>
       </c>
       <c r="AQ187" s="3" t="s">
-        <v>2675</v>
+        <v>2668</v>
       </c>
       <c r="AR187" s="3" t="s">
         <v>267</v>
@@ -38355,13 +38320,13 @@
         <v>1</v>
       </c>
       <c r="AO188" s="3" t="s">
-        <v>2676</v>
+        <v>2669</v>
       </c>
       <c r="AP188" s="3" t="s">
-        <v>2677</v>
+        <v>2670</v>
       </c>
       <c r="AQ188" s="3" t="s">
-        <v>2678</v>
+        <v>2671</v>
       </c>
       <c r="AR188" s="3" t="s">
         <v>267</v>
@@ -38470,13 +38435,13 @@
         <v>1</v>
       </c>
       <c r="AO189" s="3" t="s">
-        <v>2679</v>
+        <v>2672</v>
       </c>
       <c r="AP189" s="3" t="s">
-        <v>2680</v>
+        <v>2673</v>
       </c>
       <c r="AQ189" s="3" t="s">
-        <v>2681</v>
+        <v>2674</v>
       </c>
       <c r="AR189" s="3" t="s">
         <v>267</v>
@@ -38585,13 +38550,13 @@
         <v>1</v>
       </c>
       <c r="AO190" s="3" t="s">
-        <v>2682</v>
+        <v>2675</v>
       </c>
       <c r="AP190" s="3" t="s">
-        <v>2683</v>
+        <v>2676</v>
       </c>
       <c r="AQ190" s="3" t="s">
-        <v>2684</v>
+        <v>2677</v>
       </c>
       <c r="AR190" s="3" t="s">
         <v>267</v>
@@ -38700,13 +38665,13 @@
         <v>1</v>
       </c>
       <c r="AO191" s="3" t="s">
-        <v>2685</v>
+        <v>2678</v>
       </c>
       <c r="AP191" s="3" t="s">
-        <v>2686</v>
+        <v>2679</v>
       </c>
       <c r="AQ191" s="3" t="s">
-        <v>2687</v>
+        <v>2680</v>
       </c>
       <c r="AR191" s="3" t="s">
         <v>267</v>
@@ -38815,13 +38780,13 @@
         <v>1</v>
       </c>
       <c r="AO192" s="3" t="s">
-        <v>2688</v>
+        <v>2681</v>
       </c>
       <c r="AP192" s="3" t="s">
-        <v>2689</v>
+        <v>2682</v>
       </c>
       <c r="AQ192" s="3" t="s">
-        <v>2690</v>
+        <v>2683</v>
       </c>
       <c r="AR192" s="3" t="s">
         <v>267</v>
@@ -38930,13 +38895,13 @@
         <v>1</v>
       </c>
       <c r="AO193" s="3" t="s">
-        <v>2691</v>
+        <v>2684</v>
       </c>
       <c r="AP193" s="3" t="s">
-        <v>2692</v>
+        <v>2685</v>
       </c>
       <c r="AQ193" s="3" t="s">
-        <v>2693</v>
+        <v>2686</v>
       </c>
       <c r="AR193" s="3" t="s">
         <v>267</v>
@@ -39045,13 +39010,13 @@
         <v>1</v>
       </c>
       <c r="AO194" s="3" t="s">
-        <v>2694</v>
+        <v>2687</v>
       </c>
       <c r="AP194" s="3" t="s">
-        <v>2695</v>
+        <v>2688</v>
       </c>
       <c r="AQ194" s="3" t="s">
-        <v>2696</v>
+        <v>2689</v>
       </c>
       <c r="AR194" s="3" t="s">
         <v>267</v>
@@ -39160,13 +39125,13 @@
         <v>1</v>
       </c>
       <c r="AO195" s="3" t="s">
-        <v>2697</v>
+        <v>2690</v>
       </c>
       <c r="AP195" s="3" t="s">
-        <v>2698</v>
+        <v>2691</v>
       </c>
       <c r="AQ195" s="3" t="s">
-        <v>2699</v>
+        <v>2692</v>
       </c>
       <c r="AR195" s="3" t="s">
         <v>267</v>
@@ -39275,13 +39240,13 @@
         <v>1</v>
       </c>
       <c r="AO196" s="3" t="s">
-        <v>2700</v>
+        <v>2693</v>
       </c>
       <c r="AP196" s="3" t="s">
-        <v>2701</v>
+        <v>2694</v>
       </c>
       <c r="AQ196" s="3" t="s">
-        <v>2702</v>
+        <v>2695</v>
       </c>
       <c r="AR196" s="3" t="s">
         <v>267</v>
@@ -39390,13 +39355,13 @@
         <v>1</v>
       </c>
       <c r="AO197" s="3" t="s">
-        <v>2703</v>
+        <v>2696</v>
       </c>
       <c r="AP197" s="3" t="s">
-        <v>2704</v>
+        <v>2697</v>
       </c>
       <c r="AQ197" s="3" t="s">
-        <v>2705</v>
+        <v>2698</v>
       </c>
       <c r="AR197" s="3" t="s">
         <v>267</v>
@@ -39505,13 +39470,13 @@
         <v>1</v>
       </c>
       <c r="AO198" s="3" t="s">
-        <v>2706</v>
+        <v>2699</v>
       </c>
       <c r="AP198" s="3" t="s">
-        <v>2707</v>
+        <v>2700</v>
       </c>
       <c r="AQ198" s="3" t="s">
-        <v>2708</v>
+        <v>2701</v>
       </c>
       <c r="AR198" s="3" t="s">
         <v>267</v>
@@ -39620,13 +39585,13 @@
         <v>1</v>
       </c>
       <c r="AO199" s="3" t="s">
-        <v>2709</v>
+        <v>2702</v>
       </c>
       <c r="AP199" s="3" t="s">
-        <v>2710</v>
+        <v>2703</v>
       </c>
       <c r="AQ199" s="3" t="s">
-        <v>2711</v>
+        <v>2704</v>
       </c>
       <c r="AR199" s="3" t="s">
         <v>267</v>
@@ -39735,13 +39700,13 @@
         <v>1</v>
       </c>
       <c r="AO200" s="3" t="s">
-        <v>2712</v>
+        <v>2705</v>
       </c>
       <c r="AP200" s="3" t="s">
-        <v>2713</v>
+        <v>2706</v>
       </c>
       <c r="AQ200" s="3" t="s">
-        <v>2714</v>
+        <v>2707</v>
       </c>
       <c r="AR200" s="3" t="s">
         <v>267</v>
@@ -39850,13 +39815,13 @@
         <v>1</v>
       </c>
       <c r="AO201" s="3" t="s">
-        <v>2715</v>
+        <v>2708</v>
       </c>
       <c r="AP201" s="3" t="s">
-        <v>2716</v>
+        <v>2709</v>
       </c>
       <c r="AQ201" s="3" t="s">
-        <v>2717</v>
+        <v>2710</v>
       </c>
       <c r="AR201" s="3" t="s">
         <v>267</v>
@@ -39965,13 +39930,13 @@
         <v>1</v>
       </c>
       <c r="AO202" s="3" t="s">
-        <v>2718</v>
+        <v>2711</v>
       </c>
       <c r="AP202" s="3" t="s">
-        <v>2719</v>
+        <v>2712</v>
       </c>
       <c r="AQ202" s="3" t="s">
-        <v>2720</v>
+        <v>2713</v>
       </c>
       <c r="AR202" s="3" t="s">
         <v>267</v>
@@ -40080,13 +40045,13 @@
         <v>1</v>
       </c>
       <c r="AO203" s="3" t="s">
-        <v>2721</v>
+        <v>2714</v>
       </c>
       <c r="AP203" s="3" t="s">
-        <v>2722</v>
+        <v>2715</v>
       </c>
       <c r="AQ203" s="3" t="s">
-        <v>2723</v>
+        <v>2716</v>
       </c>
       <c r="AR203" s="3" t="s">
         <v>267</v>
@@ -40195,13 +40160,13 @@
         <v>1</v>
       </c>
       <c r="AO204" s="3" t="s">
-        <v>2724</v>
+        <v>2717</v>
       </c>
       <c r="AP204" s="3" t="s">
-        <v>2725</v>
+        <v>2718</v>
       </c>
       <c r="AQ204" s="3" t="s">
-        <v>2726</v>
+        <v>2719</v>
       </c>
       <c r="AR204" s="3" t="s">
         <v>267</v>
@@ -40310,13 +40275,13 @@
         <v>1</v>
       </c>
       <c r="AO205" s="3" t="s">
-        <v>2727</v>
+        <v>2720</v>
       </c>
       <c r="AP205" s="3" t="s">
-        <v>2728</v>
+        <v>2721</v>
       </c>
       <c r="AQ205" s="3" t="s">
-        <v>2729</v>
+        <v>2722</v>
       </c>
       <c r="AR205" s="3" t="s">
         <v>267</v>
@@ -40425,13 +40390,13 @@
         <v>1</v>
       </c>
       <c r="AO206" s="3" t="s">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="AP206" s="3" t="s">
-        <v>2731</v>
+        <v>2724</v>
       </c>
       <c r="AQ206" s="3" t="s">
-        <v>2732</v>
+        <v>2725</v>
       </c>
       <c r="AR206" s="3" t="s">
         <v>267</v>
@@ -40540,13 +40505,13 @@
         <v>1</v>
       </c>
       <c r="AO207" s="3" t="s">
-        <v>2733</v>
+        <v>2726</v>
       </c>
       <c r="AP207" s="3" t="s">
-        <v>2734</v>
+        <v>2727</v>
       </c>
       <c r="AQ207" s="3" t="s">
-        <v>2735</v>
+        <v>2728</v>
       </c>
       <c r="AR207" s="3" t="s">
         <v>267</v>
@@ -40655,13 +40620,13 @@
         <v>1</v>
       </c>
       <c r="AO208" s="3" t="s">
-        <v>2736</v>
+        <v>2729</v>
       </c>
       <c r="AP208" s="3" t="s">
-        <v>2737</v>
+        <v>2730</v>
       </c>
       <c r="AQ208" s="3" t="s">
-        <v>2738</v>
+        <v>2731</v>
       </c>
       <c r="AR208" s="3" t="s">
         <v>267</v>
@@ -40770,13 +40735,13 @@
         <v>1</v>
       </c>
       <c r="AO209" s="3" t="s">
-        <v>2739</v>
+        <v>2732</v>
       </c>
       <c r="AP209" s="3" t="s">
-        <v>2740</v>
+        <v>2733</v>
       </c>
       <c r="AQ209" s="3" t="s">
-        <v>2741</v>
+        <v>2734</v>
       </c>
       <c r="AR209" s="3" t="s">
         <v>267</v>
@@ -40885,13 +40850,13 @@
         <v>1</v>
       </c>
       <c r="AO210" s="3" t="s">
-        <v>2742</v>
+        <v>2735</v>
       </c>
       <c r="AP210" s="3" t="s">
-        <v>2743</v>
+        <v>2736</v>
       </c>
       <c r="AQ210" s="3" t="s">
-        <v>2744</v>
+        <v>2737</v>
       </c>
       <c r="AR210" s="3" t="s">
         <v>267</v>
@@ -41000,13 +40965,13 @@
         <v>1</v>
       </c>
       <c r="AO211" s="3" t="s">
-        <v>2745</v>
+        <v>2738</v>
       </c>
       <c r="AP211" s="3" t="s">
-        <v>2746</v>
+        <v>2739</v>
       </c>
       <c r="AQ211" s="3" t="s">
-        <v>2747</v>
+        <v>2740</v>
       </c>
       <c r="AR211" s="3" t="s">
         <v>267</v>
@@ -41115,13 +41080,13 @@
         <v>1</v>
       </c>
       <c r="AO212" s="3" t="s">
-        <v>2748</v>
+        <v>2741</v>
       </c>
       <c r="AP212" s="3" t="s">
-        <v>2749</v>
+        <v>2742</v>
       </c>
       <c r="AQ212" s="3" t="s">
-        <v>2750</v>
+        <v>2743</v>
       </c>
       <c r="AR212" s="3" t="s">
         <v>267</v>
@@ -41230,13 +41195,13 @@
         <v>1</v>
       </c>
       <c r="AO213" s="3" t="s">
-        <v>2751</v>
+        <v>2744</v>
       </c>
       <c r="AP213" s="3" t="s">
-        <v>2752</v>
+        <v>2745</v>
       </c>
       <c r="AQ213" s="3" t="s">
-        <v>2753</v>
+        <v>2746</v>
       </c>
       <c r="AR213" s="3" t="s">
         <v>267</v>
@@ -41345,13 +41310,13 @@
         <v>1</v>
       </c>
       <c r="AO214" s="3" t="s">
-        <v>2754</v>
+        <v>2747</v>
       </c>
       <c r="AP214" s="3" t="s">
-        <v>2755</v>
+        <v>2748</v>
       </c>
       <c r="AQ214" s="3" t="s">
-        <v>2756</v>
+        <v>2749</v>
       </c>
       <c r="AR214" s="3" t="s">
         <v>267</v>
@@ -41460,13 +41425,13 @@
         <v>1</v>
       </c>
       <c r="AO215" s="3" t="s">
-        <v>2757</v>
+        <v>2750</v>
       </c>
       <c r="AP215" s="3" t="s">
-        <v>2758</v>
+        <v>2751</v>
       </c>
       <c r="AQ215" s="3" t="s">
-        <v>2759</v>
+        <v>2752</v>
       </c>
       <c r="AR215" s="3" t="s">
         <v>267</v>
@@ -41575,13 +41540,13 @@
         <v>1</v>
       </c>
       <c r="AO216" s="3" t="s">
-        <v>2760</v>
+        <v>2753</v>
       </c>
       <c r="AP216" s="3" t="s">
-        <v>2761</v>
+        <v>2754</v>
       </c>
       <c r="AQ216" s="3" t="s">
-        <v>2762</v>
+        <v>2755</v>
       </c>
       <c r="AR216" s="3" t="s">
         <v>267</v>
@@ -41690,13 +41655,13 @@
         <v>1</v>
       </c>
       <c r="AO217" s="3" t="s">
-        <v>2763</v>
+        <v>2756</v>
       </c>
       <c r="AP217" s="3" t="s">
-        <v>2764</v>
+        <v>2757</v>
       </c>
       <c r="AQ217" s="3" t="s">
-        <v>2765</v>
+        <v>2758</v>
       </c>
       <c r="AR217" s="3" t="s">
         <v>267</v>
@@ -41805,13 +41770,13 @@
         <v>1</v>
       </c>
       <c r="AO218" s="3" t="s">
-        <v>2766</v>
+        <v>2759</v>
       </c>
       <c r="AP218" s="3" t="s">
-        <v>2767</v>
+        <v>2760</v>
       </c>
       <c r="AQ218" s="3" t="s">
-        <v>2768</v>
+        <v>2761</v>
       </c>
       <c r="AR218" s="3" t="s">
         <v>267</v>
@@ -41920,13 +41885,13 @@
         <v>1</v>
       </c>
       <c r="AO219" s="3" t="s">
-        <v>2769</v>
+        <v>2762</v>
       </c>
       <c r="AP219" s="3" t="s">
-        <v>2770</v>
+        <v>2763</v>
       </c>
       <c r="AQ219" s="3" t="s">
-        <v>2771</v>
+        <v>2764</v>
       </c>
       <c r="AR219" s="3" t="s">
         <v>267</v>
@@ -42035,13 +42000,13 @@
         <v>1</v>
       </c>
       <c r="AO220" s="3" t="s">
-        <v>2772</v>
+        <v>2765</v>
       </c>
       <c r="AP220" s="3" t="s">
-        <v>2773</v>
+        <v>2766</v>
       </c>
       <c r="AQ220" s="3" t="s">
-        <v>2774</v>
+        <v>2767</v>
       </c>
       <c r="AR220" s="3" t="s">
         <v>267</v>
@@ -42150,13 +42115,13 @@
         <v>1</v>
       </c>
       <c r="AO221" s="3" t="s">
-        <v>2775</v>
+        <v>2768</v>
       </c>
       <c r="AP221" s="3" t="s">
-        <v>2776</v>
+        <v>2769</v>
       </c>
       <c r="AQ221" s="3" t="s">
-        <v>2777</v>
+        <v>2770</v>
       </c>
       <c r="AR221" s="3" t="s">
         <v>267</v>
@@ -42265,13 +42230,13 @@
         <v>1</v>
       </c>
       <c r="AO222" s="3" t="s">
-        <v>2778</v>
+        <v>2771</v>
       </c>
       <c r="AP222" s="3" t="s">
-        <v>2779</v>
+        <v>2772</v>
       </c>
       <c r="AQ222" s="3" t="s">
-        <v>2780</v>
+        <v>2773</v>
       </c>
       <c r="AR222" s="3" t="s">
         <v>267</v>
@@ -42380,13 +42345,13 @@
         <v>1</v>
       </c>
       <c r="AO223" s="3" t="s">
-        <v>2781</v>
+        <v>2774</v>
       </c>
       <c r="AP223" s="3" t="s">
-        <v>2782</v>
+        <v>2775</v>
       </c>
       <c r="AQ223" s="3" t="s">
-        <v>2783</v>
+        <v>2776</v>
       </c>
       <c r="AR223" s="3" t="s">
         <v>267</v>
@@ -42495,13 +42460,13 @@
         <v>1</v>
       </c>
       <c r="AO224" s="3" t="s">
-        <v>2784</v>
+        <v>2777</v>
       </c>
       <c r="AP224" s="3" t="s">
-        <v>2785</v>
+        <v>2778</v>
       </c>
       <c r="AQ224" s="3" t="s">
-        <v>2786</v>
+        <v>2779</v>
       </c>
       <c r="AR224" s="3" t="s">
         <v>267</v>
@@ -42610,13 +42575,13 @@
         <v>1</v>
       </c>
       <c r="AO225" s="3" t="s">
-        <v>2787</v>
+        <v>2780</v>
       </c>
       <c r="AP225" s="3" t="s">
-        <v>2788</v>
+        <v>2781</v>
       </c>
       <c r="AQ225" s="3" t="s">
-        <v>2789</v>
+        <v>2782</v>
       </c>
       <c r="AR225" s="3" t="s">
         <v>267</v>
@@ -42725,13 +42690,13 @@
         <v>1</v>
       </c>
       <c r="AO226" s="3" t="s">
-        <v>2790</v>
+        <v>2783</v>
       </c>
       <c r="AP226" s="3" t="s">
-        <v>2791</v>
+        <v>2784</v>
       </c>
       <c r="AQ226" s="3" t="s">
-        <v>2792</v>
+        <v>2785</v>
       </c>
       <c r="AR226" s="3" t="s">
         <v>267</v>
@@ -42840,13 +42805,13 @@
         <v>1</v>
       </c>
       <c r="AO227" s="3" t="s">
-        <v>2793</v>
+        <v>2786</v>
       </c>
       <c r="AP227" s="3" t="s">
-        <v>2794</v>
+        <v>2787</v>
       </c>
       <c r="AQ227" s="3" t="s">
-        <v>2795</v>
+        <v>2788</v>
       </c>
       <c r="AR227" s="3" t="s">
         <v>267</v>
@@ -42955,13 +42920,13 @@
         <v>1</v>
       </c>
       <c r="AO228" s="3" t="s">
-        <v>2796</v>
+        <v>2789</v>
       </c>
       <c r="AP228" s="3" t="s">
-        <v>2797</v>
+        <v>2790</v>
       </c>
       <c r="AQ228" s="3" t="s">
-        <v>2798</v>
+        <v>2791</v>
       </c>
       <c r="AR228" s="3" t="s">
         <v>267</v>
@@ -43063,13 +43028,13 @@
         <v>48</v>
       </c>
       <c r="AO229" s="3" t="s">
-        <v>2799</v>
+        <v>2792</v>
       </c>
       <c r="AP229" s="3" t="s">
-        <v>2800</v>
+        <v>2793</v>
       </c>
       <c r="AQ229" s="3" t="s">
-        <v>2801</v>
+        <v>2794</v>
       </c>
       <c r="AR229" s="2" t="s">
         <v>524</v>
@@ -43176,13 +43141,13 @@
         <v>49</v>
       </c>
       <c r="AO230" s="3" t="s">
-        <v>2802</v>
+        <v>2795</v>
       </c>
       <c r="AP230" s="3" t="s">
-        <v>2803</v>
+        <v>2796</v>
       </c>
       <c r="AQ230" s="3" t="s">
-        <v>2804</v>
+        <v>2797</v>
       </c>
       <c r="AR230" s="2" t="s">
         <v>525</v>
@@ -43289,13 +43254,13 @@
         <v>48</v>
       </c>
       <c r="AO231" s="3" t="s">
-        <v>2805</v>
+        <v>2798</v>
       </c>
       <c r="AP231" s="3" t="s">
-        <v>2806</v>
+        <v>2799</v>
       </c>
       <c r="AQ231" s="3" t="s">
-        <v>2807</v>
+        <v>2800</v>
       </c>
       <c r="AR231" s="2" t="s">
         <v>525</v>
@@ -43402,13 +43367,13 @@
         <v>48</v>
       </c>
       <c r="AO232" s="3" t="s">
-        <v>2808</v>
+        <v>2801</v>
       </c>
       <c r="AP232" s="3" t="s">
-        <v>2809</v>
+        <v>2802</v>
       </c>
       <c r="AQ232" s="3" t="s">
-        <v>2810</v>
+        <v>2803</v>
       </c>
       <c r="AR232" s="2" t="s">
         <v>525</v>
@@ -43515,13 +43480,13 @@
         <v>50</v>
       </c>
       <c r="AO233" s="3" t="s">
-        <v>2811</v>
+        <v>2804</v>
       </c>
       <c r="AP233" s="3" t="s">
-        <v>2812</v>
+        <v>2805</v>
       </c>
       <c r="AQ233" s="3" t="s">
-        <v>2813</v>
+        <v>2806</v>
       </c>
       <c r="AR233" s="2" t="s">
         <v>525</v>
@@ -43628,13 +43593,13 @@
         <v>51</v>
       </c>
       <c r="AO234" s="3" t="s">
-        <v>2814</v>
+        <v>2807</v>
       </c>
       <c r="AP234" s="3" t="s">
-        <v>2815</v>
+        <v>2808</v>
       </c>
       <c r="AQ234" s="3" t="s">
-        <v>2816</v>
+        <v>2809</v>
       </c>
       <c r="AR234" s="2" t="s">
         <v>525</v>
@@ -43741,13 +43706,13 @@
         <v>48</v>
       </c>
       <c r="AO235" s="3" t="s">
-        <v>2817</v>
+        <v>2810</v>
       </c>
       <c r="AP235" s="3" t="s">
-        <v>2818</v>
+        <v>2811</v>
       </c>
       <c r="AQ235" s="3" t="s">
-        <v>2819</v>
+        <v>2812</v>
       </c>
       <c r="AR235" s="2" t="s">
         <v>525</v>
@@ -43854,13 +43819,13 @@
         <v>50</v>
       </c>
       <c r="AO236" s="3" t="s">
-        <v>2820</v>
+        <v>2813</v>
       </c>
       <c r="AP236" s="3" t="s">
-        <v>2821</v>
+        <v>2814</v>
       </c>
       <c r="AQ236" s="3" t="s">
-        <v>2822</v>
+        <v>2815</v>
       </c>
       <c r="AR236" s="2" t="s">
         <v>525</v>
@@ -43967,13 +43932,13 @@
         <v>48</v>
       </c>
       <c r="AO237" s="3" t="s">
-        <v>2823</v>
+        <v>2816</v>
       </c>
       <c r="AP237" s="3" t="s">
-        <v>2824</v>
+        <v>2817</v>
       </c>
       <c r="AQ237" s="3" t="s">
-        <v>2825</v>
+        <v>2818</v>
       </c>
       <c r="AR237" s="2" t="s">
         <v>524</v>
@@ -44080,13 +44045,13 @@
         <v>49</v>
       </c>
       <c r="AO238" s="3" t="s">
-        <v>2826</v>
+        <v>2819</v>
       </c>
       <c r="AP238" s="3" t="s">
-        <v>2827</v>
+        <v>2820</v>
       </c>
       <c r="AQ238" s="3" t="s">
-        <v>2828</v>
+        <v>2821</v>
       </c>
       <c r="AR238" s="3" t="s">
         <v>267</v>
@@ -44193,13 +44158,13 @@
         <v>48</v>
       </c>
       <c r="AO239" s="3" t="s">
-        <v>2829</v>
+        <v>2822</v>
       </c>
       <c r="AP239" s="3" t="s">
-        <v>2830</v>
+        <v>2823</v>
       </c>
       <c r="AQ239" s="3" t="s">
-        <v>2831</v>
+        <v>2824</v>
       </c>
       <c r="AR239" s="3" t="s">
         <v>267</v>
@@ -44306,13 +44271,13 @@
         <v>50</v>
       </c>
       <c r="AO240" s="3" t="s">
-        <v>2832</v>
+        <v>2825</v>
       </c>
       <c r="AP240" s="3" t="s">
-        <v>2833</v>
+        <v>2826</v>
       </c>
       <c r="AQ240" s="3" t="s">
-        <v>2834</v>
+        <v>2827</v>
       </c>
       <c r="AR240" s="3" t="s">
         <v>267</v>
@@ -44419,13 +44384,13 @@
         <v>51</v>
       </c>
       <c r="AO241" s="3" t="s">
-        <v>2835</v>
+        <v>2828</v>
       </c>
       <c r="AP241" s="3" t="s">
-        <v>2836</v>
+        <v>2829</v>
       </c>
       <c r="AQ241" s="3" t="s">
-        <v>2837</v>
+        <v>2830</v>
       </c>
       <c r="AR241" s="3" t="s">
         <v>267</v>
@@ -44532,13 +44497,13 @@
         <v>50</v>
       </c>
       <c r="AO242" s="3" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
       <c r="AP242" s="3" t="s">
-        <v>2839</v>
+        <v>2832</v>
       </c>
       <c r="AQ242" s="3" t="s">
-        <v>2840</v>
+        <v>2833</v>
       </c>
       <c r="AR242" s="3" t="s">
         <v>267</v>
@@ -44645,13 +44610,13 @@
         <v>48</v>
       </c>
       <c r="AO243" s="3" t="s">
-        <v>2841</v>
+        <v>2834</v>
       </c>
       <c r="AP243" s="3" t="s">
-        <v>2842</v>
+        <v>2835</v>
       </c>
       <c r="AQ243" s="3" t="s">
-        <v>2843</v>
+        <v>2836</v>
       </c>
       <c r="AR243" s="3" t="s">
         <v>267</v>
@@ -44758,13 +44723,13 @@
         <v>49</v>
       </c>
       <c r="AO244" s="3" t="s">
-        <v>2844</v>
+        <v>2837</v>
       </c>
       <c r="AP244" s="3" t="s">
-        <v>2845</v>
+        <v>2838</v>
       </c>
       <c r="AQ244" s="3" t="s">
-        <v>2846</v>
+        <v>2839</v>
       </c>
       <c r="AR244" s="3" t="s">
         <v>267</v>
@@ -44871,13 +44836,13 @@
         <v>48</v>
       </c>
       <c r="AO245" s="3" t="s">
-        <v>2847</v>
+        <v>2840</v>
       </c>
       <c r="AP245" s="3" t="s">
-        <v>2848</v>
+        <v>2841</v>
       </c>
       <c r="AQ245" s="3" t="s">
-        <v>2849</v>
+        <v>2842</v>
       </c>
       <c r="AR245" s="3" t="s">
         <v>267</v>
@@ -44984,13 +44949,13 @@
         <v>50</v>
       </c>
       <c r="AO246" s="3" t="s">
-        <v>2850</v>
+        <v>2843</v>
       </c>
       <c r="AP246" s="3" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="AQ246" s="3" t="s">
-        <v>2852</v>
+        <v>2845</v>
       </c>
       <c r="AR246" s="3" t="s">
         <v>267</v>
@@ -45097,13 +45062,13 @@
         <v>51</v>
       </c>
       <c r="AO247" s="3" t="s">
-        <v>2853</v>
+        <v>2846</v>
       </c>
       <c r="AP247" s="3" t="s">
-        <v>2854</v>
+        <v>2847</v>
       </c>
       <c r="AQ247" s="3" t="s">
-        <v>2855</v>
+        <v>2848</v>
       </c>
       <c r="AR247" s="3" t="s">
         <v>267</v>
@@ -45210,13 +45175,13 @@
         <v>50</v>
       </c>
       <c r="AO248" s="3" t="s">
-        <v>2856</v>
+        <v>2849</v>
       </c>
       <c r="AP248" s="3" t="s">
-        <v>2857</v>
+        <v>2850</v>
       </c>
       <c r="AQ248" s="3" t="s">
-        <v>2858</v>
+        <v>2851</v>
       </c>
       <c r="AR248" s="3" t="s">
         <v>267</v>
@@ -45323,13 +45288,13 @@
         <v>48</v>
       </c>
       <c r="AO249" s="3" t="s">
-        <v>2859</v>
+        <v>2852</v>
       </c>
       <c r="AP249" s="3" t="s">
-        <v>2860</v>
+        <v>2853</v>
       </c>
       <c r="AQ249" s="3" t="s">
-        <v>2861</v>
+        <v>2854</v>
       </c>
       <c r="AR249" s="3" t="s">
         <v>267</v>
@@ -45436,13 +45401,13 @@
         <v>49</v>
       </c>
       <c r="AO250" s="3" t="s">
-        <v>2862</v>
+        <v>2855</v>
       </c>
       <c r="AP250" s="3" t="s">
-        <v>2863</v>
+        <v>2856</v>
       </c>
       <c r="AQ250" s="3" t="s">
-        <v>2864</v>
+        <v>2857</v>
       </c>
       <c r="AR250" s="3" t="s">
         <v>267</v>
@@ -45549,13 +45514,13 @@
         <v>48</v>
       </c>
       <c r="AO251" s="3" t="s">
-        <v>2865</v>
+        <v>2858</v>
       </c>
       <c r="AP251" s="3" t="s">
-        <v>2866</v>
+        <v>2859</v>
       </c>
       <c r="AQ251" s="3" t="s">
-        <v>2867</v>
+        <v>2860</v>
       </c>
       <c r="AR251" s="3" t="s">
         <v>267</v>
@@ -45662,13 +45627,13 @@
         <v>50</v>
       </c>
       <c r="AO252" s="3" t="s">
-        <v>2868</v>
+        <v>2861</v>
       </c>
       <c r="AP252" s="3" t="s">
-        <v>2869</v>
+        <v>2862</v>
       </c>
       <c r="AQ252" s="3" t="s">
-        <v>2870</v>
+        <v>2863</v>
       </c>
       <c r="AR252" s="3" t="s">
         <v>267</v>
@@ -45775,13 +45740,13 @@
         <v>51</v>
       </c>
       <c r="AO253" s="3" t="s">
-        <v>2871</v>
+        <v>2864</v>
       </c>
       <c r="AP253" s="3" t="s">
-        <v>2872</v>
+        <v>2865</v>
       </c>
       <c r="AQ253" s="3" t="s">
-        <v>2873</v>
+        <v>2866</v>
       </c>
       <c r="AR253" s="3" t="s">
         <v>267</v>
@@ -45888,13 +45853,13 @@
         <v>50</v>
       </c>
       <c r="AO254" s="3" t="s">
-        <v>2874</v>
+        <v>2867</v>
       </c>
       <c r="AP254" s="3" t="s">
-        <v>2875</v>
+        <v>2868</v>
       </c>
       <c r="AQ254" s="3" t="s">
-        <v>2876</v>
+        <v>2869</v>
       </c>
       <c r="AR254" s="3" t="s">
         <v>267</v>
@@ -46001,13 +45966,13 @@
         <v>48</v>
       </c>
       <c r="AO255" s="3" t="s">
-        <v>2877</v>
+        <v>2870</v>
       </c>
       <c r="AP255" s="3" t="s">
-        <v>2878</v>
+        <v>2871</v>
       </c>
       <c r="AQ255" s="3" t="s">
-        <v>2879</v>
+        <v>2872</v>
       </c>
       <c r="AR255" s="3" t="s">
         <v>267</v>
@@ -46116,13 +46081,13 @@
         <v>49</v>
       </c>
       <c r="AO256" s="3" t="s">
-        <v>2880</v>
+        <v>2873</v>
       </c>
       <c r="AP256" s="3" t="s">
-        <v>2881</v>
+        <v>2874</v>
       </c>
       <c r="AQ256" s="3" t="s">
-        <v>2882</v>
+        <v>2875</v>
       </c>
       <c r="AR256" s="3" t="s">
         <v>267</v>
@@ -46231,13 +46196,13 @@
         <v>48</v>
       </c>
       <c r="AO257" s="3" t="s">
-        <v>2883</v>
+        <v>2876</v>
       </c>
       <c r="AP257" s="3" t="s">
-        <v>2884</v>
+        <v>2877</v>
       </c>
       <c r="AQ257" s="3" t="s">
-        <v>2885</v>
+        <v>2878</v>
       </c>
       <c r="AR257" s="3" t="s">
         <v>267</v>
@@ -46346,13 +46311,13 @@
         <v>50</v>
       </c>
       <c r="AO258" s="3" t="s">
-        <v>2886</v>
+        <v>2879</v>
       </c>
       <c r="AP258" s="3" t="s">
-        <v>2887</v>
+        <v>2880</v>
       </c>
       <c r="AQ258" s="3" t="s">
-        <v>2888</v>
+        <v>2881</v>
       </c>
       <c r="AR258" s="3" t="s">
         <v>267</v>
@@ -46461,13 +46426,13 @@
         <v>51</v>
       </c>
       <c r="AO259" s="3" t="s">
-        <v>2889</v>
+        <v>2882</v>
       </c>
       <c r="AP259" s="3" t="s">
-        <v>2890</v>
+        <v>2883</v>
       </c>
       <c r="AQ259" s="3" t="s">
-        <v>2891</v>
+        <v>2884</v>
       </c>
       <c r="AR259" s="3" t="s">
         <v>267</v>
@@ -46576,13 +46541,13 @@
         <v>50</v>
       </c>
       <c r="AO260" s="3" t="s">
-        <v>2892</v>
+        <v>2885</v>
       </c>
       <c r="AP260" s="3" t="s">
-        <v>2893</v>
+        <v>2886</v>
       </c>
       <c r="AQ260" s="3" t="s">
-        <v>2894</v>
+        <v>2887</v>
       </c>
       <c r="AR260" s="3" t="s">
         <v>267</v>
@@ -46691,13 +46656,13 @@
         <v>6</v>
       </c>
       <c r="AO261" s="3" t="s">
-        <v>2895</v>
+        <v>2888</v>
       </c>
       <c r="AP261" s="3" t="s">
-        <v>2896</v>
+        <v>2889</v>
       </c>
       <c r="AQ261" s="3" t="s">
-        <v>2897</v>
+        <v>2890</v>
       </c>
       <c r="AR261" s="3" t="s">
         <v>267</v>
@@ -46806,13 +46771,13 @@
         <v>7</v>
       </c>
       <c r="AO262" s="3" t="s">
-        <v>2898</v>
+        <v>2891</v>
       </c>
       <c r="AP262" s="3" t="s">
-        <v>2899</v>
+        <v>2892</v>
       </c>
       <c r="AQ262" s="3" t="s">
-        <v>2900</v>
+        <v>2893</v>
       </c>
       <c r="AR262" s="3" t="s">
         <v>267</v>
@@ -46921,13 +46886,13 @@
         <v>8</v>
       </c>
       <c r="AO263" s="3" t="s">
-        <v>2901</v>
+        <v>2894</v>
       </c>
       <c r="AP263" s="3" t="s">
-        <v>2902</v>
+        <v>2895</v>
       </c>
       <c r="AQ263" s="3" t="s">
-        <v>2903</v>
+        <v>2896</v>
       </c>
       <c r="AR263" s="3" t="s">
         <v>267</v>
@@ -47036,13 +47001,13 @@
         <v>14</v>
       </c>
       <c r="AO264" s="3" t="s">
-        <v>2904</v>
+        <v>2897</v>
       </c>
       <c r="AP264" s="3" t="s">
-        <v>2905</v>
+        <v>2898</v>
       </c>
       <c r="AQ264" s="3" t="s">
-        <v>2906</v>
+        <v>2899</v>
       </c>
       <c r="AR264" s="3" t="s">
         <v>267</v>
@@ -47151,13 +47116,13 @@
         <v>51</v>
       </c>
       <c r="AO265" s="3" t="s">
-        <v>2907</v>
+        <v>2900</v>
       </c>
       <c r="AP265" s="3" t="s">
-        <v>2908</v>
+        <v>2901</v>
       </c>
       <c r="AQ265" s="3" t="s">
-        <v>2909</v>
+        <v>2902</v>
       </c>
       <c r="AR265" s="3" t="s">
         <v>267</v>
@@ -47266,13 +47231,13 @@
         <v>50</v>
       </c>
       <c r="AO266" s="3" t="s">
-        <v>2910</v>
+        <v>2903</v>
       </c>
       <c r="AP266" s="3" t="s">
-        <v>2911</v>
+        <v>2904</v>
       </c>
       <c r="AQ266" s="3" t="s">
-        <v>2912</v>
+        <v>2905</v>
       </c>
       <c r="AR266" s="3" t="s">
         <v>267</v>
@@ -47381,13 +47346,13 @@
         <v>37</v>
       </c>
       <c r="AO267" s="3" t="s">
-        <v>2913</v>
+        <v>2906</v>
       </c>
       <c r="AP267" s="3" t="s">
-        <v>2914</v>
+        <v>2907</v>
       </c>
       <c r="AQ267" s="3" t="s">
-        <v>2915</v>
+        <v>2908</v>
       </c>
       <c r="AR267" s="3" t="s">
         <v>267</v>
@@ -47496,13 +47461,13 @@
         <v>38</v>
       </c>
       <c r="AO268" s="3" t="s">
-        <v>2916</v>
+        <v>2909</v>
       </c>
       <c r="AP268" s="3" t="s">
-        <v>2917</v>
+        <v>2910</v>
       </c>
       <c r="AQ268" s="3" t="s">
-        <v>2918</v>
+        <v>2911</v>
       </c>
       <c r="AR268" s="3" t="s">
         <v>267</v>
@@ -47611,13 +47576,13 @@
         <v>39</v>
       </c>
       <c r="AO269" s="3" t="s">
-        <v>2919</v>
+        <v>2912</v>
       </c>
       <c r="AP269" s="3" t="s">
-        <v>2920</v>
+        <v>2913</v>
       </c>
       <c r="AQ269" s="3" t="s">
-        <v>2921</v>
+        <v>2914</v>
       </c>
       <c r="AR269" s="3" t="s">
         <v>267</v>
@@ -47726,13 +47691,13 @@
         <v>40</v>
       </c>
       <c r="AO270" s="3" t="s">
-        <v>2922</v>
+        <v>2915</v>
       </c>
       <c r="AP270" s="3" t="s">
-        <v>2923</v>
+        <v>2916</v>
       </c>
       <c r="AQ270" s="3" t="s">
-        <v>2924</v>
+        <v>2917</v>
       </c>
       <c r="AR270" s="3" t="s">
         <v>267</v>
@@ -47841,13 +47806,13 @@
         <v>41</v>
       </c>
       <c r="AO271" s="3" t="s">
-        <v>2925</v>
+        <v>2918</v>
       </c>
       <c r="AP271" s="3" t="s">
-        <v>2926</v>
+        <v>2919</v>
       </c>
       <c r="AQ271" s="3" t="s">
-        <v>2927</v>
+        <v>2920</v>
       </c>
       <c r="AR271" s="3" t="s">
         <v>267</v>
@@ -47956,13 +47921,13 @@
         <v>42</v>
       </c>
       <c r="AO272" s="3" t="s">
-        <v>2928</v>
+        <v>2921</v>
       </c>
       <c r="AP272" s="3" t="s">
-        <v>2929</v>
+        <v>2922</v>
       </c>
       <c r="AQ272" s="3" t="s">
-        <v>2930</v>
+        <v>2923</v>
       </c>
       <c r="AR272" s="3" t="s">
         <v>267</v>
@@ -48071,13 +48036,13 @@
         <v>43</v>
       </c>
       <c r="AO273" s="3" t="s">
-        <v>2931</v>
+        <v>2924</v>
       </c>
       <c r="AP273" s="3" t="s">
-        <v>2932</v>
+        <v>2925</v>
       </c>
       <c r="AQ273" s="3" t="s">
-        <v>2933</v>
+        <v>2926</v>
       </c>
       <c r="AR273" s="3" t="s">
         <v>267</v>
@@ -48186,13 +48151,13 @@
         <v>44</v>
       </c>
       <c r="AO274" s="3" t="s">
-        <v>2934</v>
+        <v>2927</v>
       </c>
       <c r="AP274" s="3" t="s">
-        <v>2935</v>
+        <v>2928</v>
       </c>
       <c r="AQ274" s="3" t="s">
-        <v>2936</v>
+        <v>2929</v>
       </c>
       <c r="AR274" s="3" t="s">
         <v>267</v>
@@ -48301,13 +48266,13 @@
         <v>45</v>
       </c>
       <c r="AO275" s="3" t="s">
-        <v>2937</v>
+        <v>2930</v>
       </c>
       <c r="AP275" s="3" t="s">
-        <v>2938</v>
+        <v>2931</v>
       </c>
       <c r="AQ275" s="3" t="s">
-        <v>2939</v>
+        <v>2932</v>
       </c>
       <c r="AR275" s="3" t="s">
         <v>267</v>
@@ -48416,13 +48381,13 @@
         <v>46</v>
       </c>
       <c r="AO276" s="3" t="s">
-        <v>2940</v>
+        <v>2933</v>
       </c>
       <c r="AP276" s="3" t="s">
-        <v>2941</v>
+        <v>2934</v>
       </c>
       <c r="AQ276" s="3" t="s">
-        <v>2942</v>
+        <v>2935</v>
       </c>
       <c r="AR276" s="3" t="s">
         <v>267</v>
@@ -48531,13 +48496,13 @@
         <v>1</v>
       </c>
       <c r="AO277" s="3" t="s">
-        <v>2943</v>
+        <v>2936</v>
       </c>
       <c r="AP277" s="3" t="s">
-        <v>2944</v>
+        <v>2937</v>
       </c>
       <c r="AQ277" s="3" t="s">
-        <v>2945</v>
+        <v>2938</v>
       </c>
       <c r="AR277" s="3" t="s">
         <v>267</v>
@@ -48646,13 +48611,13 @@
         <v>1</v>
       </c>
       <c r="AO278" s="3" t="s">
-        <v>2946</v>
+        <v>2939</v>
       </c>
       <c r="AP278" s="3" t="s">
-        <v>2947</v>
+        <v>2940</v>
       </c>
       <c r="AQ278" s="3" t="s">
-        <v>2948</v>
+        <v>2941</v>
       </c>
       <c r="AR278" s="3" t="s">
         <v>267</v>
@@ -48761,13 +48726,13 @@
         <v>1</v>
       </c>
       <c r="AO279" s="3" t="s">
-        <v>2949</v>
+        <v>2942</v>
       </c>
       <c r="AP279" s="3" t="s">
-        <v>2950</v>
+        <v>2943</v>
       </c>
       <c r="AQ279" s="3" t="s">
-        <v>2951</v>
+        <v>2944</v>
       </c>
       <c r="AR279" s="3" t="s">
         <v>267</v>
@@ -48876,13 +48841,13 @@
         <v>1</v>
       </c>
       <c r="AO280" s="3" t="s">
-        <v>2952</v>
+        <v>2945</v>
       </c>
       <c r="AP280" s="3" t="s">
-        <v>2953</v>
+        <v>2946</v>
       </c>
       <c r="AQ280" s="3" t="s">
-        <v>2954</v>
+        <v>2947</v>
       </c>
       <c r="AR280" s="3" t="s">
         <v>267</v>
@@ -48991,13 +48956,13 @@
         <v>1</v>
       </c>
       <c r="AO281" s="3" t="s">
-        <v>2955</v>
+        <v>2948</v>
       </c>
       <c r="AP281" s="3" t="s">
-        <v>2956</v>
+        <v>2949</v>
       </c>
       <c r="AQ281" s="3" t="s">
-        <v>2957</v>
+        <v>2950</v>
       </c>
       <c r="AR281" s="3" t="s">
         <v>267</v>
@@ -49106,13 +49071,13 @@
         <v>1</v>
       </c>
       <c r="AO282" s="3" t="s">
-        <v>2958</v>
+        <v>2951</v>
       </c>
       <c r="AP282" s="3" t="s">
-        <v>2959</v>
+        <v>2952</v>
       </c>
       <c r="AQ282" s="3" t="s">
-        <v>2960</v>
+        <v>2953</v>
       </c>
       <c r="AR282" s="3" t="s">
         <v>267</v>
@@ -49221,13 +49186,13 @@
         <v>1</v>
       </c>
       <c r="AO283" s="3" t="s">
-        <v>2961</v>
+        <v>2954</v>
       </c>
       <c r="AP283" s="3" t="s">
-        <v>2962</v>
+        <v>2955</v>
       </c>
       <c r="AQ283" s="3" t="s">
-        <v>2963</v>
+        <v>2956</v>
       </c>
       <c r="AR283" s="3" t="s">
         <v>267</v>
@@ -49336,13 +49301,13 @@
         <v>1</v>
       </c>
       <c r="AO284" s="3" t="s">
-        <v>2964</v>
+        <v>2957</v>
       </c>
       <c r="AP284" s="3" t="s">
-        <v>2965</v>
+        <v>2958</v>
       </c>
       <c r="AQ284" s="3" t="s">
-        <v>2966</v>
+        <v>2959</v>
       </c>
       <c r="AR284" s="3" t="s">
         <v>267</v>
@@ -49451,13 +49416,13 @@
         <v>1</v>
       </c>
       <c r="AO285" s="3" t="s">
-        <v>2967</v>
+        <v>2960</v>
       </c>
       <c r="AP285" s="3" t="s">
-        <v>2968</v>
+        <v>2961</v>
       </c>
       <c r="AQ285" s="3" t="s">
-        <v>2969</v>
+        <v>2962</v>
       </c>
       <c r="AR285" s="3" t="s">
         <v>267</v>
@@ -49566,13 +49531,13 @@
         <v>1</v>
       </c>
       <c r="AO286" s="3" t="s">
-        <v>2970</v>
+        <v>2963</v>
       </c>
       <c r="AP286" s="3" t="s">
-        <v>2971</v>
+        <v>2964</v>
       </c>
       <c r="AQ286" s="3" t="s">
-        <v>2972</v>
+        <v>2965</v>
       </c>
       <c r="AR286" s="3" t="s">
         <v>267</v>
@@ -49681,13 +49646,13 @@
         <v>1</v>
       </c>
       <c r="AO287" s="3" t="s">
-        <v>2973</v>
+        <v>2966</v>
       </c>
       <c r="AP287" s="3" t="s">
-        <v>2974</v>
+        <v>2967</v>
       </c>
       <c r="AQ287" s="3" t="s">
-        <v>2975</v>
+        <v>2968</v>
       </c>
       <c r="AR287" s="3" t="s">
         <v>267</v>
@@ -49796,13 +49761,13 @@
         <v>1</v>
       </c>
       <c r="AO288" s="3" t="s">
-        <v>2976</v>
+        <v>2969</v>
       </c>
       <c r="AP288" s="3" t="s">
-        <v>2977</v>
+        <v>2970</v>
       </c>
       <c r="AQ288" s="3" t="s">
-        <v>2978</v>
+        <v>2971</v>
       </c>
       <c r="AR288" s="3" t="s">
         <v>267</v>
@@ -49911,13 +49876,13 @@
         <v>1</v>
       </c>
       <c r="AO289" s="3" t="s">
-        <v>2979</v>
+        <v>2972</v>
       </c>
       <c r="AP289" s="3" t="s">
-        <v>2980</v>
+        <v>2973</v>
       </c>
       <c r="AQ289" s="3" t="s">
-        <v>2981</v>
+        <v>2974</v>
       </c>
       <c r="AR289" s="3" t="s">
         <v>267</v>
@@ -50026,13 +49991,13 @@
         <v>1</v>
       </c>
       <c r="AO290" s="3" t="s">
-        <v>2982</v>
+        <v>2975</v>
       </c>
       <c r="AP290" s="3" t="s">
-        <v>2983</v>
+        <v>2976</v>
       </c>
       <c r="AQ290" s="3" t="s">
-        <v>2984</v>
+        <v>2977</v>
       </c>
       <c r="AR290" s="3" t="s">
         <v>267</v>
@@ -50141,13 +50106,13 @@
         <v>1</v>
       </c>
       <c r="AO291" s="3" t="s">
-        <v>2985</v>
+        <v>2978</v>
       </c>
       <c r="AP291" s="3" t="s">
-        <v>2986</v>
+        <v>2979</v>
       </c>
       <c r="AQ291" s="3" t="s">
-        <v>2987</v>
+        <v>2980</v>
       </c>
       <c r="AR291" s="3" t="s">
         <v>267</v>
@@ -50256,13 +50221,13 @@
         <v>1</v>
       </c>
       <c r="AO292" s="3" t="s">
-        <v>2988</v>
+        <v>2981</v>
       </c>
       <c r="AP292" s="3" t="s">
-        <v>2989</v>
+        <v>2982</v>
       </c>
       <c r="AQ292" s="3" t="s">
-        <v>2990</v>
+        <v>2983</v>
       </c>
       <c r="AR292" s="3" t="s">
         <v>267</v>
@@ -50371,13 +50336,13 @@
         <v>1</v>
       </c>
       <c r="AO293" s="3" t="s">
-        <v>2991</v>
+        <v>2984</v>
       </c>
       <c r="AP293" s="3" t="s">
-        <v>2992</v>
+        <v>2985</v>
       </c>
       <c r="AQ293" s="3" t="s">
-        <v>2993</v>
+        <v>2986</v>
       </c>
       <c r="AR293" s="3" t="s">
         <v>267</v>
@@ -50486,13 +50451,13 @@
         <v>1</v>
       </c>
       <c r="AO294" s="3" t="s">
-        <v>2994</v>
+        <v>2987</v>
       </c>
       <c r="AP294" s="3" t="s">
-        <v>2995</v>
+        <v>2988</v>
       </c>
       <c r="AQ294" s="3" t="s">
-        <v>2996</v>
+        <v>2989</v>
       </c>
       <c r="AR294" s="3" t="s">
         <v>267</v>
@@ -50601,13 +50566,13 @@
         <v>1</v>
       </c>
       <c r="AO295" s="3" t="s">
-        <v>2997</v>
+        <v>2990</v>
       </c>
       <c r="AP295" s="3" t="s">
-        <v>2998</v>
+        <v>2991</v>
       </c>
       <c r="AQ295" s="3" t="s">
-        <v>2999</v>
+        <v>2992</v>
       </c>
       <c r="AR295" s="3" t="s">
         <v>267</v>
@@ -50716,13 +50681,13 @@
         <v>1</v>
       </c>
       <c r="AO296" s="3" t="s">
-        <v>3000</v>
+        <v>2993</v>
       </c>
       <c r="AP296" s="3" t="s">
-        <v>3001</v>
+        <v>2994</v>
       </c>
       <c r="AQ296" s="3" t="s">
-        <v>3002</v>
+        <v>2995</v>
       </c>
       <c r="AR296" s="3" t="s">
         <v>267</v>
@@ -50831,13 +50796,13 @@
         <v>1</v>
       </c>
       <c r="AO297" s="3" t="s">
-        <v>3003</v>
+        <v>2996</v>
       </c>
       <c r="AP297" s="3" t="s">
-        <v>3004</v>
+        <v>2997</v>
       </c>
       <c r="AQ297" s="3" t="s">
-        <v>3005</v>
+        <v>2998</v>
       </c>
       <c r="AR297" s="3" t="s">
         <v>267</v>
@@ -50946,13 +50911,13 @@
         <v>1</v>
       </c>
       <c r="AO298" s="3" t="s">
-        <v>3006</v>
+        <v>2999</v>
       </c>
       <c r="AP298" s="3" t="s">
-        <v>3007</v>
+        <v>3000</v>
       </c>
       <c r="AQ298" s="3" t="s">
-        <v>3008</v>
+        <v>3001</v>
       </c>
       <c r="AR298" s="3" t="s">
         <v>267</v>
@@ -51061,13 +51026,13 @@
         <v>1</v>
       </c>
       <c r="AO299" s="3" t="s">
-        <v>3009</v>
+        <v>3002</v>
       </c>
       <c r="AP299" s="3" t="s">
-        <v>3010</v>
+        <v>3003</v>
       </c>
       <c r="AQ299" s="3" t="s">
-        <v>3011</v>
+        <v>3004</v>
       </c>
       <c r="AR299" s="3" t="s">
         <v>267</v>
@@ -51176,13 +51141,13 @@
         <v>1</v>
       </c>
       <c r="AO300" s="3" t="s">
-        <v>3012</v>
+        <v>3005</v>
       </c>
       <c r="AP300" s="3" t="s">
-        <v>3013</v>
+        <v>3006</v>
       </c>
       <c r="AQ300" s="3" t="s">
-        <v>3014</v>
+        <v>3007</v>
       </c>
       <c r="AR300" s="3" t="s">
         <v>267</v>
@@ -51291,13 +51256,13 @@
         <v>1</v>
       </c>
       <c r="AO301" s="3" t="s">
-        <v>3015</v>
+        <v>3008</v>
       </c>
       <c r="AP301" s="3" t="s">
-        <v>3016</v>
+        <v>3009</v>
       </c>
       <c r="AQ301" s="3" t="s">
-        <v>3017</v>
+        <v>3010</v>
       </c>
       <c r="AR301" s="3" t="s">
         <v>267</v>
@@ -51406,13 +51371,13 @@
         <v>1</v>
       </c>
       <c r="AO302" s="3" t="s">
-        <v>3018</v>
+        <v>3011</v>
       </c>
       <c r="AP302" s="3" t="s">
-        <v>3019</v>
+        <v>3012</v>
       </c>
       <c r="AQ302" s="3" t="s">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="AR302" s="3" t="s">
         <v>267</v>
@@ -51521,13 +51486,13 @@
         <v>1</v>
       </c>
       <c r="AO303" s="3" t="s">
-        <v>3021</v>
+        <v>3014</v>
       </c>
       <c r="AP303" s="3" t="s">
-        <v>3022</v>
+        <v>3015</v>
       </c>
       <c r="AQ303" s="3" t="s">
-        <v>3023</v>
+        <v>3016</v>
       </c>
       <c r="AR303" s="3" t="s">
         <v>267</v>
@@ -51636,13 +51601,13 @@
         <v>1</v>
       </c>
       <c r="AO304" s="3" t="s">
-        <v>3024</v>
+        <v>3017</v>
       </c>
       <c r="AP304" s="3" t="s">
-        <v>3025</v>
+        <v>3018</v>
       </c>
       <c r="AQ304" s="3" t="s">
-        <v>3026</v>
+        <v>3019</v>
       </c>
       <c r="AR304" s="3" t="s">
         <v>267</v>
@@ -51751,13 +51716,13 @@
         <v>1</v>
       </c>
       <c r="AO305" s="3" t="s">
-        <v>3027</v>
+        <v>3020</v>
       </c>
       <c r="AP305" s="3" t="s">
-        <v>3028</v>
+        <v>3021</v>
       </c>
       <c r="AQ305" s="3" t="s">
-        <v>3029</v>
+        <v>3022</v>
       </c>
       <c r="AR305" s="3" t="s">
         <v>267</v>
@@ -51866,13 +51831,13 @@
         <v>1</v>
       </c>
       <c r="AO306" s="3" t="s">
-        <v>3030</v>
+        <v>3023</v>
       </c>
       <c r="AP306" s="3" t="s">
-        <v>3031</v>
+        <v>3024</v>
       </c>
       <c r="AQ306" s="3" t="s">
-        <v>3032</v>
+        <v>3025</v>
       </c>
       <c r="AR306" s="3" t="s">
         <v>267</v>
@@ -51981,13 +51946,13 @@
         <v>1</v>
       </c>
       <c r="AO307" s="3" t="s">
-        <v>3033</v>
+        <v>3026</v>
       </c>
       <c r="AP307" s="3" t="s">
-        <v>3034</v>
+        <v>3027</v>
       </c>
       <c r="AQ307" s="3" t="s">
-        <v>3035</v>
+        <v>3028</v>
       </c>
       <c r="AR307" s="3" t="s">
         <v>267</v>
@@ -52096,13 +52061,13 @@
         <v>1</v>
       </c>
       <c r="AO308" s="3" t="s">
-        <v>3036</v>
+        <v>3029</v>
       </c>
       <c r="AP308" s="3" t="s">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="AQ308" s="3" t="s">
-        <v>3038</v>
+        <v>3031</v>
       </c>
       <c r="AR308" s="3" t="s">
         <v>267</v>
@@ -52211,13 +52176,13 @@
         <v>1</v>
       </c>
       <c r="AO309" s="3" t="s">
-        <v>3039</v>
+        <v>3032</v>
       </c>
       <c r="AP309" s="3" t="s">
-        <v>3040</v>
+        <v>3033</v>
       </c>
       <c r="AQ309" s="3" t="s">
-        <v>3041</v>
+        <v>3034</v>
       </c>
       <c r="AR309" s="3" t="s">
         <v>267</v>
@@ -52326,13 +52291,13 @@
         <v>1</v>
       </c>
       <c r="AO310" s="3" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
       <c r="AP310" s="3" t="s">
-        <v>3043</v>
+        <v>3036</v>
       </c>
       <c r="AQ310" s="3" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="AR310" s="3" t="s">
         <v>267</v>
@@ -52441,13 +52406,13 @@
         <v>1</v>
       </c>
       <c r="AO311" s="3" t="s">
-        <v>3045</v>
+        <v>3038</v>
       </c>
       <c r="AP311" s="3" t="s">
-        <v>3046</v>
+        <v>3039</v>
       </c>
       <c r="AQ311" s="3" t="s">
-        <v>3047</v>
+        <v>3040</v>
       </c>
       <c r="AR311" s="3" t="s">
         <v>267</v>
@@ -52556,13 +52521,13 @@
         <v>1</v>
       </c>
       <c r="AO312" s="3" t="s">
-        <v>3048</v>
+        <v>3041</v>
       </c>
       <c r="AP312" s="3" t="s">
-        <v>3049</v>
+        <v>3042</v>
       </c>
       <c r="AQ312" s="3" t="s">
-        <v>3050</v>
+        <v>3043</v>
       </c>
       <c r="AR312" s="3" t="s">
         <v>267</v>
@@ -52671,13 +52636,13 @@
         <v>1</v>
       </c>
       <c r="AO313" s="3" t="s">
-        <v>3051</v>
+        <v>3044</v>
       </c>
       <c r="AP313" s="3" t="s">
-        <v>3052</v>
+        <v>3045</v>
       </c>
       <c r="AQ313" s="3" t="s">
-        <v>3053</v>
+        <v>3046</v>
       </c>
       <c r="AR313" s="3" t="s">
         <v>267</v>
@@ -52786,13 +52751,13 @@
         <v>1</v>
       </c>
       <c r="AO314" s="3" t="s">
-        <v>3054</v>
+        <v>3047</v>
       </c>
       <c r="AP314" s="3" t="s">
-        <v>3055</v>
+        <v>3048</v>
       </c>
       <c r="AQ314" s="3" t="s">
-        <v>3056</v>
+        <v>3049</v>
       </c>
       <c r="AR314" s="3" t="s">
         <v>267</v>
@@ -52901,13 +52866,13 @@
         <v>1</v>
       </c>
       <c r="AO315" s="3" t="s">
-        <v>3057</v>
+        <v>3050</v>
       </c>
       <c r="AP315" s="3" t="s">
-        <v>3058</v>
+        <v>3051</v>
       </c>
       <c r="AQ315" s="3" t="s">
-        <v>3059</v>
+        <v>3052</v>
       </c>
       <c r="AR315" s="3" t="s">
         <v>267</v>
@@ -53016,13 +52981,13 @@
         <v>1</v>
       </c>
       <c r="AO316" s="3" t="s">
-        <v>3060</v>
+        <v>3053</v>
       </c>
       <c r="AP316" s="3" t="s">
-        <v>3061</v>
+        <v>3054</v>
       </c>
       <c r="AQ316" s="3" t="s">
-        <v>3062</v>
+        <v>3055</v>
       </c>
       <c r="AR316" s="3" t="s">
         <v>267</v>
@@ -53131,13 +53096,13 @@
         <v>1</v>
       </c>
       <c r="AO317" s="3" t="s">
-        <v>3063</v>
+        <v>3056</v>
       </c>
       <c r="AP317" s="3" t="s">
-        <v>3064</v>
+        <v>3057</v>
       </c>
       <c r="AQ317" s="3" t="s">
-        <v>3065</v>
+        <v>3058</v>
       </c>
       <c r="AR317" s="3" t="s">
         <v>267</v>
@@ -53246,13 +53211,13 @@
         <v>1</v>
       </c>
       <c r="AO318" s="3" t="s">
-        <v>3066</v>
+        <v>3059</v>
       </c>
       <c r="AP318" s="3" t="s">
-        <v>3067</v>
+        <v>3060</v>
       </c>
       <c r="AQ318" s="3" t="s">
-        <v>3068</v>
+        <v>3061</v>
       </c>
       <c r="AR318" s="3" t="s">
         <v>267</v>
@@ -53361,13 +53326,13 @@
         <v>1</v>
       </c>
       <c r="AO319" s="3" t="s">
-        <v>3069</v>
+        <v>3062</v>
       </c>
       <c r="AP319" s="3" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="AQ319" s="3" t="s">
-        <v>3071</v>
+        <v>3064</v>
       </c>
       <c r="AR319" s="3" t="s">
         <v>267</v>
@@ -53476,13 +53441,13 @@
         <v>1</v>
       </c>
       <c r="AO320" s="3" t="s">
-        <v>3072</v>
+        <v>3065</v>
       </c>
       <c r="AP320" s="3" t="s">
-        <v>3073</v>
+        <v>3066</v>
       </c>
       <c r="AQ320" s="3" t="s">
-        <v>3074</v>
+        <v>3067</v>
       </c>
       <c r="AR320" s="3" t="s">
         <v>267</v>
@@ -53591,13 +53556,13 @@
         <v>1</v>
       </c>
       <c r="AO321" s="3" t="s">
-        <v>3075</v>
+        <v>3068</v>
       </c>
       <c r="AP321" s="3" t="s">
-        <v>3076</v>
+        <v>3069</v>
       </c>
       <c r="AQ321" s="3" t="s">
-        <v>3077</v>
+        <v>3070</v>
       </c>
       <c r="AR321" s="3" t="s">
         <v>267</v>
@@ -53706,13 +53671,13 @@
         <v>1</v>
       </c>
       <c r="AO322" s="3" t="s">
-        <v>3078</v>
+        <v>3071</v>
       </c>
       <c r="AP322" s="3" t="s">
-        <v>3079</v>
+        <v>3072</v>
       </c>
       <c r="AQ322" s="3" t="s">
-        <v>3080</v>
+        <v>3073</v>
       </c>
       <c r="AR322" s="3" t="s">
         <v>267</v>
@@ -53821,13 +53786,13 @@
         <v>1</v>
       </c>
       <c r="AO323" s="3" t="s">
-        <v>3081</v>
+        <v>3074</v>
       </c>
       <c r="AP323" s="3" t="s">
-        <v>3082</v>
+        <v>3075</v>
       </c>
       <c r="AQ323" s="3" t="s">
-        <v>3083</v>
+        <v>3076</v>
       </c>
       <c r="AR323" s="3" t="s">
         <v>267</v>
@@ -53936,13 +53901,13 @@
         <v>1</v>
       </c>
       <c r="AO324" s="3" t="s">
-        <v>3084</v>
+        <v>3077</v>
       </c>
       <c r="AP324" s="3" t="s">
-        <v>3085</v>
+        <v>3078</v>
       </c>
       <c r="AQ324" s="3" t="s">
-        <v>3086</v>
+        <v>3079</v>
       </c>
       <c r="AR324" s="3" t="s">
         <v>267</v>
@@ -54051,13 +54016,13 @@
         <v>1</v>
       </c>
       <c r="AO325" s="3" t="s">
-        <v>3087</v>
+        <v>3080</v>
       </c>
       <c r="AP325" s="3" t="s">
-        <v>3088</v>
+        <v>3081</v>
       </c>
       <c r="AQ325" s="3" t="s">
-        <v>3089</v>
+        <v>3082</v>
       </c>
       <c r="AR325" s="3" t="s">
         <v>267</v>
@@ -54166,13 +54131,13 @@
         <v>1</v>
       </c>
       <c r="AO326" s="3" t="s">
-        <v>3090</v>
+        <v>3083</v>
       </c>
       <c r="AP326" s="3" t="s">
-        <v>3091</v>
+        <v>3084</v>
       </c>
       <c r="AQ326" s="3" t="s">
-        <v>3092</v>
+        <v>3085</v>
       </c>
       <c r="AR326" s="3" t="s">
         <v>267</v>
@@ -54281,13 +54246,13 @@
         <v>1</v>
       </c>
       <c r="AO327" s="3" t="s">
-        <v>3093</v>
+        <v>3086</v>
       </c>
       <c r="AP327" s="3" t="s">
-        <v>3094</v>
+        <v>3087</v>
       </c>
       <c r="AQ327" s="3" t="s">
-        <v>3095</v>
+        <v>3088</v>
       </c>
       <c r="AR327" s="3" t="s">
         <v>267</v>
@@ -54396,13 +54361,13 @@
         <v>1</v>
       </c>
       <c r="AO328" s="3" t="s">
-        <v>3096</v>
+        <v>3089</v>
       </c>
       <c r="AP328" s="3" t="s">
-        <v>3097</v>
+        <v>3090</v>
       </c>
       <c r="AQ328" s="3" t="s">
-        <v>3098</v>
+        <v>3091</v>
       </c>
       <c r="AR328" s="3" t="s">
         <v>267</v>
@@ -54511,13 +54476,13 @@
         <v>1</v>
       </c>
       <c r="AO329" s="3" t="s">
-        <v>3099</v>
+        <v>3092</v>
       </c>
       <c r="AP329" s="3" t="s">
-        <v>3100</v>
+        <v>3093</v>
       </c>
       <c r="AQ329" s="3" t="s">
-        <v>3101</v>
+        <v>3094</v>
       </c>
       <c r="AR329" s="3" t="s">
         <v>267</v>
@@ -54626,13 +54591,13 @@
         <v>1</v>
       </c>
       <c r="AO330" s="3" t="s">
-        <v>3102</v>
+        <v>3095</v>
       </c>
       <c r="AP330" s="3" t="s">
-        <v>3103</v>
+        <v>3096</v>
       </c>
       <c r="AQ330" s="3" t="s">
-        <v>3104</v>
+        <v>3097</v>
       </c>
       <c r="AR330" s="3" t="s">
         <v>267</v>
@@ -54741,13 +54706,13 @@
         <v>1</v>
       </c>
       <c r="AO331" s="3" t="s">
-        <v>3105</v>
+        <v>3098</v>
       </c>
       <c r="AP331" s="3" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="AQ331" s="3" t="s">
-        <v>3107</v>
+        <v>3100</v>
       </c>
       <c r="AR331" s="3" t="s">
         <v>267</v>
@@ -54856,13 +54821,13 @@
         <v>1</v>
       </c>
       <c r="AO332" s="3" t="s">
-        <v>3108</v>
+        <v>3101</v>
       </c>
       <c r="AP332" s="3" t="s">
-        <v>3109</v>
+        <v>3102</v>
       </c>
       <c r="AQ332" s="3" t="s">
-        <v>3110</v>
+        <v>3103</v>
       </c>
       <c r="AR332" s="3" t="s">
         <v>267</v>
@@ -54971,13 +54936,13 @@
         <v>1</v>
       </c>
       <c r="AO333" s="3" t="s">
-        <v>3111</v>
+        <v>3104</v>
       </c>
       <c r="AP333" s="3" t="s">
-        <v>3112</v>
+        <v>3105</v>
       </c>
       <c r="AQ333" s="3" t="s">
-        <v>3113</v>
+        <v>3106</v>
       </c>
       <c r="AR333" s="3" t="s">
         <v>267</v>
@@ -55086,13 +55051,13 @@
         <v>1</v>
       </c>
       <c r="AO334" s="3" t="s">
-        <v>3114</v>
+        <v>3107</v>
       </c>
       <c r="AP334" s="3" t="s">
-        <v>3115</v>
+        <v>3108</v>
       </c>
       <c r="AQ334" s="3" t="s">
-        <v>3116</v>
+        <v>3109</v>
       </c>
       <c r="AR334" s="3" t="s">
         <v>267</v>
@@ -55201,13 +55166,13 @@
         <v>1</v>
       </c>
       <c r="AO335" s="3" t="s">
-        <v>3117</v>
+        <v>3110</v>
       </c>
       <c r="AP335" s="3" t="s">
-        <v>3118</v>
+        <v>3111</v>
       </c>
       <c r="AQ335" s="3" t="s">
-        <v>3119</v>
+        <v>3112</v>
       </c>
       <c r="AR335" s="3" t="s">
         <v>267</v>
@@ -55316,13 +55281,13 @@
         <v>1</v>
       </c>
       <c r="AO336" s="3" t="s">
-        <v>3120</v>
+        <v>3113</v>
       </c>
       <c r="AP336" s="3" t="s">
-        <v>3121</v>
+        <v>3114</v>
       </c>
       <c r="AQ336" s="3" t="s">
-        <v>3122</v>
+        <v>3115</v>
       </c>
       <c r="AR336" s="3" t="s">
         <v>267</v>
@@ -55431,13 +55396,13 @@
         <v>1</v>
       </c>
       <c r="AO337" s="3" t="s">
-        <v>3123</v>
+        <v>3116</v>
       </c>
       <c r="AP337" s="3" t="s">
-        <v>3124</v>
+        <v>3117</v>
       </c>
       <c r="AQ337" s="3" t="s">
-        <v>3125</v>
+        <v>3118</v>
       </c>
       <c r="AR337" s="3" t="s">
         <v>267</v>
@@ -55546,13 +55511,13 @@
         <v>1</v>
       </c>
       <c r="AO338" s="3" t="s">
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="AP338" s="3" t="s">
-        <v>3127</v>
+        <v>3120</v>
       </c>
       <c r="AQ338" s="3" t="s">
-        <v>3128</v>
+        <v>3121</v>
       </c>
       <c r="AR338" s="3" t="s">
         <v>267</v>
@@ -55661,13 +55626,13 @@
         <v>1</v>
       </c>
       <c r="AO339" s="3" t="s">
-        <v>3129</v>
+        <v>3122</v>
       </c>
       <c r="AP339" s="3" t="s">
-        <v>3130</v>
+        <v>3123</v>
       </c>
       <c r="AQ339" s="3" t="s">
-        <v>3131</v>
+        <v>3124</v>
       </c>
       <c r="AR339" s="3" t="s">
         <v>267</v>
@@ -55776,13 +55741,13 @@
         <v>1</v>
       </c>
       <c r="AO340" s="3" t="s">
-        <v>3132</v>
+        <v>3125</v>
       </c>
       <c r="AP340" s="3" t="s">
-        <v>3133</v>
+        <v>3126</v>
       </c>
       <c r="AQ340" s="3" t="s">
-        <v>3134</v>
+        <v>3127</v>
       </c>
       <c r="AR340" s="3" t="s">
         <v>267</v>
@@ -55891,13 +55856,13 @@
         <v>1</v>
       </c>
       <c r="AO341" s="3" t="s">
-        <v>3135</v>
+        <v>3128</v>
       </c>
       <c r="AP341" s="3" t="s">
-        <v>3136</v>
+        <v>3129</v>
       </c>
       <c r="AQ341" s="3" t="s">
-        <v>3137</v>
+        <v>3130</v>
       </c>
       <c r="AR341" s="3" t="s">
         <v>267</v>
@@ -56006,13 +55971,13 @@
         <v>1</v>
       </c>
       <c r="AO342" s="3" t="s">
-        <v>3138</v>
+        <v>3131</v>
       </c>
       <c r="AP342" s="3" t="s">
-        <v>3139</v>
+        <v>3132</v>
       </c>
       <c r="AQ342" s="3" t="s">
-        <v>3140</v>
+        <v>3133</v>
       </c>
       <c r="AR342" s="3" t="s">
         <v>267</v>
@@ -56121,13 +56086,13 @@
         <v>1</v>
       </c>
       <c r="AO343" s="3" t="s">
-        <v>3141</v>
+        <v>3134</v>
       </c>
       <c r="AP343" s="3" t="s">
-        <v>3142</v>
+        <v>3135</v>
       </c>
       <c r="AQ343" s="3" t="s">
-        <v>3143</v>
+        <v>3136</v>
       </c>
       <c r="AR343" s="3" t="s">
         <v>267</v>
@@ -56236,13 +56201,13 @@
         <v>1</v>
       </c>
       <c r="AO344" s="3" t="s">
-        <v>3144</v>
+        <v>3137</v>
       </c>
       <c r="AP344" s="3" t="s">
-        <v>3145</v>
+        <v>3138</v>
       </c>
       <c r="AQ344" s="3" t="s">
-        <v>3146</v>
+        <v>3139</v>
       </c>
       <c r="AR344" s="3" t="s">
         <v>267</v>
@@ -56351,13 +56316,13 @@
         <v>1</v>
       </c>
       <c r="AO345" s="3" t="s">
-        <v>3147</v>
+        <v>3140</v>
       </c>
       <c r="AP345" s="3" t="s">
-        <v>3148</v>
+        <v>3141</v>
       </c>
       <c r="AQ345" s="3" t="s">
-        <v>3149</v>
+        <v>3142</v>
       </c>
       <c r="AR345" s="3" t="s">
         <v>267</v>
@@ -56466,13 +56431,13 @@
         <v>1</v>
       </c>
       <c r="AO346" s="3" t="s">
-        <v>3150</v>
+        <v>3143</v>
       </c>
       <c r="AP346" s="3" t="s">
-        <v>3151</v>
+        <v>3144</v>
       </c>
       <c r="AQ346" s="3" t="s">
-        <v>3152</v>
+        <v>3145</v>
       </c>
       <c r="AR346" s="3" t="s">
         <v>267</v>
@@ -56581,13 +56546,13 @@
         <v>1</v>
       </c>
       <c r="AO347" s="3" t="s">
-        <v>3153</v>
+        <v>3146</v>
       </c>
       <c r="AP347" s="3" t="s">
-        <v>3154</v>
+        <v>3147</v>
       </c>
       <c r="AQ347" s="3" t="s">
-        <v>3155</v>
+        <v>3148</v>
       </c>
       <c r="AR347" s="3" t="s">
         <v>267</v>
@@ -56696,13 +56661,13 @@
         <v>1</v>
       </c>
       <c r="AO348" s="3" t="s">
-        <v>3156</v>
+        <v>3149</v>
       </c>
       <c r="AP348" s="3" t="s">
-        <v>3157</v>
+        <v>3150</v>
       </c>
       <c r="AQ348" s="3" t="s">
-        <v>3158</v>
+        <v>3151</v>
       </c>
       <c r="AR348" s="3" t="s">
         <v>267</v>
@@ -56811,13 +56776,13 @@
         <v>1</v>
       </c>
       <c r="AO349" s="3" t="s">
-        <v>3159</v>
+        <v>3152</v>
       </c>
       <c r="AP349" s="3" t="s">
-        <v>3160</v>
+        <v>3153</v>
       </c>
       <c r="AQ349" s="3" t="s">
-        <v>3161</v>
+        <v>3154</v>
       </c>
       <c r="AR349" s="3" t="s">
         <v>267</v>
@@ -56926,13 +56891,13 @@
         <v>1</v>
       </c>
       <c r="AO350" s="3" t="s">
-        <v>3162</v>
+        <v>3155</v>
       </c>
       <c r="AP350" s="3" t="s">
-        <v>3163</v>
+        <v>3156</v>
       </c>
       <c r="AQ350" s="3" t="s">
-        <v>3164</v>
+        <v>3157</v>
       </c>
       <c r="AR350" s="3" t="s">
         <v>267</v>
@@ -57041,13 +57006,13 @@
         <v>1</v>
       </c>
       <c r="AO351" s="3" t="s">
-        <v>3165</v>
+        <v>3158</v>
       </c>
       <c r="AP351" s="3" t="s">
-        <v>3166</v>
+        <v>3159</v>
       </c>
       <c r="AQ351" s="3" t="s">
-        <v>3167</v>
+        <v>3160</v>
       </c>
       <c r="AR351" s="3" t="s">
         <v>267</v>
@@ -57156,13 +57121,13 @@
         <v>1</v>
       </c>
       <c r="AO352" s="3" t="s">
-        <v>3168</v>
+        <v>3161</v>
       </c>
       <c r="AP352" s="3" t="s">
-        <v>3169</v>
+        <v>3162</v>
       </c>
       <c r="AQ352" s="3" t="s">
-        <v>3170</v>
+        <v>3163</v>
       </c>
       <c r="AR352" s="3" t="s">
         <v>267</v>
@@ -57271,13 +57236,13 @@
         <v>1</v>
       </c>
       <c r="AO353" s="3" t="s">
-        <v>3171</v>
+        <v>3164</v>
       </c>
       <c r="AP353" s="3" t="s">
-        <v>3172</v>
+        <v>3165</v>
       </c>
       <c r="AQ353" s="3" t="s">
-        <v>3173</v>
+        <v>3166</v>
       </c>
       <c r="AR353" s="3" t="s">
         <v>267</v>
@@ -57386,13 +57351,13 @@
         <v>1</v>
       </c>
       <c r="AO354" s="3" t="s">
-        <v>3174</v>
+        <v>3167</v>
       </c>
       <c r="AP354" s="3" t="s">
-        <v>3175</v>
+        <v>3168</v>
       </c>
       <c r="AQ354" s="3" t="s">
-        <v>3176</v>
+        <v>3169</v>
       </c>
       <c r="AR354" s="3" t="s">
         <v>267</v>
@@ -57501,13 +57466,13 @@
         <v>1</v>
       </c>
       <c r="AO355" s="3" t="s">
-        <v>3177</v>
+        <v>3170</v>
       </c>
       <c r="AP355" s="3" t="s">
-        <v>3178</v>
+        <v>3171</v>
       </c>
       <c r="AQ355" s="3" t="s">
-        <v>3179</v>
+        <v>3172</v>
       </c>
       <c r="AR355" s="3" t="s">
         <v>267</v>
@@ -57616,13 +57581,13 @@
         <v>1</v>
       </c>
       <c r="AO356" s="3" t="s">
-        <v>3180</v>
+        <v>3173</v>
       </c>
       <c r="AP356" s="3" t="s">
-        <v>3181</v>
+        <v>3174</v>
       </c>
       <c r="AQ356" s="3" t="s">
-        <v>3182</v>
+        <v>3175</v>
       </c>
       <c r="AR356" s="3" t="s">
         <v>267</v>
@@ -57731,13 +57696,13 @@
         <v>1</v>
       </c>
       <c r="AO357" s="3" t="s">
-        <v>3183</v>
+        <v>3176</v>
       </c>
       <c r="AP357" s="3" t="s">
-        <v>3184</v>
+        <v>3177</v>
       </c>
       <c r="AQ357" s="3" t="s">
-        <v>3185</v>
+        <v>3178</v>
       </c>
       <c r="AR357" s="3" t="s">
         <v>267</v>
@@ -57846,13 +57811,13 @@
         <v>1</v>
       </c>
       <c r="AO358" s="3" t="s">
-        <v>3186</v>
+        <v>3179</v>
       </c>
       <c r="AP358" s="3" t="s">
-        <v>3187</v>
+        <v>3180</v>
       </c>
       <c r="AQ358" s="3" t="s">
-        <v>3188</v>
+        <v>3181</v>
       </c>
       <c r="AR358" s="3" t="s">
         <v>267</v>
@@ -57961,13 +57926,13 @@
         <v>1</v>
       </c>
       <c r="AO359" s="3" t="s">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="AP359" s="3" t="s">
-        <v>3190</v>
+        <v>3183</v>
       </c>
       <c r="AQ359" s="3" t="s">
-        <v>3191</v>
+        <v>3184</v>
       </c>
       <c r="AR359" s="3" t="s">
         <v>267</v>
@@ -58076,13 +58041,13 @@
         <v>1</v>
       </c>
       <c r="AO360" s="3" t="s">
-        <v>3192</v>
+        <v>3185</v>
       </c>
       <c r="AP360" s="3" t="s">
-        <v>3193</v>
+        <v>3186</v>
       </c>
       <c r="AQ360" s="3" t="s">
-        <v>3194</v>
+        <v>3187</v>
       </c>
       <c r="AR360" s="3" t="s">
         <v>267</v>
@@ -58191,13 +58156,13 @@
         <v>1</v>
       </c>
       <c r="AO361" s="3" t="s">
-        <v>3195</v>
+        <v>3188</v>
       </c>
       <c r="AP361" s="3" t="s">
-        <v>3196</v>
+        <v>3189</v>
       </c>
       <c r="AQ361" s="3" t="s">
-        <v>3197</v>
+        <v>3190</v>
       </c>
       <c r="AR361" s="3" t="s">
         <v>267</v>
@@ -58306,13 +58271,13 @@
         <v>1</v>
       </c>
       <c r="AO362" s="3" t="s">
-        <v>3198</v>
+        <v>3191</v>
       </c>
       <c r="AP362" s="3" t="s">
-        <v>3199</v>
+        <v>3192</v>
       </c>
       <c r="AQ362" s="3" t="s">
-        <v>3200</v>
+        <v>3193</v>
       </c>
       <c r="AR362" s="3" t="s">
         <v>267</v>
@@ -58421,13 +58386,13 @@
         <v>1</v>
       </c>
       <c r="AO363" s="3" t="s">
-        <v>3201</v>
+        <v>3194</v>
       </c>
       <c r="AP363" s="3" t="s">
-        <v>3202</v>
+        <v>3195</v>
       </c>
       <c r="AQ363" s="3" t="s">
-        <v>3203</v>
+        <v>3196</v>
       </c>
       <c r="AR363" s="3" t="s">
         <v>267</v>
@@ -58536,13 +58501,13 @@
         <v>1</v>
       </c>
       <c r="AO364" s="3" t="s">
-        <v>3204</v>
+        <v>3197</v>
       </c>
       <c r="AP364" s="3" t="s">
-        <v>3205</v>
+        <v>3198</v>
       </c>
       <c r="AQ364" s="3" t="s">
-        <v>3206</v>
+        <v>3199</v>
       </c>
       <c r="AR364" s="3" t="s">
         <v>267</v>
@@ -58651,13 +58616,13 @@
         <v>1</v>
       </c>
       <c r="AO365" s="3" t="s">
-        <v>3207</v>
+        <v>3200</v>
       </c>
       <c r="AP365" s="3" t="s">
-        <v>3208</v>
+        <v>3201</v>
       </c>
       <c r="AQ365" s="3" t="s">
-        <v>3209</v>
+        <v>3202</v>
       </c>
       <c r="AR365" s="3" t="s">
         <v>267</v>
@@ -58766,13 +58731,13 @@
         <v>1</v>
       </c>
       <c r="AO366" s="3" t="s">
-        <v>3210</v>
+        <v>3203</v>
       </c>
       <c r="AP366" s="3" t="s">
-        <v>3211</v>
+        <v>3204</v>
       </c>
       <c r="AQ366" s="3" t="s">
-        <v>3212</v>
+        <v>3205</v>
       </c>
       <c r="AR366" s="3" t="s">
         <v>267</v>
@@ -58881,13 +58846,13 @@
         <v>1</v>
       </c>
       <c r="AO367" s="3" t="s">
-        <v>3213</v>
+        <v>3206</v>
       </c>
       <c r="AP367" s="3" t="s">
-        <v>3214</v>
+        <v>3207</v>
       </c>
       <c r="AQ367" s="3" t="s">
-        <v>3215</v>
+        <v>3208</v>
       </c>
       <c r="AR367" s="3" t="s">
         <v>267</v>
@@ -58996,13 +58961,13 @@
         <v>1</v>
       </c>
       <c r="AO368" s="3" t="s">
-        <v>3216</v>
+        <v>3209</v>
       </c>
       <c r="AP368" s="3" t="s">
-        <v>3217</v>
+        <v>3210</v>
       </c>
       <c r="AQ368" s="3" t="s">
-        <v>3218</v>
+        <v>3211</v>
       </c>
       <c r="AR368" s="3" t="s">
         <v>267</v>
@@ -59111,13 +59076,13 @@
         <v>1</v>
       </c>
       <c r="AO369" s="3" t="s">
-        <v>3219</v>
+        <v>3212</v>
       </c>
       <c r="AP369" s="3" t="s">
-        <v>3220</v>
+        <v>3213</v>
       </c>
       <c r="AQ369" s="3" t="s">
-        <v>3221</v>
+        <v>3214</v>
       </c>
       <c r="AR369" s="3" t="s">
         <v>267</v>
@@ -59226,13 +59191,13 @@
         <v>1</v>
       </c>
       <c r="AO370" s="3" t="s">
-        <v>3222</v>
+        <v>3215</v>
       </c>
       <c r="AP370" s="3" t="s">
-        <v>3223</v>
+        <v>3216</v>
       </c>
       <c r="AQ370" s="3" t="s">
-        <v>3224</v>
+        <v>3217</v>
       </c>
       <c r="AR370" s="3" t="s">
         <v>267</v>
@@ -59341,13 +59306,13 @@
         <v>1</v>
       </c>
       <c r="AO371" s="3" t="s">
-        <v>3225</v>
+        <v>3218</v>
       </c>
       <c r="AP371" s="3" t="s">
-        <v>3226</v>
+        <v>3219</v>
       </c>
       <c r="AQ371" s="3" t="s">
-        <v>3227</v>
+        <v>3220</v>
       </c>
       <c r="AR371" s="3" t="s">
         <v>267</v>
@@ -59456,13 +59421,13 @@
         <v>1</v>
       </c>
       <c r="AO372" s="3" t="s">
-        <v>3228</v>
+        <v>3221</v>
       </c>
       <c r="AP372" s="3" t="s">
-        <v>3229</v>
+        <v>3222</v>
       </c>
       <c r="AQ372" s="3" t="s">
-        <v>3230</v>
+        <v>3223</v>
       </c>
       <c r="AR372" s="3" t="s">
         <v>267</v>
@@ -59571,13 +59536,13 @@
         <v>1</v>
       </c>
       <c r="AO373" s="3" t="s">
-        <v>3231</v>
+        <v>3224</v>
       </c>
       <c r="AP373" s="3" t="s">
-        <v>3232</v>
+        <v>3225</v>
       </c>
       <c r="AQ373" s="3" t="s">
-        <v>3233</v>
+        <v>3226</v>
       </c>
       <c r="AR373" s="3" t="s">
         <v>267</v>
@@ -59686,13 +59651,13 @@
         <v>1</v>
       </c>
       <c r="AO374" s="3" t="s">
-        <v>3234</v>
+        <v>3227</v>
       </c>
       <c r="AP374" s="3" t="s">
-        <v>3235</v>
+        <v>3228</v>
       </c>
       <c r="AQ374" s="3" t="s">
-        <v>3236</v>
+        <v>3229</v>
       </c>
       <c r="AR374" s="3" t="s">
         <v>267</v>
@@ -59801,13 +59766,13 @@
         <v>1</v>
       </c>
       <c r="AO375" s="3" t="s">
-        <v>3237</v>
+        <v>3230</v>
       </c>
       <c r="AP375" s="3" t="s">
-        <v>3238</v>
+        <v>3231</v>
       </c>
       <c r="AQ375" s="3" t="s">
-        <v>3239</v>
+        <v>3232</v>
       </c>
       <c r="AR375" s="3" t="s">
         <v>267</v>
@@ -59916,13 +59881,13 @@
         <v>1</v>
       </c>
       <c r="AO376" s="3" t="s">
-        <v>3240</v>
+        <v>3233</v>
       </c>
       <c r="AP376" s="3" t="s">
-        <v>3241</v>
+        <v>3234</v>
       </c>
       <c r="AQ376" s="3" t="s">
-        <v>3242</v>
+        <v>3235</v>
       </c>
       <c r="AR376" s="3" t="s">
         <v>267</v>
@@ -60031,13 +59996,13 @@
         <v>1</v>
       </c>
       <c r="AO377" s="3" t="s">
-        <v>3243</v>
+        <v>3236</v>
       </c>
       <c r="AP377" s="3" t="s">
-        <v>3244</v>
+        <v>3237</v>
       </c>
       <c r="AQ377" s="3" t="s">
-        <v>3245</v>
+        <v>3238</v>
       </c>
       <c r="AR377" s="3" t="s">
         <v>267</v>
@@ -60146,13 +60111,13 @@
         <v>1</v>
       </c>
       <c r="AO378" s="3" t="s">
-        <v>3246</v>
+        <v>3239</v>
       </c>
       <c r="AP378" s="3" t="s">
-        <v>3247</v>
+        <v>3240</v>
       </c>
       <c r="AQ378" s="3" t="s">
-        <v>3248</v>
+        <v>3241</v>
       </c>
       <c r="AR378" s="3" t="s">
         <v>267</v>
@@ -60261,13 +60226,13 @@
         <v>1</v>
       </c>
       <c r="AO379" s="3" t="s">
-        <v>3249</v>
+        <v>3242</v>
       </c>
       <c r="AP379" s="3" t="s">
-        <v>3250</v>
+        <v>3243</v>
       </c>
       <c r="AQ379" s="3" t="s">
-        <v>3251</v>
+        <v>3244</v>
       </c>
       <c r="AR379" s="3" t="s">
         <v>267</v>
@@ -60376,13 +60341,13 @@
         <v>1</v>
       </c>
       <c r="AO380" s="3" t="s">
-        <v>3252</v>
+        <v>3245</v>
       </c>
       <c r="AP380" s="3" t="s">
-        <v>3253</v>
+        <v>3246</v>
       </c>
       <c r="AQ380" s="3" t="s">
-        <v>3254</v>
+        <v>3247</v>
       </c>
       <c r="AR380" s="3" t="s">
         <v>267</v>
@@ -60491,13 +60456,13 @@
         <v>1</v>
       </c>
       <c r="AO381" s="3" t="s">
-        <v>3255</v>
+        <v>3248</v>
       </c>
       <c r="AP381" s="3" t="s">
-        <v>3256</v>
+        <v>3249</v>
       </c>
       <c r="AQ381" s="3" t="s">
-        <v>3257</v>
+        <v>3250</v>
       </c>
       <c r="AR381" s="3" t="s">
         <v>267</v>
@@ -60606,13 +60571,13 @@
         <v>1</v>
       </c>
       <c r="AO382" s="3" t="s">
-        <v>3258</v>
+        <v>3251</v>
       </c>
       <c r="AP382" s="3" t="s">
-        <v>3259</v>
+        <v>3252</v>
       </c>
       <c r="AQ382" s="3" t="s">
-        <v>3260</v>
+        <v>3253</v>
       </c>
       <c r="AR382" s="3" t="s">
         <v>267</v>
@@ -60721,13 +60686,13 @@
         <v>1</v>
       </c>
       <c r="AO383" s="3" t="s">
-        <v>3261</v>
+        <v>3254</v>
       </c>
       <c r="AP383" s="3" t="s">
-        <v>3262</v>
+        <v>3255</v>
       </c>
       <c r="AQ383" s="3" t="s">
-        <v>3263</v>
+        <v>3256</v>
       </c>
       <c r="AR383" s="3" t="s">
         <v>267</v>
@@ -60836,13 +60801,13 @@
         <v>1</v>
       </c>
       <c r="AO384" s="3" t="s">
-        <v>3264</v>
+        <v>3257</v>
       </c>
       <c r="AP384" s="3" t="s">
-        <v>3265</v>
+        <v>3258</v>
       </c>
       <c r="AQ384" s="3" t="s">
-        <v>3266</v>
+        <v>3259</v>
       </c>
       <c r="AR384" s="3" t="s">
         <v>267</v>
@@ -60951,13 +60916,13 @@
         <v>1</v>
       </c>
       <c r="AO385" s="3" t="s">
-        <v>3267</v>
+        <v>3260</v>
       </c>
       <c r="AP385" s="3" t="s">
-        <v>3268</v>
+        <v>3261</v>
       </c>
       <c r="AQ385" s="3" t="s">
-        <v>3269</v>
+        <v>3262</v>
       </c>
       <c r="AR385" s="3" t="s">
         <v>267</v>
@@ -61066,13 +61031,13 @@
         <v>1</v>
       </c>
       <c r="AO386" s="3" t="s">
-        <v>3270</v>
+        <v>3263</v>
       </c>
       <c r="AP386" s="3" t="s">
-        <v>3271</v>
+        <v>3264</v>
       </c>
       <c r="AQ386" s="3" t="s">
-        <v>3272</v>
+        <v>3265</v>
       </c>
       <c r="AR386" s="3" t="s">
         <v>267</v>
@@ -61181,13 +61146,13 @@
         <v>1</v>
       </c>
       <c r="AO387" s="3" t="s">
-        <v>3273</v>
+        <v>3266</v>
       </c>
       <c r="AP387" s="3" t="s">
-        <v>3274</v>
+        <v>3267</v>
       </c>
       <c r="AQ387" s="3" t="s">
-        <v>3275</v>
+        <v>3268</v>
       </c>
       <c r="AR387" s="3" t="s">
         <v>267</v>
@@ -61296,13 +61261,13 @@
         <v>1</v>
       </c>
       <c r="AO388" s="3" t="s">
-        <v>3276</v>
+        <v>3269</v>
       </c>
       <c r="AP388" s="3" t="s">
-        <v>3277</v>
+        <v>3270</v>
       </c>
       <c r="AQ388" s="3" t="s">
-        <v>3278</v>
+        <v>3271</v>
       </c>
       <c r="AR388" s="3" t="s">
         <v>267</v>
@@ -61411,13 +61376,13 @@
         <v>1</v>
       </c>
       <c r="AO389" s="3" t="s">
-        <v>3279</v>
+        <v>3272</v>
       </c>
       <c r="AP389" s="3" t="s">
-        <v>3280</v>
+        <v>3273</v>
       </c>
       <c r="AQ389" s="3" t="s">
-        <v>3281</v>
+        <v>3274</v>
       </c>
       <c r="AR389" s="3" t="s">
         <v>267</v>
@@ -61526,13 +61491,13 @@
         <v>1</v>
       </c>
       <c r="AO390" s="3" t="s">
-        <v>3282</v>
+        <v>3275</v>
       </c>
       <c r="AP390" s="3" t="s">
-        <v>3283</v>
+        <v>3276</v>
       </c>
       <c r="AQ390" s="3" t="s">
-        <v>3284</v>
+        <v>3277</v>
       </c>
       <c r="AR390" s="3" t="s">
         <v>267</v>
@@ -61641,13 +61606,13 @@
         <v>1</v>
       </c>
       <c r="AO391" s="3" t="s">
-        <v>3285</v>
+        <v>3278</v>
       </c>
       <c r="AP391" s="3" t="s">
-        <v>3286</v>
+        <v>3279</v>
       </c>
       <c r="AQ391" s="3" t="s">
-        <v>3287</v>
+        <v>3280</v>
       </c>
       <c r="AR391" s="3" t="s">
         <v>267</v>
@@ -61756,13 +61721,13 @@
         <v>1</v>
       </c>
       <c r="AO392" s="3" t="s">
-        <v>3288</v>
+        <v>3281</v>
       </c>
       <c r="AP392" s="3" t="s">
-        <v>3289</v>
+        <v>3282</v>
       </c>
       <c r="AQ392" s="3" t="s">
-        <v>3290</v>
+        <v>3283</v>
       </c>
       <c r="AR392" s="3" t="s">
         <v>267</v>
@@ -61871,13 +61836,13 @@
         <v>1</v>
       </c>
       <c r="AO393" s="3" t="s">
-        <v>3291</v>
+        <v>3284</v>
       </c>
       <c r="AP393" s="3" t="s">
-        <v>3292</v>
+        <v>3285</v>
       </c>
       <c r="AQ393" s="3" t="s">
-        <v>3293</v>
+        <v>3286</v>
       </c>
       <c r="AR393" s="3" t="s">
         <v>267</v>
@@ -61986,13 +61951,13 @@
         <v>1</v>
       </c>
       <c r="AO394" s="3" t="s">
-        <v>3294</v>
+        <v>3287</v>
       </c>
       <c r="AP394" s="3" t="s">
-        <v>3295</v>
+        <v>3288</v>
       </c>
       <c r="AQ394" s="3" t="s">
-        <v>3296</v>
+        <v>3289</v>
       </c>
       <c r="AR394" s="3" t="s">
         <v>267</v>
@@ -62101,13 +62066,13 @@
         <v>1</v>
       </c>
       <c r="AO395" s="3" t="s">
-        <v>3297</v>
+        <v>3290</v>
       </c>
       <c r="AP395" s="3" t="s">
-        <v>3298</v>
+        <v>3291</v>
       </c>
       <c r="AQ395" s="3" t="s">
-        <v>3299</v>
+        <v>3292</v>
       </c>
       <c r="AR395" s="3" t="s">
         <v>267</v>
@@ -62216,13 +62181,13 @@
         <v>1</v>
       </c>
       <c r="AO396" s="3" t="s">
-        <v>3300</v>
+        <v>3293</v>
       </c>
       <c r="AP396" s="3" t="s">
-        <v>3301</v>
+        <v>3294</v>
       </c>
       <c r="AQ396" s="3" t="s">
-        <v>3302</v>
+        <v>3295</v>
       </c>
       <c r="AR396" s="3" t="s">
         <v>267</v>
@@ -62331,13 +62296,13 @@
         <v>1</v>
       </c>
       <c r="AO397" s="3" t="s">
-        <v>3303</v>
+        <v>3296</v>
       </c>
       <c r="AP397" s="3" t="s">
-        <v>3304</v>
+        <v>3297</v>
       </c>
       <c r="AQ397" s="3" t="s">
-        <v>3305</v>
+        <v>3298</v>
       </c>
       <c r="AR397" s="3" t="s">
         <v>267</v>
@@ -62446,13 +62411,13 @@
         <v>1</v>
       </c>
       <c r="AO398" s="3" t="s">
-        <v>3306</v>
+        <v>3299</v>
       </c>
       <c r="AP398" s="3" t="s">
-        <v>3307</v>
+        <v>3300</v>
       </c>
       <c r="AQ398" s="3" t="s">
-        <v>3308</v>
+        <v>3301</v>
       </c>
       <c r="AR398" s="3" t="s">
         <v>267</v>
@@ -62561,13 +62526,13 @@
         <v>1</v>
       </c>
       <c r="AO399" s="3" t="s">
-        <v>3309</v>
+        <v>3302</v>
       </c>
       <c r="AP399" s="3" t="s">
-        <v>3310</v>
+        <v>3303</v>
       </c>
       <c r="AQ399" s="3" t="s">
-        <v>3311</v>
+        <v>3304</v>
       </c>
       <c r="AR399" s="3" t="s">
         <v>267</v>
@@ -62676,13 +62641,13 @@
         <v>1</v>
       </c>
       <c r="AO400" s="3" t="s">
-        <v>3312</v>
+        <v>3305</v>
       </c>
       <c r="AP400" s="3" t="s">
-        <v>3313</v>
+        <v>3306</v>
       </c>
       <c r="AQ400" s="3" t="s">
-        <v>3314</v>
+        <v>3307</v>
       </c>
       <c r="AR400" s="3" t="s">
         <v>267</v>
@@ -62791,13 +62756,13 @@
         <v>1</v>
       </c>
       <c r="AO401" s="3" t="s">
-        <v>3315</v>
+        <v>3308</v>
       </c>
       <c r="AP401" s="3" t="s">
-        <v>3316</v>
+        <v>3309</v>
       </c>
       <c r="AQ401" s="3" t="s">
-        <v>3317</v>
+        <v>3310</v>
       </c>
       <c r="AR401" s="3" t="s">
         <v>267</v>
@@ -62906,13 +62871,13 @@
         <v>1</v>
       </c>
       <c r="AO402" s="3" t="s">
-        <v>3318</v>
+        <v>3311</v>
       </c>
       <c r="AP402" s="3" t="s">
-        <v>3319</v>
+        <v>3312</v>
       </c>
       <c r="AQ402" s="3" t="s">
-        <v>3320</v>
+        <v>3313</v>
       </c>
       <c r="AR402" s="3" t="s">
         <v>267</v>
@@ -63021,13 +62986,13 @@
         <v>1</v>
       </c>
       <c r="AO403" s="3" t="s">
-        <v>3321</v>
+        <v>3314</v>
       </c>
       <c r="AP403" s="3" t="s">
-        <v>3322</v>
+        <v>3315</v>
       </c>
       <c r="AQ403" s="3" t="s">
-        <v>3323</v>
+        <v>3316</v>
       </c>
       <c r="AR403" s="3" t="s">
         <v>267</v>
@@ -63136,13 +63101,13 @@
         <v>1</v>
       </c>
       <c r="AO404" s="3" t="s">
-        <v>3324</v>
+        <v>3317</v>
       </c>
       <c r="AP404" s="3" t="s">
-        <v>3325</v>
+        <v>3318</v>
       </c>
       <c r="AQ404" s="3" t="s">
-        <v>3326</v>
+        <v>3319</v>
       </c>
       <c r="AR404" s="3" t="s">
         <v>267</v>
@@ -63251,13 +63216,13 @@
         <v>1</v>
       </c>
       <c r="AO405" s="3" t="s">
-        <v>3327</v>
+        <v>3320</v>
       </c>
       <c r="AP405" s="3" t="s">
-        <v>3328</v>
+        <v>3321</v>
       </c>
       <c r="AQ405" s="3" t="s">
-        <v>3329</v>
+        <v>3322</v>
       </c>
       <c r="AR405" s="3" t="s">
         <v>267</v>
@@ -63366,13 +63331,13 @@
         <v>1</v>
       </c>
       <c r="AO406" s="3" t="s">
-        <v>3330</v>
+        <v>3323</v>
       </c>
       <c r="AP406" s="3" t="s">
-        <v>3331</v>
+        <v>3324</v>
       </c>
       <c r="AQ406" s="3" t="s">
-        <v>3332</v>
+        <v>3325</v>
       </c>
       <c r="AR406" s="3" t="s">
         <v>267</v>
@@ -63481,13 +63446,13 @@
         <v>1</v>
       </c>
       <c r="AO407" s="3" t="s">
-        <v>3333</v>
+        <v>3326</v>
       </c>
       <c r="AP407" s="3" t="s">
-        <v>3334</v>
+        <v>3327</v>
       </c>
       <c r="AQ407" s="3" t="s">
-        <v>3335</v>
+        <v>3328</v>
       </c>
       <c r="AR407" s="3" t="s">
         <v>267</v>
@@ -63596,13 +63561,13 @@
         <v>1</v>
       </c>
       <c r="AO408" s="3" t="s">
-        <v>3336</v>
+        <v>3329</v>
       </c>
       <c r="AP408" s="3" t="s">
-        <v>3337</v>
+        <v>3330</v>
       </c>
       <c r="AQ408" s="3" t="s">
-        <v>3338</v>
+        <v>3331</v>
       </c>
       <c r="AR408" s="3" t="s">
         <v>267</v>
@@ -63711,13 +63676,13 @@
         <v>1</v>
       </c>
       <c r="AO409" s="3" t="s">
-        <v>3339</v>
+        <v>3332</v>
       </c>
       <c r="AP409" s="3" t="s">
-        <v>3340</v>
+        <v>3333</v>
       </c>
       <c r="AQ409" s="3" t="s">
-        <v>3341</v>
+        <v>3334</v>
       </c>
       <c r="AR409" s="3" t="s">
         <v>267</v>
@@ -63826,13 +63791,13 @@
         <v>1</v>
       </c>
       <c r="AO410" s="3" t="s">
-        <v>3342</v>
+        <v>3335</v>
       </c>
       <c r="AP410" s="3" t="s">
-        <v>3343</v>
+        <v>3336</v>
       </c>
       <c r="AQ410" s="3" t="s">
-        <v>3344</v>
+        <v>3337</v>
       </c>
       <c r="AR410" s="3" t="s">
         <v>267</v>
@@ -63941,13 +63906,13 @@
         <v>1</v>
       </c>
       <c r="AO411" s="3" t="s">
-        <v>3345</v>
+        <v>3338</v>
       </c>
       <c r="AP411" s="3" t="s">
-        <v>3346</v>
+        <v>3339</v>
       </c>
       <c r="AQ411" s="3" t="s">
-        <v>3347</v>
+        <v>3340</v>
       </c>
       <c r="AR411" s="3" t="s">
         <v>267</v>
@@ -64056,13 +64021,13 @@
         <v>1</v>
       </c>
       <c r="AO412" s="3" t="s">
-        <v>3348</v>
+        <v>3341</v>
       </c>
       <c r="AP412" s="3" t="s">
-        <v>3349</v>
+        <v>3342</v>
       </c>
       <c r="AQ412" s="3" t="s">
-        <v>3350</v>
+        <v>3343</v>
       </c>
       <c r="AR412" s="3" t="s">
         <v>267</v>
@@ -64171,13 +64136,13 @@
         <v>1</v>
       </c>
       <c r="AO413" s="3" t="s">
-        <v>3351</v>
+        <v>3344</v>
       </c>
       <c r="AP413" s="3" t="s">
-        <v>3352</v>
+        <v>3345</v>
       </c>
       <c r="AQ413" s="3" t="s">
-        <v>3353</v>
+        <v>3346</v>
       </c>
       <c r="AR413" s="3" t="s">
         <v>267</v>
@@ -64286,13 +64251,13 @@
         <v>1</v>
       </c>
       <c r="AO414" s="3" t="s">
-        <v>3354</v>
+        <v>3347</v>
       </c>
       <c r="AP414" s="3" t="s">
-        <v>3355</v>
+        <v>3348</v>
       </c>
       <c r="AQ414" s="3" t="s">
-        <v>3356</v>
+        <v>3349</v>
       </c>
       <c r="AR414" s="3" t="s">
         <v>267</v>
@@ -64401,13 +64366,13 @@
         <v>1</v>
       </c>
       <c r="AO415" s="3" t="s">
-        <v>3357</v>
+        <v>3350</v>
       </c>
       <c r="AP415" s="3" t="s">
-        <v>3358</v>
+        <v>3351</v>
       </c>
       <c r="AQ415" s="3" t="s">
-        <v>3359</v>
+        <v>3352</v>
       </c>
       <c r="AR415" s="3" t="s">
         <v>267</v>
@@ -64516,13 +64481,13 @@
         <v>1</v>
       </c>
       <c r="AO416" s="3" t="s">
-        <v>3360</v>
+        <v>3353</v>
       </c>
       <c r="AP416" s="3" t="s">
-        <v>3361</v>
+        <v>3354</v>
       </c>
       <c r="AQ416" s="3" t="s">
-        <v>3362</v>
+        <v>3355</v>
       </c>
       <c r="AR416" s="3" t="s">
         <v>267</v>
@@ -64631,13 +64596,13 @@
         <v>1</v>
       </c>
       <c r="AO417" s="3" t="s">
-        <v>3363</v>
+        <v>3356</v>
       </c>
       <c r="AP417" s="3" t="s">
-        <v>3364</v>
+        <v>3357</v>
       </c>
       <c r="AQ417" s="3" t="s">
-        <v>3365</v>
+        <v>3358</v>
       </c>
       <c r="AR417" s="3" t="s">
         <v>267</v>
@@ -64746,13 +64711,13 @@
         <v>1</v>
       </c>
       <c r="AO418" s="3" t="s">
-        <v>3366</v>
+        <v>3359</v>
       </c>
       <c r="AP418" s="3" t="s">
-        <v>3367</v>
+        <v>3360</v>
       </c>
       <c r="AQ418" s="3" t="s">
-        <v>3368</v>
+        <v>3361</v>
       </c>
       <c r="AR418" s="3" t="s">
         <v>267</v>
@@ -64861,13 +64826,13 @@
         <v>1</v>
       </c>
       <c r="AO419" s="3" t="s">
-        <v>3369</v>
+        <v>3362</v>
       </c>
       <c r="AP419" s="3" t="s">
-        <v>3370</v>
+        <v>3363</v>
       </c>
       <c r="AQ419" s="3" t="s">
-        <v>3371</v>
+        <v>3364</v>
       </c>
       <c r="AR419" s="3" t="s">
         <v>267</v>
@@ -64976,13 +64941,13 @@
         <v>1</v>
       </c>
       <c r="AO420" s="3" t="s">
-        <v>3372</v>
+        <v>3365</v>
       </c>
       <c r="AP420" s="3" t="s">
-        <v>3373</v>
+        <v>3366</v>
       </c>
       <c r="AQ420" s="3" t="s">
-        <v>3374</v>
+        <v>3367</v>
       </c>
       <c r="AR420" s="3" t="s">
         <v>267</v>
@@ -65091,13 +65056,13 @@
         <v>1</v>
       </c>
       <c r="AO421" s="3" t="s">
-        <v>3375</v>
+        <v>3368</v>
       </c>
       <c r="AP421" s="3" t="s">
-        <v>3376</v>
+        <v>3369</v>
       </c>
       <c r="AQ421" s="3" t="s">
-        <v>3377</v>
+        <v>3370</v>
       </c>
       <c r="AR421" s="3" t="s">
         <v>267</v>
@@ -65206,13 +65171,13 @@
         <v>1</v>
       </c>
       <c r="AO422" s="3" t="s">
-        <v>3378</v>
+        <v>3371</v>
       </c>
       <c r="AP422" s="3" t="s">
-        <v>3379</v>
+        <v>3372</v>
       </c>
       <c r="AQ422" s="3" t="s">
-        <v>3380</v>
+        <v>3373</v>
       </c>
       <c r="AR422" s="3" t="s">
         <v>267</v>
@@ -65321,13 +65286,13 @@
         <v>1</v>
       </c>
       <c r="AO423" s="3" t="s">
-        <v>3381</v>
+        <v>3374</v>
       </c>
       <c r="AP423" s="3" t="s">
-        <v>3382</v>
+        <v>3375</v>
       </c>
       <c r="AQ423" s="3" t="s">
-        <v>3383</v>
+        <v>3376</v>
       </c>
       <c r="AR423" s="3" t="s">
         <v>267</v>
@@ -65436,13 +65401,13 @@
         <v>1</v>
       </c>
       <c r="AO424" s="3" t="s">
-        <v>3384</v>
+        <v>3377</v>
       </c>
       <c r="AP424" s="3" t="s">
-        <v>3385</v>
+        <v>3378</v>
       </c>
       <c r="AQ424" s="3" t="s">
-        <v>3386</v>
+        <v>3379</v>
       </c>
       <c r="AR424" s="3" t="s">
         <v>267</v>
@@ -65551,13 +65516,13 @@
         <v>1</v>
       </c>
       <c r="AO425" s="3" t="s">
-        <v>3387</v>
+        <v>3380</v>
       </c>
       <c r="AP425" s="3" t="s">
-        <v>3388</v>
+        <v>3381</v>
       </c>
       <c r="AQ425" s="3" t="s">
-        <v>3389</v>
+        <v>3382</v>
       </c>
       <c r="AR425" s="3" t="s">
         <v>267</v>
@@ -65666,13 +65631,13 @@
         <v>1</v>
       </c>
       <c r="AO426" s="3" t="s">
-        <v>3390</v>
+        <v>3383</v>
       </c>
       <c r="AP426" s="3" t="s">
-        <v>3391</v>
+        <v>3384</v>
       </c>
       <c r="AQ426" s="3" t="s">
-        <v>3392</v>
+        <v>3385</v>
       </c>
       <c r="AR426" s="3" t="s">
         <v>267</v>
@@ -65781,13 +65746,13 @@
         <v>1</v>
       </c>
       <c r="AO427" s="3" t="s">
-        <v>3393</v>
+        <v>3386</v>
       </c>
       <c r="AP427" s="3" t="s">
-        <v>3394</v>
+        <v>3387</v>
       </c>
       <c r="AQ427" s="3" t="s">
-        <v>3395</v>
+        <v>3388</v>
       </c>
       <c r="AR427" s="3" t="s">
         <v>267</v>
@@ -65896,13 +65861,13 @@
         <v>1</v>
       </c>
       <c r="AO428" s="3" t="s">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="AP428" s="3" t="s">
-        <v>3397</v>
+        <v>3390</v>
       </c>
       <c r="AQ428" s="3" t="s">
-        <v>3398</v>
+        <v>3391</v>
       </c>
       <c r="AR428" s="3" t="s">
         <v>267</v>
@@ -66011,13 +65976,13 @@
         <v>1</v>
       </c>
       <c r="AO429" s="3" t="s">
-        <v>3399</v>
+        <v>3392</v>
       </c>
       <c r="AP429" s="3" t="s">
-        <v>3400</v>
+        <v>3393</v>
       </c>
       <c r="AQ429" s="3" t="s">
-        <v>3401</v>
+        <v>3394</v>
       </c>
       <c r="AR429" s="3" t="s">
         <v>267</v>

--- a/Excel/镇魂街/chapter.章节.xlsx
+++ b/Excel/镇魂街/chapter.章节.xlsx
@@ -16423,10 +16423,10 @@
   <dimension ref="A1:AS458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16925,7 +16925,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>

--- a/Excel/镇魂街/chapter.章节.xlsx
+++ b/Excel/镇魂街/chapter.章节.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E47BE4-D8E2-48EF-B599-550321BFAF06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">关卡表!$A$3:$BA$406</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="AM3" authorId="0" shapeId="0">
+    <comment ref="AM3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8990" uniqueCount="3449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8990" uniqueCount="3476">
   <si>
     <t>sheet名</t>
   </si>
@@ -10807,11 +10808,132 @@
     <t>Drop1.Inteval</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>夏玲接到鬼符三通的短信，来到镇魂街，遇到鬼兵，曹玄亮前来相救。
+曹玄亮给夏玲介绍镇魂街的设定。镇魂街是连接人类世界和灵域的地方。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵出现，干掉一堆杂兵。
+曹焱兵和夏玲互相吐槽，夏玲获得柠檬精。
+又来了一个砍刀鬼将军。想要称霸罗刹街。
+曹焱兵被鬼将军晕住，曹玄亮教导夏玲召唤守护灵。柠檬精解控。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国组织锁定锁定夏玲，鬼符三通来救援。
+夏玲被车撞，黑尔坎普确认夏玲身份。
+鬼符三通让夏玲去罗刹街找曹焱兵，只有那里才安全。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲与唐流雨聊天，了解镇魂街的情况。
+夏玲看见唐流雨在摆弄玩偶，很是好奇。
+玩偶突然活化，夏玲和唐流雨进入战斗。
+战斗后，曹玄亮告诉夏玲这是他的守护灵。唐流雨加入队伍。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔坎普密谋进攻镇魂街</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲起床，曹焱兵要消除她的记忆。夏玲扔包砸曹焱兵，掉出鬼符三通的灵言信
+引导玩家领取星星宝箱，宝箱中的守护灵抽卡券，抽卡又获得一个柠檬精，引导玩家兑换技能，给柠檬精装上插槽。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山雨欲来，镇魂街外围，恶灵开始骚动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为准备防御黑尔坎普的攻击，曹焱兵开始对夏玲进行训练。引导玩家地狱道突破。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>让玩家领取第二个关卡宝箱，并在此进行守护灵抽奖，抽到唐流雨，兑换一个可以追击的技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导玩家突破唐流雨，对战官邸BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲迟迟召唤不出守护灵，曹焱兵把夏玲带到镇魂街边缘去练级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>练级中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机关头，夏玲激发灵力，曹玄亮，曹焱兵，鬼符三通前来营救</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战前准备，要求3个守护灵突破+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国组织全面进攻罗刹街</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求守护灵全10级，1个守护灵15级2突
+罗刹街开起了3个传送门，曹焱兵，许褚，鬼符三通分别去堵门，曹玄亮预言北方还会开一个门，去北方堵门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>展现唐流雨清怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么东南西北4个门，看上去像法阵。鬼符三通去一个门调查。法阵聚集能量，轰响夏玲。夏玲被曹焱兵扑倒。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前的都是热身，现在才是真正的战斗——曹焱兵。塞伯罗斯从天而降，"这个怪物灵力很强"，许褚说道。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯肆虐罗刹街，导致更多恶灵产生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵开放传送门，把塞伯罗斯引向其他领域。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵利用传送门，与许褚合力击败塞伯罗斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔坎普趁虚而入，曹玄亮苦战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲吞下灵槐枝，召唤李轩辕（剧情送李轩辕）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕暴走，破坏灵槐树，时空扭曲。曹焱兵在另一个地方发现死去3月的鬼符三通。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵穿越传送门回来罗刹街，救下差点被吸走的曹玄亮。黑尔坎普融合，曹焱兵召唤出典韦。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚和典韦制伏暴走的李轩辕。
+战斗胜利后，鬼符三通堵住灵槐树。
+夏玲打算出发寻找灵槐枝。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11036,19 +11158,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11325,7 +11447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -11647,10 +11769,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -12352,7 +12474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17014,14 +17136,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BA421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="AY11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="AY23" sqref="AY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17673,7 +17795,7 @@
         <v>478</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>466</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="5" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -17800,7 +17922,7 @@
         <v>478</v>
       </c>
       <c r="BA5" s="3" t="s">
-        <v>466</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -17927,7 +18049,7 @@
         <v>478</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>466</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -18052,7 +18174,7 @@
         <v>478</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>488</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -18177,7 +18299,7 @@
         <v>478</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>466</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -18306,7 +18428,7 @@
         <v>478</v>
       </c>
       <c r="BA9" s="3" t="s">
-        <v>466</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -18431,7 +18553,7 @@
         <v>478</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>489</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -18556,7 +18678,7 @@
         <v>478</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>466</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -18677,7 +18799,7 @@
         <v>478</v>
       </c>
       <c r="BA12" s="3" t="s">
-        <v>466</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -18796,7 +18918,7 @@
         <v>478</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>466</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -18921,7 +19043,7 @@
         <v>234</v>
       </c>
       <c r="BA14" s="3" t="s">
-        <v>466</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19046,7 +19168,7 @@
         <v>234</v>
       </c>
       <c r="BA15" s="3" t="s">
-        <v>466</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19171,7 +19293,7 @@
         <v>234</v>
       </c>
       <c r="BA16" s="3" t="s">
-        <v>466</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="17" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19296,7 +19418,7 @@
         <v>234</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>466</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="18" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19421,7 +19543,7 @@
         <v>234</v>
       </c>
       <c r="BA18" s="3" t="s">
-        <v>466</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="19" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19546,7 +19668,7 @@
         <v>234</v>
       </c>
       <c r="BA19" s="3" t="s">
-        <v>466</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="20" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19671,7 +19793,7 @@
         <v>234</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="21" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19796,7 +19918,7 @@
         <v>234</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="22" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19921,7 +20043,7 @@
         <v>234</v>
       </c>
       <c r="BA22" s="3" t="s">
-        <v>466</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="23" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20046,7 +20168,7 @@
         <v>234</v>
       </c>
       <c r="BA23" s="3" t="s">
-        <v>466</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="24" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20171,7 +20293,7 @@
         <v>234</v>
       </c>
       <c r="BA24" s="3" t="s">
-        <v>466</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="25" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20296,7 +20418,7 @@
         <v>234</v>
       </c>
       <c r="BA25" s="3" t="s">
-        <v>466</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="26" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20421,7 +20543,7 @@
         <v>234</v>
       </c>
       <c r="BA26" s="3" t="s">
-        <v>466</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="27" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20546,7 +20668,7 @@
         <v>234</v>
       </c>
       <c r="BA27" s="3" t="s">
-        <v>466</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="28" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20671,7 +20793,7 @@
         <v>234</v>
       </c>
       <c r="BA28" s="3" t="s">
-        <v>466</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="29" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20796,7 +20918,7 @@
         <v>234</v>
       </c>
       <c r="BA29" s="3" t="s">
-        <v>466</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="30" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20921,7 +21043,7 @@
         <v>234</v>
       </c>
       <c r="BA30" s="3" t="s">
-        <v>466</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="31" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21046,7 +21168,7 @@
         <v>234</v>
       </c>
       <c r="BA31" s="3" t="s">
-        <v>466</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="32" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -70032,7 +70154,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BA406"/>
+  <autoFilter ref="A3:BA406" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -70041,7 +70163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -70413,7 +70535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -70687,10 +70809,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AH210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -88944,7 +89066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
